--- a/db/DB.xlsx
+++ b/db/DB.xlsx
@@ -1227,10 +1227,10 @@
         <v>0.0</v>
       </c>
       <c r="F12" s="3">
-        <v>-1.0</v>
+        <v>100.0</v>
       </c>
       <c r="G12" s="3">
-        <v>-1.0</v>
+        <v>100.0</v>
       </c>
       <c r="H12" s="3">
         <v>0.0</v>
@@ -1285,25 +1285,25 @@
         <v>31</v>
       </c>
       <c r="D14" s="5">
-        <v>-1.0</v>
+        <v>100.0</v>
       </c>
       <c r="E14" s="5">
-        <v>-1.0</v>
+        <v>100.0</v>
       </c>
       <c r="F14" s="5">
-        <v>-1.0</v>
+        <v>100.0</v>
       </c>
       <c r="G14" s="5">
-        <v>-1.0</v>
+        <v>100.0</v>
       </c>
       <c r="H14" s="5">
-        <v>-1.0</v>
+        <v>100.0</v>
       </c>
       <c r="I14" s="5">
-        <v>-1.0</v>
+        <v>100.0</v>
       </c>
       <c r="J14" s="5">
-        <v>-1.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="15">

--- a/db/DB.xlsx
+++ b/db/DB.xlsx
@@ -10,14 +10,14 @@
     <sheet state="visible" name="ejemplo" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">actividades!$A$1:$N$32</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">actividades!$A$1:$N$30</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="160">
   <si>
     <t>id</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>horasDomingo</t>
+  </si>
+  <si>
+    <t>Ejercicio</t>
+  </si>
+  <si>
+    <t>#ff8080</t>
   </si>
   <si>
     <t>Dios</t>
@@ -83,12 +89,6 @@
   </si>
   <si>
     <t>#660033</t>
-  </si>
-  <si>
-    <t>Ejercicio</t>
-  </si>
-  <si>
-    <t>#ff8080</t>
   </si>
   <si>
     <t>Transporte</t>
@@ -196,7 +196,7 @@
     <t>Creación de obra</t>
   </si>
   <si>
-    <t>¡Amor! De nuevo te propongo que para esta actividad la idea es que puedas crear mucha obra! ¡No pares de pintar y experimentar cosas nuevas! Haz una &lt;b&gt;pausa a tu curso de anatomía&lt;/b&gt; y dedícale un poco de tiempo a crear obra.&lt;/br&gt;&lt;/br&gt;Podrías comenzar a experimentar con el iPad en Procreate&lt;/br&gt;&lt;/br&gt;O bien, podrías fijarte en tu MoodboArt para inspiración!&lt;/br&gt;&lt;/br&gt;¡Acuérdate que Botero tenía en su colección privada suficientes obras para llenar un museo!</t>
+    <t>Preciosa, recuerda nunca parar de producir obra nueva. Puedes intentar aplicar algo de lo que has aprendido en tu curso de dibujo anatómico hasta ahora en una pieza. O bien, puedes buscar nueva inspiración. Te dejo tu moodboart.</t>
   </si>
   <si>
     <t>&lt;a target="_blank" href="./img/mood.png"&gt;&lt;img src="./img/mood.png" alt="Captura de pantalla del grupo MoodboArt en Waa" style="width:100%" /&gt;&lt;/a&gt;&lt;/br&gt;&lt;a target="_blank" href="./img/botero.jpg"&gt;&lt;img src="./img/botero.jpg" alt="Museo Botero" style="width:100%" /&gt;&lt;/a&gt;</t>
@@ -205,19 +205,28 @@
     <t>Reunión estrategia de contenido orientado a ventas</t>
   </si>
   <si>
-    <t>Agendar a tu chico (la semana después del 31 de mayo) para que nos vayamos pensando una estrategia de publicación y contenido en Entropía Cromática que sea centrada en ventas. ¡Podemos usar técnicas de funneling para esto! Voy a buscar videos que te puedan dar contexto.</t>
-  </si>
-  <si>
-    <t>Contenido: recordar que existo</t>
+    <t>Amor agenda a tu chico para que podamos crear una estrategia de contenido para Entropía Cromática que esté orientada a vender obra, al igual que a fortalecer tu marca. Puede ser la otra semana!</t>
   </si>
   <si>
     <t>Curso Palermo</t>
   </si>
   <si>
+    <t>¡Vida, mientras te aprueban apoyo financiero para el curso de ESG, podrías ir comenzando con el curso de la Universidad de Palermo! Está buenísimo que tengas así como tienes una cola de cursos en Domestika, una fila de cursos para tu perfil ESG 🤍 Te dejo el curso enlazado en la imagen.</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="https://www.coursera.org/learn/etica-gobierno-corporativo"&gt;&lt;img src="./img/palermo.png" alt="Captura de pantalla de curso universidad e palermo en coursera." style="width:100%" /&gt;&lt;/a&gt;&lt;/br&gt;&lt;a target="_blank" href="./img/botero.jpg"&gt;&lt;img src="./img/botero.jpg" alt="Museo Botero" style="width:100%" /&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Contenido: recordarles que existo</t>
+  </si>
+  <si>
+    <t>Por lo pronto comencemos los cursos. Pero ya nos iremos pensando en qué publicar en LinkedIn para recordarle al mundo que existes y eres una profesional valiosísima!</t>
+  </si>
+  <si>
     <t>Esperar respuesta Apoyo Financiero</t>
   </si>
   <si>
-    <t>Redactar el formulario de apoyo financiero para el curso de ESG en cousera. Te dejo los enlaces abajo corazón.</t>
+    <t>Tamos a la espera de este hasta junio 13.</t>
   </si>
   <si>
     <t>&lt;a target="_blank" href="./img/esg.png"&gt;&lt;img src="./img/esg.png" alt="Captura de pantalla del curso de ESG" style="width:100%" /&gt;&lt;/a&gt;</t>
@@ -233,54 +242,6 @@
   </si>
   <si>
     <t>https://drive.google.com/drive/folders/1Ml0LH5pWT8PSN9vOIenDOLFNdFwGW83Z?usp=sharing</t>
-  </si>
-  <si>
-    <t>Configurar colores</t>
-  </si>
-  <si>
-    <t>¡Amor! Todos los días yo renuevo los datos de tu board. Para configurar los colores sólo es necesario que en el excel que te comparto a continuación tú modifiques las columnas de color. Para escoger el código correspondiente puedes usar la herramienta de elección de color y copiar el hexadecimal.&lt;/br&gt;&lt;/br&gt;Los colores que debes modificar están en la pestaña "areas" y "actividades".</t>
-  </si>
-  <si>
-    <t>&lt;a target="_blank" href="./img/color.png"&gt;&lt;img src="./img/color.png" alt="Captura de pantalla de w3 color picker" style="width:100%" /&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excel de datos </t>
-  </si>
-  <si>
-    <t>https://docs.google.com/spreadsheets/d/15bKo-qgFv_W6fmUVCgoHzCvpWKCCsYjxDZL_QqOWxTc/edit?usp=sharing</t>
-  </si>
-  <si>
-    <t>Paleta de Colores</t>
-  </si>
-  <si>
-    <t>https://www.w3schools.com/colors/colors_picker.asp</t>
-  </si>
-  <si>
-    <t>Configurar actividades</t>
-  </si>
-  <si>
-    <t>Para configurar las actividades sólo debes editar en el excel la tabla en la pestaña "actividades". Tu novio carga todos los días los datos a la aplicación para que aparezcan.</t>
-  </si>
-  <si>
-    <t>&lt;a target="_blank" href="./img/actividades.png"&gt;&lt;img src="./img/actividades.png" alt="Captura de pantalla de tabla de actividades" style="width:100%" /&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Configurar áreas</t>
-  </si>
-  <si>
-    <t>En el excel en la pestaña areas puedes encontrar la información de las áreas. Tu novio actualiza los datos todos los días desde el excel para que te aparezcan de acuerdo a lo que pusiste. ¡Si tienes cualquier duda me puedes decir!</t>
-  </si>
-  <si>
-    <t>&lt;a target="_blank" href="./img/areas.png"&gt;&lt;img src="./img/areas.png" alt="Captura de pantalla de tabla de areas" style="width:100%" /&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Marco</t>
-  </si>
-  <si>
-    <t>Todo está alineado con el figma. Te lo dejo aquí.</t>
-  </si>
-  <si>
-    <t>&lt;a target="_blank" href="./img/board.png"&gt;&lt;img src="./img/board.png" alt="Captura de pantalla de baord de areas" style="width:100%" /&gt;&lt;/a&gt; &lt;/br&gt;&lt;/br&gt; &lt;a target="_blank" href="./img/board1.png"&gt;&lt;img src="./img/board1.png" alt="Captura de pantalla de baord de areas" style="width:100%" /&gt;&lt;/br&gt;&lt;/br&gt;&lt;a target="_blank" href="./img/board2.png"&gt;&lt;img src="./img/board2.png" alt="Captura de pantalla de baord de areas" style="width:100%" /&gt;&lt;/br&gt;&lt;/br&gt;&lt;a target="_blank" href="./img/board3.png"&gt;&lt;img src="./img/board3.png" alt="Captura de pantalla de baord de areas" style="width:100%" /&gt;&lt;/br&gt;&lt;/br&gt;&lt;a target="_blank" href="./img/board4.png"&gt;&lt;img src="./img/board4.png" alt="Captura de pantalla de baord de areas" style="width:100%" /&gt;&lt;/br&gt;&lt;/br&gt;</t>
   </si>
   <si>
     <t>Maqueta en baja libro infantil</t>
@@ -307,7 +268,16 @@
     <t>Mapear organizaciones</t>
   </si>
   <si>
-    <t>Corazón, como conversamos, dale a armar una tabla con algunas de las empresas que tienen programas de sostenibilidad que operan en Colombia sería maravilloso! &lt;b&gt;La idea es mapear toooodas las empresas que haya en Colombia con departamento de sostenibilidad&lt;/b&gt;. Si tú me ayudas con eso, yo puedo ayudarte renovando contactos por ese lado 🥰</t>
+    <t>¡Vida! dedícale porfitas un rato a armarte una tablita o un board de organizaciones que tienen departamentos de sostenibilidad en Colombia. Buscan en LinkedIn las empresas así como te muestro en la foto. &lt;u&gt;Concéntrate en buscar empresas hoy&lt;/u&gt;. Si encuentras oportunidades de trabajos que te gusten, las anotas para dedicarles tiempo mañana viernes 🥰&lt;b&gt;Hoy, concéntrate en buscar nombres de empresas&lt;/b&gt;. ¡Que sobre y no que falte! Toooodas en las que eventualmente te gustaría trabajar!&lt;/br&gt;&lt;/br&gt;¡También puedes buscar en las 100 empresas más grandes de Colombia! Te dejo el enlace abajo.</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="./img/empresas.png"&gt;&lt;img src="./img/empresas.png" alt="Captura de pantalla buscador de LinkedIn" style="width:100%" /&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>100 empresas más grandes de Colombia</t>
+  </si>
+  <si>
+    <t>https://www.larepublica.co/especiales/las-1-000-empresas-mas-grandes-de-2022/ecopetrol-lidera-las-100-empresas-mas-grandes-de-colombia-en-2022-3642520</t>
   </si>
   <si>
     <t>Columnas de la tabla de becas</t>
@@ -322,7 +292,10 @@
     <t>Gym</t>
   </si>
   <si>
-    <t>¡Hola hermosa! ¡Como ayer fuiste a la fundación, hoy puedes ir al Gym!</t>
+    <t>¡Hola hermosa! ¡Como ayer fuiste a la fundación, hoy puedes ir al Gym si quieres! Empieza tu día viendo influencers fit que te gusten y así te motivas!</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="./img/gym.png"&gt;&lt;img src="./img/gym.png" alt="Dos mujeres riéndose sentadas en el gym." style="width:100%" /&gt;&lt;/a&gt;&lt;/br&gt;&lt;a target="_blank" href="./img/botero.jpg"&gt;&lt;img src="./img/botero.jpg" alt="Museo Botero" style="width:100%" /&gt;&lt;/a&gt;</t>
   </si>
   <si>
     <t>Natación</t>
@@ -394,7 +367,70 @@
     <t>Imprimir tracker</t>
   </si>
   <si>
-    <t>¡Amor! ¡recuerda imprimir tu tracker para llenarlo!</t>
+    <t>Si no lo imprimiste ayer, recuerda imprimir tu tracker, puede ser de venida del gym amor.</t>
+  </si>
+  <si>
+    <t>Ideas para curso</t>
+  </si>
+  <si>
+    <t>Amor si tienes energía comienza a pensarte una propuesta de curso para ofrecer por Instagram como MVP. Piensa en un tipo de &lt;b&gt;experiencia + aprendizaje&lt;/b&gt;, en lugar de sólo aprendizaje. Puede ser en un café bonito experiencia tardeada, o un taller de dibujo anatómico en un entorno más "artsy" como una sala galería.&lt;/br&gt;&lt;/br&gt;Puedes hacer un brainstorming de ideas para &lt;u&gt;workshops de una tarde&lt;/u&gt; y otra de &lt;u&gt;cursos de varias sesiones&lt;/u&gt; con una habilidad clara en mente.</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="./img/workshop.png"&gt;&lt;img src="./img/workshop.png" alt="Personas pintando en un taller de una tarde." style="width:100%" /&gt;&lt;/a&gt;&lt;/br&gt;&lt;a target="_blank" href="./img/botero.jpg"&gt;&lt;img src="./img/botero.jpg" alt="Museo Botero" style="width:100%" /&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Buscar espacio y cotizarlo</t>
+  </si>
+  <si>
+    <t>La otra semana me pides el contacto de Jessica Held que me pasó Ángela. Ella es dueña de un café lindo. Y también podemos ir cotizando en lugares tipo hotel luxurious, o espcios galería independiente, etc.</t>
+  </si>
+  <si>
+    <t>Configurar colores</t>
+  </si>
+  <si>
+    <t>¡Amor! Todos los días yo renuevo los datos de tu board. Para configurar los colores sólo es necesario que en el excel que te comparto a continuación tú modifiques las columnas de color. Para escoger el código correspondiente puedes usar la herramienta de elección de color y copiar el hexadecimal.&lt;/br&gt;&lt;/br&gt;Los colores que debes modificar están en la pestaña "areas" y "actividades".</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="./img/color.png"&gt;&lt;img src="./img/color.png" alt="Captura de pantalla de w3 color picker" style="width:100%" /&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excel de datos </t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/15bKo-qgFv_W6fmUVCgoHzCvpWKCCsYjxDZL_QqOWxTc/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>Paleta de Colores</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/colors/colors_picker.asp</t>
+  </si>
+  <si>
+    <t>Configurar actividades</t>
+  </si>
+  <si>
+    <t>Para configurar las actividades sólo debes editar en el excel la tabla en la pestaña "actividades". Tu novio carga todos los días los datos a la aplicación para que aparezcan.</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="./img/actividades.png"&gt;&lt;img src="./img/actividades.png" alt="Captura de pantalla de tabla de actividades" style="width:100%" /&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Configurar áreas</t>
+  </si>
+  <si>
+    <t>En el excel en la pestaña areas puedes encontrar la información de las áreas. Tu novio actualiza los datos todos los días desde el excel para que te aparezcan de acuerdo a lo que pusiste. ¡Si tienes cualquier duda me puedes decir!</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="./img/areas.png"&gt;&lt;img src="./img/areas.png" alt="Captura de pantalla de tabla de areas" style="width:100%" /&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Marco</t>
+  </si>
+  <si>
+    <t>Todo está alineado con el figma. Te lo dejo aquí.</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="./img/board.png"&gt;&lt;img src="./img/board.png" alt="Captura de pantalla de baord de areas" style="width:100%" /&gt;&lt;/a&gt; &lt;/br&gt;&lt;/br&gt; &lt;a target="_blank" href="./img/board1.png"&gt;&lt;img src="./img/board1.png" alt="Captura de pantalla de baord de areas" style="width:100%" /&gt;&lt;/br&gt;&lt;/br&gt;&lt;a target="_blank" href="./img/board2.png"&gt;&lt;img src="./img/board2.png" alt="Captura de pantalla de baord de areas" style="width:100%" /&gt;&lt;/br&gt;&lt;/br&gt;&lt;a target="_blank" href="./img/board3.png"&gt;&lt;img src="./img/board3.png" alt="Captura de pantalla de baord de areas" style="width:100%" /&gt;&lt;/br&gt;&lt;/br&gt;&lt;a target="_blank" href="./img/board4.png"&gt;&lt;img src="./img/board4.png" alt="Captura de pantalla de baord de areas" style="width:100%" /&gt;&lt;/br&gt;&lt;/br&gt;</t>
   </si>
   <si>
     <t>Recuerda que tienes presupuestado tiempo un día a la semana para ofrecer servicio mi corazón. Aquí te dejo el presupuesto general. Puedes correrlo en cualquier día. Sólo lleva la cuenta.</t>
@@ -487,14 +523,14 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -554,15 +590,15 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -573,13 +609,13 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -588,16 +624,16 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -892,263 +928,263 @@
     </row>
     <row r="2">
       <c r="A2" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H2" s="3">
         <v>1.0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="I2" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4">
         <v>2.0</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E3" s="4">
         <v>2.0</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F3" s="4">
         <v>7.0</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G3" s="4">
         <v>0.0</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H3" s="4">
         <v>2.0</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I3" s="4">
         <v>1.0</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J3" s="4">
         <v>2.0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3">
+    <row r="4">
+      <c r="A4" s="4">
         <v>2.0</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4">
         <v>4.0</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E4" s="4">
         <v>0.0</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F4" s="4">
         <v>2.0</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G4" s="4">
         <v>0.0</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H4" s="4">
         <v>0.0</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I4" s="4">
         <v>0.0</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J4" s="4">
         <v>0.0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3">
+    <row r="5">
+      <c r="A5" s="4">
         <v>3.0</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="4">
         <v>2.0</v>
       </c>
-      <c r="E4" s="3">
+      <c r="H6" s="4">
         <v>0.0</v>
       </c>
-      <c r="F4" s="3">
+      <c r="I6" s="4">
         <v>0.0</v>
       </c>
-      <c r="G4" s="3">
+      <c r="J6" s="4">
         <v>0.0</v>
       </c>
-      <c r="H4" s="3">
+    </row>
+    <row r="7">
+      <c r="A7" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="4">
         <v>2.0</v>
       </c>
-      <c r="I4" s="3">
+      <c r="F7" s="4">
         <v>0.0</v>
       </c>
-      <c r="J4" s="3">
+      <c r="G7" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H7" s="4">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="I7" s="4">
         <v>0.0</v>
       </c>
-      <c r="E5" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="J7" s="4">
         <v>0.0</v>
       </c>
-      <c r="G5" s="3">
+    </row>
+    <row r="8">
+      <c r="A8" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="4">
         <v>2.0</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H8" s="4">
         <v>0.0</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I8" s="4">
         <v>0.0</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J8" s="4">
         <v>0.0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4" t="s">
+    <row r="9">
+      <c r="A9" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D9" s="4">
         <v>0.0</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="4">
         <v>2.0</v>
       </c>
-      <c r="F6" s="3">
+      <c r="H9" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J9" s="4">
         <v>0.0</v>
       </c>
-      <c r="G6" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3">
+    </row>
+    <row r="10">
+      <c r="A10" s="4">
         <v>8.0</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5">
-        <v>11.0</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>22</v>
@@ -1156,153 +1192,153 @@
       <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H11" s="3">
         <v>3.0</v>
       </c>
-      <c r="E10" s="5">
+      <c r="I11" s="3">
         <v>0.0</v>
       </c>
-      <c r="F10" s="5">
+      <c r="J11" s="3">
         <v>0.0</v>
       </c>
-      <c r="G10" s="5">
+    </row>
+    <row r="12">
+      <c r="A12" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E13" s="3">
         <v>3.0</v>
       </c>
-      <c r="H10" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I10" s="5">
+      <c r="F13" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I13" s="3">
         <v>3.0</v>
       </c>
-      <c r="J10" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5">
-        <v>12.0</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="J13" s="3">
         <v>3.0</v>
       </c>
-      <c r="I11" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3">
-        <v>9.0</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F12" s="3">
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3">
         <v>100.0</v>
       </c>
-      <c r="G12" s="3">
+      <c r="E14" s="3">
         <v>100.0</v>
       </c>
-      <c r="H12" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5">
-        <v>13.0</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="E13" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="I13" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="J13" s="5">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="F14" s="3">
         <v>100.0</v>
       </c>
-      <c r="E14" s="5">
+      <c r="G14" s="3">
         <v>100.0</v>
       </c>
-      <c r="F14" s="5">
+      <c r="H14" s="3">
         <v>100.0</v>
       </c>
-      <c r="G14" s="5">
+      <c r="I14" s="3">
         <v>100.0</v>
       </c>
-      <c r="H14" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="I14" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="J14" s="5">
+      <c r="J14" s="3">
         <v>100.0</v>
       </c>
     </row>
@@ -3066,7 +3102,7 @@
       <c r="Y1" s="10"/>
       <c r="Z1" s="10"/>
     </row>
-    <row r="2">
+    <row r="2" hidden="1">
       <c r="A2" s="11">
         <v>1.0</v>
       </c>
@@ -3080,7 +3116,7 @@
         <v>2.0</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>46</v>
@@ -3112,7 +3148,7 @@
       <c r="Y2" s="13"/>
       <c r="Z2" s="13"/>
     </row>
-    <row r="3">
+    <row r="3" hidden="1">
       <c r="A3" s="11">
         <v>1.0</v>
       </c>
@@ -3126,7 +3162,7 @@
         <v>3.0</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>46</v>
@@ -3154,7 +3190,7 @@
       <c r="Y3" s="13"/>
       <c r="Z3" s="13"/>
     </row>
-    <row r="4">
+    <row r="4" hidden="1">
       <c r="A4" s="11">
         <v>1.0</v>
       </c>
@@ -3168,7 +3204,7 @@
         <v>5.0</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>46</v>
@@ -3196,7 +3232,7 @@
       <c r="Y4" s="13"/>
       <c r="Z4" s="13"/>
     </row>
-    <row r="5">
+    <row r="5" hidden="1">
       <c r="A5" s="11">
         <v>1.0</v>
       </c>
@@ -3210,7 +3246,7 @@
         <v>4.0</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>46</v>
@@ -3238,7 +3274,7 @@
       <c r="Y5" s="13"/>
       <c r="Z5" s="13"/>
     </row>
-    <row r="6">
+    <row r="6" hidden="1">
       <c r="A6" s="11">
         <v>1.0</v>
       </c>
@@ -3252,7 +3288,7 @@
         <v>1.0</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>46</v>
@@ -3280,7 +3316,7 @@
       <c r="Y6" s="13"/>
       <c r="Z6" s="13"/>
     </row>
-    <row r="7" hidden="1">
+    <row r="7">
       <c r="A7" s="11">
         <v>4.0</v>
       </c>
@@ -3294,7 +3330,7 @@
         <v>1.0</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>46</v>
@@ -3324,7 +3360,7 @@
       <c r="Y7" s="13"/>
       <c r="Z7" s="13"/>
     </row>
-    <row r="8" hidden="1">
+    <row r="8">
       <c r="A8" s="11">
         <v>4.0</v>
       </c>
@@ -3338,7 +3374,7 @@
         <v>2.0</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>46</v>
@@ -3366,7 +3402,7 @@
       <c r="Y8" s="13"/>
       <c r="Z8" s="13"/>
     </row>
-    <row r="9" hidden="1">
+    <row r="9">
       <c r="A9" s="11">
         <v>5.0</v>
       </c>
@@ -3376,11 +3412,21 @@
       <c r="C9" s="11">
         <v>0.0</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="D9" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
@@ -3400,20 +3446,28 @@
       <c r="Y9" s="13"/>
       <c r="Z9" s="13"/>
     </row>
-    <row r="10" hidden="1">
+    <row r="10">
       <c r="A10" s="11">
         <v>5.0</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C10" s="11">
         <v>0.0</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -3434,12 +3488,12 @@
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
     </row>
-    <row r="11" hidden="1">
+    <row r="11">
       <c r="A11" s="11">
         <v>5.0</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C11" s="11">
         <v>0.0</v>
@@ -3448,28 +3502,28 @@
         <v>1.0</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
@@ -3486,43 +3540,39 @@
       <c r="Y11" s="13"/>
       <c r="Z11" s="13"/>
     </row>
-    <row r="12">
+    <row r="12" hidden="1">
       <c r="A12" s="11">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C12" s="11">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D12" s="11">
         <v>1.0</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>31</v>
+      <c r="E12" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12" s="15" t="s">
         <v>78</v>
       </c>
+      <c r="J12" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
@@ -3538,37 +3588,31 @@
       <c r="Y12" s="13"/>
       <c r="Z12" s="13"/>
     </row>
-    <row r="13">
+    <row r="13" hidden="1">
       <c r="A13" s="11">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C13" s="11">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D13" s="11">
         <v>2.0</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>31</v>
+      <c r="E13" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="I13" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>76</v>
-      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
@@ -3588,19 +3632,19 @@
     </row>
     <row r="14">
       <c r="A14" s="11">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>82</v>
       </c>
       <c r="C14" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D14" s="11">
         <v>1.0</v>
       </c>
-      <c r="D14" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>31</v>
+      <c r="E14" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>46</v>
@@ -3612,10 +3656,10 @@
         <v>84</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>76</v>
+        <v>85</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -3634,33 +3678,33 @@
       <c r="Y14" s="13"/>
       <c r="Z14" s="13"/>
     </row>
-    <row r="15">
+    <row r="15" hidden="1">
       <c r="A15" s="11">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C15" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D15" s="11">
         <v>1.0</v>
       </c>
-      <c r="D15" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>31</v>
+      <c r="E15" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="17"/>
+        <v>89</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
@@ -3680,10 +3724,10 @@
     </row>
     <row r="16">
       <c r="A16" s="11">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C16" s="11">
         <v>0.0</v>
@@ -3691,24 +3735,20 @@
       <c r="D16" s="11">
         <v>1.0</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>13</v>
+      <c r="E16" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="I16" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="H16" s="11" t="s">
         <v>92</v>
       </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
@@ -3728,7 +3768,7 @@
     </row>
     <row r="17">
       <c r="A17" s="11">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>93</v>
@@ -3739,8 +3779,8 @@
       <c r="D17" s="11">
         <v>2.0</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>13</v>
+      <c r="E17" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>46</v>
@@ -3748,9 +3788,9 @@
       <c r="G17" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
@@ -3768,9 +3808,9 @@
       <c r="Y17" s="13"/>
       <c r="Z17" s="13"/>
     </row>
-    <row r="18">
+    <row r="18" hidden="1">
       <c r="A18" s="11">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>95</v>
@@ -3781,15 +3821,13 @@
       <c r="D18" s="11">
         <v>1.0</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>15</v>
+      <c r="E18" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>96</v>
-      </c>
+      <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -3810,30 +3848,30 @@
       <c r="Y18" s="13"/>
       <c r="Z18" s="13"/>
     </row>
-    <row r="19">
+    <row r="19" hidden="1">
       <c r="A19" s="11">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="11">
         <v>0.0</v>
       </c>
       <c r="D19" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>21</v>
+        <v>0.0</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G19" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="16" t="s">
         <v>98</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>99</v>
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -3854,27 +3892,27 @@
       <c r="Y19" s="13"/>
       <c r="Z19" s="13"/>
     </row>
-    <row r="20">
+    <row r="20" hidden="1">
       <c r="A20" s="11">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C20" s="11">
         <v>0.0</v>
       </c>
       <c r="D20" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>23</v>
+        <v>3.0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
@@ -3896,27 +3934,27 @@
       <c r="Y20" s="13"/>
       <c r="Z20" s="13"/>
     </row>
-    <row r="21">
+    <row r="21" hidden="1">
       <c r="A21" s="11">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="11">
         <v>0.0</v>
       </c>
       <c r="D21" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>23</v>
+        <v>6.0</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
@@ -3940,10 +3978,10 @@
     </row>
     <row r="22" hidden="1">
       <c r="A22" s="11">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" s="11">
         <v>0.0</v>
@@ -3951,13 +3989,15 @@
       <c r="D22" s="11">
         <v>1.0</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>25</v>
+      <c r="E22" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="13"/>
+      <c r="G22" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
@@ -3978,7 +4018,7 @@
       <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
     </row>
-    <row r="23">
+    <row r="23" hidden="1">
       <c r="A23" s="11">
         <v>13.0</v>
       </c>
@@ -3989,9 +4029,9 @@
         <v>0.0</v>
       </c>
       <c r="D23" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="E23" s="5" t="s">
+        <v>4.0</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F23" s="11" t="s">
@@ -4000,9 +4040,7 @@
       <c r="G23" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="H23" s="17" t="s">
-        <v>107</v>
-      </c>
+      <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
@@ -4022,27 +4060,27 @@
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
     </row>
-    <row r="24">
+    <row r="24" hidden="1">
       <c r="A24" s="11">
         <v>13.0</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" s="11">
         <v>0.0</v>
       </c>
       <c r="D24" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="E24" s="5" t="s">
+        <v>5.0</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
@@ -4064,27 +4102,27 @@
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
     </row>
-    <row r="25">
+    <row r="25" hidden="1">
       <c r="A25" s="11">
         <v>13.0</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25" s="11">
         <v>0.0</v>
       </c>
       <c r="D25" s="11">
-        <v>6.0</v>
-      </c>
-      <c r="E25" s="5" t="s">
+        <v>2.0</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
@@ -4106,27 +4144,27 @@
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
     </row>
-    <row r="26">
+    <row r="26" hidden="1">
       <c r="A26" s="11">
         <v>13.0</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C26" s="11">
         <v>0.0</v>
       </c>
       <c r="D26" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E26" s="5" t="s">
+        <v>7.0</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
@@ -4148,27 +4186,27 @@
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
     </row>
-    <row r="27">
+    <row r="27" hidden="1">
       <c r="A27" s="11">
         <v>13.0</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C27" s="11">
         <v>0.0</v>
       </c>
       <c r="D27" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="E27" s="5" t="s">
+        <v>8.0</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
@@ -4192,25 +4230,25 @@
     </row>
     <row r="28">
       <c r="A28" s="11">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C28" s="11">
         <v>0.0</v>
       </c>
       <c r="D28" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>29</v>
+        <v>1.0</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
@@ -4234,27 +4272,29 @@
     </row>
     <row r="29">
       <c r="A29" s="11">
-        <v>13.0</v>
+        <v>7.0</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C29" s="11">
         <v>0.0</v>
       </c>
       <c r="D29" s="11">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G29" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H29" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="H29" s="13"/>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
@@ -4276,7 +4316,7 @@
     </row>
     <row r="30">
       <c r="A30" s="11">
-        <v>13.0</v>
+        <v>7.0</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>120</v>
@@ -4285,10 +4325,10 @@
         <v>0.0</v>
       </c>
       <c r="D30" s="11">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>46</v>
@@ -4296,7 +4336,7 @@
       <c r="G30" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="H30" s="13"/>
+      <c r="H30" s="11"/>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
@@ -4318,19 +4358,19 @@
     </row>
     <row r="31">
       <c r="A31" s="11">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>122</v>
       </c>
       <c r="C31" s="11">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D31" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>29</v>
+        <v>1.0</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>46</v>
@@ -4338,11 +4378,21 @@
       <c r="G31" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
+      <c r="H31" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>128</v>
+      </c>
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
       <c r="O31" s="13"/>
@@ -4360,29 +4410,35 @@
     </row>
     <row r="32">
       <c r="A32" s="11">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C32" s="11">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D32" s="11">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G32" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="I32" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
+      <c r="J32" s="17" t="s">
+        <v>126</v>
+      </c>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
@@ -4401,16 +4457,36 @@
       <c r="Z32" s="13"/>
     </row>
     <row r="33">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
+      <c r="A33" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="D33" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>126</v>
+      </c>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
@@ -4429,8 +4505,32 @@
       <c r="Z33" s="13"/>
     </row>
     <row r="34">
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
+      <c r="A34" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="D34" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="16"/>
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
@@ -4449,12 +4549,13 @@
       <c r="Z34" s="13"/>
     </row>
     <row r="35">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
@@ -31635,102 +31736,16 @@
       <c r="Y1005" s="13"/>
       <c r="Z1005" s="13"/>
     </row>
-    <row r="1006">
-      <c r="A1006" s="13"/>
-      <c r="B1006" s="13"/>
-      <c r="C1006" s="13"/>
-      <c r="D1006" s="13"/>
-      <c r="E1006" s="13"/>
-      <c r="F1006" s="13"/>
-      <c r="G1006" s="13"/>
-      <c r="H1006" s="13"/>
-      <c r="I1006" s="13"/>
-      <c r="J1006" s="13"/>
-      <c r="K1006" s="13"/>
-      <c r="L1006" s="13"/>
-      <c r="M1006" s="13"/>
-      <c r="N1006" s="13"/>
-      <c r="O1006" s="13"/>
-      <c r="P1006" s="13"/>
-      <c r="Q1006" s="13"/>
-      <c r="R1006" s="13"/>
-      <c r="S1006" s="13"/>
-      <c r="T1006" s="13"/>
-      <c r="U1006" s="13"/>
-      <c r="V1006" s="13"/>
-      <c r="W1006" s="13"/>
-      <c r="X1006" s="13"/>
-      <c r="Y1006" s="13"/>
-      <c r="Z1006" s="13"/>
-    </row>
-    <row r="1007">
-      <c r="A1007" s="13"/>
-      <c r="B1007" s="13"/>
-      <c r="C1007" s="13"/>
-      <c r="D1007" s="13"/>
-      <c r="E1007" s="13"/>
-      <c r="F1007" s="13"/>
-      <c r="G1007" s="13"/>
-      <c r="H1007" s="13"/>
-      <c r="I1007" s="13"/>
-      <c r="J1007" s="13"/>
-      <c r="K1007" s="13"/>
-      <c r="L1007" s="13"/>
-      <c r="M1007" s="13"/>
-      <c r="N1007" s="13"/>
-      <c r="O1007" s="13"/>
-      <c r="P1007" s="13"/>
-      <c r="Q1007" s="13"/>
-      <c r="R1007" s="13"/>
-      <c r="S1007" s="13"/>
-      <c r="T1007" s="13"/>
-      <c r="U1007" s="13"/>
-      <c r="V1007" s="13"/>
-      <c r="W1007" s="13"/>
-      <c r="X1007" s="13"/>
-      <c r="Y1007" s="13"/>
-      <c r="Z1007" s="13"/>
-    </row>
-    <row r="1008">
-      <c r="A1008" s="13"/>
-      <c r="B1008" s="13"/>
-      <c r="C1008" s="13"/>
-      <c r="D1008" s="13"/>
-      <c r="E1008" s="13"/>
-      <c r="F1008" s="13"/>
-      <c r="G1008" s="13"/>
-      <c r="H1008" s="13"/>
-      <c r="I1008" s="13"/>
-      <c r="J1008" s="13"/>
-      <c r="K1008" s="13"/>
-      <c r="L1008" s="13"/>
-      <c r="M1008" s="13"/>
-      <c r="N1008" s="13"/>
-      <c r="O1008" s="13"/>
-      <c r="P1008" s="13"/>
-      <c r="Q1008" s="13"/>
-      <c r="R1008" s="13"/>
-      <c r="S1008" s="13"/>
-      <c r="T1008" s="13"/>
-      <c r="U1008" s="13"/>
-      <c r="V1008" s="13"/>
-      <c r="W1008" s="13"/>
-      <c r="X1008" s="13"/>
-      <c r="Y1008" s="13"/>
-      <c r="Z1008" s="13"/>
-    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$N$32">
+  <autoFilter ref="$A$1:$N$30">
     <filterColumn colId="0">
       <filters>
         <filter val="11"/>
-        <filter val="1"/>
-        <filter val="2"/>
-        <filter val="13"/>
+        <filter val="4"/>
+        <filter val="5"/>
         <filter val="6"/>
-        <filter val="8"/>
+        <filter val="7"/>
         <filter val="9"/>
-        <filter val="10"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -31739,12 +31754,13 @@
     <hyperlink r:id="rId2" ref="J11"/>
     <hyperlink r:id="rId3" ref="L11"/>
     <hyperlink r:id="rId4" ref="J12"/>
-    <hyperlink r:id="rId5" ref="L12"/>
-    <hyperlink r:id="rId6" ref="J13"/>
-    <hyperlink r:id="rId7" ref="J14"/>
-    <hyperlink r:id="rId8" ref="J16"/>
+    <hyperlink r:id="rId5" ref="J14"/>
+    <hyperlink r:id="rId6" ref="J31"/>
+    <hyperlink r:id="rId7" ref="L31"/>
+    <hyperlink r:id="rId8" ref="J32"/>
+    <hyperlink r:id="rId9" ref="J33"/>
   </hyperlinks>
-  <drawing r:id="rId9"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -31794,418 +31810,418 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1.0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="D11" s="3">
         <v>3.0</v>
       </c>
-      <c r="G2" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="E11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H11" s="3">
         <v>1.0</v>
       </c>
-      <c r="J2" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="I11" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J11" s="3">
         <v>0.0</v>
       </c>
-      <c r="F3" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="G3" s="3">
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3">
         <v>0.0</v>
       </c>
-      <c r="H3" s="3">
+      <c r="E12" s="3">
         <v>0.0</v>
       </c>
-      <c r="I3" s="3">
+      <c r="F12" s="3">
         <v>0.0</v>
       </c>
-      <c r="J3" s="3">
+      <c r="G12" s="3">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3">
+      <c r="H12" s="3">
         <v>3.0</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="I12" s="3">
         <v>0.0</v>
       </c>
-      <c r="F4" s="3">
+      <c r="J12" s="3">
         <v>0.0</v>
       </c>
-      <c r="G4" s="3">
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="3">
         <v>0.0</v>
       </c>
-      <c r="H4" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="E14" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F14" s="3">
         <v>0.0</v>
       </c>
-      <c r="J4" s="3">
+      <c r="G14" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H14" s="3">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5">
-        <v>11.0</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="I14" s="3">
         <v>3.0</v>
       </c>
-      <c r="E11" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I11" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="5">
-        <v>12.0</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H12" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="H13" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I13" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="J13" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="E14" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="G14" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="I14" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="J14" s="5">
+      <c r="J14" s="3">
         <v>3.0</v>
       </c>
     </row>
@@ -33953,29 +33969,29 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>1.0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>0.0</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>2.0</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>127</v>
+      <c r="G2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -34000,147 +34016,147 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>2.0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="4">
         <v>0.0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>1.0</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>131</v>
+      <c r="G2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="N2" s="19"/>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2.0</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="4">
         <v>1.0</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>2.0</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>136</v>
+      <c r="G3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
     </row>
     <row r="4">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>2.0</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="4">
         <v>0.0</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>3.0</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>141</v>
+      <c r="G4" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
@@ -34148,103 +34164,103 @@
       <c r="N4" s="19"/>
     </row>
     <row r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>5.0</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="4">
         <v>0.0</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>1.0</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>131</v>
+      <c r="G5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="N5" s="19"/>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>5.0</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="4">
         <v>1.0</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>2.0</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>136</v>
+      <c r="G6" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
     </row>
     <row r="7">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>7.0</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="4">
         <v>0.0</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>3.0</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>141</v>
+      <c r="G7" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
@@ -34252,54 +34268,54 @@
       <c r="N7" s="19"/>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>9.0</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="4">
         <v>0.0</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>1.0</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>145</v>
+      <c r="G8" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>1.0</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>0.0</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>1.0</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="G9" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>48</v>
       </c>
       <c r="J9" s="18" t="s">
@@ -34311,26 +34327,26 @@
       <c r="N9" s="19"/>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>1.0</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>0.0</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>2.0</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>147</v>
+      <c r="G10" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>

--- a/db/DB.xlsx
+++ b/db/DB.xlsx
@@ -97,16 +97,16 @@
     <t>#00e6ac</t>
   </si>
   <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>#99004d</t>
+  </si>
+  <si>
     <t>Estrategia con mi chico</t>
   </si>
   <si>
     <t>#2a0080</t>
-  </si>
-  <si>
-    <t>Extra</t>
-  </si>
-  <si>
-    <t>#99004d</t>
   </si>
   <si>
     <t>Configuraciones</t>
@@ -214,7 +214,7 @@
     <t>¡Vida, mientras te aprueban apoyo financiero para el curso de ESG, podrías ir comenzando con el curso de la Universidad de Palermo! Está buenísimo que tengas así como tienes una cola de cursos en Domestika, una fila de cursos para tu perfil ESG 🤍 Te dejo el curso enlazado en la imagen.</t>
   </si>
   <si>
-    <t>&lt;a target="_blank" href="https://www.coursera.org/learn/etica-gobierno-corporativo"&gt;&lt;img src="./img/palermo.png" alt="Captura de pantalla de curso universidad e palermo en coursera." style="width:100%" /&gt;&lt;/a&gt;&lt;/br&gt;&lt;a target="_blank" href="./img/botero.jpg"&gt;&lt;img src="./img/botero.jpg" alt="Museo Botero" style="width:100%" /&gt;&lt;/a&gt;</t>
+    <t>&lt;a target="_blank" href="https://www.coursera.org/learn/etica-gobierno-corporativo"&gt;&lt;img src="./img/palermo.png" alt="Captura de pantalla de curso universidad e palermo en coursera." style="width:100%" /&gt;&lt;/a&gt;</t>
   </si>
   <si>
     <t>Contenido: recordarles que existo</t>
@@ -295,7 +295,7 @@
     <t>¡Hola hermosa! ¡Como ayer fuiste a la fundación, hoy puedes ir al Gym si quieres! Empieza tu día viendo influencers fit que te gusten y así te motivas!</t>
   </si>
   <si>
-    <t>&lt;a target="_blank" href="./img/gym.png"&gt;&lt;img src="./img/gym.png" alt="Dos mujeres riéndose sentadas en el gym." style="width:100%" /&gt;&lt;/a&gt;&lt;/br&gt;&lt;a target="_blank" href="./img/botero.jpg"&gt;&lt;img src="./img/botero.jpg" alt="Museo Botero" style="width:100%" /&gt;&lt;/a&gt;</t>
+    <t>&lt;a target="_blank" href="./img/gym.png"&gt;&lt;img src="./img/gym.png" alt="Dos mujeres riéndose sentadas en el gym." style="width:100%" /&gt;&lt;/a&gt;&lt;/br&gt;</t>
   </si>
   <si>
     <t>Natación</t>
@@ -310,7 +310,7 @@
     <t>Curso de dibujo anatómico</t>
   </si>
   <si>
-    <t>Si quieres hoy en particular dedicarle 2 horitas a esto ya que no tuviste más tiempo de proyectos porque fue festivo el lúnes, perfect. Lo que prefieras.</t>
+    <t>Hoy tienes una horita para lo que quieras porque no fuiste a gym.</t>
   </si>
   <si>
     <t>&lt;a target="_blank" href="https://www.domestika.org/es/courses/area/184-dibujo-anatomico"&gt;&lt;img src="./img/dibujo.png" alt="Imágen del curso de dibujo anatómico en domestika" style="width:100%" /&gt;&lt;/a&gt;</t>
@@ -319,19 +319,31 @@
     <t>Lectura</t>
   </si>
   <si>
-    <t>Te quedan dos horitas para usar en cositas extra hoy. Así que está perfecto si quieres dedicar a leer un ratito.</t>
+    <t>Puedes leer si quieres.</t>
+  </si>
+  <si>
+    <t>Journaling</t>
+  </si>
+  <si>
+    <t>También puedes escribir en tu journal.</t>
+  </si>
+  <si>
+    <t>Tiempo con mi chico</t>
+  </si>
+  <si>
+    <t>Ay hoy tu chico está por la U, TE EXTRAÑOOO</t>
   </si>
   <si>
     <t>Ocio</t>
   </si>
   <si>
-    <t>También podrías ver peli o algo así si te sientes con hambrecita de ocio.</t>
+    <t>Ver una peli no tanto, porque sólo tienes una horita.</t>
   </si>
   <si>
     <t>Baile</t>
   </si>
   <si>
-    <t>Depronto hoy no.</t>
+    <t>Hoy tampoco creería.</t>
   </si>
   <si>
     <t>Arpa</t>
@@ -352,18 +364,6 @@
     <t>Para después.</t>
   </si>
   <si>
-    <t>Journaling</t>
-  </si>
-  <si>
-    <t>Súper si quieres más bien escribir en tu journal.</t>
-  </si>
-  <si>
-    <t>Tiempo con mi chico</t>
-  </si>
-  <si>
-    <t>Ay hoy tu chico está por la U, TE EXTRAÑOOO</t>
-  </si>
-  <si>
     <t>Imprimir tracker</t>
   </si>
   <si>
@@ -376,7 +376,7 @@
     <t>Amor si tienes energía comienza a pensarte una propuesta de curso para ofrecer por Instagram como MVP. Piensa en un tipo de &lt;b&gt;experiencia + aprendizaje&lt;/b&gt;, en lugar de sólo aprendizaje. Puede ser en un café bonito experiencia tardeada, o un taller de dibujo anatómico en un entorno más "artsy" como una sala galería.&lt;/br&gt;&lt;/br&gt;Puedes hacer un brainstorming de ideas para &lt;u&gt;workshops de una tarde&lt;/u&gt; y otra de &lt;u&gt;cursos de varias sesiones&lt;/u&gt; con una habilidad clara en mente.</t>
   </si>
   <si>
-    <t>&lt;a target="_blank" href="./img/workshop.png"&gt;&lt;img src="./img/workshop.png" alt="Personas pintando en un taller de una tarde." style="width:100%" /&gt;&lt;/a&gt;&lt;/br&gt;&lt;a target="_blank" href="./img/botero.jpg"&gt;&lt;img src="./img/botero.jpg" alt="Museo Botero" style="width:100%" /&gt;&lt;/a&gt;</t>
+    <t>&lt;a target="_blank" href="./img/workshop.png"&gt;&lt;img src="./img/workshop.png" alt="Personas pintando en un taller de una tarde." style="width:100%" /&gt;&lt;/a&gt;</t>
   </si>
   <si>
     <t>Buscar espacio y cotizarlo</t>
@@ -946,7 +946,7 @@
         <v>0.0</v>
       </c>
       <c r="G2" s="3">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H2" s="3">
         <v>1.0</v>
@@ -1247,67 +1247,67 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4">
         <v>9.0</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="B13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="4">
         <v>0.0</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E13" s="4">
         <v>0.0</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F13" s="4">
         <v>100.0</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G13" s="4">
         <v>100.0</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H13" s="4">
         <v>0.0</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I13" s="4">
         <v>0.0</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J13" s="4">
         <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3">
-        <v>13.0</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>3.0</v>
       </c>
     </row>
     <row r="14">
@@ -3848,7 +3848,7 @@
       <c r="Y18" s="13"/>
       <c r="Z18" s="13"/>
     </row>
-    <row r="19" hidden="1">
+    <row r="19">
       <c r="A19" s="11">
         <v>13.0</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>0.0</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>46</v>
@@ -3892,7 +3892,7 @@
       <c r="Y19" s="13"/>
       <c r="Z19" s="13"/>
     </row>
-    <row r="20" hidden="1">
+    <row r="20">
       <c r="A20" s="11">
         <v>13.0</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>3.0</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>46</v>
@@ -3934,7 +3934,7 @@
       <c r="Y20" s="13"/>
       <c r="Z20" s="13"/>
     </row>
-    <row r="21" hidden="1">
+    <row r="21">
       <c r="A21" s="11">
         <v>13.0</v>
       </c>
@@ -3945,10 +3945,10 @@
         <v>0.0</v>
       </c>
       <c r="D21" s="11">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>46</v>
@@ -3976,7 +3976,7 @@
       <c r="Y21" s="13"/>
       <c r="Z21" s="13"/>
     </row>
-    <row r="22" hidden="1">
+    <row r="22">
       <c r="A22" s="11">
         <v>13.0</v>
       </c>
@@ -3987,10 +3987,10 @@
         <v>0.0</v>
       </c>
       <c r="D22" s="11">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>46</v>
@@ -4018,7 +4018,7 @@
       <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
     </row>
-    <row r="23" hidden="1">
+    <row r="23">
       <c r="A23" s="11">
         <v>13.0</v>
       </c>
@@ -4029,10 +4029,10 @@
         <v>0.0</v>
       </c>
       <c r="D23" s="11">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>46</v>
@@ -4060,7 +4060,7 @@
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
     </row>
-    <row r="24" hidden="1">
+    <row r="24">
       <c r="A24" s="11">
         <v>13.0</v>
       </c>
@@ -4071,10 +4071,10 @@
         <v>0.0</v>
       </c>
       <c r="D24" s="11">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>46</v>
@@ -4102,7 +4102,7 @@
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
     </row>
-    <row r="25" hidden="1">
+    <row r="25">
       <c r="A25" s="11">
         <v>13.0</v>
       </c>
@@ -4113,10 +4113,10 @@
         <v>0.0</v>
       </c>
       <c r="D25" s="11">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>46</v>
@@ -4144,7 +4144,7 @@
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
     </row>
-    <row r="26" hidden="1">
+    <row r="26">
       <c r="A26" s="11">
         <v>13.0</v>
       </c>
@@ -4155,10 +4155,10 @@
         <v>0.0</v>
       </c>
       <c r="D26" s="11">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>46</v>
@@ -4186,7 +4186,7 @@
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
     </row>
-    <row r="27" hidden="1">
+    <row r="27">
       <c r="A27" s="11">
         <v>13.0</v>
       </c>
@@ -4197,10 +4197,10 @@
         <v>0.0</v>
       </c>
       <c r="D27" s="11">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>46</v>
@@ -4242,7 +4242,7 @@
         <v>1.0</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>46</v>
@@ -31741,6 +31741,7 @@
     <filterColumn colId="0">
       <filters>
         <filter val="11"/>
+        <filter val="13"/>
         <filter val="4"/>
         <filter val="5"/>
         <filter val="6"/>
@@ -32070,10 +32071,10 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="4">
         <v>0.0</v>
@@ -32198,10 +32199,10 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="3">
         <v>0.0</v>
@@ -34281,7 +34282,7 @@
         <v>1.0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>46</v>

--- a/db/DB.xlsx
+++ b/db/DB.xlsx
@@ -10,14 +10,14 @@
     <sheet state="visible" name="ejemplo" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">actividades!$A$1:$N$30</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">actividades!$A$1:$N$37</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="173">
   <si>
     <t>id</t>
   </si>
@@ -115,6 +115,12 @@
     <t>#009999</t>
   </si>
   <si>
+    <t>Ajedrez</t>
+  </si>
+  <si>
+    <t>#333333</t>
+  </si>
+  <si>
     <t>idArea</t>
   </si>
   <si>
@@ -160,7 +166,7 @@
     <t>white</t>
   </si>
   <si>
-    <t>¡Hola preciosa! Como hoy tienes fundación y servicio, eso es algo atípico que se te junten los dos; entonces mañana puedes dedicar tiempo a las demás cosas que ibas a dedicar tiempo hoy. Yo ya hice los intercambios de horas para esta semana. Te amo!</t>
+    <t>Hola corazón. Hoy tienes alabanza por la tardecita. Te amo preciosa.</t>
   </si>
   <si>
     <t>Horarios y sedes IDMJI</t>
@@ -169,28 +175,28 @@
     <t>https://idmji.org/direcciones/</t>
   </si>
   <si>
+    <t>Oración y lectura</t>
+  </si>
+  <si>
+    <t>Trata de llegar tempranito para orar y leer un tris amada mía.</t>
+  </si>
+  <si>
     <t>Servicio</t>
   </si>
   <si>
-    <t>¡Estoy muy orgulloso de tí amor! hoy estás presetando mucho servicio a Dios.</t>
+    <t>Esta semanita fuiste muy dispuesta, gran trabajo amor.</t>
   </si>
   <si>
     <t>Fundación</t>
   </si>
   <si>
-    <t>Yo se que hoy también vas a la fundación. Te amo! espero que te vaya super y te compres una lasañita.</t>
+    <t>Lo que has hecho por la fundación también me parece precioso.</t>
   </si>
   <si>
     <t>IDMJI-EN</t>
   </si>
   <si>
     <t>Estos son los sábados.</t>
-  </si>
-  <si>
-    <t>Oración y lectura</t>
-  </si>
-  <si>
-    <t>Hoy estás llenita de servicio, está bien si oras nada más un tantito cuando llegues a la i.</t>
   </si>
   <si>
     <t>Creación de obra</t>
@@ -268,7 +274,7 @@
     <t>Mapear organizaciones</t>
   </si>
   <si>
-    <t>¡Vida! dedícale porfitas un rato a armarte una tablita o un board de organizaciones que tienen departamentos de sostenibilidad en Colombia. Buscan en LinkedIn las empresas así como te muestro en la foto. &lt;u&gt;Concéntrate en buscar empresas hoy&lt;/u&gt;. Si encuentras oportunidades de trabajos que te gusten, las anotas para dedicarles tiempo mañana viernes 🥰&lt;b&gt;Hoy, concéntrate en buscar nombres de empresas&lt;/b&gt;. ¡Que sobre y no que falte! Toooodas en las que eventualmente te gustaría trabajar!&lt;/br&gt;&lt;/br&gt;¡También puedes buscar en las 100 empresas más grandes de Colombia! Te dejo el enlace abajo.</t>
+    <t>Preciosa, mientras haces lo de mapear vacantes, ve armando la tablita o el board de organizaciones que tienen departamentos de sostenibilidad en Colombia. Buscan en LinkedIn las empresas así como te muestro en la foto. ¡Que sobre y no que falte! Toooodas en las que eventualmente te gustaría trabajar ponlas!&lt;/br&gt;&lt;/br&gt;¡También puedes buscar en las 100 empresas más grandes de Colombia! Te dejo el enlace abajo.</t>
   </si>
   <si>
     <t>&lt;a target="_blank" href="./img/empresas.png"&gt;&lt;img src="./img/empresas.png" alt="Captura de pantalla buscador de LinkedIn" style="width:100%" /&gt;&lt;/a&gt;</t>
@@ -310,7 +316,7 @@
     <t>Curso de dibujo anatómico</t>
   </si>
   <si>
-    <t>Hoy tienes una horita para lo que quieras porque no fuiste a gym.</t>
+    <t>Si quieres, como te veo muy engomada, puedes dedicar tiempo extra a esto, o lo que prefieras amor.</t>
   </si>
   <si>
     <t>&lt;a target="_blank" href="https://www.domestika.org/es/courses/area/184-dibujo-anatomico"&gt;&lt;img src="./img/dibujo.png" alt="Imágen del curso de dibujo anatómico en domestika" style="width:100%" /&gt;&lt;/a&gt;</t>
@@ -319,7 +325,10 @@
     <t>Lectura</t>
   </si>
   <si>
-    <t>Puedes leer si quieres.</t>
+    <t>¡Ve buscando qué libro te gustaría leer! Si quieres, la otra semana vamos a la biblioteca de la U y pides prestado el libro que quieras!&lt;/br&gt;&lt;/br&gt; Te dejo enlazado en la imágen la página de la biblioteca.</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="https://biblioteca.uniandes.edu.co/"&gt;&lt;img src="./img/leer.jpg" alt="Mujer leyendo en la ventana." style="width:100%" /&gt;&lt;/a&gt;</t>
   </si>
   <si>
     <t>Journaling</t>
@@ -331,25 +340,25 @@
     <t>Tiempo con mi chico</t>
   </si>
   <si>
-    <t>Ay hoy tu chico está por la U, TE EXTRAÑOOO</t>
+    <t>Hoy ño creo que nus veamus :'(</t>
   </si>
   <si>
     <t>Ocio</t>
   </si>
   <si>
-    <t>Ver una peli no tanto, porque sólo tienes una horita.</t>
+    <t>Tienes tiempo si quieres ver algo en streaming hoy.</t>
   </si>
   <si>
     <t>Baile</t>
   </si>
   <si>
-    <t>Hoy tampoco creería.</t>
+    <t>Podrías ver qué clases hay hoy, si no se te cruza con la i.</t>
   </si>
   <si>
     <t>Arpa</t>
   </si>
   <si>
-    <t>Cuando venga migue reparas la cuerda del arpa.</t>
+    <t>Esa pieza nueva está preciosaaaaaaaaa</t>
   </si>
   <si>
     <t>Salir con amigos</t>
@@ -373,7 +382,7 @@
     <t>Ideas para curso</t>
   </si>
   <si>
-    <t>Amor si tienes energía comienza a pensarte una propuesta de curso para ofrecer por Instagram como MVP. Piensa en un tipo de &lt;b&gt;experiencia + aprendizaje&lt;/b&gt;, en lugar de sólo aprendizaje. Puede ser en un café bonito experiencia tardeada, o un taller de dibujo anatómico en un entorno más "artsy" como una sala galería.&lt;/br&gt;&lt;/br&gt;Puedes hacer un brainstorming de ideas para &lt;u&gt;workshops de una tarde&lt;/u&gt; y otra de &lt;u&gt;cursos de varias sesiones&lt;/u&gt; con una habilidad clara en mente.</t>
+    <t>Como ayer estuviste sólamente trabajando en obra, hoy puedes dedicar un tiempo a pensarte una propuesta de curso para ofrecer por Instagram como MVP. Piensa en un tipo de &lt;b&gt;experiencia + aprendizaje&lt;/b&gt;, en lugar de sólo aprendizaje. Puede ser en un café bonito experiencia tardeada, o un taller de dibujo anatómico en un entorno más "artsy" como una sala galería.&lt;/br&gt;&lt;/br&gt;Puedes hacer un brainstorming de ideas para &lt;u&gt;workshops de una tarde&lt;/u&gt; y otra de &lt;u&gt;cursos de varias sesiones&lt;/u&gt; con una habilidad clara en mente.</t>
   </si>
   <si>
     <t>&lt;a target="_blank" href="./img/workshop.png"&gt;&lt;img src="./img/workshop.png" alt="Personas pintando en un taller de una tarde." style="width:100%" /&gt;&lt;/a&gt;</t>
@@ -431,6 +440,36 @@
   </si>
   <si>
     <t>&lt;a target="_blank" href="./img/board.png"&gt;&lt;img src="./img/board.png" alt="Captura de pantalla de baord de areas" style="width:100%" /&gt;&lt;/a&gt; &lt;/br&gt;&lt;/br&gt; &lt;a target="_blank" href="./img/board1.png"&gt;&lt;img src="./img/board1.png" alt="Captura de pantalla de baord de areas" style="width:100%" /&gt;&lt;/br&gt;&lt;/br&gt;&lt;a target="_blank" href="./img/board2.png"&gt;&lt;img src="./img/board2.png" alt="Captura de pantalla de baord de areas" style="width:100%" /&gt;&lt;/br&gt;&lt;/br&gt;&lt;a target="_blank" href="./img/board3.png"&gt;&lt;img src="./img/board3.png" alt="Captura de pantalla de baord de areas" style="width:100%" /&gt;&lt;/br&gt;&lt;/br&gt;&lt;a target="_blank" href="./img/board4.png"&gt;&lt;img src="./img/board4.png" alt="Captura de pantalla de baord de areas" style="width:100%" /&gt;&lt;/br&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>Identify hanging pieces</t>
+  </si>
+  <si>
+    <t>#cccccc</t>
+  </si>
+  <si>
+    <t>#404040</t>
+  </si>
+  <si>
+    <t>Amor, una pieza indefensa o hanging piece es una pieza que no está siendo defendida por nadie. La competencia que vamos a entrenar es que identifiques esas piezas en cada turno que tengas.</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="https://www.chess.com/terms/hanging-piece-chess#:~:text=A%20hanging%20piece%20is%20a,for%20being%20exposed%20to%20capture)."&gt;&lt;img src="./img/chess1.png" alt="Hanging bishop in board." style="width:100%" /&gt;&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>Mapear vacantes en LinkedIn</t>
+  </si>
+  <si>
+    <t>¡Amada! Hoy haz trabajo simultáneo de esto y de fortalecimiento de red.&lt;/br&gt;&lt;/br&gt;Te propongo que para aplicaciones busques (sólo mapear por ahora, y la otra semana aplicas) ofertas de trabajo en LinkedIn para posiciones de sostenibilidad, ESG, etc.&lt;/br&gt;&lt;/br&gt;Pero mientras haces eso, ¡ve haciendo lo que te indico en fortalecer contactos! Ten dos tablas separadas, pero ve haciendo las dos cosas juntitas.</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="./img/workshop.png"&gt;&lt;img src="./img/linked2.png" alt="Captura de pantalla búsqueda ESG en trabajos LinkedIn" style="width:100%" /&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Agendar asesoría CV en CTP</t>
+  </si>
+  <si>
+    <t>Maravilloso que hayas preguntado! De esto estamos pendientes la otra semana. Te amo!</t>
   </si>
   <si>
     <t>Recuerda que tienes presupuestado tiempo un día a la semana para ofrecer servicio mi corazón. Aquí te dejo el presupuesto general. Puedes correrlo en cualquier día. Sólo lleva la cuenta.</t>
@@ -598,8 +637,8 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -949,7 +988,7 @@
         <v>0.0</v>
       </c>
       <c r="H2" s="3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I2" s="3">
         <v>3.0</v>
@@ -1141,7 +1180,7 @@
         <v>2.0</v>
       </c>
       <c r="H8" s="4">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I8" s="4">
         <v>0.0</v>
@@ -1237,7 +1276,7 @@
         <v>0.0</v>
       </c>
       <c r="H11" s="3">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I11" s="3">
         <v>0.0</v>
@@ -1269,7 +1308,7 @@
         <v>1.0</v>
       </c>
       <c r="H12" s="3">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I12" s="3">
         <v>3.0</v>
@@ -1343,1679 +1382,1702 @@
       </c>
     </row>
     <row r="15">
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="A15" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="7"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="A16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17">
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18">
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19">
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20">
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
     </row>
     <row r="21">
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
     </row>
     <row r="22">
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
     </row>
     <row r="23">
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
     </row>
     <row r="24">
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
     </row>
     <row r="25">
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
     </row>
     <row r="26">
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
     </row>
     <row r="27">
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
     </row>
     <row r="28">
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
     </row>
     <row r="29">
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
     </row>
     <row r="30">
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
     </row>
     <row r="31">
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
     </row>
     <row r="32">
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
     </row>
     <row r="33">
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
     </row>
     <row r="34">
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
     </row>
     <row r="35">
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
     </row>
     <row r="36">
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
     </row>
     <row r="37">
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
     </row>
     <row r="38">
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
     </row>
     <row r="39">
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
     </row>
     <row r="40">
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
     </row>
     <row r="41">
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
     </row>
     <row r="42">
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
     </row>
     <row r="43">
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
     </row>
     <row r="44">
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
     </row>
     <row r="45">
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
     </row>
     <row r="46">
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
     </row>
     <row r="47">
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
     </row>
     <row r="48">
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
     </row>
     <row r="49">
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
     </row>
     <row r="50">
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
     </row>
     <row r="51">
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
     </row>
     <row r="52">
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
     </row>
     <row r="53">
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
     </row>
     <row r="54">
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
     </row>
     <row r="55">
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
     </row>
     <row r="56">
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
     </row>
     <row r="57">
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
     </row>
     <row r="58">
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
     </row>
     <row r="59">
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
     </row>
     <row r="60">
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
     </row>
     <row r="61">
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
     </row>
     <row r="62">
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
     </row>
     <row r="63">
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
     </row>
     <row r="64">
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
     </row>
     <row r="65">
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
     </row>
     <row r="66">
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
     </row>
     <row r="67">
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
     </row>
     <row r="68">
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
     </row>
     <row r="69">
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
     </row>
     <row r="70">
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
     </row>
     <row r="71">
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
     </row>
     <row r="72">
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
     </row>
     <row r="73">
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
     </row>
     <row r="74">
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
     </row>
     <row r="75">
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
     </row>
     <row r="76">
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
     </row>
     <row r="77">
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
     </row>
     <row r="78">
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
     </row>
     <row r="79">
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
     </row>
     <row r="80">
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
     </row>
     <row r="81">
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
     </row>
     <row r="82">
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
     </row>
     <row r="83">
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
     </row>
     <row r="84">
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
     </row>
     <row r="85">
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
     </row>
     <row r="86">
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
     </row>
     <row r="87">
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
     </row>
     <row r="88">
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
     </row>
     <row r="89">
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
     </row>
     <row r="90">
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
     </row>
     <row r="91">
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
     </row>
     <row r="92">
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
     </row>
     <row r="93">
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
     </row>
     <row r="94">
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
     </row>
     <row r="95">
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
     </row>
     <row r="96">
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
     </row>
     <row r="97">
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
     </row>
     <row r="98">
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
     </row>
     <row r="99">
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
     </row>
     <row r="100">
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
     </row>
     <row r="101">
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
     </row>
     <row r="102">
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
     </row>
     <row r="103">
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
     </row>
     <row r="104">
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
     </row>
     <row r="105">
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
     </row>
     <row r="106">
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="7"/>
     </row>
     <row r="107">
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="6"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
     </row>
     <row r="108">
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
-      <c r="J108" s="6"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
     </row>
     <row r="109">
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="6"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
     </row>
     <row r="110">
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="6"/>
-      <c r="J110" s="6"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
     </row>
     <row r="111">
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="6"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
     </row>
     <row r="112">
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="6"/>
-      <c r="J112" s="6"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
     </row>
     <row r="113">
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="6"/>
-      <c r="J113" s="6"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
     </row>
     <row r="114">
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
-      <c r="I114" s="6"/>
-      <c r="J114" s="6"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
     </row>
     <row r="115">
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
-      <c r="I115" s="6"/>
-      <c r="J115" s="6"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
     </row>
     <row r="116">
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
-      <c r="G116" s="6"/>
-      <c r="H116" s="6"/>
-      <c r="I116" s="6"/>
-      <c r="J116" s="6"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
     </row>
     <row r="117">
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="6"/>
-      <c r="I117" s="6"/>
-      <c r="J117" s="6"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
     </row>
     <row r="118">
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
-      <c r="I118" s="6"/>
-      <c r="J118" s="6"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
     </row>
     <row r="119">
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-      <c r="I119" s="6"/>
-      <c r="J119" s="6"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
     </row>
     <row r="120">
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
-      <c r="I120" s="6"/>
-      <c r="J120" s="6"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="7"/>
     </row>
     <row r="121">
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
-      <c r="H121" s="6"/>
-      <c r="I121" s="6"/>
-      <c r="J121" s="6"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="7"/>
+      <c r="J121" s="7"/>
     </row>
     <row r="122">
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
-      <c r="H122" s="6"/>
-      <c r="I122" s="6"/>
-      <c r="J122" s="6"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7"/>
+      <c r="J122" s="7"/>
     </row>
     <row r="123">
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
-      <c r="I123" s="6"/>
-      <c r="J123" s="6"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7"/>
+      <c r="J123" s="7"/>
     </row>
     <row r="124">
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
-      <c r="I124" s="6"/>
-      <c r="J124" s="6"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="7"/>
+      <c r="J124" s="7"/>
     </row>
     <row r="125">
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
-      <c r="I125" s="6"/>
-      <c r="J125" s="6"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7"/>
+      <c r="J125" s="7"/>
     </row>
     <row r="126">
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
-      <c r="I126" s="6"/>
-      <c r="J126" s="6"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="7"/>
+      <c r="J126" s="7"/>
     </row>
     <row r="127">
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
-      <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
-      <c r="I127" s="6"/>
-      <c r="J127" s="6"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="7"/>
+      <c r="J127" s="7"/>
     </row>
     <row r="128">
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
-      <c r="F128" s="6"/>
-      <c r="G128" s="6"/>
-      <c r="H128" s="6"/>
-      <c r="I128" s="6"/>
-      <c r="J128" s="6"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="7"/>
+      <c r="J128" s="7"/>
     </row>
     <row r="129">
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
-      <c r="F129" s="6"/>
-      <c r="G129" s="6"/>
-      <c r="H129" s="6"/>
-      <c r="I129" s="6"/>
-      <c r="J129" s="6"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="7"/>
+      <c r="J129" s="7"/>
     </row>
     <row r="130">
-      <c r="D130" s="6"/>
-      <c r="E130" s="6"/>
-      <c r="F130" s="6"/>
-      <c r="G130" s="6"/>
-      <c r="H130" s="6"/>
-      <c r="I130" s="6"/>
-      <c r="J130" s="6"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="7"/>
+      <c r="J130" s="7"/>
     </row>
     <row r="131">
-      <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
-      <c r="H131" s="6"/>
-      <c r="I131" s="6"/>
-      <c r="J131" s="6"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="7"/>
+      <c r="J131" s="7"/>
     </row>
     <row r="132">
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="6"/>
-      <c r="G132" s="6"/>
-      <c r="H132" s="6"/>
-      <c r="I132" s="6"/>
-      <c r="J132" s="6"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="7"/>
+      <c r="J132" s="7"/>
     </row>
     <row r="133">
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
-      <c r="H133" s="6"/>
-      <c r="I133" s="6"/>
-      <c r="J133" s="6"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="7"/>
+      <c r="J133" s="7"/>
     </row>
     <row r="134">
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="6"/>
-      <c r="G134" s="6"/>
-      <c r="H134" s="6"/>
-      <c r="I134" s="6"/>
-      <c r="J134" s="6"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="7"/>
+      <c r="J134" s="7"/>
     </row>
     <row r="135">
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6"/>
-      <c r="G135" s="6"/>
-      <c r="H135" s="6"/>
-      <c r="I135" s="6"/>
-      <c r="J135" s="6"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="7"/>
+      <c r="J135" s="7"/>
     </row>
     <row r="136">
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
-      <c r="F136" s="6"/>
-      <c r="G136" s="6"/>
-      <c r="H136" s="6"/>
-      <c r="I136" s="6"/>
-      <c r="J136" s="6"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="7"/>
+      <c r="J136" s="7"/>
     </row>
     <row r="137">
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6"/>
-      <c r="G137" s="6"/>
-      <c r="H137" s="6"/>
-      <c r="I137" s="6"/>
-      <c r="J137" s="6"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="7"/>
+      <c r="I137" s="7"/>
+      <c r="J137" s="7"/>
     </row>
     <row r="138">
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
-      <c r="F138" s="6"/>
-      <c r="G138" s="6"/>
-      <c r="H138" s="6"/>
-      <c r="I138" s="6"/>
-      <c r="J138" s="6"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="7"/>
+      <c r="J138" s="7"/>
     </row>
     <row r="139">
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
-      <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
-      <c r="H139" s="6"/>
-      <c r="I139" s="6"/>
-      <c r="J139" s="6"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="7"/>
+      <c r="I139" s="7"/>
+      <c r="J139" s="7"/>
     </row>
     <row r="140">
-      <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
-      <c r="F140" s="6"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="7"/>
+      <c r="I140" s="7"/>
+      <c r="J140" s="7"/>
     </row>
     <row r="141">
-      <c r="D141" s="6"/>
-      <c r="E141" s="6"/>
-      <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
-      <c r="H141" s="6"/>
-      <c r="I141" s="6"/>
-      <c r="J141" s="6"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="7"/>
+      <c r="I141" s="7"/>
+      <c r="J141" s="7"/>
     </row>
     <row r="142">
-      <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6"/>
-      <c r="H142" s="6"/>
-      <c r="I142" s="6"/>
-      <c r="J142" s="6"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="7"/>
+      <c r="J142" s="7"/>
     </row>
     <row r="143">
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="7"/>
+      <c r="J143" s="7"/>
     </row>
     <row r="144">
-      <c r="D144" s="6"/>
-      <c r="E144" s="6"/>
-      <c r="F144" s="6"/>
-      <c r="G144" s="6"/>
-      <c r="H144" s="6"/>
-      <c r="I144" s="6"/>
-      <c r="J144" s="6"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="7"/>
+      <c r="I144" s="7"/>
+      <c r="J144" s="7"/>
     </row>
     <row r="145">
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
-      <c r="F145" s="6"/>
-      <c r="G145" s="6"/>
-      <c r="H145" s="6"/>
-      <c r="I145" s="6"/>
-      <c r="J145" s="6"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="7"/>
+      <c r="I145" s="7"/>
+      <c r="J145" s="7"/>
     </row>
     <row r="146">
-      <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
-      <c r="F146" s="6"/>
-      <c r="G146" s="6"/>
-      <c r="H146" s="6"/>
-      <c r="I146" s="6"/>
-      <c r="J146" s="6"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="7"/>
+      <c r="I146" s="7"/>
+      <c r="J146" s="7"/>
     </row>
     <row r="147">
-      <c r="D147" s="6"/>
-      <c r="E147" s="6"/>
-      <c r="F147" s="6"/>
-      <c r="G147" s="6"/>
-      <c r="H147" s="6"/>
-      <c r="I147" s="6"/>
-      <c r="J147" s="6"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="7"/>
+      <c r="J147" s="7"/>
     </row>
     <row r="148">
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
-      <c r="F148" s="6"/>
-      <c r="G148" s="6"/>
-      <c r="H148" s="6"/>
-      <c r="I148" s="6"/>
-      <c r="J148" s="6"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="7"/>
+      <c r="I148" s="7"/>
+      <c r="J148" s="7"/>
     </row>
     <row r="149">
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
-      <c r="F149" s="6"/>
-      <c r="G149" s="6"/>
-      <c r="H149" s="6"/>
-      <c r="I149" s="6"/>
-      <c r="J149" s="6"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="7"/>
+      <c r="I149" s="7"/>
+      <c r="J149" s="7"/>
     </row>
     <row r="150">
-      <c r="D150" s="6"/>
-      <c r="E150" s="6"/>
-      <c r="F150" s="6"/>
-      <c r="G150" s="6"/>
-      <c r="H150" s="6"/>
-      <c r="I150" s="6"/>
-      <c r="J150" s="6"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="7"/>
+      <c r="J150" s="7"/>
     </row>
     <row r="151">
-      <c r="D151" s="6"/>
-      <c r="E151" s="6"/>
-      <c r="F151" s="6"/>
-      <c r="G151" s="6"/>
-      <c r="H151" s="6"/>
-      <c r="I151" s="6"/>
-      <c r="J151" s="6"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
+      <c r="G151" s="7"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="7"/>
+      <c r="J151" s="7"/>
     </row>
     <row r="152">
-      <c r="D152" s="6"/>
-      <c r="E152" s="6"/>
-      <c r="F152" s="6"/>
-      <c r="G152" s="6"/>
-      <c r="H152" s="6"/>
-      <c r="I152" s="6"/>
-      <c r="J152" s="6"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="7"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="7"/>
+      <c r="I152" s="7"/>
+      <c r="J152" s="7"/>
     </row>
     <row r="153">
-      <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
-      <c r="F153" s="6"/>
-      <c r="G153" s="6"/>
-      <c r="H153" s="6"/>
-      <c r="I153" s="6"/>
-      <c r="J153" s="6"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7"/>
+      <c r="G153" s="7"/>
+      <c r="H153" s="7"/>
+      <c r="I153" s="7"/>
+      <c r="J153" s="7"/>
     </row>
     <row r="154">
-      <c r="D154" s="6"/>
-      <c r="E154" s="6"/>
-      <c r="F154" s="6"/>
-      <c r="G154" s="6"/>
-      <c r="H154" s="6"/>
-      <c r="I154" s="6"/>
-      <c r="J154" s="6"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
+      <c r="I154" s="7"/>
+      <c r="J154" s="7"/>
     </row>
     <row r="155">
-      <c r="D155" s="6"/>
-      <c r="E155" s="6"/>
-      <c r="F155" s="6"/>
-      <c r="G155" s="6"/>
-      <c r="H155" s="6"/>
-      <c r="I155" s="6"/>
-      <c r="J155" s="6"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="7"/>
+      <c r="J155" s="7"/>
     </row>
     <row r="156">
-      <c r="D156" s="6"/>
-      <c r="E156" s="6"/>
-      <c r="F156" s="6"/>
-      <c r="G156" s="6"/>
-      <c r="H156" s="6"/>
-      <c r="I156" s="6"/>
-      <c r="J156" s="6"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="7"/>
+      <c r="I156" s="7"/>
+      <c r="J156" s="7"/>
     </row>
     <row r="157">
-      <c r="D157" s="6"/>
-      <c r="E157" s="6"/>
-      <c r="F157" s="6"/>
-      <c r="G157" s="6"/>
-      <c r="H157" s="6"/>
-      <c r="I157" s="6"/>
-      <c r="J157" s="6"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="7"/>
+      <c r="I157" s="7"/>
+      <c r="J157" s="7"/>
     </row>
     <row r="158">
-      <c r="D158" s="6"/>
-      <c r="E158" s="6"/>
-      <c r="F158" s="6"/>
-      <c r="G158" s="6"/>
-      <c r="H158" s="6"/>
-      <c r="I158" s="6"/>
-      <c r="J158" s="6"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="7"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="7"/>
+      <c r="I158" s="7"/>
+      <c r="J158" s="7"/>
     </row>
     <row r="159">
-      <c r="D159" s="6"/>
-      <c r="E159" s="6"/>
-      <c r="F159" s="6"/>
-      <c r="G159" s="6"/>
-      <c r="H159" s="6"/>
-      <c r="I159" s="6"/>
-      <c r="J159" s="6"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7"/>
+      <c r="I159" s="7"/>
+      <c r="J159" s="7"/>
     </row>
     <row r="160">
-      <c r="D160" s="6"/>
-      <c r="E160" s="6"/>
-      <c r="F160" s="6"/>
-      <c r="G160" s="6"/>
-      <c r="H160" s="6"/>
-      <c r="I160" s="6"/>
-      <c r="J160" s="6"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="7"/>
+      <c r="J160" s="7"/>
     </row>
     <row r="161">
-      <c r="D161" s="6"/>
-      <c r="E161" s="6"/>
-      <c r="F161" s="6"/>
-      <c r="G161" s="6"/>
-      <c r="H161" s="6"/>
-      <c r="I161" s="6"/>
-      <c r="J161" s="6"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
+      <c r="G161" s="7"/>
+      <c r="H161" s="7"/>
+      <c r="I161" s="7"/>
+      <c r="J161" s="7"/>
     </row>
     <row r="162">
-      <c r="D162" s="6"/>
-      <c r="E162" s="6"/>
-      <c r="F162" s="6"/>
-      <c r="G162" s="6"/>
-      <c r="H162" s="6"/>
-      <c r="I162" s="6"/>
-      <c r="J162" s="6"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="7"/>
+      <c r="I162" s="7"/>
+      <c r="J162" s="7"/>
     </row>
     <row r="163">
-      <c r="D163" s="6"/>
-      <c r="E163" s="6"/>
-      <c r="F163" s="6"/>
-      <c r="G163" s="6"/>
-      <c r="H163" s="6"/>
-      <c r="I163" s="6"/>
-      <c r="J163" s="6"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="7"/>
+      <c r="I163" s="7"/>
+      <c r="J163" s="7"/>
     </row>
     <row r="164">
-      <c r="D164" s="6"/>
-      <c r="E164" s="6"/>
-      <c r="F164" s="6"/>
-      <c r="G164" s="6"/>
-      <c r="H164" s="6"/>
-      <c r="I164" s="6"/>
-      <c r="J164" s="6"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="7"/>
+      <c r="G164" s="7"/>
+      <c r="H164" s="7"/>
+      <c r="I164" s="7"/>
+      <c r="J164" s="7"/>
     </row>
     <row r="165">
-      <c r="D165" s="6"/>
-      <c r="E165" s="6"/>
-      <c r="F165" s="6"/>
-      <c r="G165" s="6"/>
-      <c r="H165" s="6"/>
-      <c r="I165" s="6"/>
-      <c r="J165" s="6"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="7"/>
+      <c r="G165" s="7"/>
+      <c r="H165" s="7"/>
+      <c r="I165" s="7"/>
+      <c r="J165" s="7"/>
     </row>
     <row r="166">
-      <c r="D166" s="6"/>
-      <c r="E166" s="6"/>
-      <c r="F166" s="6"/>
-      <c r="G166" s="6"/>
-      <c r="H166" s="6"/>
-      <c r="I166" s="6"/>
-      <c r="J166" s="6"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
+      <c r="I166" s="7"/>
+      <c r="J166" s="7"/>
     </row>
     <row r="167">
-      <c r="D167" s="6"/>
-      <c r="E167" s="6"/>
-      <c r="F167" s="6"/>
-      <c r="G167" s="6"/>
-      <c r="H167" s="6"/>
-      <c r="I167" s="6"/>
-      <c r="J167" s="6"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
+      <c r="F167" s="7"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="7"/>
+      <c r="I167" s="7"/>
+      <c r="J167" s="7"/>
     </row>
     <row r="168">
-      <c r="D168" s="6"/>
-      <c r="E168" s="6"/>
-      <c r="F168" s="6"/>
-      <c r="G168" s="6"/>
-      <c r="H168" s="6"/>
-      <c r="I168" s="6"/>
-      <c r="J168" s="6"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="7"/>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
+      <c r="I168" s="7"/>
+      <c r="J168" s="7"/>
     </row>
     <row r="169">
-      <c r="D169" s="6"/>
-      <c r="E169" s="6"/>
-      <c r="F169" s="6"/>
-      <c r="G169" s="6"/>
-      <c r="H169" s="6"/>
-      <c r="I169" s="6"/>
-      <c r="J169" s="6"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="7"/>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
+      <c r="H169" s="7"/>
+      <c r="I169" s="7"/>
+      <c r="J169" s="7"/>
     </row>
     <row r="170">
-      <c r="D170" s="6"/>
-      <c r="E170" s="6"/>
-      <c r="F170" s="6"/>
-      <c r="G170" s="6"/>
-      <c r="H170" s="6"/>
-      <c r="I170" s="6"/>
-      <c r="J170" s="6"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="7"/>
+      <c r="I170" s="7"/>
+      <c r="J170" s="7"/>
     </row>
     <row r="171">
-      <c r="D171" s="6"/>
-      <c r="E171" s="6"/>
-      <c r="F171" s="6"/>
-      <c r="G171" s="6"/>
-      <c r="H171" s="6"/>
-      <c r="I171" s="6"/>
-      <c r="J171" s="6"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
+      <c r="H171" s="7"/>
+      <c r="I171" s="7"/>
+      <c r="J171" s="7"/>
     </row>
     <row r="172">
-      <c r="D172" s="6"/>
-      <c r="E172" s="6"/>
-      <c r="F172" s="6"/>
-      <c r="G172" s="6"/>
-      <c r="H172" s="6"/>
-      <c r="I172" s="6"/>
-      <c r="J172" s="6"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="7"/>
+      <c r="F172" s="7"/>
+      <c r="G172" s="7"/>
+      <c r="H172" s="7"/>
+      <c r="I172" s="7"/>
+      <c r="J172" s="7"/>
     </row>
     <row r="173">
-      <c r="D173" s="6"/>
-      <c r="E173" s="6"/>
-      <c r="F173" s="6"/>
-      <c r="G173" s="6"/>
-      <c r="H173" s="6"/>
-      <c r="I173" s="6"/>
-      <c r="J173" s="6"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="7"/>
+      <c r="F173" s="7"/>
+      <c r="G173" s="7"/>
+      <c r="H173" s="7"/>
+      <c r="I173" s="7"/>
+      <c r="J173" s="7"/>
     </row>
     <row r="174">
-      <c r="D174" s="6"/>
-      <c r="E174" s="6"/>
-      <c r="F174" s="6"/>
-      <c r="G174" s="6"/>
-      <c r="H174" s="6"/>
-      <c r="I174" s="6"/>
-      <c r="J174" s="6"/>
+      <c r="D174" s="7"/>
+      <c r="E174" s="7"/>
+      <c r="F174" s="7"/>
+      <c r="G174" s="7"/>
+      <c r="H174" s="7"/>
+      <c r="I174" s="7"/>
+      <c r="J174" s="7"/>
     </row>
     <row r="175">
-      <c r="D175" s="6"/>
-      <c r="E175" s="6"/>
-      <c r="F175" s="6"/>
-      <c r="G175" s="6"/>
-      <c r="H175" s="6"/>
-      <c r="I175" s="6"/>
-      <c r="J175" s="6"/>
+      <c r="D175" s="7"/>
+      <c r="E175" s="7"/>
+      <c r="F175" s="7"/>
+      <c r="G175" s="7"/>
+      <c r="H175" s="7"/>
+      <c r="I175" s="7"/>
+      <c r="J175" s="7"/>
     </row>
     <row r="176">
-      <c r="D176" s="6"/>
-      <c r="E176" s="6"/>
-      <c r="F176" s="6"/>
-      <c r="G176" s="6"/>
-      <c r="H176" s="6"/>
-      <c r="I176" s="6"/>
-      <c r="J176" s="6"/>
+      <c r="D176" s="7"/>
+      <c r="E176" s="7"/>
+      <c r="F176" s="7"/>
+      <c r="G176" s="7"/>
+      <c r="H176" s="7"/>
+      <c r="I176" s="7"/>
+      <c r="J176" s="7"/>
     </row>
     <row r="177">
-      <c r="D177" s="6"/>
-      <c r="E177" s="6"/>
-      <c r="F177" s="6"/>
-      <c r="G177" s="6"/>
-      <c r="H177" s="6"/>
-      <c r="I177" s="6"/>
-      <c r="J177" s="6"/>
+      <c r="D177" s="7"/>
+      <c r="E177" s="7"/>
+      <c r="F177" s="7"/>
+      <c r="G177" s="7"/>
+      <c r="H177" s="7"/>
+      <c r="I177" s="7"/>
+      <c r="J177" s="7"/>
     </row>
     <row r="178">
-      <c r="D178" s="6"/>
-      <c r="E178" s="6"/>
-      <c r="F178" s="6"/>
-      <c r="G178" s="6"/>
-      <c r="H178" s="6"/>
-      <c r="I178" s="6"/>
-      <c r="J178" s="6"/>
+      <c r="D178" s="7"/>
+      <c r="E178" s="7"/>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7"/>
+      <c r="H178" s="7"/>
+      <c r="I178" s="7"/>
+      <c r="J178" s="7"/>
     </row>
     <row r="179">
-      <c r="D179" s="6"/>
-      <c r="E179" s="6"/>
-      <c r="F179" s="6"/>
-      <c r="G179" s="6"/>
-      <c r="H179" s="6"/>
-      <c r="I179" s="6"/>
-      <c r="J179" s="6"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="7"/>
+      <c r="G179" s="7"/>
+      <c r="H179" s="7"/>
+      <c r="I179" s="7"/>
+      <c r="J179" s="7"/>
     </row>
     <row r="180">
-      <c r="D180" s="6"/>
-      <c r="E180" s="6"/>
-      <c r="F180" s="6"/>
-      <c r="G180" s="6"/>
-      <c r="H180" s="6"/>
-      <c r="I180" s="6"/>
-      <c r="J180" s="6"/>
+      <c r="D180" s="7"/>
+      <c r="E180" s="7"/>
+      <c r="F180" s="7"/>
+      <c r="G180" s="7"/>
+      <c r="H180" s="7"/>
+      <c r="I180" s="7"/>
+      <c r="J180" s="7"/>
     </row>
     <row r="181">
-      <c r="D181" s="6"/>
-      <c r="E181" s="6"/>
-      <c r="F181" s="6"/>
-      <c r="G181" s="6"/>
-      <c r="H181" s="6"/>
-      <c r="I181" s="6"/>
-      <c r="J181" s="6"/>
+      <c r="D181" s="7"/>
+      <c r="E181" s="7"/>
+      <c r="F181" s="7"/>
+      <c r="G181" s="7"/>
+      <c r="H181" s="7"/>
+      <c r="I181" s="7"/>
+      <c r="J181" s="7"/>
     </row>
     <row r="182">
-      <c r="D182" s="6"/>
-      <c r="E182" s="6"/>
-      <c r="F182" s="6"/>
-      <c r="G182" s="6"/>
-      <c r="H182" s="6"/>
-      <c r="I182" s="6"/>
-      <c r="J182" s="6"/>
+      <c r="D182" s="7"/>
+      <c r="E182" s="7"/>
+      <c r="F182" s="7"/>
+      <c r="G182" s="7"/>
+      <c r="H182" s="7"/>
+      <c r="I182" s="7"/>
+      <c r="J182" s="7"/>
     </row>
     <row r="183">
-      <c r="D183" s="6"/>
-      <c r="E183" s="6"/>
-      <c r="F183" s="6"/>
-      <c r="G183" s="6"/>
-      <c r="H183" s="6"/>
-      <c r="I183" s="6"/>
-      <c r="J183" s="6"/>
+      <c r="D183" s="7"/>
+      <c r="E183" s="7"/>
+      <c r="F183" s="7"/>
+      <c r="G183" s="7"/>
+      <c r="H183" s="7"/>
+      <c r="I183" s="7"/>
+      <c r="J183" s="7"/>
     </row>
     <row r="184">
-      <c r="D184" s="6"/>
-      <c r="E184" s="6"/>
-      <c r="F184" s="6"/>
-      <c r="G184" s="6"/>
-      <c r="H184" s="6"/>
-      <c r="I184" s="6"/>
-      <c r="J184" s="6"/>
+      <c r="D184" s="7"/>
+      <c r="E184" s="7"/>
+      <c r="F184" s="7"/>
+      <c r="G184" s="7"/>
+      <c r="H184" s="7"/>
+      <c r="I184" s="7"/>
+      <c r="J184" s="7"/>
     </row>
     <row r="185">
-      <c r="D185" s="6"/>
-      <c r="E185" s="6"/>
-      <c r="F185" s="6"/>
-      <c r="G185" s="6"/>
-      <c r="H185" s="6"/>
-      <c r="I185" s="6"/>
-      <c r="J185" s="6"/>
+      <c r="D185" s="7"/>
+      <c r="E185" s="7"/>
+      <c r="F185" s="7"/>
+      <c r="G185" s="7"/>
+      <c r="H185" s="7"/>
+      <c r="I185" s="7"/>
+      <c r="J185" s="7"/>
     </row>
     <row r="186">
-      <c r="D186" s="6"/>
-      <c r="E186" s="6"/>
-      <c r="F186" s="6"/>
-      <c r="G186" s="6"/>
-      <c r="H186" s="6"/>
-      <c r="I186" s="6"/>
-      <c r="J186" s="6"/>
+      <c r="D186" s="7"/>
+      <c r="E186" s="7"/>
+      <c r="F186" s="7"/>
+      <c r="G186" s="7"/>
+      <c r="H186" s="7"/>
+      <c r="I186" s="7"/>
+      <c r="J186" s="7"/>
     </row>
     <row r="187">
-      <c r="D187" s="6"/>
-      <c r="E187" s="6"/>
-      <c r="F187" s="6"/>
-      <c r="G187" s="6"/>
-      <c r="H187" s="6"/>
-      <c r="I187" s="6"/>
-      <c r="J187" s="6"/>
+      <c r="D187" s="7"/>
+      <c r="E187" s="7"/>
+      <c r="F187" s="7"/>
+      <c r="G187" s="7"/>
+      <c r="H187" s="7"/>
+      <c r="I187" s="7"/>
+      <c r="J187" s="7"/>
     </row>
     <row r="188">
-      <c r="D188" s="6"/>
-      <c r="E188" s="6"/>
-      <c r="F188" s="6"/>
-      <c r="G188" s="6"/>
-      <c r="H188" s="6"/>
-      <c r="I188" s="6"/>
-      <c r="J188" s="6"/>
+      <c r="D188" s="7"/>
+      <c r="E188" s="7"/>
+      <c r="F188" s="7"/>
+      <c r="G188" s="7"/>
+      <c r="H188" s="7"/>
+      <c r="I188" s="7"/>
+      <c r="J188" s="7"/>
     </row>
     <row r="189">
-      <c r="D189" s="6"/>
-      <c r="E189" s="6"/>
-      <c r="F189" s="6"/>
-      <c r="G189" s="6"/>
-      <c r="H189" s="6"/>
-      <c r="I189" s="6"/>
-      <c r="J189" s="6"/>
+      <c r="D189" s="7"/>
+      <c r="E189" s="7"/>
+      <c r="F189" s="7"/>
+      <c r="G189" s="7"/>
+      <c r="H189" s="7"/>
+      <c r="I189" s="7"/>
+      <c r="J189" s="7"/>
     </row>
     <row r="190">
-      <c r="D190" s="6"/>
-      <c r="E190" s="6"/>
-      <c r="F190" s="6"/>
-      <c r="G190" s="6"/>
-      <c r="H190" s="6"/>
-      <c r="I190" s="6"/>
-      <c r="J190" s="6"/>
+      <c r="D190" s="7"/>
+      <c r="E190" s="7"/>
+      <c r="F190" s="7"/>
+      <c r="G190" s="7"/>
+      <c r="H190" s="7"/>
+      <c r="I190" s="7"/>
+      <c r="J190" s="7"/>
     </row>
     <row r="191">
-      <c r="D191" s="6"/>
-      <c r="E191" s="6"/>
-      <c r="F191" s="6"/>
-      <c r="G191" s="6"/>
-      <c r="H191" s="6"/>
-      <c r="I191" s="6"/>
-      <c r="J191" s="6"/>
+      <c r="D191" s="7"/>
+      <c r="E191" s="7"/>
+      <c r="F191" s="7"/>
+      <c r="G191" s="7"/>
+      <c r="H191" s="7"/>
+      <c r="I191" s="7"/>
+      <c r="J191" s="7"/>
     </row>
     <row r="192">
-      <c r="D192" s="6"/>
-      <c r="E192" s="6"/>
-      <c r="F192" s="6"/>
-      <c r="G192" s="6"/>
-      <c r="H192" s="6"/>
-      <c r="I192" s="6"/>
-      <c r="J192" s="6"/>
+      <c r="D192" s="7"/>
+      <c r="E192" s="7"/>
+      <c r="F192" s="7"/>
+      <c r="G192" s="7"/>
+      <c r="H192" s="7"/>
+      <c r="I192" s="7"/>
+      <c r="J192" s="7"/>
     </row>
     <row r="193">
-      <c r="D193" s="6"/>
-      <c r="E193" s="6"/>
-      <c r="F193" s="6"/>
-      <c r="G193" s="6"/>
-      <c r="H193" s="6"/>
-      <c r="I193" s="6"/>
-      <c r="J193" s="6"/>
+      <c r="D193" s="7"/>
+      <c r="E193" s="7"/>
+      <c r="F193" s="7"/>
+      <c r="G193" s="7"/>
+      <c r="H193" s="7"/>
+      <c r="I193" s="7"/>
+      <c r="J193" s="7"/>
     </row>
     <row r="194">
-      <c r="D194" s="6"/>
-      <c r="E194" s="6"/>
-      <c r="F194" s="6"/>
-      <c r="G194" s="6"/>
-      <c r="H194" s="6"/>
-      <c r="I194" s="6"/>
-      <c r="J194" s="6"/>
+      <c r="D194" s="7"/>
+      <c r="E194" s="7"/>
+      <c r="F194" s="7"/>
+      <c r="G194" s="7"/>
+      <c r="H194" s="7"/>
+      <c r="I194" s="7"/>
+      <c r="J194" s="7"/>
     </row>
     <row r="195">
-      <c r="D195" s="6"/>
-      <c r="E195" s="6"/>
-      <c r="F195" s="6"/>
-      <c r="G195" s="6"/>
-      <c r="H195" s="6"/>
-      <c r="I195" s="6"/>
-      <c r="J195" s="6"/>
+      <c r="D195" s="7"/>
+      <c r="E195" s="7"/>
+      <c r="F195" s="7"/>
+      <c r="G195" s="7"/>
+      <c r="H195" s="7"/>
+      <c r="I195" s="7"/>
+      <c r="J195" s="7"/>
     </row>
     <row r="196">
-      <c r="D196" s="6"/>
-      <c r="E196" s="6"/>
-      <c r="F196" s="6"/>
-      <c r="G196" s="6"/>
-      <c r="H196" s="6"/>
-      <c r="I196" s="6"/>
-      <c r="J196" s="6"/>
+      <c r="D196" s="7"/>
+      <c r="E196" s="7"/>
+      <c r="F196" s="7"/>
+      <c r="G196" s="7"/>
+      <c r="H196" s="7"/>
+      <c r="I196" s="7"/>
+      <c r="J196" s="7"/>
     </row>
     <row r="197">
-      <c r="D197" s="6"/>
-      <c r="E197" s="6"/>
-      <c r="F197" s="6"/>
-      <c r="G197" s="6"/>
-      <c r="H197" s="6"/>
-      <c r="I197" s="6"/>
-      <c r="J197" s="6"/>
+      <c r="D197" s="7"/>
+      <c r="E197" s="7"/>
+      <c r="F197" s="7"/>
+      <c r="G197" s="7"/>
+      <c r="H197" s="7"/>
+      <c r="I197" s="7"/>
+      <c r="J197" s="7"/>
     </row>
     <row r="198">
-      <c r="D198" s="6"/>
-      <c r="E198" s="6"/>
-      <c r="F198" s="6"/>
-      <c r="G198" s="6"/>
-      <c r="H198" s="6"/>
-      <c r="I198" s="6"/>
-      <c r="J198" s="6"/>
+      <c r="D198" s="7"/>
+      <c r="E198" s="7"/>
+      <c r="F198" s="7"/>
+      <c r="G198" s="7"/>
+      <c r="H198" s="7"/>
+      <c r="I198" s="7"/>
+      <c r="J198" s="7"/>
     </row>
     <row r="199">
-      <c r="D199" s="6"/>
-      <c r="E199" s="6"/>
-      <c r="F199" s="6"/>
-      <c r="G199" s="6"/>
-      <c r="H199" s="6"/>
-      <c r="I199" s="6"/>
-      <c r="J199" s="6"/>
+      <c r="D199" s="7"/>
+      <c r="E199" s="7"/>
+      <c r="F199" s="7"/>
+      <c r="G199" s="7"/>
+      <c r="H199" s="7"/>
+      <c r="I199" s="7"/>
+      <c r="J199" s="7"/>
     </row>
     <row r="200">
-      <c r="D200" s="6"/>
-      <c r="E200" s="6"/>
-      <c r="F200" s="6"/>
-      <c r="G200" s="6"/>
-      <c r="H200" s="6"/>
-      <c r="I200" s="6"/>
-      <c r="J200" s="6"/>
+      <c r="D200" s="7"/>
+      <c r="E200" s="7"/>
+      <c r="F200" s="7"/>
+      <c r="G200" s="7"/>
+      <c r="H200" s="7"/>
+      <c r="I200" s="7"/>
+      <c r="J200" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:J200">
@@ -3048,46 +3110,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
@@ -3102,12 +3164,12 @@
       <c r="Y1" s="10"/>
       <c r="Z1" s="10"/>
     </row>
-    <row r="2" hidden="1">
+    <row r="2">
       <c r="A2" s="11">
         <v>1.0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" s="11">
         <v>1.0</v>
@@ -3119,17 +3181,17 @@
         <v>13</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -3148,31 +3210,31 @@
       <c r="Y2" s="13"/>
       <c r="Z2" s="13"/>
     </row>
-    <row r="3" hidden="1">
+    <row r="3">
       <c r="A3" s="11">
         <v>1.0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="11">
         <v>1.0</v>
-      </c>
-      <c r="D3" s="11">
-        <v>3.0</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+        <v>53</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
@@ -3190,27 +3252,27 @@
       <c r="Y3" s="13"/>
       <c r="Z3" s="13"/>
     </row>
-    <row r="4" hidden="1">
+    <row r="4">
       <c r="A4" s="11">
         <v>1.0</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C4" s="11">
         <v>1.0</v>
       </c>
       <c r="D4" s="11">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="13"/>
@@ -3232,27 +3294,27 @@
       <c r="Y4" s="13"/>
       <c r="Z4" s="13"/>
     </row>
-    <row r="5" hidden="1">
+    <row r="5">
       <c r="A5" s="11">
         <v>1.0</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C5" s="11">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D5" s="11">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="13"/>
@@ -3274,31 +3336,31 @@
       <c r="Y5" s="13"/>
       <c r="Z5" s="13"/>
     </row>
-    <row r="6" hidden="1">
+    <row r="6">
       <c r="A6" s="11">
         <v>1.0</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C6" s="11">
         <v>0.0</v>
       </c>
       <c r="D6" s="11">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="14"/>
+        <v>59</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -3316,12 +3378,12 @@
       <c r="Y6" s="13"/>
       <c r="Z6" s="13"/>
     </row>
-    <row r="7">
+    <row r="7" hidden="1">
       <c r="A7" s="11">
         <v>4.0</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C7" s="11">
         <v>0.0</v>
@@ -3333,13 +3395,13 @@
         <v>15</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -3360,12 +3422,12 @@
       <c r="Y7" s="13"/>
       <c r="Z7" s="13"/>
     </row>
-    <row r="8">
+    <row r="8" hidden="1">
       <c r="A8" s="11">
         <v>4.0</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C8" s="11">
         <v>0.0</v>
@@ -3377,10 +3439,10 @@
         <v>15</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="13"/>
@@ -3402,12 +3464,12 @@
       <c r="Y8" s="13"/>
       <c r="Z8" s="13"/>
     </row>
-    <row r="9">
+    <row r="9" hidden="1">
       <c r="A9" s="11">
         <v>5.0</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C9" s="11">
         <v>0.0</v>
@@ -3419,13 +3481,13 @@
         <v>17</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
@@ -3446,12 +3508,12 @@
       <c r="Y9" s="13"/>
       <c r="Z9" s="13"/>
     </row>
-    <row r="10">
+    <row r="10" hidden="1">
       <c r="A10" s="11">
         <v>5.0</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C10" s="11">
         <v>0.0</v>
@@ -3463,10 +3525,10 @@
         <v>17</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -3488,12 +3550,12 @@
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
     </row>
-    <row r="11">
+    <row r="11" hidden="1">
       <c r="A11" s="11">
         <v>5.0</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C11" s="11">
         <v>0.0</v>
@@ -3505,25 +3567,25 @@
         <v>17</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
@@ -3545,7 +3607,7 @@
         <v>2.0</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C12" s="11">
         <v>0.0</v>
@@ -3557,19 +3619,19 @@
         <v>15</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
@@ -3593,7 +3655,7 @@
         <v>2.0</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C13" s="11">
         <v>0.0</v>
@@ -3605,10 +3667,10 @@
         <v>15</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="11"/>
@@ -3635,7 +3697,7 @@
         <v>6.0</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C14" s="11">
         <v>0.0</v>
@@ -3647,19 +3709,19 @@
         <v>17</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -3683,7 +3745,7 @@
         <v>8.0</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C15" s="11">
         <v>0.0</v>
@@ -3695,13 +3757,13 @@
         <v>23</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
@@ -3722,12 +3784,12 @@
       <c r="Y15" s="13"/>
       <c r="Z15" s="13"/>
     </row>
-    <row r="16">
+    <row r="16" hidden="1">
       <c r="A16" s="11">
         <v>11.0</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C16" s="11">
         <v>0.0</v>
@@ -3739,13 +3801,13 @@
         <v>11</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -3766,12 +3828,12 @@
       <c r="Y16" s="13"/>
       <c r="Z16" s="13"/>
     </row>
-    <row r="17">
+    <row r="17" hidden="1">
       <c r="A17" s="11">
         <v>11.0</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C17" s="11">
         <v>0.0</v>
@@ -3783,10 +3845,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
@@ -3813,7 +3875,7 @@
         <v>12.0</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C18" s="11">
         <v>0.0</v>
@@ -3825,7 +3887,7 @@
         <v>25</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -3853,7 +3915,7 @@
         <v>13.0</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C19" s="11">
         <v>0.0</v>
@@ -3865,13 +3927,13 @@
         <v>27</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -3897,7 +3959,7 @@
         <v>13.0</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C20" s="11">
         <v>0.0</v>
@@ -3909,12 +3971,14 @@
         <v>27</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="H20" s="13"/>
+        <v>102</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>103</v>
+      </c>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
@@ -3939,7 +4003,7 @@
         <v>13.0</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C21" s="11">
         <v>0.0</v>
@@ -3951,10 +4015,10 @@
         <v>27</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
@@ -3981,7 +4045,7 @@
         <v>13.0</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C22" s="11">
         <v>0.0</v>
@@ -3993,10 +4057,10 @@
         <v>27</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
@@ -4023,7 +4087,7 @@
         <v>13.0</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C23" s="11">
         <v>0.0</v>
@@ -4035,10 +4099,10 @@
         <v>27</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
@@ -4065,7 +4129,7 @@
         <v>13.0</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C24" s="11">
         <v>0.0</v>
@@ -4077,10 +4141,10 @@
         <v>27</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
@@ -4107,10 +4171,10 @@
         <v>13.0</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C25" s="11">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D25" s="11">
         <v>4.0</v>
@@ -4119,10 +4183,10 @@
         <v>27</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
@@ -4149,7 +4213,7 @@
         <v>13.0</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C26" s="11">
         <v>0.0</v>
@@ -4161,10 +4225,10 @@
         <v>27</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
@@ -4191,7 +4255,7 @@
         <v>13.0</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C27" s="11">
         <v>0.0</v>
@@ -4203,10 +4267,10 @@
         <v>27</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
@@ -4228,12 +4292,12 @@
       <c r="Y27" s="13"/>
       <c r="Z27" s="13"/>
     </row>
-    <row r="28">
+    <row r="28" hidden="1">
       <c r="A28" s="11">
         <v>9.0</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C28" s="11">
         <v>0.0</v>
@@ -4245,10 +4309,10 @@
         <v>29</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
@@ -4275,7 +4339,7 @@
         <v>7.0</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C29" s="11">
         <v>0.0</v>
@@ -4287,13 +4351,13 @@
         <v>15</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
@@ -4319,7 +4383,7 @@
         <v>7.0</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C30" s="11">
         <v>0.0</v>
@@ -4331,10 +4395,10 @@
         <v>15</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="13"/>
@@ -4361,7 +4425,7 @@
         <v>10.0</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C31" s="11">
         <v>1.0</v>
@@ -4373,25 +4437,25 @@
         <v>31</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
@@ -4413,7 +4477,7 @@
         <v>10.0</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C32" s="11">
         <v>1.0</v>
@@ -4425,19 +4489,19 @@
         <v>31</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
@@ -4461,7 +4525,7 @@
         <v>10.0</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C33" s="11">
         <v>1.0</v>
@@ -4473,19 +4537,19 @@
         <v>31</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
@@ -4509,7 +4573,7 @@
         <v>10.0</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C34" s="11">
         <v>1.0</v>
@@ -4521,13 +4585,13 @@
         <v>31</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="16"/>
@@ -4548,15 +4612,31 @@
       <c r="Y34" s="13"/>
       <c r="Z34" s="13"/>
     </row>
-    <row r="35">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
+    <row r="35" hidden="1">
+      <c r="A35" s="11">
+        <v>14.0</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D35" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>145</v>
+      </c>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
@@ -4577,14 +4657,30 @@
       <c r="Z35" s="13"/>
     </row>
     <row r="36">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
+      <c r="A36" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D36" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
@@ -4605,13 +4701,27 @@
       <c r="Z36" s="13"/>
     </row>
     <row r="37">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="A37" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D37" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>150</v>
+      </c>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
@@ -31737,16 +31847,15 @@
       <c r="Z1005" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$N$30">
+  <autoFilter ref="$A$1:$N$37">
     <filterColumn colId="0">
       <filters>
-        <filter val="11"/>
         <filter val="13"/>
-        <filter val="4"/>
-        <filter val="5"/>
+        <filter val="1"/>
+        <filter val="3"/>
         <filter val="6"/>
         <filter val="7"/>
-        <filter val="9"/>
+        <filter val="10"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -32227,1678 +32336,1678 @@
       </c>
     </row>
     <row r="15">
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16">
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17">
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18">
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19">
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20">
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
     </row>
     <row r="21">
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
     </row>
     <row r="22">
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
     </row>
     <row r="23">
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
     </row>
     <row r="24">
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
     </row>
     <row r="25">
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
     </row>
     <row r="26">
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
     </row>
     <row r="27">
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
     </row>
     <row r="28">
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
     </row>
     <row r="29">
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
     </row>
     <row r="30">
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
     </row>
     <row r="31">
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
     </row>
     <row r="32">
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
     </row>
     <row r="33">
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
     </row>
     <row r="34">
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
     </row>
     <row r="35">
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
     </row>
     <row r="36">
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
     </row>
     <row r="37">
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
     </row>
     <row r="38">
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
     </row>
     <row r="39">
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
     </row>
     <row r="40">
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
     </row>
     <row r="41">
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
     </row>
     <row r="42">
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
     </row>
     <row r="43">
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
     </row>
     <row r="44">
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
     </row>
     <row r="45">
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
     </row>
     <row r="46">
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
     </row>
     <row r="47">
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
     </row>
     <row r="48">
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
     </row>
     <row r="49">
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
     </row>
     <row r="50">
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
     </row>
     <row r="51">
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
     </row>
     <row r="52">
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
     </row>
     <row r="53">
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
     </row>
     <row r="54">
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
     </row>
     <row r="55">
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
     </row>
     <row r="56">
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
     </row>
     <row r="57">
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
     </row>
     <row r="58">
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
     </row>
     <row r="59">
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
     </row>
     <row r="60">
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
     </row>
     <row r="61">
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
     </row>
     <row r="62">
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
     </row>
     <row r="63">
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
     </row>
     <row r="64">
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
     </row>
     <row r="65">
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
     </row>
     <row r="66">
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
     </row>
     <row r="67">
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
     </row>
     <row r="68">
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
     </row>
     <row r="69">
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
     </row>
     <row r="70">
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
     </row>
     <row r="71">
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
     </row>
     <row r="72">
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
     </row>
     <row r="73">
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
     </row>
     <row r="74">
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
     </row>
     <row r="75">
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
     </row>
     <row r="76">
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
     </row>
     <row r="77">
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
     </row>
     <row r="78">
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
     </row>
     <row r="79">
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
     </row>
     <row r="80">
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
     </row>
     <row r="81">
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
     </row>
     <row r="82">
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
     </row>
     <row r="83">
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
     </row>
     <row r="84">
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
     </row>
     <row r="85">
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
     </row>
     <row r="86">
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
     </row>
     <row r="87">
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
     </row>
     <row r="88">
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
     </row>
     <row r="89">
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
     </row>
     <row r="90">
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
     </row>
     <row r="91">
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
     </row>
     <row r="92">
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
     </row>
     <row r="93">
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
     </row>
     <row r="94">
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
     </row>
     <row r="95">
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
     </row>
     <row r="96">
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
     </row>
     <row r="97">
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
     </row>
     <row r="98">
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
     </row>
     <row r="99">
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
     </row>
     <row r="100">
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
     </row>
     <row r="101">
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
     </row>
     <row r="102">
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
     </row>
     <row r="103">
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
     </row>
     <row r="104">
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
     </row>
     <row r="105">
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
     </row>
     <row r="106">
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="7"/>
     </row>
     <row r="107">
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="6"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
     </row>
     <row r="108">
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
-      <c r="J108" s="6"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
     </row>
     <row r="109">
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="6"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
     </row>
     <row r="110">
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="6"/>
-      <c r="J110" s="6"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
     </row>
     <row r="111">
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="6"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
     </row>
     <row r="112">
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="6"/>
-      <c r="J112" s="6"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
     </row>
     <row r="113">
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="6"/>
-      <c r="J113" s="6"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
     </row>
     <row r="114">
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
-      <c r="I114" s="6"/>
-      <c r="J114" s="6"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
     </row>
     <row r="115">
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
-      <c r="I115" s="6"/>
-      <c r="J115" s="6"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
     </row>
     <row r="116">
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
-      <c r="G116" s="6"/>
-      <c r="H116" s="6"/>
-      <c r="I116" s="6"/>
-      <c r="J116" s="6"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
     </row>
     <row r="117">
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="6"/>
-      <c r="I117" s="6"/>
-      <c r="J117" s="6"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
     </row>
     <row r="118">
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
-      <c r="I118" s="6"/>
-      <c r="J118" s="6"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
     </row>
     <row r="119">
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-      <c r="I119" s="6"/>
-      <c r="J119" s="6"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
     </row>
     <row r="120">
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
-      <c r="I120" s="6"/>
-      <c r="J120" s="6"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="7"/>
     </row>
     <row r="121">
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
-      <c r="H121" s="6"/>
-      <c r="I121" s="6"/>
-      <c r="J121" s="6"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="7"/>
+      <c r="J121" s="7"/>
     </row>
     <row r="122">
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
-      <c r="H122" s="6"/>
-      <c r="I122" s="6"/>
-      <c r="J122" s="6"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7"/>
+      <c r="J122" s="7"/>
     </row>
     <row r="123">
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
-      <c r="I123" s="6"/>
-      <c r="J123" s="6"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7"/>
+      <c r="J123" s="7"/>
     </row>
     <row r="124">
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
-      <c r="I124" s="6"/>
-      <c r="J124" s="6"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="7"/>
+      <c r="J124" s="7"/>
     </row>
     <row r="125">
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
-      <c r="I125" s="6"/>
-      <c r="J125" s="6"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7"/>
+      <c r="J125" s="7"/>
     </row>
     <row r="126">
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
-      <c r="I126" s="6"/>
-      <c r="J126" s="6"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="7"/>
+      <c r="J126" s="7"/>
     </row>
     <row r="127">
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
-      <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
-      <c r="I127" s="6"/>
-      <c r="J127" s="6"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="7"/>
+      <c r="J127" s="7"/>
     </row>
     <row r="128">
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
-      <c r="F128" s="6"/>
-      <c r="G128" s="6"/>
-      <c r="H128" s="6"/>
-      <c r="I128" s="6"/>
-      <c r="J128" s="6"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="7"/>
+      <c r="J128" s="7"/>
     </row>
     <row r="129">
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
-      <c r="F129" s="6"/>
-      <c r="G129" s="6"/>
-      <c r="H129" s="6"/>
-      <c r="I129" s="6"/>
-      <c r="J129" s="6"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="7"/>
+      <c r="J129" s="7"/>
     </row>
     <row r="130">
-      <c r="D130" s="6"/>
-      <c r="E130" s="6"/>
-      <c r="F130" s="6"/>
-      <c r="G130" s="6"/>
-      <c r="H130" s="6"/>
-      <c r="I130" s="6"/>
-      <c r="J130" s="6"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="7"/>
+      <c r="J130" s="7"/>
     </row>
     <row r="131">
-      <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
-      <c r="H131" s="6"/>
-      <c r="I131" s="6"/>
-      <c r="J131" s="6"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="7"/>
+      <c r="J131" s="7"/>
     </row>
     <row r="132">
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="6"/>
-      <c r="G132" s="6"/>
-      <c r="H132" s="6"/>
-      <c r="I132" s="6"/>
-      <c r="J132" s="6"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="7"/>
+      <c r="J132" s="7"/>
     </row>
     <row r="133">
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
-      <c r="H133" s="6"/>
-      <c r="I133" s="6"/>
-      <c r="J133" s="6"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="7"/>
+      <c r="J133" s="7"/>
     </row>
     <row r="134">
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="6"/>
-      <c r="G134" s="6"/>
-      <c r="H134" s="6"/>
-      <c r="I134" s="6"/>
-      <c r="J134" s="6"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="7"/>
+      <c r="J134" s="7"/>
     </row>
     <row r="135">
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6"/>
-      <c r="G135" s="6"/>
-      <c r="H135" s="6"/>
-      <c r="I135" s="6"/>
-      <c r="J135" s="6"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="7"/>
+      <c r="J135" s="7"/>
     </row>
     <row r="136">
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
-      <c r="F136" s="6"/>
-      <c r="G136" s="6"/>
-      <c r="H136" s="6"/>
-      <c r="I136" s="6"/>
-      <c r="J136" s="6"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="7"/>
+      <c r="J136" s="7"/>
     </row>
     <row r="137">
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6"/>
-      <c r="G137" s="6"/>
-      <c r="H137" s="6"/>
-      <c r="I137" s="6"/>
-      <c r="J137" s="6"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="7"/>
+      <c r="I137" s="7"/>
+      <c r="J137" s="7"/>
     </row>
     <row r="138">
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
-      <c r="F138" s="6"/>
-      <c r="G138" s="6"/>
-      <c r="H138" s="6"/>
-      <c r="I138" s="6"/>
-      <c r="J138" s="6"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="7"/>
+      <c r="J138" s="7"/>
     </row>
     <row r="139">
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
-      <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
-      <c r="H139" s="6"/>
-      <c r="I139" s="6"/>
-      <c r="J139" s="6"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="7"/>
+      <c r="I139" s="7"/>
+      <c r="J139" s="7"/>
     </row>
     <row r="140">
-      <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
-      <c r="F140" s="6"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="7"/>
+      <c r="I140" s="7"/>
+      <c r="J140" s="7"/>
     </row>
     <row r="141">
-      <c r="D141" s="6"/>
-      <c r="E141" s="6"/>
-      <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
-      <c r="H141" s="6"/>
-      <c r="I141" s="6"/>
-      <c r="J141" s="6"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="7"/>
+      <c r="I141" s="7"/>
+      <c r="J141" s="7"/>
     </row>
     <row r="142">
-      <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6"/>
-      <c r="H142" s="6"/>
-      <c r="I142" s="6"/>
-      <c r="J142" s="6"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="7"/>
+      <c r="J142" s="7"/>
     </row>
     <row r="143">
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="7"/>
+      <c r="J143" s="7"/>
     </row>
     <row r="144">
-      <c r="D144" s="6"/>
-      <c r="E144" s="6"/>
-      <c r="F144" s="6"/>
-      <c r="G144" s="6"/>
-      <c r="H144" s="6"/>
-      <c r="I144" s="6"/>
-      <c r="J144" s="6"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="7"/>
+      <c r="I144" s="7"/>
+      <c r="J144" s="7"/>
     </row>
     <row r="145">
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
-      <c r="F145" s="6"/>
-      <c r="G145" s="6"/>
-      <c r="H145" s="6"/>
-      <c r="I145" s="6"/>
-      <c r="J145" s="6"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="7"/>
+      <c r="I145" s="7"/>
+      <c r="J145" s="7"/>
     </row>
     <row r="146">
-      <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
-      <c r="F146" s="6"/>
-      <c r="G146" s="6"/>
-      <c r="H146" s="6"/>
-      <c r="I146" s="6"/>
-      <c r="J146" s="6"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="7"/>
+      <c r="I146" s="7"/>
+      <c r="J146" s="7"/>
     </row>
     <row r="147">
-      <c r="D147" s="6"/>
-      <c r="E147" s="6"/>
-      <c r="F147" s="6"/>
-      <c r="G147" s="6"/>
-      <c r="H147" s="6"/>
-      <c r="I147" s="6"/>
-      <c r="J147" s="6"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="7"/>
+      <c r="J147" s="7"/>
     </row>
     <row r="148">
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
-      <c r="F148" s="6"/>
-      <c r="G148" s="6"/>
-      <c r="H148" s="6"/>
-      <c r="I148" s="6"/>
-      <c r="J148" s="6"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="7"/>
+      <c r="I148" s="7"/>
+      <c r="J148" s="7"/>
     </row>
     <row r="149">
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
-      <c r="F149" s="6"/>
-      <c r="G149" s="6"/>
-      <c r="H149" s="6"/>
-      <c r="I149" s="6"/>
-      <c r="J149" s="6"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="7"/>
+      <c r="I149" s="7"/>
+      <c r="J149" s="7"/>
     </row>
     <row r="150">
-      <c r="D150" s="6"/>
-      <c r="E150" s="6"/>
-      <c r="F150" s="6"/>
-      <c r="G150" s="6"/>
-      <c r="H150" s="6"/>
-      <c r="I150" s="6"/>
-      <c r="J150" s="6"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="7"/>
+      <c r="J150" s="7"/>
     </row>
     <row r="151">
-      <c r="D151" s="6"/>
-      <c r="E151" s="6"/>
-      <c r="F151" s="6"/>
-      <c r="G151" s="6"/>
-      <c r="H151" s="6"/>
-      <c r="I151" s="6"/>
-      <c r="J151" s="6"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
+      <c r="G151" s="7"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="7"/>
+      <c r="J151" s="7"/>
     </row>
     <row r="152">
-      <c r="D152" s="6"/>
-      <c r="E152" s="6"/>
-      <c r="F152" s="6"/>
-      <c r="G152" s="6"/>
-      <c r="H152" s="6"/>
-      <c r="I152" s="6"/>
-      <c r="J152" s="6"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="7"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="7"/>
+      <c r="I152" s="7"/>
+      <c r="J152" s="7"/>
     </row>
     <row r="153">
-      <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
-      <c r="F153" s="6"/>
-      <c r="G153" s="6"/>
-      <c r="H153" s="6"/>
-      <c r="I153" s="6"/>
-      <c r="J153" s="6"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7"/>
+      <c r="G153" s="7"/>
+      <c r="H153" s="7"/>
+      <c r="I153" s="7"/>
+      <c r="J153" s="7"/>
     </row>
     <row r="154">
-      <c r="D154" s="6"/>
-      <c r="E154" s="6"/>
-      <c r="F154" s="6"/>
-      <c r="G154" s="6"/>
-      <c r="H154" s="6"/>
-      <c r="I154" s="6"/>
-      <c r="J154" s="6"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
+      <c r="I154" s="7"/>
+      <c r="J154" s="7"/>
     </row>
     <row r="155">
-      <c r="D155" s="6"/>
-      <c r="E155" s="6"/>
-      <c r="F155" s="6"/>
-      <c r="G155" s="6"/>
-      <c r="H155" s="6"/>
-      <c r="I155" s="6"/>
-      <c r="J155" s="6"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="7"/>
+      <c r="J155" s="7"/>
     </row>
     <row r="156">
-      <c r="D156" s="6"/>
-      <c r="E156" s="6"/>
-      <c r="F156" s="6"/>
-      <c r="G156" s="6"/>
-      <c r="H156" s="6"/>
-      <c r="I156" s="6"/>
-      <c r="J156" s="6"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="7"/>
+      <c r="I156" s="7"/>
+      <c r="J156" s="7"/>
     </row>
     <row r="157">
-      <c r="D157" s="6"/>
-      <c r="E157" s="6"/>
-      <c r="F157" s="6"/>
-      <c r="G157" s="6"/>
-      <c r="H157" s="6"/>
-      <c r="I157" s="6"/>
-      <c r="J157" s="6"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="7"/>
+      <c r="I157" s="7"/>
+      <c r="J157" s="7"/>
     </row>
     <row r="158">
-      <c r="D158" s="6"/>
-      <c r="E158" s="6"/>
-      <c r="F158" s="6"/>
-      <c r="G158" s="6"/>
-      <c r="H158" s="6"/>
-      <c r="I158" s="6"/>
-      <c r="J158" s="6"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="7"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="7"/>
+      <c r="I158" s="7"/>
+      <c r="J158" s="7"/>
     </row>
     <row r="159">
-      <c r="D159" s="6"/>
-      <c r="E159" s="6"/>
-      <c r="F159" s="6"/>
-      <c r="G159" s="6"/>
-      <c r="H159" s="6"/>
-      <c r="I159" s="6"/>
-      <c r="J159" s="6"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7"/>
+      <c r="I159" s="7"/>
+      <c r="J159" s="7"/>
     </row>
     <row r="160">
-      <c r="D160" s="6"/>
-      <c r="E160" s="6"/>
-      <c r="F160" s="6"/>
-      <c r="G160" s="6"/>
-      <c r="H160" s="6"/>
-      <c r="I160" s="6"/>
-      <c r="J160" s="6"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="7"/>
+      <c r="J160" s="7"/>
     </row>
     <row r="161">
-      <c r="D161" s="6"/>
-      <c r="E161" s="6"/>
-      <c r="F161" s="6"/>
-      <c r="G161" s="6"/>
-      <c r="H161" s="6"/>
-      <c r="I161" s="6"/>
-      <c r="J161" s="6"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
+      <c r="G161" s="7"/>
+      <c r="H161" s="7"/>
+      <c r="I161" s="7"/>
+      <c r="J161" s="7"/>
     </row>
     <row r="162">
-      <c r="D162" s="6"/>
-      <c r="E162" s="6"/>
-      <c r="F162" s="6"/>
-      <c r="G162" s="6"/>
-      <c r="H162" s="6"/>
-      <c r="I162" s="6"/>
-      <c r="J162" s="6"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="7"/>
+      <c r="I162" s="7"/>
+      <c r="J162" s="7"/>
     </row>
     <row r="163">
-      <c r="D163" s="6"/>
-      <c r="E163" s="6"/>
-      <c r="F163" s="6"/>
-      <c r="G163" s="6"/>
-      <c r="H163" s="6"/>
-      <c r="I163" s="6"/>
-      <c r="J163" s="6"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="7"/>
+      <c r="I163" s="7"/>
+      <c r="J163" s="7"/>
     </row>
     <row r="164">
-      <c r="D164" s="6"/>
-      <c r="E164" s="6"/>
-      <c r="F164" s="6"/>
-      <c r="G164" s="6"/>
-      <c r="H164" s="6"/>
-      <c r="I164" s="6"/>
-      <c r="J164" s="6"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="7"/>
+      <c r="G164" s="7"/>
+      <c r="H164" s="7"/>
+      <c r="I164" s="7"/>
+      <c r="J164" s="7"/>
     </row>
     <row r="165">
-      <c r="D165" s="6"/>
-      <c r="E165" s="6"/>
-      <c r="F165" s="6"/>
-      <c r="G165" s="6"/>
-      <c r="H165" s="6"/>
-      <c r="I165" s="6"/>
-      <c r="J165" s="6"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="7"/>
+      <c r="G165" s="7"/>
+      <c r="H165" s="7"/>
+      <c r="I165" s="7"/>
+      <c r="J165" s="7"/>
     </row>
     <row r="166">
-      <c r="D166" s="6"/>
-      <c r="E166" s="6"/>
-      <c r="F166" s="6"/>
-      <c r="G166" s="6"/>
-      <c r="H166" s="6"/>
-      <c r="I166" s="6"/>
-      <c r="J166" s="6"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
+      <c r="I166" s="7"/>
+      <c r="J166" s="7"/>
     </row>
     <row r="167">
-      <c r="D167" s="6"/>
-      <c r="E167" s="6"/>
-      <c r="F167" s="6"/>
-      <c r="G167" s="6"/>
-      <c r="H167" s="6"/>
-      <c r="I167" s="6"/>
-      <c r="J167" s="6"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
+      <c r="F167" s="7"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="7"/>
+      <c r="I167" s="7"/>
+      <c r="J167" s="7"/>
     </row>
     <row r="168">
-      <c r="D168" s="6"/>
-      <c r="E168" s="6"/>
-      <c r="F168" s="6"/>
-      <c r="G168" s="6"/>
-      <c r="H168" s="6"/>
-      <c r="I168" s="6"/>
-      <c r="J168" s="6"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="7"/>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
+      <c r="I168" s="7"/>
+      <c r="J168" s="7"/>
     </row>
     <row r="169">
-      <c r="D169" s="6"/>
-      <c r="E169" s="6"/>
-      <c r="F169" s="6"/>
-      <c r="G169" s="6"/>
-      <c r="H169" s="6"/>
-      <c r="I169" s="6"/>
-      <c r="J169" s="6"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="7"/>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
+      <c r="H169" s="7"/>
+      <c r="I169" s="7"/>
+      <c r="J169" s="7"/>
     </row>
     <row r="170">
-      <c r="D170" s="6"/>
-      <c r="E170" s="6"/>
-      <c r="F170" s="6"/>
-      <c r="G170" s="6"/>
-      <c r="H170" s="6"/>
-      <c r="I170" s="6"/>
-      <c r="J170" s="6"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="7"/>
+      <c r="I170" s="7"/>
+      <c r="J170" s="7"/>
     </row>
     <row r="171">
-      <c r="D171" s="6"/>
-      <c r="E171" s="6"/>
-      <c r="F171" s="6"/>
-      <c r="G171" s="6"/>
-      <c r="H171" s="6"/>
-      <c r="I171" s="6"/>
-      <c r="J171" s="6"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
+      <c r="H171" s="7"/>
+      <c r="I171" s="7"/>
+      <c r="J171" s="7"/>
     </row>
     <row r="172">
-      <c r="D172" s="6"/>
-      <c r="E172" s="6"/>
-      <c r="F172" s="6"/>
-      <c r="G172" s="6"/>
-      <c r="H172" s="6"/>
-      <c r="I172" s="6"/>
-      <c r="J172" s="6"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="7"/>
+      <c r="F172" s="7"/>
+      <c r="G172" s="7"/>
+      <c r="H172" s="7"/>
+      <c r="I172" s="7"/>
+      <c r="J172" s="7"/>
     </row>
     <row r="173">
-      <c r="D173" s="6"/>
-      <c r="E173" s="6"/>
-      <c r="F173" s="6"/>
-      <c r="G173" s="6"/>
-      <c r="H173" s="6"/>
-      <c r="I173" s="6"/>
-      <c r="J173" s="6"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="7"/>
+      <c r="F173" s="7"/>
+      <c r="G173" s="7"/>
+      <c r="H173" s="7"/>
+      <c r="I173" s="7"/>
+      <c r="J173" s="7"/>
     </row>
     <row r="174">
-      <c r="D174" s="6"/>
-      <c r="E174" s="6"/>
-      <c r="F174" s="6"/>
-      <c r="G174" s="6"/>
-      <c r="H174" s="6"/>
-      <c r="I174" s="6"/>
-      <c r="J174" s="6"/>
+      <c r="D174" s="7"/>
+      <c r="E174" s="7"/>
+      <c r="F174" s="7"/>
+      <c r="G174" s="7"/>
+      <c r="H174" s="7"/>
+      <c r="I174" s="7"/>
+      <c r="J174" s="7"/>
     </row>
     <row r="175">
-      <c r="D175" s="6"/>
-      <c r="E175" s="6"/>
-      <c r="F175" s="6"/>
-      <c r="G175" s="6"/>
-      <c r="H175" s="6"/>
-      <c r="I175" s="6"/>
-      <c r="J175" s="6"/>
+      <c r="D175" s="7"/>
+      <c r="E175" s="7"/>
+      <c r="F175" s="7"/>
+      <c r="G175" s="7"/>
+      <c r="H175" s="7"/>
+      <c r="I175" s="7"/>
+      <c r="J175" s="7"/>
     </row>
     <row r="176">
-      <c r="D176" s="6"/>
-      <c r="E176" s="6"/>
-      <c r="F176" s="6"/>
-      <c r="G176" s="6"/>
-      <c r="H176" s="6"/>
-      <c r="I176" s="6"/>
-      <c r="J176" s="6"/>
+      <c r="D176" s="7"/>
+      <c r="E176" s="7"/>
+      <c r="F176" s="7"/>
+      <c r="G176" s="7"/>
+      <c r="H176" s="7"/>
+      <c r="I176" s="7"/>
+      <c r="J176" s="7"/>
     </row>
     <row r="177">
-      <c r="D177" s="6"/>
-      <c r="E177" s="6"/>
-      <c r="F177" s="6"/>
-      <c r="G177" s="6"/>
-      <c r="H177" s="6"/>
-      <c r="I177" s="6"/>
-      <c r="J177" s="6"/>
+      <c r="D177" s="7"/>
+      <c r="E177" s="7"/>
+      <c r="F177" s="7"/>
+      <c r="G177" s="7"/>
+      <c r="H177" s="7"/>
+      <c r="I177" s="7"/>
+      <c r="J177" s="7"/>
     </row>
     <row r="178">
-      <c r="D178" s="6"/>
-      <c r="E178" s="6"/>
-      <c r="F178" s="6"/>
-      <c r="G178" s="6"/>
-      <c r="H178" s="6"/>
-      <c r="I178" s="6"/>
-      <c r="J178" s="6"/>
+      <c r="D178" s="7"/>
+      <c r="E178" s="7"/>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7"/>
+      <c r="H178" s="7"/>
+      <c r="I178" s="7"/>
+      <c r="J178" s="7"/>
     </row>
     <row r="179">
-      <c r="D179" s="6"/>
-      <c r="E179" s="6"/>
-      <c r="F179" s="6"/>
-      <c r="G179" s="6"/>
-      <c r="H179" s="6"/>
-      <c r="I179" s="6"/>
-      <c r="J179" s="6"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="7"/>
+      <c r="G179" s="7"/>
+      <c r="H179" s="7"/>
+      <c r="I179" s="7"/>
+      <c r="J179" s="7"/>
     </row>
     <row r="180">
-      <c r="D180" s="6"/>
-      <c r="E180" s="6"/>
-      <c r="F180" s="6"/>
-      <c r="G180" s="6"/>
-      <c r="H180" s="6"/>
-      <c r="I180" s="6"/>
-      <c r="J180" s="6"/>
+      <c r="D180" s="7"/>
+      <c r="E180" s="7"/>
+      <c r="F180" s="7"/>
+      <c r="G180" s="7"/>
+      <c r="H180" s="7"/>
+      <c r="I180" s="7"/>
+      <c r="J180" s="7"/>
     </row>
     <row r="181">
-      <c r="D181" s="6"/>
-      <c r="E181" s="6"/>
-      <c r="F181" s="6"/>
-      <c r="G181" s="6"/>
-      <c r="H181" s="6"/>
-      <c r="I181" s="6"/>
-      <c r="J181" s="6"/>
+      <c r="D181" s="7"/>
+      <c r="E181" s="7"/>
+      <c r="F181" s="7"/>
+      <c r="G181" s="7"/>
+      <c r="H181" s="7"/>
+      <c r="I181" s="7"/>
+      <c r="J181" s="7"/>
     </row>
     <row r="182">
-      <c r="D182" s="6"/>
-      <c r="E182" s="6"/>
-      <c r="F182" s="6"/>
-      <c r="G182" s="6"/>
-      <c r="H182" s="6"/>
-      <c r="I182" s="6"/>
-      <c r="J182" s="6"/>
+      <c r="D182" s="7"/>
+      <c r="E182" s="7"/>
+      <c r="F182" s="7"/>
+      <c r="G182" s="7"/>
+      <c r="H182" s="7"/>
+      <c r="I182" s="7"/>
+      <c r="J182" s="7"/>
     </row>
     <row r="183">
-      <c r="D183" s="6"/>
-      <c r="E183" s="6"/>
-      <c r="F183" s="6"/>
-      <c r="G183" s="6"/>
-      <c r="H183" s="6"/>
-      <c r="I183" s="6"/>
-      <c r="J183" s="6"/>
+      <c r="D183" s="7"/>
+      <c r="E183" s="7"/>
+      <c r="F183" s="7"/>
+      <c r="G183" s="7"/>
+      <c r="H183" s="7"/>
+      <c r="I183" s="7"/>
+      <c r="J183" s="7"/>
     </row>
     <row r="184">
-      <c r="D184" s="6"/>
-      <c r="E184" s="6"/>
-      <c r="F184" s="6"/>
-      <c r="G184" s="6"/>
-      <c r="H184" s="6"/>
-      <c r="I184" s="6"/>
-      <c r="J184" s="6"/>
+      <c r="D184" s="7"/>
+      <c r="E184" s="7"/>
+      <c r="F184" s="7"/>
+      <c r="G184" s="7"/>
+      <c r="H184" s="7"/>
+      <c r="I184" s="7"/>
+      <c r="J184" s="7"/>
     </row>
     <row r="185">
-      <c r="D185" s="6"/>
-      <c r="E185" s="6"/>
-      <c r="F185" s="6"/>
-      <c r="G185" s="6"/>
-      <c r="H185" s="6"/>
-      <c r="I185" s="6"/>
-      <c r="J185" s="6"/>
+      <c r="D185" s="7"/>
+      <c r="E185" s="7"/>
+      <c r="F185" s="7"/>
+      <c r="G185" s="7"/>
+      <c r="H185" s="7"/>
+      <c r="I185" s="7"/>
+      <c r="J185" s="7"/>
     </row>
     <row r="186">
-      <c r="D186" s="6"/>
-      <c r="E186" s="6"/>
-      <c r="F186" s="6"/>
-      <c r="G186" s="6"/>
-      <c r="H186" s="6"/>
-      <c r="I186" s="6"/>
-      <c r="J186" s="6"/>
+      <c r="D186" s="7"/>
+      <c r="E186" s="7"/>
+      <c r="F186" s="7"/>
+      <c r="G186" s="7"/>
+      <c r="H186" s="7"/>
+      <c r="I186" s="7"/>
+      <c r="J186" s="7"/>
     </row>
     <row r="187">
-      <c r="D187" s="6"/>
-      <c r="E187" s="6"/>
-      <c r="F187" s="6"/>
-      <c r="G187" s="6"/>
-      <c r="H187" s="6"/>
-      <c r="I187" s="6"/>
-      <c r="J187" s="6"/>
+      <c r="D187" s="7"/>
+      <c r="E187" s="7"/>
+      <c r="F187" s="7"/>
+      <c r="G187" s="7"/>
+      <c r="H187" s="7"/>
+      <c r="I187" s="7"/>
+      <c r="J187" s="7"/>
     </row>
     <row r="188">
-      <c r="D188" s="6"/>
-      <c r="E188" s="6"/>
-      <c r="F188" s="6"/>
-      <c r="G188" s="6"/>
-      <c r="H188" s="6"/>
-      <c r="I188" s="6"/>
-      <c r="J188" s="6"/>
+      <c r="D188" s="7"/>
+      <c r="E188" s="7"/>
+      <c r="F188" s="7"/>
+      <c r="G188" s="7"/>
+      <c r="H188" s="7"/>
+      <c r="I188" s="7"/>
+      <c r="J188" s="7"/>
     </row>
     <row r="189">
-      <c r="D189" s="6"/>
-      <c r="E189" s="6"/>
-      <c r="F189" s="6"/>
-      <c r="G189" s="6"/>
-      <c r="H189" s="6"/>
-      <c r="I189" s="6"/>
-      <c r="J189" s="6"/>
+      <c r="D189" s="7"/>
+      <c r="E189" s="7"/>
+      <c r="F189" s="7"/>
+      <c r="G189" s="7"/>
+      <c r="H189" s="7"/>
+      <c r="I189" s="7"/>
+      <c r="J189" s="7"/>
     </row>
     <row r="190">
-      <c r="D190" s="6"/>
-      <c r="E190" s="6"/>
-      <c r="F190" s="6"/>
-      <c r="G190" s="6"/>
-      <c r="H190" s="6"/>
-      <c r="I190" s="6"/>
-      <c r="J190" s="6"/>
+      <c r="D190" s="7"/>
+      <c r="E190" s="7"/>
+      <c r="F190" s="7"/>
+      <c r="G190" s="7"/>
+      <c r="H190" s="7"/>
+      <c r="I190" s="7"/>
+      <c r="J190" s="7"/>
     </row>
     <row r="191">
-      <c r="D191" s="6"/>
-      <c r="E191" s="6"/>
-      <c r="F191" s="6"/>
-      <c r="G191" s="6"/>
-      <c r="H191" s="6"/>
-      <c r="I191" s="6"/>
-      <c r="J191" s="6"/>
+      <c r="D191" s="7"/>
+      <c r="E191" s="7"/>
+      <c r="F191" s="7"/>
+      <c r="G191" s="7"/>
+      <c r="H191" s="7"/>
+      <c r="I191" s="7"/>
+      <c r="J191" s="7"/>
     </row>
     <row r="192">
-      <c r="D192" s="6"/>
-      <c r="E192" s="6"/>
-      <c r="F192" s="6"/>
-      <c r="G192" s="6"/>
-      <c r="H192" s="6"/>
-      <c r="I192" s="6"/>
-      <c r="J192" s="6"/>
+      <c r="D192" s="7"/>
+      <c r="E192" s="7"/>
+      <c r="F192" s="7"/>
+      <c r="G192" s="7"/>
+      <c r="H192" s="7"/>
+      <c r="I192" s="7"/>
+      <c r="J192" s="7"/>
     </row>
     <row r="193">
-      <c r="D193" s="6"/>
-      <c r="E193" s="6"/>
-      <c r="F193" s="6"/>
-      <c r="G193" s="6"/>
-      <c r="H193" s="6"/>
-      <c r="I193" s="6"/>
-      <c r="J193" s="6"/>
+      <c r="D193" s="7"/>
+      <c r="E193" s="7"/>
+      <c r="F193" s="7"/>
+      <c r="G193" s="7"/>
+      <c r="H193" s="7"/>
+      <c r="I193" s="7"/>
+      <c r="J193" s="7"/>
     </row>
     <row r="194">
-      <c r="D194" s="6"/>
-      <c r="E194" s="6"/>
-      <c r="F194" s="6"/>
-      <c r="G194" s="6"/>
-      <c r="H194" s="6"/>
-      <c r="I194" s="6"/>
-      <c r="J194" s="6"/>
+      <c r="D194" s="7"/>
+      <c r="E194" s="7"/>
+      <c r="F194" s="7"/>
+      <c r="G194" s="7"/>
+      <c r="H194" s="7"/>
+      <c r="I194" s="7"/>
+      <c r="J194" s="7"/>
     </row>
     <row r="195">
-      <c r="D195" s="6"/>
-      <c r="E195" s="6"/>
-      <c r="F195" s="6"/>
-      <c r="G195" s="6"/>
-      <c r="H195" s="6"/>
-      <c r="I195" s="6"/>
-      <c r="J195" s="6"/>
+      <c r="D195" s="7"/>
+      <c r="E195" s="7"/>
+      <c r="F195" s="7"/>
+      <c r="G195" s="7"/>
+      <c r="H195" s="7"/>
+      <c r="I195" s="7"/>
+      <c r="J195" s="7"/>
     </row>
     <row r="196">
-      <c r="D196" s="6"/>
-      <c r="E196" s="6"/>
-      <c r="F196" s="6"/>
-      <c r="G196" s="6"/>
-      <c r="H196" s="6"/>
-      <c r="I196" s="6"/>
-      <c r="J196" s="6"/>
+      <c r="D196" s="7"/>
+      <c r="E196" s="7"/>
+      <c r="F196" s="7"/>
+      <c r="G196" s="7"/>
+      <c r="H196" s="7"/>
+      <c r="I196" s="7"/>
+      <c r="J196" s="7"/>
     </row>
     <row r="197">
-      <c r="D197" s="6"/>
-      <c r="E197" s="6"/>
-      <c r="F197" s="6"/>
-      <c r="G197" s="6"/>
-      <c r="H197" s="6"/>
-      <c r="I197" s="6"/>
-      <c r="J197" s="6"/>
+      <c r="D197" s="7"/>
+      <c r="E197" s="7"/>
+      <c r="F197" s="7"/>
+      <c r="G197" s="7"/>
+      <c r="H197" s="7"/>
+      <c r="I197" s="7"/>
+      <c r="J197" s="7"/>
     </row>
     <row r="198">
-      <c r="D198" s="6"/>
-      <c r="E198" s="6"/>
-      <c r="F198" s="6"/>
-      <c r="G198" s="6"/>
-      <c r="H198" s="6"/>
-      <c r="I198" s="6"/>
-      <c r="J198" s="6"/>
+      <c r="D198" s="7"/>
+      <c r="E198" s="7"/>
+      <c r="F198" s="7"/>
+      <c r="G198" s="7"/>
+      <c r="H198" s="7"/>
+      <c r="I198" s="7"/>
+      <c r="J198" s="7"/>
     </row>
     <row r="199">
-      <c r="D199" s="6"/>
-      <c r="E199" s="6"/>
-      <c r="F199" s="6"/>
-      <c r="G199" s="6"/>
-      <c r="H199" s="6"/>
-      <c r="I199" s="6"/>
-      <c r="J199" s="6"/>
+      <c r="D199" s="7"/>
+      <c r="E199" s="7"/>
+      <c r="F199" s="7"/>
+      <c r="G199" s="7"/>
+      <c r="H199" s="7"/>
+      <c r="I199" s="7"/>
+      <c r="J199" s="7"/>
     </row>
     <row r="200">
-      <c r="D200" s="6"/>
-      <c r="E200" s="6"/>
-      <c r="F200" s="6"/>
-      <c r="G200" s="6"/>
-      <c r="H200" s="6"/>
-      <c r="I200" s="6"/>
-      <c r="J200" s="6"/>
+      <c r="D200" s="7"/>
+      <c r="E200" s="7"/>
+      <c r="F200" s="7"/>
+      <c r="G200" s="7"/>
+      <c r="H200" s="7"/>
+      <c r="I200" s="7"/>
+      <c r="J200" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:J200">
@@ -33927,46 +34036,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -33974,7 +34083,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C2" s="3">
         <v>0.0</v>
@@ -33986,13 +34095,13 @@
         <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -34018,46 +34127,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -34065,7 +34174,7 @@
         <v>2.0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C2" s="4">
         <v>0.0</v>
@@ -34077,19 +34186,19 @@
         <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="N2" s="19"/>
     </row>
@@ -34098,7 +34207,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C3" s="4">
         <v>1.0</v>
@@ -34110,19 +34219,19 @@
         <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
@@ -34133,7 +34242,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C4" s="4">
         <v>0.0</v>
@@ -34145,19 +34254,19 @@
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
@@ -34169,7 +34278,7 @@
         <v>5.0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C5" s="4">
         <v>0.0</v>
@@ -34181,19 +34290,19 @@
         <v>17</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="N5" s="19"/>
     </row>
@@ -34202,7 +34311,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C6" s="4">
         <v>1.0</v>
@@ -34214,19 +34323,19 @@
         <v>17</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
@@ -34237,7 +34346,7 @@
         <v>7.0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C7" s="4">
         <v>0.0</v>
@@ -34249,19 +34358,19 @@
         <v>15</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
@@ -34273,7 +34382,7 @@
         <v>9.0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="C8" s="4">
         <v>0.0</v>
@@ -34285,13 +34394,13 @@
         <v>29</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9">
@@ -34299,7 +34408,7 @@
         <v>1.0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C9" s="4">
         <v>0.0</v>
@@ -34311,16 +34420,16 @@
         <v>13</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
@@ -34332,7 +34441,7 @@
         <v>1.0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C10" s="4">
         <v>0.0</v>
@@ -34344,10 +34453,10 @@
         <v>13</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>

--- a/db/DB.xlsx
+++ b/db/DB.xlsx
@@ -10,14 +10,17 @@
     <sheet state="visible" name="ejemplo" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">actividades!$A$1:$N$37</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">actividades!$A$1:$N$41</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="185">
+  <si>
+    <t>Orden de aparición</t>
+  </si>
   <si>
     <t>id</t>
   </si>
@@ -166,7 +169,7 @@
     <t>white</t>
   </si>
   <si>
-    <t>Hola corazón. Hoy tienes alabanza por la tardecita. Te amo preciosa.</t>
+    <t>Buenos días preciosa, hoy es alabanza. Amor ayúdame preguntándome si ya oré, esta semana el tiempo del trabajo me está absorbiendo. Te amo!</t>
   </si>
   <si>
     <t>Horarios y sedes IDMJI</t>
@@ -178,25 +181,25 @@
     <t>Oración y lectura</t>
   </si>
   <si>
-    <t>Trata de llegar tempranito para orar y leer un tris amada mía.</t>
+    <t>Hoy por primera vez aprovecha que no tienes servicio y trata de llegar tempranito para orar y leer un tris.</t>
   </si>
   <si>
     <t>Servicio</t>
   </si>
   <si>
-    <t>Esta semanita fuiste muy dispuesta, gran trabajo amor.</t>
+    <t>No olvides llenar tu formulario de disponibilidades.</t>
   </si>
   <si>
     <t>Fundación</t>
   </si>
   <si>
-    <t>Lo que has hecho por la fundación también me parece precioso.</t>
+    <t>Tenemos presupuestado tiempo el jueves.</t>
   </si>
   <si>
     <t>IDMJI-EN</t>
   </si>
   <si>
-    <t>Estos son los sábados.</t>
+    <t>Estos son los sábados. Amor! el sábado no te actualicé el tracker!! Esta semana lo voy a dejar listo desde el viernes para que puedas verlo el sábado. Te amoooo</t>
   </si>
   <si>
     <t>Creación de obra</t>
@@ -253,7 +256,7 @@
     <t>Maqueta en baja libro infantil</t>
   </si>
   <si>
-    <t>¡Amor! igual a como conversamos ayer para el otro proyecto ¿Por qué no piensas una maqueta en muy baja resolución que estructure la narrativa general.&lt;/br&gt;&lt;/br&gt;Para el tema pedagógico es importante que consideres &lt;u&gt;un aprendizaje clave&lt;/u&gt; y sólo uno, para los niños. No es tan pedagógico empacar muchas cosas que aprender en un sólo bloque. Yo te propongo que lo inspires en el Marshmellow test sobre delayed gratification, ese es para niños de 4 o 5 años. Podrías pensar una narrativa que materialice esa noción de autocontrol.&lt;/br&gt;&lt;/br&gt;Te dejo un video enlazado a la foto. Y otro video sobre planear tu historia si quieres verlos.</t>
+    <t>¡Bella! No se si alcanzaste a ver estas cosas la semana pasada, por eso te las dejo de nuevo. Pero mejor, agéndame mañana miércoles para que podamos trabajar juntitos 2 horitas en este proyecto. En esa sesión podemos co-crear boceto de contenido!&lt;/br&gt;&lt;/br&gt;Hoy es martes, así que en teoría esto no va, pero como llevamos dos festivos seguidos pensé en poner las cosas del lunes hoy para no descuidarlas.</t>
   </si>
   <si>
     <t>&lt;a target="_blank" href="https://youtu.be/M0yhHKWUa0g"&gt;&lt;img src="./img/marshmellow.png" alt="Test del masmelo" style="width:100%" /&gt;&lt;/a&gt;</t>
@@ -268,22 +271,19 @@
     <t>Doméstika: dibujo anatómico</t>
   </si>
   <si>
-    <t>Preciosa! sigue con tu curso de dibujo anatómico. Hoy en particular, si quieres seguir con tu curso, tendrías que dedicarle tiempito de tus 3 horas extra. Está bien.. puedes seguirlo la otra semanita. Aunque no pierdas el ritmo!</t>
+    <t>Hoy tienes 4 horas para tu curso de dibujo anatómico si deseas! De verdad estoy muy orgulloso de lo que has avanzado con esto! Si tengo tiempo reviso qué cursos puedo tomar también :3</t>
   </si>
   <si>
-    <t>Mapear organizaciones</t>
+    <t>&lt;a target="_blank" href="https://www.domestika.org/es/courses/area/184-dibujo-anatomico"&gt;&lt;img src="./img/dibujo.png" alt="Imágen del curso de dibujo anatómico en domestika" style="width:100%" /&gt;&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Preciosa, mientras haces lo de mapear vacantes, ve armando la tablita o el board de organizaciones que tienen departamentos de sostenibilidad en Colombia. Buscan en LinkedIn las empresas así como te muestro en la foto. ¡Que sobre y no que falte! Toooodas en las que eventualmente te gustaría trabajar ponlas!&lt;/br&gt;&lt;/br&gt;¡También puedes buscar en las 100 empresas más grandes de Colombia! Te dejo el enlace abajo.</t>
+    <t>Mapear vacantes en LinkedIn</t>
   </si>
   <si>
-    <t>&lt;a target="_blank" href="./img/empresas.png"&gt;&lt;img src="./img/empresas.png" alt="Captura de pantalla buscador de LinkedIn" style="width:100%" /&gt;&lt;/a&gt;</t>
+    <t>¡Hermosa! Te dejo el mensajito de la semana pasada. Si te parece bien: hoy haz trabajo simultáneo de esto y de fortalecimiento de red.&lt;/br&gt;&lt;/br&gt;Te propongo que para aplicaciones busques (sólo mapear por ahora, y esta semana aplicas) ofertas de trabajo en LinkedIn para posiciones de sostenibilidad, ESG, etc.&lt;/br&gt;&lt;/br&gt;Pero mientras haces eso, ¡ve haciendo el mapeo de empresasque tienen programas de sostenibilidad en Colombia! Ten dos tablas separadas, pero ve haciendo las dos cosas juntitas. Abajito te dejo la ficha que explica esa otra actividad. La moví para que la puedas ver hoy.</t>
   </si>
   <si>
-    <t>100 empresas más grandes de Colombia</t>
-  </si>
-  <si>
-    <t>https://www.larepublica.co/especiales/las-1-000-empresas-mas-grandes-de-2022/ecopetrol-lidera-las-100-empresas-mas-grandes-de-colombia-en-2022-3642520</t>
+    <t>&lt;a target="_blank" href="./img/workshop.png"&gt;&lt;img src="./img/linked2.png" alt="Captura de pantalla búsqueda ESG en trabajos LinkedIn" style="width:100%" /&gt;&lt;/a&gt;</t>
   </si>
   <si>
     <t>Columnas de la tabla de becas</t>
@@ -298,7 +298,7 @@
     <t>Gym</t>
   </si>
   <si>
-    <t>¡Hola hermosa! ¡Como ayer fuiste a la fundación, hoy puedes ir al Gym si quieres! Empieza tu día viendo influencers fit que te gusten y así te motivas!</t>
+    <t>Amada! Me encanta que ya estés comenzndo a ir la gym! Eres una una dura y me parece muy sexy 🤭 Como ayer fuiste, tú decides si vas hoy. Recuerda que esto hace parte de las &lt;u&gt;3 horas extra&lt;/u&gt; del día.</t>
   </si>
   <si>
     <t>&lt;a target="_blank" href="./img/gym.png"&gt;&lt;img src="./img/gym.png" alt="Dos mujeres riéndose sentadas en el gym." style="width:100%" /&gt;&lt;/a&gt;&lt;/br&gt;</t>
@@ -307,25 +307,16 @@
     <t>Natación</t>
   </si>
   <si>
-    <t>La otra semana probamos el viernes mi corazón.</t>
+    <t>Corazón, yo no he ido a la cita médica aaahhh. Podemos tratar de agendar este viernes para ir a la U y que yo vaya a mi cita médica puede ser. Me escribes por waa para agendar eso?</t>
   </si>
   <si>
     <t>Ir a la U a nadar</t>
   </si>
   <si>
-    <t>Curso de dibujo anatómico</t>
-  </si>
-  <si>
-    <t>Si quieres, como te veo muy engomada, puedes dedicar tiempo extra a esto, o lo que prefieras amor.</t>
-  </si>
-  <si>
-    <t>&lt;a target="_blank" href="https://www.domestika.org/es/courses/area/184-dibujo-anatomico"&gt;&lt;img src="./img/dibujo.png" alt="Imágen del curso de dibujo anatómico en domestika" style="width:100%" /&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Lectura</t>
   </si>
   <si>
-    <t>¡Ve buscando qué libro te gustaría leer! Si quieres, la otra semana vamos a la biblioteca de la U y pides prestado el libro que quieras!&lt;/br&gt;&lt;/br&gt; Te dejo enlazado en la imágen la página de la biblioteca.</t>
+    <t>Ayer fuiste al gym entonces si quieres ir buscando un libro que quieras leer, está perfecto :3 Te dejo enlazada la página de la biblioteca por si deseas pedirlo prestado de allí cuando vayamos!</t>
   </si>
   <si>
     <t>&lt;a target="_blank" href="https://biblioteca.uniandes.edu.co/"&gt;&lt;img src="./img/leer.jpg" alt="Mujer leyendo en la ventana." style="width:100%" /&gt;&lt;/a&gt;</t>
@@ -340,31 +331,31 @@
     <t>Tiempo con mi chico</t>
   </si>
   <si>
-    <t>Hoy ño creo que nus veamus :'(</t>
+    <t>Amor, depronto cuadremos nuestro tiempo de calidad, me pusieron una reunión mañana las 8 pero estoy tratando de moverla. Deberíamos pensar ese viaje a Villa de Leyva este sábado. Si nos lo pensamos, cancelo vitruvio sí o sí jejejeje. Háblame sobre esto!</t>
   </si>
   <si>
     <t>Ocio</t>
   </si>
   <si>
-    <t>Tienes tiempo si quieres ver algo en streaming hoy.</t>
+    <t>Tienes tiempo para ver pelis hoy.</t>
   </si>
   <si>
     <t>Baile</t>
   </si>
   <si>
-    <t>Podrías ver qué clases hay hoy, si no se te cruza con la i.</t>
+    <t>También es una opción. Amor! deberíamos tomar una clase juntos esta semana. Hoy me pagan, entonces, hay algo para el miércoles en pareja? Sólo por ver.</t>
   </si>
   <si>
     <t>Arpa</t>
   </si>
   <si>
-    <t>Esa pieza nueva está preciosaaaaaaaaa</t>
+    <t>Amo como vas con esa nueva pieza</t>
   </si>
   <si>
     <t>Salir con amigos</t>
   </si>
   <si>
-    <t>Para cuando cuadres depués.</t>
+    <t>Si quieres cuadrar, disponible hoy.</t>
   </si>
   <si>
     <t>Canto</t>
@@ -442,7 +433,7 @@
     <t>&lt;a target="_blank" href="./img/board.png"&gt;&lt;img src="./img/board.png" alt="Captura de pantalla de baord de areas" style="width:100%" /&gt;&lt;/a&gt; &lt;/br&gt;&lt;/br&gt; &lt;a target="_blank" href="./img/board1.png"&gt;&lt;img src="./img/board1.png" alt="Captura de pantalla de baord de areas" style="width:100%" /&gt;&lt;/br&gt;&lt;/br&gt;&lt;a target="_blank" href="./img/board2.png"&gt;&lt;img src="./img/board2.png" alt="Captura de pantalla de baord de areas" style="width:100%" /&gt;&lt;/br&gt;&lt;/br&gt;&lt;a target="_blank" href="./img/board3.png"&gt;&lt;img src="./img/board3.png" alt="Captura de pantalla de baord de areas" style="width:100%" /&gt;&lt;/br&gt;&lt;/br&gt;&lt;a target="_blank" href="./img/board4.png"&gt;&lt;img src="./img/board4.png" alt="Captura de pantalla de baord de areas" style="width:100%" /&gt;&lt;/br&gt;&lt;/br&gt;</t>
   </si>
   <si>
-    <t>Identify hanging pieces</t>
+    <t>Calcular</t>
   </si>
   <si>
     <t>#cccccc</t>
@@ -451,25 +442,84 @@
     <t>#404040</t>
   </si>
   <si>
+    <t>Competencia: perfilar para un par de opciones, cuál es la mejor respuesta del otro, y así escoger entre las dos opciones.</t>
+  </si>
+  <si>
+    <t>Identify hanging pieces</t>
+  </si>
+  <si>
     <t>Amor, una pieza indefensa o hanging piece es una pieza que no está siendo defendida por nadie. La competencia que vamos a entrenar es que identifiques esas piezas en cada turno que tengas.</t>
   </si>
   <si>
     <t>&lt;a target="_blank" href="https://www.chess.com/terms/hanging-piece-chess#:~:text=A%20hanging%20piece%20is%20a,for%20being%20exposed%20to%20capture)."&gt;&lt;img src="./img/chess1.png" alt="Hanging bishop in board." style="width:100%" /&gt;&lt;/a&gt;&lt;/br&gt;</t>
   </si>
   <si>
-    <t>Mapear vacantes en LinkedIn</t>
+    <t>Tactics: forks</t>
   </si>
   <si>
-    <t>¡Amada! Hoy haz trabajo simultáneo de esto y de fortalecimiento de red.&lt;/br&gt;&lt;/br&gt;Te propongo que para aplicaciones busques (sólo mapear por ahora, y la otra semana aplicas) ofertas de trabajo en LinkedIn para posiciones de sostenibilidad, ESG, etc.&lt;/br&gt;&lt;/br&gt;Pero mientras haces eso, ¡ve haciendo lo que te indico en fortalecer contactos! Ten dos tablas separadas, pero ve haciendo las dos cosas juntitas.</t>
+    <t>Hay una familia innumerable de patrones que conducen a forks y etc. La idea es comenzar a reconocer estos patrones. Alfred puede identificar algunos patrones y jugarlos en repetidas ocasiones para comenzar a entrenar a Dani en el reconocimiento y contraataque de estos.</t>
   </si>
   <si>
-    <t>&lt;a target="_blank" href="./img/workshop.png"&gt;&lt;img src="./img/linked2.png" alt="Captura de pantalla búsqueda ESG en trabajos LinkedIn" style="width:100%" /&gt;&lt;/a&gt;</t>
+    <r>
+      <rPr/>
+      <t>&lt;a target="_blank" href="</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://youtu.be/64I_7YY6xkA</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>"&gt;&lt;img src="./img/hikaru.png" alt="Hikaru Nakamura explaining chess forks in interview." style="width:100%" /&gt;&lt;/a&gt;&lt;/br&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Tactics: discovered attacks</t>
+  </si>
+  <si>
+    <t>Igual que forks</t>
+  </si>
+  <si>
+    <t>Tactics: batteries</t>
+  </si>
+  <si>
+    <t>Qué es esto? pero igual que forks</t>
+  </si>
+  <si>
+    <t>Endgames</t>
+  </si>
+  <si>
+    <t>Hay familias innumerables de endgames, comenzar a ver patrones del estilo: jaque en 1. Y luego jaque en 2, puede ser la clave.</t>
+  </si>
+  <si>
+    <t>Mapear organizaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#339999       </t>
+  </si>
+  <si>
+    <t>Esto es del id 6, pero lo dejo aquí para que lo puedas ver hermosa: "Preciosa, mientras haces lo de mapear vacantes, ve armando la tablita o el board de organizaciones que tienen departamentos de sostenibilidad en Colombia. Buscan en LinkedIn las empresas así como te muestro en la foto. ¡Que sobre y no que falte! Toooodas en las que eventualmente te gustaría trabajar ponlas!&lt;/br&gt;&lt;/br&gt;¡También puedes buscar en las 100 empresas más grandes de Colombia! Te dejo el enlace abajo."</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="./img/empresas.png"&gt;&lt;img src="./img/empresas.png" alt="Captura de pantalla buscador de LinkedIn" style="width:100%" /&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>100 empresas más grandes de Colombia</t>
+  </si>
+  <si>
+    <t>https://www.larepublica.co/especiales/las-1-000-empresas-mas-grandes-de-2022/ecopetrol-lidera-las-100-empresas-mas-grandes-de-colombia-en-2022-3642520</t>
   </si>
   <si>
     <t>Agendar asesoría CV en CTP</t>
   </si>
   <si>
-    <t>Maravilloso que hayas preguntado! De esto estamos pendientes la otra semana. Te amo!</t>
+    <t>Amor! Revisa hoy si esta semana hay talleres de CV en el CTP te amooooooo</t>
+  </si>
+  <si>
+    <t>Orden</t>
   </si>
   <si>
     <t>Recuerda que tienes presupuestado tiempo un día a la semana para ofrecer servicio mi corazón. Aquí te dejo el presupuesto general. Puedes correrlo en cualquier día. Sólo lleva la cuenta.</t>
@@ -679,15 +729,15 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
       <font>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
       <border/>
@@ -698,6 +748,18 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
       <border/>
@@ -930,7 +992,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="18.0"/>
+    <col customWidth="1" min="1" max="1" width="15.63"/>
+    <col customWidth="1" min="2" max="2" width="9.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -940,10 +1003,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -964,92 +1027,101 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="3">
         <v>11.0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3">
         <v>3.0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.0</v>
       </c>
       <c r="F2" s="3">
         <v>0.0</v>
       </c>
       <c r="G2" s="3">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H2" s="3">
         <v>0.0</v>
       </c>
       <c r="I2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J2" s="3">
         <v>3.0</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="4">
         <v>1.0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4">
-        <v>2.0</v>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E3" s="4">
         <v>2.0</v>
       </c>
       <c r="F3" s="4">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="G3" s="4">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H3" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="I3" s="4">
         <v>2.0</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>1.0</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>2.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="4">
         <v>2.0</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4">
-        <v>4.0</v>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E4" s="4">
         <v>0.0</v>
       </c>
       <c r="F4" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G4" s="4">
         <v>2.0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.0</v>
       </c>
       <c r="H4" s="4">
         <v>0.0</v>
@@ -1060,51 +1132,57 @@
       <c r="J4" s="4">
         <v>0.0</v>
       </c>
+      <c r="K4" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="4">
         <v>3.0</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4">
-        <v>2.0</v>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="E5" s="4">
         <v>0.0</v>
       </c>
       <c r="F5" s="4">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G5" s="4">
         <v>0.0</v>
       </c>
       <c r="H5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="4">
         <v>2.0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0.0</v>
       </c>
       <c r="J5" s="4">
         <v>0.0</v>
       </c>
+      <c r="K5" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="4">
         <v>4.0</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.0</v>
+        <v>19</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E6" s="4">
         <v>4.0</v>
@@ -1113,10 +1191,10 @@
         <v>0.0</v>
       </c>
       <c r="G6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="4">
         <v>2.0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0.0</v>
       </c>
       <c r="I6" s="4">
         <v>0.0</v>
@@ -1124,19 +1202,22 @@
       <c r="J6" s="4">
         <v>0.0</v>
       </c>
+      <c r="K6" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="4">
         <v>5.0</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.0</v>
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="E7" s="4">
         <v>2.0</v>
@@ -1145,10 +1226,10 @@
         <v>0.0</v>
       </c>
       <c r="G7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="4">
         <v>2.0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0.0</v>
       </c>
       <c r="I7" s="4">
         <v>0.0</v>
@@ -1156,19 +1237,22 @@
       <c r="J7" s="4">
         <v>0.0</v>
       </c>
+      <c r="K7" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="4">
         <v>6.0</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.0</v>
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="E8" s="4">
         <v>0.0</v>
@@ -1180,7 +1264,7 @@
         <v>2.0</v>
       </c>
       <c r="H8" s="4">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I8" s="4">
         <v>0.0</v>
@@ -1188,19 +1272,22 @@
       <c r="J8" s="4">
         <v>0.0</v>
       </c>
+      <c r="K8" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="4">
         <v>7.0</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.0</v>
+        <v>22</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E9" s="4">
         <v>0.0</v>
@@ -1209,30 +1296,33 @@
         <v>0.0</v>
       </c>
       <c r="G9" s="4">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H9" s="4">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I9" s="4">
         <v>2.0</v>
       </c>
       <c r="J9" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="K9" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="4">
         <v>8.0</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="4">
-        <v>0.0</v>
+      <c r="D10" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E10" s="4">
         <v>0.0</v>
@@ -1241,7 +1331,7 @@
         <v>0.0</v>
       </c>
       <c r="G10" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H10" s="4">
         <v>0.0</v>
@@ -1252,19 +1342,22 @@
       <c r="J10" s="4">
         <v>0.0</v>
       </c>
+      <c r="K10" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="3">
         <v>12.0</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="3">
-        <v>0.0</v>
+      <c r="D11" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E11" s="3">
         <v>0.0</v>
@@ -1279,65 +1372,71 @@
         <v>0.0</v>
       </c>
       <c r="I11" s="3">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J11" s="3">
         <v>0.0</v>
       </c>
+      <c r="K11" s="3">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="3">
         <v>13.0</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="3">
         <v>0.0</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3.0</v>
       </c>
-      <c r="F12" s="3">
-        <v>2.0</v>
-      </c>
       <c r="G12" s="3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H12" s="3">
         <v>3.0</v>
       </c>
       <c r="I12" s="3">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J12" s="3">
         <v>3.0</v>
       </c>
+      <c r="K12" s="3">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="4">
         <v>9.0</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="4">
-        <v>0.0</v>
+      <c r="D13" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="E13" s="4">
         <v>0.0</v>
       </c>
       <c r="F13" s="4">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="G13" s="4">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="H13" s="4">
         <v>0.0</v>
@@ -1348,51 +1447,57 @@
       <c r="J13" s="4">
         <v>0.0</v>
       </c>
+      <c r="K13" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="3">
         <v>10.0</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="3">
-        <v>100.0</v>
+      <c r="D14" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E14" s="3">
-        <v>100.0</v>
+        <v>1.0</v>
       </c>
       <c r="F14" s="3">
-        <v>100.0</v>
+        <v>1.0</v>
       </c>
       <c r="G14" s="3">
-        <v>100.0</v>
+        <v>1.0</v>
       </c>
       <c r="H14" s="3">
-        <v>100.0</v>
+        <v>1.0</v>
       </c>
       <c r="I14" s="3">
-        <v>100.0</v>
+        <v>1.0</v>
       </c>
       <c r="J14" s="3">
-        <v>100.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="3">
         <v>14.0</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="3">
-        <v>0.0</v>
+      <c r="D15" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="E15" s="3">
         <v>0.0</v>
@@ -1411,6 +1516,9 @@
       </c>
       <c r="J15" s="3">
         <v>0.0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
@@ -1422,6 +1530,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17">
       <c r="D17" s="7"/>
@@ -1431,6 +1540,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18">
       <c r="D18" s="7"/>
@@ -1440,6 +1550,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19">
       <c r="D19" s="7"/>
@@ -1449,6 +1560,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20">
       <c r="D20" s="7"/>
@@ -1458,6 +1570,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21">
       <c r="D21" s="7"/>
@@ -1467,6 +1580,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22">
       <c r="D22" s="7"/>
@@ -1476,6 +1590,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
     </row>
     <row r="23">
       <c r="D23" s="7"/>
@@ -1485,6 +1600,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
     </row>
     <row r="24">
       <c r="D24" s="7"/>
@@ -1494,6 +1610,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
     </row>
     <row r="25">
       <c r="D25" s="7"/>
@@ -1503,6 +1620,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
     </row>
     <row r="26">
       <c r="D26" s="7"/>
@@ -1512,6 +1630,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
     </row>
     <row r="27">
       <c r="D27" s="7"/>
@@ -1521,6 +1640,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
     </row>
     <row r="28">
       <c r="D28" s="7"/>
@@ -1530,6 +1650,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
     </row>
     <row r="29">
       <c r="D29" s="7"/>
@@ -1539,6 +1660,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
     </row>
     <row r="30">
       <c r="D30" s="7"/>
@@ -1548,6 +1670,7 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
     </row>
     <row r="31">
       <c r="D31" s="7"/>
@@ -1557,6 +1680,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
     </row>
     <row r="32">
       <c r="D32" s="7"/>
@@ -1566,6 +1690,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
     </row>
     <row r="33">
       <c r="D33" s="7"/>
@@ -1575,6 +1700,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
     </row>
     <row r="34">
       <c r="D34" s="7"/>
@@ -1584,6 +1710,7 @@
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
     </row>
     <row r="35">
       <c r="D35" s="7"/>
@@ -1593,6 +1720,7 @@
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
     </row>
     <row r="36">
       <c r="D36" s="7"/>
@@ -1602,6 +1730,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
     </row>
     <row r="37">
       <c r="D37" s="7"/>
@@ -1611,6 +1740,7 @@
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
     </row>
     <row r="38">
       <c r="D38" s="7"/>
@@ -1620,6 +1750,7 @@
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
     </row>
     <row r="39">
       <c r="D39" s="7"/>
@@ -1629,6 +1760,7 @@
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
     </row>
     <row r="40">
       <c r="D40" s="7"/>
@@ -1638,6 +1770,7 @@
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
     </row>
     <row r="41">
       <c r="D41" s="7"/>
@@ -1647,6 +1780,7 @@
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
     </row>
     <row r="42">
       <c r="D42" s="7"/>
@@ -1656,6 +1790,7 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
     </row>
     <row r="43">
       <c r="D43" s="7"/>
@@ -1665,6 +1800,7 @@
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
     </row>
     <row r="44">
       <c r="D44" s="7"/>
@@ -1674,6 +1810,7 @@
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
     </row>
     <row r="45">
       <c r="D45" s="7"/>
@@ -1683,6 +1820,7 @@
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
     </row>
     <row r="46">
       <c r="D46" s="7"/>
@@ -1692,6 +1830,7 @@
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
     </row>
     <row r="47">
       <c r="D47" s="7"/>
@@ -1701,6 +1840,7 @@
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
     </row>
     <row r="48">
       <c r="D48" s="7"/>
@@ -1710,6 +1850,7 @@
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
     </row>
     <row r="49">
       <c r="D49" s="7"/>
@@ -1719,6 +1860,7 @@
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
     </row>
     <row r="50">
       <c r="D50" s="7"/>
@@ -1728,6 +1870,7 @@
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
     </row>
     <row r="51">
       <c r="D51" s="7"/>
@@ -1737,6 +1880,7 @@
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
     </row>
     <row r="52">
       <c r="D52" s="7"/>
@@ -1746,6 +1890,7 @@
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
     </row>
     <row r="53">
       <c r="D53" s="7"/>
@@ -1755,6 +1900,7 @@
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
     </row>
     <row r="54">
       <c r="D54" s="7"/>
@@ -1764,6 +1910,7 @@
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
     </row>
     <row r="55">
       <c r="D55" s="7"/>
@@ -1773,6 +1920,7 @@
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
     </row>
     <row r="56">
       <c r="D56" s="7"/>
@@ -1782,6 +1930,7 @@
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
     </row>
     <row r="57">
       <c r="D57" s="7"/>
@@ -1791,6 +1940,7 @@
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
     </row>
     <row r="58">
       <c r="D58" s="7"/>
@@ -1800,6 +1950,7 @@
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
     </row>
     <row r="59">
       <c r="D59" s="7"/>
@@ -1809,6 +1960,7 @@
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
     </row>
     <row r="60">
       <c r="D60" s="7"/>
@@ -1818,6 +1970,7 @@
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
     </row>
     <row r="61">
       <c r="D61" s="7"/>
@@ -1827,6 +1980,7 @@
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
     </row>
     <row r="62">
       <c r="D62" s="7"/>
@@ -1836,6 +1990,7 @@
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
     </row>
     <row r="63">
       <c r="D63" s="7"/>
@@ -1845,6 +2000,7 @@
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
     </row>
     <row r="64">
       <c r="D64" s="7"/>
@@ -1854,6 +2010,7 @@
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
     </row>
     <row r="65">
       <c r="D65" s="7"/>
@@ -1863,6 +2020,7 @@
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
     </row>
     <row r="66">
       <c r="D66" s="7"/>
@@ -1872,6 +2030,7 @@
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
     </row>
     <row r="67">
       <c r="D67" s="7"/>
@@ -1881,6 +2040,7 @@
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
     </row>
     <row r="68">
       <c r="D68" s="7"/>
@@ -1890,6 +2050,7 @@
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
     </row>
     <row r="69">
       <c r="D69" s="7"/>
@@ -1899,6 +2060,7 @@
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
     </row>
     <row r="70">
       <c r="D70" s="7"/>
@@ -1908,6 +2070,7 @@
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
     </row>
     <row r="71">
       <c r="D71" s="7"/>
@@ -1917,6 +2080,7 @@
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
     </row>
     <row r="72">
       <c r="D72" s="7"/>
@@ -1926,6 +2090,7 @@
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
     </row>
     <row r="73">
       <c r="D73" s="7"/>
@@ -1935,6 +2100,7 @@
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
     </row>
     <row r="74">
       <c r="D74" s="7"/>
@@ -1944,6 +2110,7 @@
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
     </row>
     <row r="75">
       <c r="D75" s="7"/>
@@ -1953,6 +2120,7 @@
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
     </row>
     <row r="76">
       <c r="D76" s="7"/>
@@ -1962,6 +2130,7 @@
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
     </row>
     <row r="77">
       <c r="D77" s="7"/>
@@ -1971,6 +2140,7 @@
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
     </row>
     <row r="78">
       <c r="D78" s="7"/>
@@ -1980,6 +2150,7 @@
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
     </row>
     <row r="79">
       <c r="D79" s="7"/>
@@ -1989,6 +2160,7 @@
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
     </row>
     <row r="80">
       <c r="D80" s="7"/>
@@ -1998,6 +2170,7 @@
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
     </row>
     <row r="81">
       <c r="D81" s="7"/>
@@ -2007,6 +2180,7 @@
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
     </row>
     <row r="82">
       <c r="D82" s="7"/>
@@ -2016,6 +2190,7 @@
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
     </row>
     <row r="83">
       <c r="D83" s="7"/>
@@ -2025,6 +2200,7 @@
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
     </row>
     <row r="84">
       <c r="D84" s="7"/>
@@ -2034,6 +2210,7 @@
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
     </row>
     <row r="85">
       <c r="D85" s="7"/>
@@ -2043,6 +2220,7 @@
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
     </row>
     <row r="86">
       <c r="D86" s="7"/>
@@ -2052,6 +2230,7 @@
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
     </row>
     <row r="87">
       <c r="D87" s="7"/>
@@ -2061,6 +2240,7 @@
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
     </row>
     <row r="88">
       <c r="D88" s="7"/>
@@ -2070,6 +2250,7 @@
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
     </row>
     <row r="89">
       <c r="D89" s="7"/>
@@ -2079,6 +2260,7 @@
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
     </row>
     <row r="90">
       <c r="D90" s="7"/>
@@ -2088,6 +2270,7 @@
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
     </row>
     <row r="91">
       <c r="D91" s="7"/>
@@ -2097,6 +2280,7 @@
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
     </row>
     <row r="92">
       <c r="D92" s="7"/>
@@ -2106,6 +2290,7 @@
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
     </row>
     <row r="93">
       <c r="D93" s="7"/>
@@ -2115,6 +2300,7 @@
       <c r="H93" s="7"/>
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
     </row>
     <row r="94">
       <c r="D94" s="7"/>
@@ -2124,6 +2310,7 @@
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
     </row>
     <row r="95">
       <c r="D95" s="7"/>
@@ -2133,6 +2320,7 @@
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
     </row>
     <row r="96">
       <c r="D96" s="7"/>
@@ -2142,6 +2330,7 @@
       <c r="H96" s="7"/>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
     </row>
     <row r="97">
       <c r="D97" s="7"/>
@@ -2151,6 +2340,7 @@
       <c r="H97" s="7"/>
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
     </row>
     <row r="98">
       <c r="D98" s="7"/>
@@ -2160,6 +2350,7 @@
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
     </row>
     <row r="99">
       <c r="D99" s="7"/>
@@ -2169,6 +2360,7 @@
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
     </row>
     <row r="100">
       <c r="D100" s="7"/>
@@ -2178,6 +2370,7 @@
       <c r="H100" s="7"/>
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
     </row>
     <row r="101">
       <c r="D101" s="7"/>
@@ -2187,6 +2380,7 @@
       <c r="H101" s="7"/>
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
     </row>
     <row r="102">
       <c r="D102" s="7"/>
@@ -2196,6 +2390,7 @@
       <c r="H102" s="7"/>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
     </row>
     <row r="103">
       <c r="D103" s="7"/>
@@ -2205,6 +2400,7 @@
       <c r="H103" s="7"/>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
     </row>
     <row r="104">
       <c r="D104" s="7"/>
@@ -2214,6 +2410,7 @@
       <c r="H104" s="7"/>
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
     </row>
     <row r="105">
       <c r="D105" s="7"/>
@@ -2223,6 +2420,7 @@
       <c r="H105" s="7"/>
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
     </row>
     <row r="106">
       <c r="D106" s="7"/>
@@ -2232,6 +2430,7 @@
       <c r="H106" s="7"/>
       <c r="I106" s="7"/>
       <c r="J106" s="7"/>
+      <c r="K106" s="7"/>
     </row>
     <row r="107">
       <c r="D107" s="7"/>
@@ -2241,6 +2440,7 @@
       <c r="H107" s="7"/>
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
     </row>
     <row r="108">
       <c r="D108" s="7"/>
@@ -2250,6 +2450,7 @@
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
     </row>
     <row r="109">
       <c r="D109" s="7"/>
@@ -2259,6 +2460,7 @@
       <c r="H109" s="7"/>
       <c r="I109" s="7"/>
       <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
     </row>
     <row r="110">
       <c r="D110" s="7"/>
@@ -2268,6 +2470,7 @@
       <c r="H110" s="7"/>
       <c r="I110" s="7"/>
       <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
     </row>
     <row r="111">
       <c r="D111" s="7"/>
@@ -2277,6 +2480,7 @@
       <c r="H111" s="7"/>
       <c r="I111" s="7"/>
       <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
     </row>
     <row r="112">
       <c r="D112" s="7"/>
@@ -2286,6 +2490,7 @@
       <c r="H112" s="7"/>
       <c r="I112" s="7"/>
       <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
     </row>
     <row r="113">
       <c r="D113" s="7"/>
@@ -2295,6 +2500,7 @@
       <c r="H113" s="7"/>
       <c r="I113" s="7"/>
       <c r="J113" s="7"/>
+      <c r="K113" s="7"/>
     </row>
     <row r="114">
       <c r="D114" s="7"/>
@@ -2304,6 +2510,7 @@
       <c r="H114" s="7"/>
       <c r="I114" s="7"/>
       <c r="J114" s="7"/>
+      <c r="K114" s="7"/>
     </row>
     <row r="115">
       <c r="D115" s="7"/>
@@ -2313,6 +2520,7 @@
       <c r="H115" s="7"/>
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
+      <c r="K115" s="7"/>
     </row>
     <row r="116">
       <c r="D116" s="7"/>
@@ -2322,6 +2530,7 @@
       <c r="H116" s="7"/>
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
+      <c r="K116" s="7"/>
     </row>
     <row r="117">
       <c r="D117" s="7"/>
@@ -2331,6 +2540,7 @@
       <c r="H117" s="7"/>
       <c r="I117" s="7"/>
       <c r="J117" s="7"/>
+      <c r="K117" s="7"/>
     </row>
     <row r="118">
       <c r="D118" s="7"/>
@@ -2340,6 +2550,7 @@
       <c r="H118" s="7"/>
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
+      <c r="K118" s="7"/>
     </row>
     <row r="119">
       <c r="D119" s="7"/>
@@ -2349,6 +2560,7 @@
       <c r="H119" s="7"/>
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
     </row>
     <row r="120">
       <c r="D120" s="7"/>
@@ -2358,6 +2570,7 @@
       <c r="H120" s="7"/>
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
+      <c r="K120" s="7"/>
     </row>
     <row r="121">
       <c r="D121" s="7"/>
@@ -2367,6 +2580,7 @@
       <c r="H121" s="7"/>
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
+      <c r="K121" s="7"/>
     </row>
     <row r="122">
       <c r="D122" s="7"/>
@@ -2376,6 +2590,7 @@
       <c r="H122" s="7"/>
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
+      <c r="K122" s="7"/>
     </row>
     <row r="123">
       <c r="D123" s="7"/>
@@ -2385,6 +2600,7 @@
       <c r="H123" s="7"/>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
+      <c r="K123" s="7"/>
     </row>
     <row r="124">
       <c r="D124" s="7"/>
@@ -2394,6 +2610,7 @@
       <c r="H124" s="7"/>
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
+      <c r="K124" s="7"/>
     </row>
     <row r="125">
       <c r="D125" s="7"/>
@@ -2403,6 +2620,7 @@
       <c r="H125" s="7"/>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
+      <c r="K125" s="7"/>
     </row>
     <row r="126">
       <c r="D126" s="7"/>
@@ -2412,6 +2630,7 @@
       <c r="H126" s="7"/>
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
+      <c r="K126" s="7"/>
     </row>
     <row r="127">
       <c r="D127" s="7"/>
@@ -2421,6 +2640,7 @@
       <c r="H127" s="7"/>
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
+      <c r="K127" s="7"/>
     </row>
     <row r="128">
       <c r="D128" s="7"/>
@@ -2430,6 +2650,7 @@
       <c r="H128" s="7"/>
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
+      <c r="K128" s="7"/>
     </row>
     <row r="129">
       <c r="D129" s="7"/>
@@ -2439,6 +2660,7 @@
       <c r="H129" s="7"/>
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
+      <c r="K129" s="7"/>
     </row>
     <row r="130">
       <c r="D130" s="7"/>
@@ -2448,6 +2670,7 @@
       <c r="H130" s="7"/>
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
+      <c r="K130" s="7"/>
     </row>
     <row r="131">
       <c r="D131" s="7"/>
@@ -2457,6 +2680,7 @@
       <c r="H131" s="7"/>
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
+      <c r="K131" s="7"/>
     </row>
     <row r="132">
       <c r="D132" s="7"/>
@@ -2466,6 +2690,7 @@
       <c r="H132" s="7"/>
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
+      <c r="K132" s="7"/>
     </row>
     <row r="133">
       <c r="D133" s="7"/>
@@ -2475,6 +2700,7 @@
       <c r="H133" s="7"/>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
+      <c r="K133" s="7"/>
     </row>
     <row r="134">
       <c r="D134" s="7"/>
@@ -2484,6 +2710,7 @@
       <c r="H134" s="7"/>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
+      <c r="K134" s="7"/>
     </row>
     <row r="135">
       <c r="D135" s="7"/>
@@ -2493,6 +2720,7 @@
       <c r="H135" s="7"/>
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
+      <c r="K135" s="7"/>
     </row>
     <row r="136">
       <c r="D136" s="7"/>
@@ -2502,6 +2730,7 @@
       <c r="H136" s="7"/>
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
+      <c r="K136" s="7"/>
     </row>
     <row r="137">
       <c r="D137" s="7"/>
@@ -2511,6 +2740,7 @@
       <c r="H137" s="7"/>
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
+      <c r="K137" s="7"/>
     </row>
     <row r="138">
       <c r="D138" s="7"/>
@@ -2520,6 +2750,7 @@
       <c r="H138" s="7"/>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
+      <c r="K138" s="7"/>
     </row>
     <row r="139">
       <c r="D139" s="7"/>
@@ -2529,6 +2760,7 @@
       <c r="H139" s="7"/>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
+      <c r="K139" s="7"/>
     </row>
     <row r="140">
       <c r="D140" s="7"/>
@@ -2538,6 +2770,7 @@
       <c r="H140" s="7"/>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
+      <c r="K140" s="7"/>
     </row>
     <row r="141">
       <c r="D141" s="7"/>
@@ -2547,6 +2780,7 @@
       <c r="H141" s="7"/>
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
+      <c r="K141" s="7"/>
     </row>
     <row r="142">
       <c r="D142" s="7"/>
@@ -2556,6 +2790,7 @@
       <c r="H142" s="7"/>
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
+      <c r="K142" s="7"/>
     </row>
     <row r="143">
       <c r="D143" s="7"/>
@@ -2565,6 +2800,7 @@
       <c r="H143" s="7"/>
       <c r="I143" s="7"/>
       <c r="J143" s="7"/>
+      <c r="K143" s="7"/>
     </row>
     <row r="144">
       <c r="D144" s="7"/>
@@ -2574,6 +2810,7 @@
       <c r="H144" s="7"/>
       <c r="I144" s="7"/>
       <c r="J144" s="7"/>
+      <c r="K144" s="7"/>
     </row>
     <row r="145">
       <c r="D145" s="7"/>
@@ -2583,6 +2820,7 @@
       <c r="H145" s="7"/>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
+      <c r="K145" s="7"/>
     </row>
     <row r="146">
       <c r="D146" s="7"/>
@@ -2592,6 +2830,7 @@
       <c r="H146" s="7"/>
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
+      <c r="K146" s="7"/>
     </row>
     <row r="147">
       <c r="D147" s="7"/>
@@ -2601,6 +2840,7 @@
       <c r="H147" s="7"/>
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
+      <c r="K147" s="7"/>
     </row>
     <row r="148">
       <c r="D148" s="7"/>
@@ -2610,6 +2850,7 @@
       <c r="H148" s="7"/>
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
+      <c r="K148" s="7"/>
     </row>
     <row r="149">
       <c r="D149" s="7"/>
@@ -2619,6 +2860,7 @@
       <c r="H149" s="7"/>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
+      <c r="K149" s="7"/>
     </row>
     <row r="150">
       <c r="D150" s="7"/>
@@ -2628,6 +2870,7 @@
       <c r="H150" s="7"/>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
+      <c r="K150" s="7"/>
     </row>
     <row r="151">
       <c r="D151" s="7"/>
@@ -2637,6 +2880,7 @@
       <c r="H151" s="7"/>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
+      <c r="K151" s="7"/>
     </row>
     <row r="152">
       <c r="D152" s="7"/>
@@ -2646,6 +2890,7 @@
       <c r="H152" s="7"/>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
+      <c r="K152" s="7"/>
     </row>
     <row r="153">
       <c r="D153" s="7"/>
@@ -2655,6 +2900,7 @@
       <c r="H153" s="7"/>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
+      <c r="K153" s="7"/>
     </row>
     <row r="154">
       <c r="D154" s="7"/>
@@ -2664,6 +2910,7 @@
       <c r="H154" s="7"/>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
+      <c r="K154" s="7"/>
     </row>
     <row r="155">
       <c r="D155" s="7"/>
@@ -2673,6 +2920,7 @@
       <c r="H155" s="7"/>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
+      <c r="K155" s="7"/>
     </row>
     <row r="156">
       <c r="D156" s="7"/>
@@ -2682,6 +2930,7 @@
       <c r="H156" s="7"/>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
+      <c r="K156" s="7"/>
     </row>
     <row r="157">
       <c r="D157" s="7"/>
@@ -2691,6 +2940,7 @@
       <c r="H157" s="7"/>
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
+      <c r="K157" s="7"/>
     </row>
     <row r="158">
       <c r="D158" s="7"/>
@@ -2700,6 +2950,7 @@
       <c r="H158" s="7"/>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
+      <c r="K158" s="7"/>
     </row>
     <row r="159">
       <c r="D159" s="7"/>
@@ -2709,6 +2960,7 @@
       <c r="H159" s="7"/>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
+      <c r="K159" s="7"/>
     </row>
     <row r="160">
       <c r="D160" s="7"/>
@@ -2718,6 +2970,7 @@
       <c r="H160" s="7"/>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
+      <c r="K160" s="7"/>
     </row>
     <row r="161">
       <c r="D161" s="7"/>
@@ -2727,6 +2980,7 @@
       <c r="H161" s="7"/>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
+      <c r="K161" s="7"/>
     </row>
     <row r="162">
       <c r="D162" s="7"/>
@@ -2736,6 +2990,7 @@
       <c r="H162" s="7"/>
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
+      <c r="K162" s="7"/>
     </row>
     <row r="163">
       <c r="D163" s="7"/>
@@ -2745,6 +3000,7 @@
       <c r="H163" s="7"/>
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
+      <c r="K163" s="7"/>
     </row>
     <row r="164">
       <c r="D164" s="7"/>
@@ -2754,6 +3010,7 @@
       <c r="H164" s="7"/>
       <c r="I164" s="7"/>
       <c r="J164" s="7"/>
+      <c r="K164" s="7"/>
     </row>
     <row r="165">
       <c r="D165" s="7"/>
@@ -2763,6 +3020,7 @@
       <c r="H165" s="7"/>
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
+      <c r="K165" s="7"/>
     </row>
     <row r="166">
       <c r="D166" s="7"/>
@@ -2772,6 +3030,7 @@
       <c r="H166" s="7"/>
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
+      <c r="K166" s="7"/>
     </row>
     <row r="167">
       <c r="D167" s="7"/>
@@ -2781,6 +3040,7 @@
       <c r="H167" s="7"/>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
+      <c r="K167" s="7"/>
     </row>
     <row r="168">
       <c r="D168" s="7"/>
@@ -2790,6 +3050,7 @@
       <c r="H168" s="7"/>
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
+      <c r="K168" s="7"/>
     </row>
     <row r="169">
       <c r="D169" s="7"/>
@@ -2799,6 +3060,7 @@
       <c r="H169" s="7"/>
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
+      <c r="K169" s="7"/>
     </row>
     <row r="170">
       <c r="D170" s="7"/>
@@ -2808,6 +3070,7 @@
       <c r="H170" s="7"/>
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
+      <c r="K170" s="7"/>
     </row>
     <row r="171">
       <c r="D171" s="7"/>
@@ -2817,6 +3080,7 @@
       <c r="H171" s="7"/>
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
+      <c r="K171" s="7"/>
     </row>
     <row r="172">
       <c r="D172" s="7"/>
@@ -2826,6 +3090,7 @@
       <c r="H172" s="7"/>
       <c r="I172" s="7"/>
       <c r="J172" s="7"/>
+      <c r="K172" s="7"/>
     </row>
     <row r="173">
       <c r="D173" s="7"/>
@@ -2835,6 +3100,7 @@
       <c r="H173" s="7"/>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
+      <c r="K173" s="7"/>
     </row>
     <row r="174">
       <c r="D174" s="7"/>
@@ -2844,6 +3110,7 @@
       <c r="H174" s="7"/>
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
+      <c r="K174" s="7"/>
     </row>
     <row r="175">
       <c r="D175" s="7"/>
@@ -2853,6 +3120,7 @@
       <c r="H175" s="7"/>
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
+      <c r="K175" s="7"/>
     </row>
     <row r="176">
       <c r="D176" s="7"/>
@@ -2862,6 +3130,7 @@
       <c r="H176" s="7"/>
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
+      <c r="K176" s="7"/>
     </row>
     <row r="177">
       <c r="D177" s="7"/>
@@ -2871,6 +3140,7 @@
       <c r="H177" s="7"/>
       <c r="I177" s="7"/>
       <c r="J177" s="7"/>
+      <c r="K177" s="7"/>
     </row>
     <row r="178">
       <c r="D178" s="7"/>
@@ -2880,6 +3150,7 @@
       <c r="H178" s="7"/>
       <c r="I178" s="7"/>
       <c r="J178" s="7"/>
+      <c r="K178" s="7"/>
     </row>
     <row r="179">
       <c r="D179" s="7"/>
@@ -2889,6 +3160,7 @@
       <c r="H179" s="7"/>
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
+      <c r="K179" s="7"/>
     </row>
     <row r="180">
       <c r="D180" s="7"/>
@@ -2898,6 +3170,7 @@
       <c r="H180" s="7"/>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
+      <c r="K180" s="7"/>
     </row>
     <row r="181">
       <c r="D181" s="7"/>
@@ -2907,6 +3180,7 @@
       <c r="H181" s="7"/>
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
+      <c r="K181" s="7"/>
     </row>
     <row r="182">
       <c r="D182" s="7"/>
@@ -2916,6 +3190,7 @@
       <c r="H182" s="7"/>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
+      <c r="K182" s="7"/>
     </row>
     <row r="183">
       <c r="D183" s="7"/>
@@ -2925,6 +3200,7 @@
       <c r="H183" s="7"/>
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
+      <c r="K183" s="7"/>
     </row>
     <row r="184">
       <c r="D184" s="7"/>
@@ -2934,6 +3210,7 @@
       <c r="H184" s="7"/>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
+      <c r="K184" s="7"/>
     </row>
     <row r="185">
       <c r="D185" s="7"/>
@@ -2943,6 +3220,7 @@
       <c r="H185" s="7"/>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
+      <c r="K185" s="7"/>
     </row>
     <row r="186">
       <c r="D186" s="7"/>
@@ -2952,6 +3230,7 @@
       <c r="H186" s="7"/>
       <c r="I186" s="7"/>
       <c r="J186" s="7"/>
+      <c r="K186" s="7"/>
     </row>
     <row r="187">
       <c r="D187" s="7"/>
@@ -2961,6 +3240,7 @@
       <c r="H187" s="7"/>
       <c r="I187" s="7"/>
       <c r="J187" s="7"/>
+      <c r="K187" s="7"/>
     </row>
     <row r="188">
       <c r="D188" s="7"/>
@@ -2970,6 +3250,7 @@
       <c r="H188" s="7"/>
       <c r="I188" s="7"/>
       <c r="J188" s="7"/>
+      <c r="K188" s="7"/>
     </row>
     <row r="189">
       <c r="D189" s="7"/>
@@ -2979,6 +3260,7 @@
       <c r="H189" s="7"/>
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
+      <c r="K189" s="7"/>
     </row>
     <row r="190">
       <c r="D190" s="7"/>
@@ -2988,6 +3270,7 @@
       <c r="H190" s="7"/>
       <c r="I190" s="7"/>
       <c r="J190" s="7"/>
+      <c r="K190" s="7"/>
     </row>
     <row r="191">
       <c r="D191" s="7"/>
@@ -2997,6 +3280,7 @@
       <c r="H191" s="7"/>
       <c r="I191" s="7"/>
       <c r="J191" s="7"/>
+      <c r="K191" s="7"/>
     </row>
     <row r="192">
       <c r="D192" s="7"/>
@@ -3006,6 +3290,7 @@
       <c r="H192" s="7"/>
       <c r="I192" s="7"/>
       <c r="J192" s="7"/>
+      <c r="K192" s="7"/>
     </row>
     <row r="193">
       <c r="D193" s="7"/>
@@ -3015,6 +3300,7 @@
       <c r="H193" s="7"/>
       <c r="I193" s="7"/>
       <c r="J193" s="7"/>
+      <c r="K193" s="7"/>
     </row>
     <row r="194">
       <c r="D194" s="7"/>
@@ -3024,6 +3310,7 @@
       <c r="H194" s="7"/>
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
+      <c r="K194" s="7"/>
     </row>
     <row r="195">
       <c r="D195" s="7"/>
@@ -3033,6 +3320,7 @@
       <c r="H195" s="7"/>
       <c r="I195" s="7"/>
       <c r="J195" s="7"/>
+      <c r="K195" s="7"/>
     </row>
     <row r="196">
       <c r="D196" s="7"/>
@@ -3042,6 +3330,7 @@
       <c r="H196" s="7"/>
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
+      <c r="K196" s="7"/>
     </row>
     <row r="197">
       <c r="D197" s="7"/>
@@ -3051,6 +3340,7 @@
       <c r="H197" s="7"/>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
+      <c r="K197" s="7"/>
     </row>
     <row r="198">
       <c r="D198" s="7"/>
@@ -3060,6 +3350,7 @@
       <c r="H198" s="7"/>
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
+      <c r="K198" s="7"/>
     </row>
     <row r="199">
       <c r="D199" s="7"/>
@@ -3069,6 +3360,7 @@
       <c r="H199" s="7"/>
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
+      <c r="K199" s="7"/>
     </row>
     <row r="200">
       <c r="D200" s="7"/>
@@ -3078,14 +3370,15 @@
       <c r="H200" s="7"/>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
+      <c r="K200" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:J200">
+  <conditionalFormatting sqref="D2:K200">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(D2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:J200">
+  <conditionalFormatting sqref="E2:K200">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
       <formula>0</formula>
     </cfRule>
@@ -3110,46 +3403,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
@@ -3164,34 +3457,34 @@
       <c r="Y1" s="10"/>
       <c r="Z1" s="10"/>
     </row>
-    <row r="2">
+    <row r="2" hidden="1">
       <c r="A2" s="11">
         <v>1.0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="11">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D2" s="11">
         <v>2.0</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -3210,12 +3503,12 @@
       <c r="Y2" s="13"/>
       <c r="Z2" s="13"/>
     </row>
-    <row r="3">
+    <row r="3" hidden="1">
       <c r="A3" s="11">
         <v>1.0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="11">
         <v>0.0</v>
@@ -3224,13 +3517,13 @@
         <v>1.0</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="12"/>
@@ -3252,27 +3545,27 @@
       <c r="Y3" s="13"/>
       <c r="Z3" s="13"/>
     </row>
-    <row r="4">
+    <row r="4" hidden="1">
       <c r="A4" s="11">
         <v>1.0</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" s="11">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4" s="11">
         <v>3.0</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="13"/>
@@ -3294,27 +3587,27 @@
       <c r="Y4" s="13"/>
       <c r="Z4" s="13"/>
     </row>
-    <row r="5">
+    <row r="5" hidden="1">
       <c r="A5" s="11">
         <v>1.0</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" s="11">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D5" s="11">
         <v>5.0</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="13"/>
@@ -3336,12 +3629,12 @@
       <c r="Y5" s="13"/>
       <c r="Z5" s="13"/>
     </row>
-    <row r="6">
+    <row r="6" hidden="1">
       <c r="A6" s="11">
         <v>1.0</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" s="11">
         <v>0.0</v>
@@ -3350,13 +3643,13 @@
         <v>4.0</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="13"/>
@@ -3383,7 +3676,7 @@
         <v>4.0</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" s="11">
         <v>0.0</v>
@@ -3392,16 +3685,16 @@
         <v>1.0</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -3427,7 +3720,7 @@
         <v>4.0</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8" s="11">
         <v>0.0</v>
@@ -3436,13 +3729,13 @@
         <v>2.0</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="13"/>
@@ -3469,7 +3762,7 @@
         <v>5.0</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" s="11">
         <v>0.0</v>
@@ -3478,16 +3771,16 @@
         <v>2.0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
@@ -3513,7 +3806,7 @@
         <v>5.0</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10" s="11">
         <v>0.0</v>
@@ -3522,13 +3815,13 @@
         <v>1.0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -3555,7 +3848,7 @@
         <v>5.0</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" s="11">
         <v>0.0</v>
@@ -3564,28 +3857,28 @@
         <v>1.0</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
@@ -3607,7 +3900,7 @@
         <v>2.0</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12" s="11">
         <v>0.0</v>
@@ -3616,22 +3909,22 @@
         <v>1.0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
@@ -3655,7 +3948,7 @@
         <v>2.0</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C13" s="11">
         <v>0.0</v>
@@ -3664,15 +3957,17 @@
         <v>2.0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="16"/>
+        <v>84</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>85</v>
+      </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="13"/>
@@ -3694,10 +3989,10 @@
     </row>
     <row r="14">
       <c r="A14" s="11">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="11">
         <v>0.0</v>
@@ -3706,23 +4001,19 @@
         <v>1.0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J14" s="15" t="s">
         <v>88</v>
       </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
@@ -3754,10 +4045,10 @@
         <v>1.0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>90</v>
@@ -3798,10 +4089,10 @@
         <v>1.0</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>93</v>
@@ -3842,10 +4133,10 @@
         <v>2.0</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>96</v>
@@ -3884,10 +4175,10 @@
         <v>1.0</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -3910,7 +4201,7 @@
       <c r="Y18" s="13"/>
       <c r="Z18" s="13"/>
     </row>
-    <row r="19">
+    <row r="19" hidden="1">
       <c r="A19" s="11">
         <v>13.0</v>
       </c>
@@ -3921,13 +4212,13 @@
         <v>0.0</v>
       </c>
       <c r="D19" s="11">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>99</v>
@@ -3954,7 +4245,7 @@
       <c r="Y19" s="13"/>
       <c r="Z19" s="13"/>
     </row>
-    <row r="20">
+    <row r="20" hidden="1">
       <c r="A20" s="11">
         <v>13.0</v>
       </c>
@@ -3965,20 +4256,18 @@
         <v>0.0</v>
       </c>
       <c r="D20" s="11">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="H20" s="16" t="s">
-        <v>103</v>
-      </c>
+      <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
@@ -3998,27 +4287,27 @@
       <c r="Y20" s="13"/>
       <c r="Z20" s="13"/>
     </row>
-    <row r="21">
+    <row r="21" hidden="1">
       <c r="A21" s="11">
         <v>13.0</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" s="11">
         <v>0.0</v>
       </c>
       <c r="D21" s="11">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
@@ -4040,27 +4329,27 @@
       <c r="Y21" s="13"/>
       <c r="Z21" s="13"/>
     </row>
-    <row r="22">
+    <row r="22" hidden="1">
       <c r="A22" s="11">
         <v>13.0</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" s="11">
         <v>0.0</v>
       </c>
       <c r="D22" s="11">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
@@ -4082,27 +4371,27 @@
       <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
     </row>
-    <row r="23">
+    <row r="23" hidden="1">
       <c r="A23" s="11">
         <v>13.0</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" s="11">
         <v>0.0</v>
       </c>
       <c r="D23" s="11">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
@@ -4124,27 +4413,27 @@
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
     </row>
-    <row r="24">
+    <row r="24" hidden="1">
       <c r="A24" s="11">
         <v>13.0</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="D24" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="C24" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D24" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
@@ -4166,27 +4455,27 @@
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
     </row>
-    <row r="25">
+    <row r="25" hidden="1">
       <c r="A25" s="11">
         <v>13.0</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D25" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>112</v>
-      </c>
-      <c r="C25" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="D25" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
@@ -4208,27 +4497,27 @@
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
     </row>
-    <row r="26">
+    <row r="26" hidden="1">
       <c r="A26" s="11">
         <v>13.0</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C26" s="11">
         <v>0.0</v>
       </c>
       <c r="D26" s="11">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
@@ -4250,27 +4539,27 @@
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
     </row>
-    <row r="27">
+    <row r="27" hidden="1">
       <c r="A27" s="11">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27" s="11">
         <v>0.0</v>
       </c>
       <c r="D27" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>27</v>
+        <v>1.0</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
@@ -4294,10 +4583,10 @@
     </row>
     <row r="28" hidden="1">
       <c r="A28" s="11">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C28" s="11">
         <v>0.0</v>
@@ -4305,16 +4594,18 @@
       <c r="D28" s="11">
         <v>1.0</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>29</v>
+      <c r="E28" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G28" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H28" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="H28" s="13"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
@@ -4334,7 +4625,7 @@
       <c r="Y28" s="13"/>
       <c r="Z28" s="13"/>
     </row>
-    <row r="29">
+    <row r="29" hidden="1">
       <c r="A29" s="11">
         <v>7.0</v>
       </c>
@@ -4345,20 +4636,18 @@
         <v>0.0</v>
       </c>
       <c r="D29" s="11">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="H29" s="11" t="s">
-        <v>122</v>
-      </c>
+      <c r="H29" s="11"/>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
@@ -4378,33 +4667,43 @@
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
     </row>
-    <row r="30">
+    <row r="30" hidden="1">
       <c r="A30" s="11">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="D30" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C30" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D30" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="11" t="s">
+      <c r="H30" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
+      <c r="I30" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>128</v>
+      </c>
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
@@ -4420,43 +4719,39 @@
       <c r="Y30" s="13"/>
       <c r="Z30" s="13"/>
     </row>
-    <row r="31">
+    <row r="31" hidden="1">
       <c r="A31" s="11">
         <v>10.0</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C31" s="11">
         <v>1.0</v>
       </c>
       <c r="D31" s="11">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G31" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J31" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="H31" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="J31" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="K31" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="L31" s="15" t="s">
-        <v>131</v>
-      </c>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
       <c r="O31" s="13"/>
@@ -4472,7 +4767,7 @@
       <c r="Y31" s="13"/>
       <c r="Z31" s="13"/>
     </row>
-    <row r="32">
+    <row r="32" hidden="1">
       <c r="A32" s="11">
         <v>10.0</v>
       </c>
@@ -4483,13 +4778,13 @@
         <v>1.0</v>
       </c>
       <c r="D32" s="11">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>133</v>
@@ -4498,10 +4793,10 @@
         <v>134</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
@@ -4520,7 +4815,7 @@
       <c r="Y32" s="13"/>
       <c r="Z32" s="13"/>
     </row>
-    <row r="33">
+    <row r="33" hidden="1">
       <c r="A33" s="11">
         <v>10.0</v>
       </c>
@@ -4531,13 +4826,13 @@
         <v>1.0</v>
       </c>
       <c r="D33" s="11">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>136</v>
@@ -4545,12 +4840,8 @@
       <c r="H33" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="I33" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="J33" s="17" t="s">
-        <v>129</v>
-      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="16"/>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
@@ -4568,33 +4859,31 @@
       <c r="Y33" s="13"/>
       <c r="Z33" s="13"/>
     </row>
-    <row r="34">
+    <row r="34" hidden="1">
       <c r="A34" s="11">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>138</v>
       </c>
       <c r="C34" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D34" s="11">
         <v>1.0</v>
       </c>
-      <c r="D34" s="11">
-        <v>4.0</v>
-      </c>
       <c r="E34" s="11" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="I34" s="11"/>
-      <c r="J34" s="16"/>
+        <v>141</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
@@ -4617,25 +4906,25 @@
         <v>14.0</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C35" s="11">
         <v>0.0</v>
       </c>
       <c r="D35" s="11">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F35" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="H35" s="11" t="s">
         <v>144</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>145</v>
       </c>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
@@ -4656,30 +4945,30 @@
       <c r="Y35" s="13"/>
       <c r="Z35" s="13"/>
     </row>
-    <row r="36">
+    <row r="36" hidden="1">
       <c r="A36" s="11">
-        <v>3.0</v>
+        <v>14.0</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C36" s="11">
         <v>0.0</v>
       </c>
       <c r="D36" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>17</v>
+        <v>3.0</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="G36" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H36" s="17" t="s">
         <v>147</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>148</v>
       </c>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
@@ -4700,35 +4989,29 @@
       <c r="Y36" s="13"/>
       <c r="Z36" s="13"/>
     </row>
-    <row r="37">
-      <c r="A37" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="B37" s="11" t="s">
+    <row r="37" hidden="1">
+      <c r="A37" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D37" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C37" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D37" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
+      <c r="H37" s="16"/>
       <c r="O37" s="13"/>
       <c r="P37" s="13"/>
       <c r="Q37" s="13"/>
@@ -4742,21 +5025,28 @@
       <c r="Y37" s="13"/>
       <c r="Z37" s="13"/>
     </row>
-    <row r="38">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
+    <row r="38" hidden="1">
+      <c r="A38" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D38" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="O38" s="13"/>
       <c r="P38" s="13"/>
       <c r="Q38" s="13"/>
@@ -4770,21 +5060,28 @@
       <c r="Y38" s="13"/>
       <c r="Z38" s="13"/>
     </row>
-    <row r="39">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
+    <row r="39" hidden="1">
+      <c r="A39" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D39" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="O39" s="13"/>
       <c r="P39" s="13"/>
       <c r="Q39" s="13"/>
@@ -4799,16 +5096,36 @@
       <c r="Z39" s="13"/>
     </row>
     <row r="40">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
+      <c r="A40" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D40" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>159</v>
+      </c>
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
       <c r="M40" s="13"/>
@@ -4827,13 +5144,27 @@
       <c r="Z40" s="13"/>
     </row>
     <row r="41">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
+      <c r="A41" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D41" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>161</v>
+      </c>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
@@ -31846,16 +32177,123 @@
       <c r="Y1005" s="13"/>
       <c r="Z1005" s="13"/>
     </row>
+    <row r="1006">
+      <c r="A1006" s="13"/>
+      <c r="B1006" s="13"/>
+      <c r="C1006" s="13"/>
+      <c r="D1006" s="13"/>
+      <c r="E1006" s="13"/>
+      <c r="F1006" s="13"/>
+      <c r="G1006" s="13"/>
+      <c r="H1006" s="13"/>
+      <c r="I1006" s="13"/>
+      <c r="J1006" s="13"/>
+      <c r="K1006" s="13"/>
+      <c r="L1006" s="13"/>
+      <c r="M1006" s="13"/>
+      <c r="N1006" s="13"/>
+      <c r="O1006" s="13"/>
+      <c r="P1006" s="13"/>
+      <c r="Q1006" s="13"/>
+      <c r="R1006" s="13"/>
+      <c r="S1006" s="13"/>
+      <c r="T1006" s="13"/>
+      <c r="U1006" s="13"/>
+      <c r="V1006" s="13"/>
+      <c r="W1006" s="13"/>
+      <c r="X1006" s="13"/>
+      <c r="Y1006" s="13"/>
+      <c r="Z1006" s="13"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="13"/>
+      <c r="B1007" s="13"/>
+      <c r="C1007" s="13"/>
+      <c r="D1007" s="13"/>
+      <c r="E1007" s="13"/>
+      <c r="F1007" s="13"/>
+      <c r="G1007" s="13"/>
+      <c r="H1007" s="13"/>
+      <c r="I1007" s="13"/>
+      <c r="J1007" s="13"/>
+      <c r="K1007" s="13"/>
+      <c r="L1007" s="13"/>
+      <c r="M1007" s="13"/>
+      <c r="N1007" s="13"/>
+      <c r="O1007" s="13"/>
+      <c r="P1007" s="13"/>
+      <c r="Q1007" s="13"/>
+      <c r="R1007" s="13"/>
+      <c r="S1007" s="13"/>
+      <c r="T1007" s="13"/>
+      <c r="U1007" s="13"/>
+      <c r="V1007" s="13"/>
+      <c r="W1007" s="13"/>
+      <c r="X1007" s="13"/>
+      <c r="Y1007" s="13"/>
+      <c r="Z1007" s="13"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="13"/>
+      <c r="B1008" s="13"/>
+      <c r="C1008" s="13"/>
+      <c r="D1008" s="13"/>
+      <c r="E1008" s="13"/>
+      <c r="F1008" s="13"/>
+      <c r="G1008" s="13"/>
+      <c r="H1008" s="13"/>
+      <c r="I1008" s="13"/>
+      <c r="J1008" s="13"/>
+      <c r="K1008" s="13"/>
+      <c r="L1008" s="13"/>
+      <c r="M1008" s="13"/>
+      <c r="N1008" s="13"/>
+      <c r="O1008" s="13"/>
+      <c r="P1008" s="13"/>
+      <c r="Q1008" s="13"/>
+      <c r="R1008" s="13"/>
+      <c r="S1008" s="13"/>
+      <c r="T1008" s="13"/>
+      <c r="U1008" s="13"/>
+      <c r="V1008" s="13"/>
+      <c r="W1008" s="13"/>
+      <c r="X1008" s="13"/>
+      <c r="Y1008" s="13"/>
+      <c r="Z1008" s="13"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="13"/>
+      <c r="B1009" s="13"/>
+      <c r="C1009" s="13"/>
+      <c r="D1009" s="13"/>
+      <c r="E1009" s="13"/>
+      <c r="F1009" s="13"/>
+      <c r="G1009" s="13"/>
+      <c r="H1009" s="13"/>
+      <c r="I1009" s="13"/>
+      <c r="J1009" s="13"/>
+      <c r="K1009" s="13"/>
+      <c r="L1009" s="13"/>
+      <c r="M1009" s="13"/>
+      <c r="N1009" s="13"/>
+      <c r="O1009" s="13"/>
+      <c r="P1009" s="13"/>
+      <c r="Q1009" s="13"/>
+      <c r="R1009" s="13"/>
+      <c r="S1009" s="13"/>
+      <c r="T1009" s="13"/>
+      <c r="U1009" s="13"/>
+      <c r="V1009" s="13"/>
+      <c r="W1009" s="13"/>
+      <c r="X1009" s="13"/>
+      <c r="Y1009" s="13"/>
+      <c r="Z1009" s="13"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$N$37">
+  <autoFilter ref="$A$1:$N$41">
     <filterColumn colId="0">
       <filters>
-        <filter val="13"/>
-        <filter val="1"/>
         <filter val="3"/>
-        <filter val="6"/>
-        <filter val="7"/>
-        <filter val="10"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -31864,13 +32302,14 @@
     <hyperlink r:id="rId2" ref="J11"/>
     <hyperlink r:id="rId3" ref="L11"/>
     <hyperlink r:id="rId4" ref="J12"/>
-    <hyperlink r:id="rId5" ref="J14"/>
-    <hyperlink r:id="rId6" ref="J31"/>
-    <hyperlink r:id="rId7" ref="L31"/>
+    <hyperlink r:id="rId5" ref="J30"/>
+    <hyperlink r:id="rId6" ref="L30"/>
+    <hyperlink r:id="rId7" ref="J31"/>
     <hyperlink r:id="rId8" ref="J32"/>
-    <hyperlink r:id="rId9" ref="J33"/>
+    <hyperlink r:id="rId9" ref="H36"/>
+    <hyperlink r:id="rId10" ref="J40"/>
   </hyperlinks>
-  <drawing r:id="rId10"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -31884,20 +32323,20 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="18.0"/>
+    <col customWidth="1" min="3" max="3" width="18.0"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -31918,100 +32357,112 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1.0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="E2" s="3">
         <v>3.0</v>
       </c>
-      <c r="G2" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="I2" s="4">
+      <c r="F2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I2" s="3">
         <v>1.0</v>
       </c>
-      <c r="J2" s="4">
-        <v>2.0</v>
+      <c r="J2" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4">
         <v>2.0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4">
-        <v>4.0</v>
-      </c>
       <c r="E3" s="4">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F3" s="4">
         <v>2.0</v>
       </c>
       <c r="G3" s="4">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H3" s="4">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I3" s="4">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J3" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4">
         <v>3.0</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2.0</v>
-      </c>
       <c r="E4" s="4">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="F4" s="4">
         <v>0.0</v>
       </c>
       <c r="G4" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H4" s="4">
         <v>0.0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>2.0</v>
       </c>
       <c r="I4" s="4">
         <v>0.0</v>
       </c>
       <c r="J4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K4" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -32019,31 +32470,34 @@
       <c r="A5" s="4">
         <v>4.0</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.0</v>
-      </c>
       <c r="E5" s="4">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F5" s="4">
         <v>0.0</v>
       </c>
       <c r="G5" s="4">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H5" s="4">
         <v>0.0</v>
       </c>
       <c r="I5" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J5" s="4">
         <v>0.0</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -32051,31 +32505,34 @@
       <c r="A6" s="4">
         <v>5.0</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4">
         <v>0.0</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="4">
         <v>2.0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0.0</v>
       </c>
       <c r="I6" s="4">
         <v>0.0</v>
       </c>
       <c r="J6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K6" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -32083,14 +32540,14 @@
       <c r="A7" s="4">
         <v>6.0</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.0</v>
+      <c r="D7" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="E7" s="4">
         <v>0.0</v>
@@ -32102,12 +32559,15 @@
         <v>0.0</v>
       </c>
       <c r="H7" s="4">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I7" s="4">
         <v>0.0</v>
       </c>
       <c r="J7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K7" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -32115,14 +32575,14 @@
       <c r="A8" s="4">
         <v>7.0</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.0</v>
+      <c r="D8" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="E8" s="4">
         <v>0.0</v>
@@ -32131,15 +32591,18 @@
         <v>0.0</v>
       </c>
       <c r="G8" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H8" s="4">
         <v>0.0</v>
       </c>
-      <c r="H8" s="4">
-        <v>2.0</v>
-      </c>
       <c r="I8" s="4">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -32147,20 +32610,20 @@
       <c r="A9" s="4">
         <v>8.0</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.0</v>
+      <c r="D9" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E9" s="4">
         <v>0.0</v>
       </c>
       <c r="F9" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G9" s="4">
         <v>0.0</v>
@@ -32169,9 +32632,12 @@
         <v>0.0</v>
       </c>
       <c r="I9" s="4">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J9" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="K9" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -32179,14 +32645,14 @@
       <c r="A10" s="4">
         <v>9.0</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>28</v>
+      <c r="B10" s="4">
+        <v>8.0</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.0</v>
+        <v>23</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E10" s="4">
         <v>0.0</v>
@@ -32195,7 +32661,7 @@
         <v>0.0</v>
       </c>
       <c r="G10" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H10" s="4">
         <v>0.0</v>
@@ -32206,31 +32672,34 @@
       <c r="J10" s="4">
         <v>0.0</v>
       </c>
+      <c r="K10" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="3">
+        <v>12.0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3">
-        <v>3.0</v>
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E11" s="3">
         <v>0.0</v>
       </c>
       <c r="F11" s="3">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G11" s="3">
         <v>0.0</v>
       </c>
       <c r="H11" s="3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I11" s="3">
         <v>3.0</v>
@@ -32238,25 +32707,28 @@
       <c r="J11" s="3">
         <v>0.0</v>
       </c>
+      <c r="K11" s="3">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="3">
-        <v>12.0</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="3">
+        <v>13.0</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.0</v>
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E12" s="3">
         <v>0.0</v>
       </c>
       <c r="F12" s="3">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G12" s="3">
         <v>0.0</v>
@@ -32268,1754 +32740,1789 @@
         <v>0.0</v>
       </c>
       <c r="J12" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="4">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>1.0</v>
+      <c r="F13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3">
         <v>13.0</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="B15" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="3">
         <v>0.0</v>
       </c>
-      <c r="E14" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="F15" s="3">
         <v>0.0</v>
       </c>
-      <c r="G14" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G15" s="3">
         <v>0.0</v>
       </c>
-      <c r="I14" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="H15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="16">
-      <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17">
-      <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18">
-      <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19">
-      <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20">
-      <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21">
-      <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22">
-      <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
     </row>
     <row r="23">
-      <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
     </row>
     <row r="24">
-      <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
     </row>
     <row r="25">
-      <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
     </row>
     <row r="26">
-      <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
     </row>
     <row r="27">
-      <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
     </row>
     <row r="28">
-      <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
     </row>
     <row r="29">
-      <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
     </row>
     <row r="30">
-      <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
     </row>
     <row r="31">
-      <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
     </row>
     <row r="32">
-      <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
     </row>
     <row r="33">
-      <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
     </row>
     <row r="34">
-      <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
     </row>
     <row r="35">
-      <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
     </row>
     <row r="36">
-      <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
     </row>
     <row r="37">
-      <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
     </row>
     <row r="38">
-      <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
     </row>
     <row r="39">
-      <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
     </row>
     <row r="40">
-      <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
     </row>
     <row r="41">
-      <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
     </row>
     <row r="42">
-      <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
     </row>
     <row r="43">
-      <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
     </row>
     <row r="44">
-      <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
     </row>
     <row r="45">
-      <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
     </row>
     <row r="46">
-      <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
     </row>
     <row r="47">
-      <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
     </row>
     <row r="48">
-      <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
     </row>
     <row r="49">
-      <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
     </row>
     <row r="50">
-      <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
     </row>
     <row r="51">
-      <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
     </row>
     <row r="52">
-      <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
     </row>
     <row r="53">
-      <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
     </row>
     <row r="54">
-      <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
     </row>
     <row r="55">
-      <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
     </row>
     <row r="56">
-      <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
     </row>
     <row r="57">
-      <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
     </row>
     <row r="58">
-      <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
     </row>
     <row r="59">
-      <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
     </row>
     <row r="60">
-      <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
     </row>
     <row r="61">
-      <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
     </row>
     <row r="62">
-      <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
     </row>
     <row r="63">
-      <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
     </row>
     <row r="64">
-      <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
     </row>
     <row r="65">
-      <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
     </row>
     <row r="66">
-      <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
     </row>
     <row r="67">
-      <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
     </row>
     <row r="68">
-      <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
     </row>
     <row r="69">
-      <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
     </row>
     <row r="70">
-      <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
     </row>
     <row r="71">
-      <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
     </row>
     <row r="72">
-      <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
     </row>
     <row r="73">
-      <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
     </row>
     <row r="74">
-      <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
     </row>
     <row r="75">
-      <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
     </row>
     <row r="76">
-      <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
     </row>
     <row r="77">
-      <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
     </row>
     <row r="78">
-      <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
     </row>
     <row r="79">
-      <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
     </row>
     <row r="80">
-      <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
     </row>
     <row r="81">
-      <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
     </row>
     <row r="82">
-      <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
     </row>
     <row r="83">
-      <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
     </row>
     <row r="84">
-      <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
     </row>
     <row r="85">
-      <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
     </row>
     <row r="86">
-      <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
     </row>
     <row r="87">
-      <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
     </row>
     <row r="88">
-      <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
     </row>
     <row r="89">
-      <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
     </row>
     <row r="90">
-      <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
     </row>
     <row r="91">
-      <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
     </row>
     <row r="92">
-      <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
     </row>
     <row r="93">
-      <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
     </row>
     <row r="94">
-      <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
     </row>
     <row r="95">
-      <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
     </row>
     <row r="96">
-      <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
     </row>
     <row r="97">
-      <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
     </row>
     <row r="98">
-      <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
     </row>
     <row r="99">
-      <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
     </row>
     <row r="100">
-      <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
     </row>
     <row r="101">
-      <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
     </row>
     <row r="102">
-      <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
     </row>
     <row r="103">
-      <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
     </row>
     <row r="104">
-      <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
     </row>
     <row r="105">
-      <c r="D105" s="7"/>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
     </row>
     <row r="106">
-      <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
       <c r="I106" s="7"/>
       <c r="J106" s="7"/>
+      <c r="K106" s="7"/>
     </row>
     <row r="107">
-      <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
     </row>
     <row r="108">
-      <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
     </row>
     <row r="109">
-      <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
       <c r="I109" s="7"/>
       <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
     </row>
     <row r="110">
-      <c r="D110" s="7"/>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
       <c r="I110" s="7"/>
       <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
     </row>
     <row r="111">
-      <c r="D111" s="7"/>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
       <c r="I111" s="7"/>
       <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
     </row>
     <row r="112">
-      <c r="D112" s="7"/>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
       <c r="I112" s="7"/>
       <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
     </row>
     <row r="113">
-      <c r="D113" s="7"/>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
       <c r="I113" s="7"/>
       <c r="J113" s="7"/>
+      <c r="K113" s="7"/>
     </row>
     <row r="114">
-      <c r="D114" s="7"/>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
       <c r="I114" s="7"/>
       <c r="J114" s="7"/>
+      <c r="K114" s="7"/>
     </row>
     <row r="115">
-      <c r="D115" s="7"/>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c r="H115" s="7"/>
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
+      <c r="K115" s="7"/>
     </row>
     <row r="116">
-      <c r="D116" s="7"/>
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c r="H116" s="7"/>
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
+      <c r="K116" s="7"/>
     </row>
     <row r="117">
-      <c r="D117" s="7"/>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
       <c r="I117" s="7"/>
       <c r="J117" s="7"/>
+      <c r="K117" s="7"/>
     </row>
     <row r="118">
-      <c r="D118" s="7"/>
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c r="H118" s="7"/>
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
+      <c r="K118" s="7"/>
     </row>
     <row r="119">
-      <c r="D119" s="7"/>
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c r="H119" s="7"/>
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
     </row>
     <row r="120">
-      <c r="D120" s="7"/>
       <c r="E120" s="7"/>
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c r="H120" s="7"/>
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
+      <c r="K120" s="7"/>
     </row>
     <row r="121">
-      <c r="D121" s="7"/>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c r="H121" s="7"/>
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
+      <c r="K121" s="7"/>
     </row>
     <row r="122">
-      <c r="D122" s="7"/>
       <c r="E122" s="7"/>
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c r="H122" s="7"/>
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
+      <c r="K122" s="7"/>
     </row>
     <row r="123">
-      <c r="D123" s="7"/>
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c r="H123" s="7"/>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
+      <c r="K123" s="7"/>
     </row>
     <row r="124">
-      <c r="D124" s="7"/>
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
+      <c r="K124" s="7"/>
     </row>
     <row r="125">
-      <c r="D125" s="7"/>
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c r="H125" s="7"/>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
+      <c r="K125" s="7"/>
     </row>
     <row r="126">
-      <c r="D126" s="7"/>
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c r="H126" s="7"/>
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
+      <c r="K126" s="7"/>
     </row>
     <row r="127">
-      <c r="D127" s="7"/>
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c r="H127" s="7"/>
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
+      <c r="K127" s="7"/>
     </row>
     <row r="128">
-      <c r="D128" s="7"/>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c r="H128" s="7"/>
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
+      <c r="K128" s="7"/>
     </row>
     <row r="129">
-      <c r="D129" s="7"/>
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c r="H129" s="7"/>
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
+      <c r="K129" s="7"/>
     </row>
     <row r="130">
-      <c r="D130" s="7"/>
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c r="H130" s="7"/>
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
+      <c r="K130" s="7"/>
     </row>
     <row r="131">
-      <c r="D131" s="7"/>
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c r="H131" s="7"/>
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
+      <c r="K131" s="7"/>
     </row>
     <row r="132">
-      <c r="D132" s="7"/>
       <c r="E132" s="7"/>
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c r="H132" s="7"/>
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
+      <c r="K132" s="7"/>
     </row>
     <row r="133">
-      <c r="D133" s="7"/>
       <c r="E133" s="7"/>
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c r="H133" s="7"/>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
+      <c r="K133" s="7"/>
     </row>
     <row r="134">
-      <c r="D134" s="7"/>
       <c r="E134" s="7"/>
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c r="H134" s="7"/>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
+      <c r="K134" s="7"/>
     </row>
     <row r="135">
-      <c r="D135" s="7"/>
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c r="H135" s="7"/>
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
+      <c r="K135" s="7"/>
     </row>
     <row r="136">
-      <c r="D136" s="7"/>
       <c r="E136" s="7"/>
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c r="H136" s="7"/>
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
+      <c r="K136" s="7"/>
     </row>
     <row r="137">
-      <c r="D137" s="7"/>
       <c r="E137" s="7"/>
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c r="H137" s="7"/>
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
+      <c r="K137" s="7"/>
     </row>
     <row r="138">
-      <c r="D138" s="7"/>
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c r="H138" s="7"/>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
+      <c r="K138" s="7"/>
     </row>
     <row r="139">
-      <c r="D139" s="7"/>
       <c r="E139" s="7"/>
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
       <c r="H139" s="7"/>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
+      <c r="K139" s="7"/>
     </row>
     <row r="140">
-      <c r="D140" s="7"/>
       <c r="E140" s="7"/>
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c r="H140" s="7"/>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
+      <c r="K140" s="7"/>
     </row>
     <row r="141">
-      <c r="D141" s="7"/>
       <c r="E141" s="7"/>
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c r="H141" s="7"/>
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
+      <c r="K141" s="7"/>
     </row>
     <row r="142">
-      <c r="D142" s="7"/>
       <c r="E142" s="7"/>
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
       <c r="H142" s="7"/>
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
+      <c r="K142" s="7"/>
     </row>
     <row r="143">
-      <c r="D143" s="7"/>
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
       <c r="H143" s="7"/>
       <c r="I143" s="7"/>
       <c r="J143" s="7"/>
+      <c r="K143" s="7"/>
     </row>
     <row r="144">
-      <c r="D144" s="7"/>
       <c r="E144" s="7"/>
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
       <c r="H144" s="7"/>
       <c r="I144" s="7"/>
       <c r="J144" s="7"/>
+      <c r="K144" s="7"/>
     </row>
     <row r="145">
-      <c r="D145" s="7"/>
       <c r="E145" s="7"/>
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
       <c r="H145" s="7"/>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
+      <c r="K145" s="7"/>
     </row>
     <row r="146">
-      <c r="D146" s="7"/>
       <c r="E146" s="7"/>
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
       <c r="H146" s="7"/>
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
+      <c r="K146" s="7"/>
     </row>
     <row r="147">
-      <c r="D147" s="7"/>
       <c r="E147" s="7"/>
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
       <c r="H147" s="7"/>
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
+      <c r="K147" s="7"/>
     </row>
     <row r="148">
-      <c r="D148" s="7"/>
       <c r="E148" s="7"/>
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
       <c r="H148" s="7"/>
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
+      <c r="K148" s="7"/>
     </row>
     <row r="149">
-      <c r="D149" s="7"/>
       <c r="E149" s="7"/>
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
       <c r="H149" s="7"/>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
+      <c r="K149" s="7"/>
     </row>
     <row r="150">
-      <c r="D150" s="7"/>
       <c r="E150" s="7"/>
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
       <c r="H150" s="7"/>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
+      <c r="K150" s="7"/>
     </row>
     <row r="151">
-      <c r="D151" s="7"/>
       <c r="E151" s="7"/>
       <c r="F151" s="7"/>
       <c r="G151" s="7"/>
       <c r="H151" s="7"/>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
+      <c r="K151" s="7"/>
     </row>
     <row r="152">
-      <c r="D152" s="7"/>
       <c r="E152" s="7"/>
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
       <c r="H152" s="7"/>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
+      <c r="K152" s="7"/>
     </row>
     <row r="153">
-      <c r="D153" s="7"/>
       <c r="E153" s="7"/>
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
       <c r="H153" s="7"/>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
+      <c r="K153" s="7"/>
     </row>
     <row r="154">
-      <c r="D154" s="7"/>
       <c r="E154" s="7"/>
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
       <c r="H154" s="7"/>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
+      <c r="K154" s="7"/>
     </row>
     <row r="155">
-      <c r="D155" s="7"/>
       <c r="E155" s="7"/>
       <c r="F155" s="7"/>
       <c r="G155" s="7"/>
       <c r="H155" s="7"/>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
+      <c r="K155" s="7"/>
     </row>
     <row r="156">
-      <c r="D156" s="7"/>
       <c r="E156" s="7"/>
       <c r="F156" s="7"/>
       <c r="G156" s="7"/>
       <c r="H156" s="7"/>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
+      <c r="K156" s="7"/>
     </row>
     <row r="157">
-      <c r="D157" s="7"/>
       <c r="E157" s="7"/>
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
       <c r="H157" s="7"/>
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
+      <c r="K157" s="7"/>
     </row>
     <row r="158">
-      <c r="D158" s="7"/>
       <c r="E158" s="7"/>
       <c r="F158" s="7"/>
       <c r="G158" s="7"/>
       <c r="H158" s="7"/>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
+      <c r="K158" s="7"/>
     </row>
     <row r="159">
-      <c r="D159" s="7"/>
       <c r="E159" s="7"/>
       <c r="F159" s="7"/>
       <c r="G159" s="7"/>
       <c r="H159" s="7"/>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
+      <c r="K159" s="7"/>
     </row>
     <row r="160">
-      <c r="D160" s="7"/>
       <c r="E160" s="7"/>
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
       <c r="H160" s="7"/>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
+      <c r="K160" s="7"/>
     </row>
     <row r="161">
-      <c r="D161" s="7"/>
       <c r="E161" s="7"/>
       <c r="F161" s="7"/>
       <c r="G161" s="7"/>
       <c r="H161" s="7"/>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
+      <c r="K161" s="7"/>
     </row>
     <row r="162">
-      <c r="D162" s="7"/>
       <c r="E162" s="7"/>
       <c r="F162" s="7"/>
       <c r="G162" s="7"/>
       <c r="H162" s="7"/>
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
+      <c r="K162" s="7"/>
     </row>
     <row r="163">
-      <c r="D163" s="7"/>
       <c r="E163" s="7"/>
       <c r="F163" s="7"/>
       <c r="G163" s="7"/>
       <c r="H163" s="7"/>
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
+      <c r="K163" s="7"/>
     </row>
     <row r="164">
-      <c r="D164" s="7"/>
       <c r="E164" s="7"/>
       <c r="F164" s="7"/>
       <c r="G164" s="7"/>
       <c r="H164" s="7"/>
       <c r="I164" s="7"/>
       <c r="J164" s="7"/>
+      <c r="K164" s="7"/>
     </row>
     <row r="165">
-      <c r="D165" s="7"/>
       <c r="E165" s="7"/>
       <c r="F165" s="7"/>
       <c r="G165" s="7"/>
       <c r="H165" s="7"/>
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
+      <c r="K165" s="7"/>
     </row>
     <row r="166">
-      <c r="D166" s="7"/>
       <c r="E166" s="7"/>
       <c r="F166" s="7"/>
       <c r="G166" s="7"/>
       <c r="H166" s="7"/>
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
+      <c r="K166" s="7"/>
     </row>
     <row r="167">
-      <c r="D167" s="7"/>
       <c r="E167" s="7"/>
       <c r="F167" s="7"/>
       <c r="G167" s="7"/>
       <c r="H167" s="7"/>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
+      <c r="K167" s="7"/>
     </row>
     <row r="168">
-      <c r="D168" s="7"/>
       <c r="E168" s="7"/>
       <c r="F168" s="7"/>
       <c r="G168" s="7"/>
       <c r="H168" s="7"/>
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
+      <c r="K168" s="7"/>
     </row>
     <row r="169">
-      <c r="D169" s="7"/>
       <c r="E169" s="7"/>
       <c r="F169" s="7"/>
       <c r="G169" s="7"/>
       <c r="H169" s="7"/>
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
+      <c r="K169" s="7"/>
     </row>
     <row r="170">
-      <c r="D170" s="7"/>
       <c r="E170" s="7"/>
       <c r="F170" s="7"/>
       <c r="G170" s="7"/>
       <c r="H170" s="7"/>
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
+      <c r="K170" s="7"/>
     </row>
     <row r="171">
-      <c r="D171" s="7"/>
       <c r="E171" s="7"/>
       <c r="F171" s="7"/>
       <c r="G171" s="7"/>
       <c r="H171" s="7"/>
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
+      <c r="K171" s="7"/>
     </row>
     <row r="172">
-      <c r="D172" s="7"/>
       <c r="E172" s="7"/>
       <c r="F172" s="7"/>
       <c r="G172" s="7"/>
       <c r="H172" s="7"/>
       <c r="I172" s="7"/>
       <c r="J172" s="7"/>
+      <c r="K172" s="7"/>
     </row>
     <row r="173">
-      <c r="D173" s="7"/>
       <c r="E173" s="7"/>
       <c r="F173" s="7"/>
       <c r="G173" s="7"/>
       <c r="H173" s="7"/>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
+      <c r="K173" s="7"/>
     </row>
     <row r="174">
-      <c r="D174" s="7"/>
       <c r="E174" s="7"/>
       <c r="F174" s="7"/>
       <c r="G174" s="7"/>
       <c r="H174" s="7"/>
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
+      <c r="K174" s="7"/>
     </row>
     <row r="175">
-      <c r="D175" s="7"/>
       <c r="E175" s="7"/>
       <c r="F175" s="7"/>
       <c r="G175" s="7"/>
       <c r="H175" s="7"/>
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
+      <c r="K175" s="7"/>
     </row>
     <row r="176">
-      <c r="D176" s="7"/>
       <c r="E176" s="7"/>
       <c r="F176" s="7"/>
       <c r="G176" s="7"/>
       <c r="H176" s="7"/>
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
+      <c r="K176" s="7"/>
     </row>
     <row r="177">
-      <c r="D177" s="7"/>
       <c r="E177" s="7"/>
       <c r="F177" s="7"/>
       <c r="G177" s="7"/>
       <c r="H177" s="7"/>
       <c r="I177" s="7"/>
       <c r="J177" s="7"/>
+      <c r="K177" s="7"/>
     </row>
     <row r="178">
-      <c r="D178" s="7"/>
       <c r="E178" s="7"/>
       <c r="F178" s="7"/>
       <c r="G178" s="7"/>
       <c r="H178" s="7"/>
       <c r="I178" s="7"/>
       <c r="J178" s="7"/>
+      <c r="K178" s="7"/>
     </row>
     <row r="179">
-      <c r="D179" s="7"/>
       <c r="E179" s="7"/>
       <c r="F179" s="7"/>
       <c r="G179" s="7"/>
       <c r="H179" s="7"/>
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
+      <c r="K179" s="7"/>
     </row>
     <row r="180">
-      <c r="D180" s="7"/>
       <c r="E180" s="7"/>
       <c r="F180" s="7"/>
       <c r="G180" s="7"/>
       <c r="H180" s="7"/>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
+      <c r="K180" s="7"/>
     </row>
     <row r="181">
-      <c r="D181" s="7"/>
       <c r="E181" s="7"/>
       <c r="F181" s="7"/>
       <c r="G181" s="7"/>
       <c r="H181" s="7"/>
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
+      <c r="K181" s="7"/>
     </row>
     <row r="182">
-      <c r="D182" s="7"/>
       <c r="E182" s="7"/>
       <c r="F182" s="7"/>
       <c r="G182" s="7"/>
       <c r="H182" s="7"/>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
+      <c r="K182" s="7"/>
     </row>
     <row r="183">
-      <c r="D183" s="7"/>
       <c r="E183" s="7"/>
       <c r="F183" s="7"/>
       <c r="G183" s="7"/>
       <c r="H183" s="7"/>
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
+      <c r="K183" s="7"/>
     </row>
     <row r="184">
-      <c r="D184" s="7"/>
       <c r="E184" s="7"/>
       <c r="F184" s="7"/>
       <c r="G184" s="7"/>
       <c r="H184" s="7"/>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
+      <c r="K184" s="7"/>
     </row>
     <row r="185">
-      <c r="D185" s="7"/>
       <c r="E185" s="7"/>
       <c r="F185" s="7"/>
       <c r="G185" s="7"/>
       <c r="H185" s="7"/>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
+      <c r="K185" s="7"/>
     </row>
     <row r="186">
-      <c r="D186" s="7"/>
       <c r="E186" s="7"/>
       <c r="F186" s="7"/>
       <c r="G186" s="7"/>
       <c r="H186" s="7"/>
       <c r="I186" s="7"/>
       <c r="J186" s="7"/>
+      <c r="K186" s="7"/>
     </row>
     <row r="187">
-      <c r="D187" s="7"/>
       <c r="E187" s="7"/>
       <c r="F187" s="7"/>
       <c r="G187" s="7"/>
       <c r="H187" s="7"/>
       <c r="I187" s="7"/>
       <c r="J187" s="7"/>
+      <c r="K187" s="7"/>
     </row>
     <row r="188">
-      <c r="D188" s="7"/>
       <c r="E188" s="7"/>
       <c r="F188" s="7"/>
       <c r="G188" s="7"/>
       <c r="H188" s="7"/>
       <c r="I188" s="7"/>
       <c r="J188" s="7"/>
+      <c r="K188" s="7"/>
     </row>
     <row r="189">
-      <c r="D189" s="7"/>
       <c r="E189" s="7"/>
       <c r="F189" s="7"/>
       <c r="G189" s="7"/>
       <c r="H189" s="7"/>
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
+      <c r="K189" s="7"/>
     </row>
     <row r="190">
-      <c r="D190" s="7"/>
       <c r="E190" s="7"/>
       <c r="F190" s="7"/>
       <c r="G190" s="7"/>
       <c r="H190" s="7"/>
       <c r="I190" s="7"/>
       <c r="J190" s="7"/>
+      <c r="K190" s="7"/>
     </row>
     <row r="191">
-      <c r="D191" s="7"/>
       <c r="E191" s="7"/>
       <c r="F191" s="7"/>
       <c r="G191" s="7"/>
       <c r="H191" s="7"/>
       <c r="I191" s="7"/>
       <c r="J191" s="7"/>
+      <c r="K191" s="7"/>
     </row>
     <row r="192">
-      <c r="D192" s="7"/>
       <c r="E192" s="7"/>
       <c r="F192" s="7"/>
       <c r="G192" s="7"/>
       <c r="H192" s="7"/>
       <c r="I192" s="7"/>
       <c r="J192" s="7"/>
+      <c r="K192" s="7"/>
     </row>
     <row r="193">
-      <c r="D193" s="7"/>
       <c r="E193" s="7"/>
       <c r="F193" s="7"/>
       <c r="G193" s="7"/>
       <c r="H193" s="7"/>
       <c r="I193" s="7"/>
       <c r="J193" s="7"/>
+      <c r="K193" s="7"/>
     </row>
     <row r="194">
-      <c r="D194" s="7"/>
       <c r="E194" s="7"/>
       <c r="F194" s="7"/>
       <c r="G194" s="7"/>
       <c r="H194" s="7"/>
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
+      <c r="K194" s="7"/>
     </row>
     <row r="195">
-      <c r="D195" s="7"/>
       <c r="E195" s="7"/>
       <c r="F195" s="7"/>
       <c r="G195" s="7"/>
       <c r="H195" s="7"/>
       <c r="I195" s="7"/>
       <c r="J195" s="7"/>
+      <c r="K195" s="7"/>
     </row>
     <row r="196">
-      <c r="D196" s="7"/>
       <c r="E196" s="7"/>
       <c r="F196" s="7"/>
       <c r="G196" s="7"/>
       <c r="H196" s="7"/>
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
+      <c r="K196" s="7"/>
     </row>
     <row r="197">
-      <c r="D197" s="7"/>
       <c r="E197" s="7"/>
       <c r="F197" s="7"/>
       <c r="G197" s="7"/>
       <c r="H197" s="7"/>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
+      <c r="K197" s="7"/>
     </row>
     <row r="198">
-      <c r="D198" s="7"/>
       <c r="E198" s="7"/>
       <c r="F198" s="7"/>
       <c r="G198" s="7"/>
       <c r="H198" s="7"/>
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
+      <c r="K198" s="7"/>
     </row>
     <row r="199">
-      <c r="D199" s="7"/>
       <c r="E199" s="7"/>
       <c r="F199" s="7"/>
       <c r="G199" s="7"/>
       <c r="H199" s="7"/>
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
+      <c r="K199" s="7"/>
     </row>
     <row r="200">
-      <c r="D200" s="7"/>
       <c r="E200" s="7"/>
       <c r="F200" s="7"/>
       <c r="G200" s="7"/>
       <c r="H200" s="7"/>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
+      <c r="K200" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:J200">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(D2))=0</formula>
+  <conditionalFormatting sqref="E2:K200">
+    <cfRule type="containsBlanks" dxfId="2" priority="1">
+      <formula>LEN(TRIM(E2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:J200">
+  <conditionalFormatting sqref="E2:K200">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
       <formula>0</formula>
     </cfRule>
@@ -34036,46 +34543,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -34083,7 +34590,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="3">
         <v>0.0</v>
@@ -34092,16 +34599,16 @@
         <v>2.0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -34127,46 +34634,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -34174,7 +34681,7 @@
         <v>2.0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C2" s="4">
         <v>0.0</v>
@@ -34183,22 +34690,22 @@
         <v>1.0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="N2" s="19"/>
     </row>
@@ -34207,7 +34714,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C3" s="4">
         <v>1.0</v>
@@ -34216,22 +34723,22 @@
         <v>2.0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
@@ -34242,7 +34749,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C4" s="4">
         <v>0.0</v>
@@ -34251,22 +34758,22 @@
         <v>3.0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
@@ -34278,7 +34785,7 @@
         <v>5.0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C5" s="4">
         <v>0.0</v>
@@ -34287,22 +34794,22 @@
         <v>1.0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="N5" s="19"/>
     </row>
@@ -34311,7 +34818,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C6" s="4">
         <v>1.0</v>
@@ -34320,22 +34827,22 @@
         <v>2.0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
@@ -34346,7 +34853,7 @@
         <v>7.0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C7" s="4">
         <v>0.0</v>
@@ -34355,22 +34862,22 @@
         <v>3.0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
@@ -34382,7 +34889,7 @@
         <v>9.0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C8" s="4">
         <v>0.0</v>
@@ -34391,16 +34898,16 @@
         <v>1.0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9">
@@ -34408,7 +34915,7 @@
         <v>1.0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="4">
         <v>0.0</v>
@@ -34417,19 +34924,19 @@
         <v>1.0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
@@ -34441,7 +34948,7 @@
         <v>1.0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" s="4">
         <v>0.0</v>
@@ -34450,13 +34957,13 @@
         <v>2.0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>

--- a/db/DB.xlsx
+++ b/db/DB.xlsx
@@ -10,14 +10,14 @@
     <sheet state="visible" name="ejemplo" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">actividades!$A$1:$N$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">actividades!$A$1:$N$42</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="187">
   <si>
     <t>Orden de aparición</t>
   </si>
@@ -169,7 +169,7 @@
     <t>white</t>
   </si>
   <si>
-    <t>Buenos días preciosa, hoy es alabanza. Amor ayúdame preguntándome si ya oré, esta semana el tiempo del trabajo me está absorbiendo. Te amo!</t>
+    <t>Hola amor, hoy es enseñanza.</t>
   </si>
   <si>
     <t>Horarios y sedes IDMJI</t>
@@ -181,25 +181,25 @@
     <t>Oración y lectura</t>
   </si>
   <si>
-    <t>Hoy por primera vez aprovecha que no tienes servicio y trata de llegar tempranito para orar y leer un tris.</t>
+    <t>Trata de llegar tempranito hoy de nuevo amor para orar y leer un tris. Está bien si no lo logras amor, intenta salir con tu mamá hoy.</t>
   </si>
   <si>
     <t>Servicio</t>
   </si>
   <si>
-    <t>No olvides llenar tu formulario de disponibilidades.</t>
+    <t>Qué día tienes servicio amor?</t>
   </si>
   <si>
     <t>Fundación</t>
   </si>
   <si>
-    <t>Tenemos presupuestado tiempo el jueves.</t>
+    <t>Los jueves suele ser esto amada.</t>
   </si>
   <si>
     <t>IDMJI-EN</t>
   </si>
   <si>
-    <t>Estos son los sábados. Amor! el sábado no te actualicé el tracker!! Esta semana lo voy a dejar listo desde el viernes para que puedas verlo el sábado. Te amoooo</t>
+    <t>Sábado preciosa, hay que dedicarle tantito el sábado.</t>
   </si>
   <si>
     <t>Creación de obra</t>
@@ -256,10 +256,10 @@
     <t>Maqueta en baja libro infantil</t>
   </si>
   <si>
-    <t>¡Bella! No se si alcanzaste a ver estas cosas la semana pasada, por eso te las dejo de nuevo. Pero mejor, agéndame mañana miércoles para que podamos trabajar juntitos 2 horitas en este proyecto. En esa sesión podemos co-crear boceto de contenido!&lt;/br&gt;&lt;/br&gt;Hoy es martes, así que en teoría esto no va, pero como llevamos dos festivos seguidos pensé en poner las cosas del lunes hoy para no descuidarlas.</t>
+    <t>Amor mío, esta tarde después de almuerzo paso por tu barrio y nos pensamos este proyecto para que le trabajemos juntos.</t>
   </si>
   <si>
-    <t>&lt;a target="_blank" href="https://youtu.be/M0yhHKWUa0g"&gt;&lt;img src="./img/marshmellow.png" alt="Test del masmelo" style="width:100%" /&gt;&lt;/a&gt;</t>
+    <t>&lt;a target="_blank" href="https://co.pinterest.com/pin/31595634880367318/"&gt;&lt;img src="./img/acuarelabook.jpg" alt="Ilustraciones de niña en el bosque." style="width:100%" /&gt;&lt;/a&gt;</t>
   </si>
   <si>
     <t>Video: plan your book</t>
@@ -271,10 +271,10 @@
     <t>Doméstika: dibujo anatómico</t>
   </si>
   <si>
-    <t>Hoy tienes 4 horas para tu curso de dibujo anatómico si deseas! De verdad estoy muy orgulloso de lo que has avanzado con esto! Si tengo tiempo reviso qué cursos puedo tomar también :3</t>
+    <t>Si te parece hoy no le dediques tiempito a este preciosa, y le dedicamos al libro.</t>
   </si>
   <si>
-    <t>&lt;a target="_blank" href="https://www.domestika.org/es/courses/area/184-dibujo-anatomico"&gt;&lt;img src="./img/dibujo.png" alt="Imágen del curso de dibujo anatómico en domestika" style="width:100%" /&gt;&lt;/a&gt;</t>
+    <t>&lt;!--a target="_blank" href="https://www.domestika.org/es/courses/area/184-dibujo-anatomico"&gt;&lt;img src="./img/dibujo.png" alt="Imágen del curso de dibujo anatómico en domestika" style="width:100%" /&gt;&lt;/a--&gt;</t>
   </si>
   <si>
     <t>Mapear vacantes en LinkedIn</t>
@@ -289,7 +289,7 @@
     <t>Columnas de la tabla de becas</t>
   </si>
   <si>
-    <t>Hermosa, yo creo que si armamos una tablita y comenzamos a consolidar ahí todas las oportunidades de becas que hemos visto ahí, por insta, y de más fuentes, sería top. Te dejo la lista de nuestros países favoritos.  Por lo pronto con que estructures unas columnas, yo creo que chuleamos. No olvides compartirmelo :3 Te amo!</t>
+    <t>Amor, hoy depronto en lugar de esto puedes dedicar tiempo a la reunión con el CTP a las 11 de la mañana. Pero en todo caso, se trata de hacer una tabla consolidando todas las oportunidades de becas en otros países. Te dejo la lista de países favoritos abajo. Besitoooos.</t>
   </si>
   <si>
     <t>&lt;ul&gt;&lt;li&gt;Inglaterra &amp;lt;3&lt;/li&gt;&lt;li&gt;Suiza &amp;lt;3&lt;/li&gt;&lt;li&gt;Noruega*&lt;/li&gt;&lt;li&gt;Italia &amp;lt;3&lt;/li&gt;&lt;li&gt;Alemania &amp;lt;3&lt;/li&gt;&lt;li&gt;España &amp;lt;3&lt;/li&gt;&lt;li&gt;Francia&lt;/li&gt;&lt;li&gt;Canadá &amp;lt;3&lt;/li&gt;&lt;li&gt;Suencia*&lt;/li&gt;&lt;li&gt;Dinamarca*&lt;/li&gt;&lt;li&gt;Austria &amp;lt;3&lt;/li&gt;&lt;li&gt;Nueva Zelanda&lt;/li&gt;&lt;li&gt;Australia&lt;/li&gt;&lt;/ul&gt;</t>
@@ -298,7 +298,7 @@
     <t>Gym</t>
   </si>
   <si>
-    <t>Amada! Me encanta que ya estés comenzndo a ir la gym! Eres una una dura y me parece muy sexy 🤭 Como ayer fuiste, tú decides si vas hoy. Recuerda que esto hace parte de las &lt;u&gt;3 horas extra&lt;/u&gt; del día.</t>
+    <t>Amada! Me encanta que ya estés comenzndo a ir la gym! Eres una una dura y me parece muy sexy 🤭 hoy puedes intentar ir de nuevo. Recuerda que esto hace parte de las &lt;u&gt;3 horas extra&lt;/u&gt; del día.</t>
   </si>
   <si>
     <t>&lt;a target="_blank" href="./img/gym.png"&gt;&lt;img src="./img/gym.png" alt="Dos mujeres riéndose sentadas en el gym." style="width:100%" /&gt;&lt;/a&gt;&lt;/br&gt;</t>
@@ -495,16 +495,22 @@
     <t>Hay familias innumerables de endgames, comenzar a ver patrones del estilo: jaque en 1. Y luego jaque en 2, puede ser la clave.</t>
   </si>
   <si>
-    <t>Mapear organizaciones</t>
+    <t>Reunón con CTP</t>
   </si>
   <si>
     <t xml:space="preserve">#339999       </t>
   </si>
   <si>
-    <t>Esto es del id 6, pero lo dejo aquí para que lo puedas ver hermosa: "Preciosa, mientras haces lo de mapear vacantes, ve armando la tablita o el board de organizaciones que tienen departamentos de sostenibilidad en Colombia. Buscan en LinkedIn las empresas así como te muestro en la foto. ¡Que sobre y no que falte! Toooodas en las que eventualmente te gustaría trabajar ponlas!&lt;/br&gt;&lt;/br&gt;¡También puedes buscar en las 100 empresas más grandes de Colombia! Te dejo el enlace abajo."</t>
+    <t>Hoy tienes tu reunión con CTP! lleva tu hoja de vida y algunas de las ofertas que viste ayer amda. Está perfecto que te den feedback sobre lo que tengas. Dedícale una hora a esto y la otra a lo de abajo si puedes porfi. Mañana y pasado vamos aplicando a las ofertas.</t>
   </si>
   <si>
-    <t>&lt;a target="_blank" href="./img/empresas.png"&gt;&lt;img src="./img/empresas.png" alt="Captura de pantalla buscador de LinkedIn" style="width:100%" /&gt;&lt;/a&gt;</t>
+    <t>Mapear organizaciones</t>
+  </si>
+  <si>
+    <t>Hoy no entres a LinkedIn amada mía. Busca en las 100 empresas más grandes de Colombia todas las que tengan departamento de Sostenibilidad o programas ESG y pásaselas a tu novio por favor.&lt;/br&gt;&lt;/br&gt;Mientras vas haciendo la revisión, pon la entrevista que el Diario La República hace a María Lara, directora de sostenibilidad en LatAm Airlines. Empápate de ese ambiente mientras buscas las empresas. Esto también te sirve como referente para irte informando de cómo se ve una estrategia de sostenibilidad para una aerolínea, que es una industria muy compleja. Te amo! Y me siento orgulloso de tí todos los días de mi vida.&lt;/br&gt;&lt;/br&gt;Te dejo la entrevista enlazada en la foto, y las 100 empresas abajo como enlace.</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="https://youtu.be/Z08sRmcWwX8?t=47"&gt;&lt;img src="./img/marialara.jpg" alt="Foto de María Lara." style="width:100%" /&gt;&lt;/a&gt;</t>
   </si>
   <si>
     <t>100 empresas más grandes de Colombia</t>
@@ -1465,25 +1471,25 @@
         <v>32</v>
       </c>
       <c r="E14" s="3">
-        <v>1.0</v>
+        <v>100.0</v>
       </c>
       <c r="F14" s="3">
-        <v>1.0</v>
+        <v>100.0</v>
       </c>
       <c r="G14" s="3">
-        <v>1.0</v>
+        <v>100.0</v>
       </c>
       <c r="H14" s="3">
-        <v>1.0</v>
+        <v>100.0</v>
       </c>
       <c r="I14" s="3">
-        <v>1.0</v>
+        <v>100.0</v>
       </c>
       <c r="J14" s="3">
-        <v>1.0</v>
+        <v>100.0</v>
       </c>
       <c r="K14" s="3">
-        <v>1.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="15">
@@ -3987,7 +3993,7 @@
       <c r="Y13" s="13"/>
       <c r="Z13" s="13"/>
     </row>
-    <row r="14">
+    <row r="14" hidden="1">
       <c r="A14" s="11">
         <v>3.0</v>
       </c>
@@ -5097,7 +5103,7 @@
     </row>
     <row r="40">
       <c r="A40" s="11">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>154</v>
@@ -5117,15 +5123,9 @@
       <c r="G40" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="H40" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="J40" s="15" t="s">
-        <v>159</v>
-      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
       <c r="M40" s="13"/>
@@ -5145,10 +5145,10 @@
     </row>
     <row r="41">
       <c r="A41" s="11">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C41" s="11">
         <v>0.0</v>
@@ -5157,17 +5157,23 @@
         <v>2.0</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>49</v>
       </c>
       <c r="G41" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="J41" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
       <c r="M41" s="13"/>
@@ -5185,14 +5191,28 @@
       <c r="Y41" s="13"/>
       <c r="Z41" s="13"/>
     </row>
-    <row r="42">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
+    <row r="42" hidden="1">
+      <c r="A42" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D42" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>163</v>
+      </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
@@ -32289,11 +32309,39 @@
       <c r="Y1009" s="13"/>
       <c r="Z1009" s="13"/>
     </row>
+    <row r="1010">
+      <c r="A1010" s="13"/>
+      <c r="B1010" s="13"/>
+      <c r="C1010" s="13"/>
+      <c r="D1010" s="13"/>
+      <c r="E1010" s="13"/>
+      <c r="F1010" s="13"/>
+      <c r="G1010" s="13"/>
+      <c r="H1010" s="13"/>
+      <c r="I1010" s="13"/>
+      <c r="J1010" s="13"/>
+      <c r="K1010" s="13"/>
+      <c r="L1010" s="13"/>
+      <c r="M1010" s="13"/>
+      <c r="N1010" s="13"/>
+      <c r="O1010" s="13"/>
+      <c r="P1010" s="13"/>
+      <c r="Q1010" s="13"/>
+      <c r="R1010" s="13"/>
+      <c r="S1010" s="13"/>
+      <c r="T1010" s="13"/>
+      <c r="U1010" s="13"/>
+      <c r="V1010" s="13"/>
+      <c r="W1010" s="13"/>
+      <c r="X1010" s="13"/>
+      <c r="Y1010" s="13"/>
+      <c r="Z1010" s="13"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$N$41">
+  <autoFilter ref="$A$1:$N$42">
     <filterColumn colId="0">
       <filters>
-        <filter val="3"/>
+        <filter val="6"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -32307,7 +32355,7 @@
     <hyperlink r:id="rId7" ref="J31"/>
     <hyperlink r:id="rId8" ref="J32"/>
     <hyperlink r:id="rId9" ref="H36"/>
-    <hyperlink r:id="rId10" ref="J40"/>
+    <hyperlink r:id="rId10" ref="J41"/>
   </hyperlinks>
   <drawing r:id="rId11"/>
 </worksheet>
@@ -32328,7 +32376,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -32795,25 +32843,25 @@
         <v>32</v>
       </c>
       <c r="E14" s="3">
-        <v>1.0</v>
+        <v>100.0</v>
       </c>
       <c r="F14" s="3">
-        <v>1.0</v>
+        <v>100.0</v>
       </c>
       <c r="G14" s="3">
-        <v>1.0</v>
+        <v>100.0</v>
       </c>
       <c r="H14" s="3">
-        <v>1.0</v>
+        <v>100.0</v>
       </c>
       <c r="I14" s="3">
-        <v>1.0</v>
+        <v>100.0</v>
       </c>
       <c r="J14" s="3">
-        <v>1.0</v>
+        <v>100.0</v>
       </c>
       <c r="K14" s="3">
-        <v>1.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="15">
@@ -34605,10 +34653,10 @@
         <v>49</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -34681,7 +34729,7 @@
         <v>2.0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C2" s="4">
         <v>0.0</v>
@@ -34696,16 +34744,16 @@
         <v>49</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N2" s="19"/>
     </row>
@@ -34714,7 +34762,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C3" s="4">
         <v>1.0</v>
@@ -34729,16 +34777,16 @@
         <v>49</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
@@ -34749,7 +34797,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C4" s="4">
         <v>0.0</v>
@@ -34764,16 +34812,16 @@
         <v>49</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
@@ -34785,7 +34833,7 @@
         <v>5.0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C5" s="4">
         <v>0.0</v>
@@ -34800,16 +34848,16 @@
         <v>49</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N5" s="19"/>
     </row>
@@ -34818,7 +34866,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C6" s="4">
         <v>1.0</v>
@@ -34833,16 +34881,16 @@
         <v>49</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
@@ -34853,7 +34901,7 @@
         <v>7.0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C7" s="4">
         <v>0.0</v>
@@ -34868,16 +34916,16 @@
         <v>49</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
@@ -34889,7 +34937,7 @@
         <v>9.0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C8" s="4">
         <v>0.0</v>
@@ -34904,10 +34952,10 @@
         <v>49</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9">
@@ -34930,7 +34978,7 @@
         <v>49</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>51</v>
@@ -34963,7 +35011,7 @@
         <v>49</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>

--- a/db/DB.xlsx
+++ b/db/DB.xlsx
@@ -10,14 +10,15 @@
     <sheet state="visible" name="ejemplo" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">actividades!$A$1:$N$42</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">areas!$A$1:$K$15</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">actividades!$A$1:$N$43</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="185">
   <si>
     <t>Orden de aparición</t>
   </si>
@@ -163,13 +164,19 @@
     <t>link3</t>
   </si>
   <si>
-    <t>Congregarme</t>
+    <t>IDMJI-EN</t>
   </si>
   <si>
     <t>white</t>
   </si>
   <si>
-    <t>Hola amor, hoy es enseñanza.</t>
+    <t>Amor! dedícale así sean 15 minutos a ver videítos en youtube, y estudiar coros en inglés. Depronto leer las escrituras.</t>
+  </si>
+  <si>
+    <t>Congregarme</t>
+  </si>
+  <si>
+    <t>Ay amada, no me acuerdo, me parece que hoy tengo que ir a estudio bíblico? Ño tengo ganitas purque fue una semana fuertecita aiñmm.</t>
   </si>
   <si>
     <t>Horarios y sedes IDMJI</t>
@@ -181,25 +188,13 @@
     <t>Oración y lectura</t>
   </si>
   <si>
-    <t>Trata de llegar tempranito hoy de nuevo amor para orar y leer un tris. Está bien si no lo logras amor, intenta salir con tu mamá hoy.</t>
+    <t>.</t>
   </si>
   <si>
     <t>Servicio</t>
   </si>
   <si>
-    <t>Qué día tienes servicio amor?</t>
-  </si>
-  <si>
     <t>Fundación</t>
-  </si>
-  <si>
-    <t>Los jueves suele ser esto amada.</t>
-  </si>
-  <si>
-    <t>IDMJI-EN</t>
-  </si>
-  <si>
-    <t>Sábado preciosa, hay que dedicarle tantito el sábado.</t>
   </si>
   <si>
     <t>Creación de obra</t>
@@ -298,16 +293,16 @@
     <t>Gym</t>
   </si>
   <si>
-    <t>Amada! Me encanta que ya estés comenzndo a ir la gym! Eres una una dura y me parece muy sexy 🤭 hoy puedes intentar ir de nuevo. Recuerda que esto hace parte de las &lt;u&gt;3 horas extra&lt;/u&gt; del día.</t>
+    <t>Preciosa, si hoy sábado tienes mucha energía podrías ir al gym si quieres. Sobretodo en la mañana, y luego vamos a cine :3. Mira los horarios de hoy para Intensamente! te los dejo aquí en Unicentro.</t>
   </si>
   <si>
-    <t>&lt;a target="_blank" href="./img/gym.png"&gt;&lt;img src="./img/gym.png" alt="Dos mujeres riéndose sentadas en el gym." style="width:100%" /&gt;&lt;/a&gt;&lt;/br&gt;</t>
+    <t>&lt;a target="_blank" href="./img/horarios.png"&gt;&lt;img src="./img/horarios.png" alt="Captura de pantalla horarios de cine" style="width:100%" /&gt;&lt;/a&gt;&lt;/br&gt;</t>
   </si>
   <si>
     <t>Natación</t>
   </si>
   <si>
-    <t>Corazón, yo no he ido a la cita médica aaahhh. Podemos tratar de agendar este viernes para ir a la U y que yo vaya a mi cita médica puede ser. Me escribes por waa para agendar eso?</t>
+    <t>Todavía tengo que agendar mi cita médica :(</t>
   </si>
   <si>
     <t>Ir a la U a nadar</t>
@@ -364,16 +359,16 @@
     <t>Para después.</t>
   </si>
   <si>
-    <t>Imprimir tracker</t>
+    <t>Estrategia con tu chicooo</t>
   </si>
   <si>
-    <t>Si no lo imprimiste ayer, recuerda imprimir tu tracker, puede ser de venida del gym amor.</t>
+    <t>Esta semana avanzaste muchísimo en tu marco estratégico!!!! Estoy pensando en colorear tu tracker para que sea muy claras las métricas de &lt;b&gt;Constancia en tu Estrategia&lt;/b&gt;, y de &lt;b&gt;Logro de objetivos&lt;/b&gt;.</t>
   </si>
   <si>
     <t>Ideas para curso</t>
   </si>
   <si>
-    <t>Como ayer estuviste sólamente trabajando en obra, hoy puedes dedicar un tiempo a pensarte una propuesta de curso para ofrecer por Instagram como MVP. Piensa en un tipo de &lt;b&gt;experiencia + aprendizaje&lt;/b&gt;, en lugar de sólo aprendizaje. Puede ser en un café bonito experiencia tardeada, o un taller de dibujo anatómico en un entorno más "artsy" como una sala galería.&lt;/br&gt;&lt;/br&gt;Puedes hacer un brainstorming de ideas para &lt;u&gt;workshops de una tarde&lt;/u&gt; y otra de &lt;u&gt;cursos de varias sesiones&lt;/u&gt; con una habilidad clara en mente.</t>
+    <t xml:space="preserve">Amor agenda con tu chico una sesión de co-creación para pensarnos talleres-experiencia. Y hoy más bien hacemos estrategia :3 </t>
   </si>
   <si>
     <t>&lt;a target="_blank" href="./img/workshop.png"&gt;&lt;img src="./img/workshop.png" alt="Personas pintando en un taller de una tarde." style="width:100%" /&gt;&lt;/a&gt;</t>
@@ -1416,7 +1411,7 @@
         <v>0.0</v>
       </c>
       <c r="J12" s="3">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="K12" s="3">
         <v>3.0</v>
@@ -1451,7 +1446,7 @@
         <v>0.0</v>
       </c>
       <c r="J13" s="4">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K13" s="4">
         <v>0.0</v>
@@ -3379,6 +3374,7 @@
       <c r="K200" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$K$15"/>
   <conditionalFormatting sqref="D2:K200">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(D2))=0</formula>
@@ -3474,7 +3470,7 @@
         <v>0.0</v>
       </c>
       <c r="D2" s="11">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>14</v>
@@ -3485,13 +3481,9 @@
       <c r="G2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>52</v>
-      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
@@ -3514,13 +3506,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="11">
         <v>0.0</v>
       </c>
       <c r="D3" s="11">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>14</v>
@@ -3529,11 +3521,15 @@
         <v>49</v>
       </c>
       <c r="G3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="14"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
@@ -3553,7 +3549,7 @@
     </row>
     <row r="4" hidden="1">
       <c r="A4" s="11">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>55</v>
@@ -3562,7 +3558,7 @@
         <v>0.0</v>
       </c>
       <c r="D4" s="11">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>14</v>
@@ -3573,9 +3569,9 @@
       <c r="G4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="14"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
@@ -3595,7 +3591,7 @@
     </row>
     <row r="5" hidden="1">
       <c r="A5" s="11">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>57</v>
@@ -3604,7 +3600,7 @@
         <v>0.0</v>
       </c>
       <c r="D5" s="11">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>14</v>
@@ -3613,7 +3609,7 @@
         <v>49</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="13"/>
@@ -3637,16 +3633,16 @@
     </row>
     <row r="6" hidden="1">
       <c r="A6" s="11">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="11">
         <v>0.0</v>
       </c>
       <c r="D6" s="11">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>14</v>
@@ -3655,7 +3651,7 @@
         <v>49</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="13"/>
@@ -3678,36 +3674,6 @@
       <c r="Z6" s="13"/>
     </row>
     <row r="7" hidden="1">
-      <c r="A7" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
@@ -3726,13 +3692,13 @@
         <v>4.0</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C8" s="11">
         <v>0.0</v>
       </c>
       <c r="D8" s="11">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>16</v>
@@ -3741,9 +3707,11 @@
         <v>49</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="11"/>
+        <v>60</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -3765,10 +3733,10 @@
     </row>
     <row r="9" hidden="1">
       <c r="A9" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C9" s="11">
         <v>0.0</v>
@@ -3776,22 +3744,20 @@
       <c r="D9" s="11">
         <v>2.0</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>18</v>
+      <c r="E9" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>49</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
+        <v>63</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
@@ -3812,13 +3778,13 @@
         <v>5.0</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C10" s="11">
         <v>0.0</v>
       </c>
       <c r="D10" s="11">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>18</v>
@@ -3827,9 +3793,11 @@
         <v>49</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="11"/>
+        <v>65</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
@@ -3854,7 +3822,7 @@
         <v>5.0</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C11" s="11">
         <v>0.0</v>
@@ -3862,30 +3830,20 @@
       <c r="D11" s="11">
         <v>1.0</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>49</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>77</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
@@ -3903,10 +3861,10 @@
     </row>
     <row r="12" hidden="1">
       <c r="A12" s="11">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C12" s="11">
         <v>0.0</v>
@@ -3914,26 +3872,30 @@
       <c r="D12" s="11">
         <v>1.0</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>16</v>
+      <c r="E12" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>49</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>80</v>
+        <v>70</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+        <v>73</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
@@ -3954,13 +3916,13 @@
         <v>2.0</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C13" s="11">
         <v>0.0</v>
       </c>
       <c r="D13" s="11">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
@@ -3969,13 +3931,17 @@
         <v>49</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
+        <v>78</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
@@ -3995,31 +3961,31 @@
     </row>
     <row r="14" hidden="1">
       <c r="A14" s="11">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C14" s="11">
         <v>0.0</v>
       </c>
       <c r="D14" s="11">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>49</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+        <v>82</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
@@ -4039,10 +4005,10 @@
     </row>
     <row r="15" hidden="1">
       <c r="A15" s="11">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C15" s="11">
         <v>0.0</v>
@@ -4051,16 +4017,16 @@
         <v>1.0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>49</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
@@ -4083,10 +4049,10 @@
     </row>
     <row r="16" hidden="1">
       <c r="A16" s="11">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C16" s="11">
         <v>0.0</v>
@@ -4094,17 +4060,17 @@
       <c r="D16" s="11">
         <v>1.0</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>12</v>
+      <c r="E16" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>49</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -4125,18 +4091,18 @@
       <c r="Y16" s="13"/>
       <c r="Z16" s="13"/>
     </row>
-    <row r="17" hidden="1">
+    <row r="17">
       <c r="A17" s="11">
         <v>11.0</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C17" s="11">
         <v>0.0</v>
       </c>
       <c r="D17" s="11">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>12</v>
@@ -4145,9 +4111,11 @@
         <v>49</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" s="13"/>
+        <v>91</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>92</v>
+      </c>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
@@ -4167,26 +4135,28 @@
       <c r="Y17" s="13"/>
       <c r="Z17" s="13"/>
     </row>
-    <row r="18" hidden="1">
+    <row r="18">
       <c r="A18" s="11">
-        <v>12.0</v>
+        <v>-11.0</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C18" s="11">
         <v>0.0</v>
       </c>
       <c r="D18" s="11">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="13"/>
+      <c r="G18" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -4209,29 +4179,25 @@
     </row>
     <row r="19" hidden="1">
       <c r="A19" s="11">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C19" s="11">
         <v>0.0</v>
       </c>
       <c r="D19" s="11">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>100</v>
-      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
@@ -4256,13 +4222,13 @@
         <v>13.0</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C20" s="11">
         <v>0.0</v>
       </c>
       <c r="D20" s="11">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>28</v>
@@ -4271,9 +4237,11 @@
         <v>49</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="H20" s="13"/>
+        <v>97</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>98</v>
+      </c>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
@@ -4298,13 +4266,13 @@
         <v>13.0</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C21" s="11">
         <v>0.0</v>
       </c>
       <c r="D21" s="11">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>28</v>
@@ -4313,7 +4281,7 @@
         <v>49</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
@@ -4340,13 +4308,13 @@
         <v>13.0</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C22" s="11">
         <v>0.0</v>
       </c>
       <c r="D22" s="11">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>28</v>
@@ -4355,7 +4323,7 @@
         <v>49</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
@@ -4382,13 +4350,13 @@
         <v>13.0</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C23" s="11">
         <v>0.0</v>
       </c>
       <c r="D23" s="11">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>28</v>
@@ -4397,7 +4365,7 @@
         <v>49</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
@@ -4424,13 +4392,13 @@
         <v>13.0</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C24" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D24" s="11">
         <v>1.0</v>
-      </c>
-      <c r="D24" s="11">
-        <v>4.0</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>28</v>
@@ -4439,7 +4407,7 @@
         <v>49</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
@@ -4466,13 +4434,13 @@
         <v>13.0</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C25" s="11">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D25" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>28</v>
@@ -4481,7 +4449,7 @@
         <v>49</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
@@ -4508,13 +4476,13 @@
         <v>13.0</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C26" s="11">
         <v>0.0</v>
       </c>
       <c r="D26" s="11">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>28</v>
@@ -4523,7 +4491,7 @@
         <v>49</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
@@ -4547,25 +4515,25 @@
     </row>
     <row r="27" hidden="1">
       <c r="A27" s="11">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C27" s="11">
         <v>0.0</v>
       </c>
       <c r="D27" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>30</v>
+        <v>2.0</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>49</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
@@ -4589,10 +4557,10 @@
     </row>
     <row r="28" hidden="1">
       <c r="A28" s="11">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C28" s="11">
         <v>0.0</v>
@@ -4600,18 +4568,16 @@
       <c r="D28" s="11">
         <v>1.0</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>16</v>
+      <c r="E28" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>49</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>119</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="H28" s="13"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
@@ -4636,13 +4602,13 @@
         <v>7.0</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C29" s="11">
         <v>0.0</v>
       </c>
       <c r="D29" s="11">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>16</v>
@@ -4651,9 +4617,11 @@
         <v>49</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="H29" s="11"/>
+        <v>116</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
@@ -4675,41 +4643,31 @@
     </row>
     <row r="30" hidden="1">
       <c r="A30" s="11">
-        <v>10.0</v>
+        <v>-7.0</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C30" s="11">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D30" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>32</v>
+        <v>2.0</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>49</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="J30" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="L30" s="15" t="s">
-        <v>128</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
@@ -4730,13 +4688,13 @@
         <v>10.0</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C31" s="11">
         <v>1.0</v>
       </c>
       <c r="D31" s="11">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>32</v>
@@ -4745,19 +4703,23 @@
         <v>49</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="I31" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="K31" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J31" s="17" t="s">
+      <c r="L31" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
       <c r="O31" s="13"/>
@@ -4778,13 +4740,13 @@
         <v>10.0</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C32" s="11">
         <v>1.0</v>
       </c>
       <c r="D32" s="11">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>32</v>
@@ -4793,16 +4755,16 @@
         <v>49</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
@@ -4826,13 +4788,13 @@
         <v>10.0</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C33" s="11">
         <v>1.0</v>
       </c>
       <c r="D33" s="11">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>32</v>
@@ -4841,13 +4803,17 @@
         <v>49</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="16"/>
+        <v>132</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>124</v>
+      </c>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
@@ -4867,29 +4833,31 @@
     </row>
     <row r="34" hidden="1">
       <c r="A34" s="11">
-        <v>14.0</v>
+        <v>10.0</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C34" s="11">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D34" s="11">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
+        <v>134</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="16"/>
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
@@ -4912,26 +4880,24 @@
         <v>14.0</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C35" s="11">
         <v>0.0</v>
       </c>
       <c r="D35" s="11">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E35" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>144</v>
-      </c>
+      <c r="H35" s="11"/>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
@@ -4956,25 +4922,25 @@
         <v>14.0</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C36" s="11">
         <v>0.0</v>
       </c>
       <c r="D36" s="11">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>147</v>
+        <v>141</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
@@ -4996,28 +4962,36 @@
       <c r="Z36" s="13"/>
     </row>
     <row r="37" hidden="1">
-      <c r="A37" s="3">
+      <c r="A37" s="11">
         <v>14.0</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C37" s="3">
+      <c r="B37" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="11">
         <v>0.0</v>
       </c>
-      <c r="D37" s="3">
-        <v>4.0</v>
+      <c r="D37" s="11">
+        <v>3.0</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H37" s="16"/>
+        <v>138</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
       <c r="O37" s="13"/>
       <c r="P37" s="13"/>
       <c r="Q37" s="13"/>
@@ -5036,23 +5010,24 @@
         <v>14.0</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C38" s="3">
         <v>0.0</v>
       </c>
       <c r="D38" s="3">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>151</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="H38" s="16"/>
       <c r="O38" s="13"/>
       <c r="P38" s="13"/>
       <c r="Q38" s="13"/>
@@ -5071,22 +5046,22 @@
         <v>14.0</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C39" s="3">
         <v>0.0</v>
       </c>
       <c r="D39" s="3">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="O39" s="13"/>
       <c r="P39" s="13"/>
@@ -5101,35 +5076,28 @@
       <c r="Y39" s="13"/>
       <c r="Z39" s="13"/>
     </row>
-    <row r="40">
-      <c r="A40" s="11">
+    <row r="40" hidden="1">
+      <c r="A40" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D40" s="3">
         <v>6.0</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="D40" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>155</v>
+      <c r="E40" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
+        <v>138</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="O40" s="13"/>
       <c r="P40" s="13"/>
       <c r="Q40" s="13"/>
@@ -5143,37 +5111,31 @@
       <c r="Y40" s="13"/>
       <c r="Z40" s="13"/>
     </row>
-    <row r="41">
+    <row r="41" hidden="1">
       <c r="A41" s="11">
         <v>6.0</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C41" s="11">
         <v>0.0</v>
       </c>
       <c r="D41" s="11">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>49</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="J41" s="15" t="s">
-        <v>161</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
       <c r="M41" s="13"/>
@@ -5193,10 +5155,10 @@
     </row>
     <row r="42" hidden="1">
       <c r="A42" s="11">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C42" s="11">
         <v>0.0</v>
@@ -5205,17 +5167,23 @@
         <v>2.0</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>49</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
+        <v>156</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>159</v>
+      </c>
       <c r="K42" s="13"/>
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
@@ -5233,14 +5201,28 @@
       <c r="Y42" s="13"/>
       <c r="Z42" s="13"/>
     </row>
-    <row r="43">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
+    <row r="43" hidden="1">
+      <c r="A43" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D43" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>161</v>
+      </c>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
@@ -32337,25 +32319,54 @@
       <c r="Y1010" s="13"/>
       <c r="Z1010" s="13"/>
     </row>
+    <row r="1011">
+      <c r="A1011" s="13"/>
+      <c r="B1011" s="13"/>
+      <c r="C1011" s="13"/>
+      <c r="D1011" s="13"/>
+      <c r="E1011" s="13"/>
+      <c r="F1011" s="13"/>
+      <c r="G1011" s="13"/>
+      <c r="H1011" s="13"/>
+      <c r="I1011" s="13"/>
+      <c r="J1011" s="13"/>
+      <c r="K1011" s="13"/>
+      <c r="L1011" s="13"/>
+      <c r="M1011" s="13"/>
+      <c r="N1011" s="13"/>
+      <c r="O1011" s="13"/>
+      <c r="P1011" s="13"/>
+      <c r="Q1011" s="13"/>
+      <c r="R1011" s="13"/>
+      <c r="S1011" s="13"/>
+      <c r="T1011" s="13"/>
+      <c r="U1011" s="13"/>
+      <c r="V1011" s="13"/>
+      <c r="W1011" s="13"/>
+      <c r="X1011" s="13"/>
+      <c r="Y1011" s="13"/>
+      <c r="Z1011" s="13"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$N$42">
+  <autoFilter ref="$A$1:$N$43">
     <filterColumn colId="0">
       <filters>
-        <filter val="6"/>
+        <filter val="11"/>
+        <filter val="-11"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="J2"/>
-    <hyperlink r:id="rId2" ref="J11"/>
-    <hyperlink r:id="rId3" ref="L11"/>
-    <hyperlink r:id="rId4" ref="J12"/>
-    <hyperlink r:id="rId5" ref="J30"/>
-    <hyperlink r:id="rId6" ref="L30"/>
-    <hyperlink r:id="rId7" ref="J31"/>
-    <hyperlink r:id="rId8" ref="J32"/>
-    <hyperlink r:id="rId9" ref="H36"/>
-    <hyperlink r:id="rId10" ref="J41"/>
+    <hyperlink r:id="rId1" ref="J3"/>
+    <hyperlink r:id="rId2" ref="J12"/>
+    <hyperlink r:id="rId3" ref="L12"/>
+    <hyperlink r:id="rId4" ref="J13"/>
+    <hyperlink r:id="rId5" ref="J31"/>
+    <hyperlink r:id="rId6" ref="L31"/>
+    <hyperlink r:id="rId7" ref="J32"/>
+    <hyperlink r:id="rId8" ref="J33"/>
+    <hyperlink r:id="rId9" ref="H37"/>
+    <hyperlink r:id="rId10" ref="J42"/>
   </hyperlinks>
   <drawing r:id="rId11"/>
 </worksheet>
@@ -32376,7 +32387,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -34638,7 +34649,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="3">
         <v>0.0</v>
@@ -34653,10 +34664,10 @@
         <v>49</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -34729,7 +34740,7 @@
         <v>2.0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C2" s="4">
         <v>0.0</v>
@@ -34744,16 +34755,16 @@
         <v>49</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="18" t="s">
         <v>169</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>171</v>
       </c>
       <c r="N2" s="19"/>
     </row>
@@ -34762,7 +34773,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C3" s="4">
         <v>1.0</v>
@@ -34777,16 +34788,16 @@
         <v>49</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="J3" s="18" t="s">
         <v>174</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>176</v>
       </c>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
@@ -34797,7 +34808,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C4" s="4">
         <v>0.0</v>
@@ -34812,16 +34823,16 @@
         <v>49</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="J4" s="18" t="s">
         <v>179</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>181</v>
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
@@ -34833,7 +34844,7 @@
         <v>5.0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C5" s="4">
         <v>0.0</v>
@@ -34848,16 +34859,16 @@
         <v>49</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="J5" s="18" t="s">
         <v>169</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>171</v>
       </c>
       <c r="N5" s="19"/>
     </row>
@@ -34866,7 +34877,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C6" s="4">
         <v>1.0</v>
@@ -34881,16 +34892,16 @@
         <v>49</v>
       </c>
       <c r="G6" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="J6" s="18" t="s">
         <v>174</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>176</v>
       </c>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
@@ -34901,7 +34912,7 @@
         <v>7.0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C7" s="4">
         <v>0.0</v>
@@ -34916,16 +34927,16 @@
         <v>49</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="J7" s="18" t="s">
         <v>179</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>181</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
@@ -34937,7 +34948,7 @@
         <v>9.0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C8" s="4">
         <v>0.0</v>
@@ -34952,10 +34963,10 @@
         <v>49</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9">
@@ -34963,7 +34974,7 @@
         <v>1.0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C9" s="4">
         <v>0.0</v>
@@ -34978,13 +34989,13 @@
         <v>49</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
@@ -34996,7 +35007,7 @@
         <v>1.0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C10" s="4">
         <v>0.0</v>
@@ -35011,7 +35022,7 @@
         <v>49</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>

--- a/db/DB.xlsx
+++ b/db/DB.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="185">
   <si>
     <t>Orden de aparición</t>
   </si>
@@ -179,7 +179,7 @@
     <t>Congregarme</t>
   </si>
   <si>
-    <t>Hoy es estudio bíblico preciosa.</t>
+    <t>Hoy tu novio sí va a ir a Alabanza corazón. Gloria a Dios. Me siento cansadito espiritualmente vida. Pero cuando tú has ido a la Iglesia también ha sido para edificación mía, y por eso estoy profundamente agradecido. Te amo.</t>
   </si>
   <si>
     <t>Horarios y sedes IDMJI</t>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>Fundación</t>
+  </si>
+  <si>
+    <t>Mi corazón, hoy tienes fundación. Ayer le conté a la mona lo que haces allá y le mostré la página de la fundación con mucho orgullo :3 Me pareció muy bello que FUPAD con todo y sus relaciones tiene que esforzarse mucho para conseguir dinero. Pero cuando un proyecto tiene el respaldo de Dios, fluye. Le mostré las brigadas de salud y los colegios que han construído y pensé en que me siento muy orgulloso de participar del plan de Dios.</t>
   </si>
   <si>
     <t>Estructura narrativa</t>
@@ -236,40 +239,25 @@
     <t>Creación de obra</t>
   </si>
   <si>
-    <t>Preciosa, recuerda nunca parar de producir obra nueva. Puedes intentar aplicar algo de lo que has aprendido en tu curso de dibujo anatómico hasta ahora en una pieza. O bien, puedes buscar nueva inspiración. Te dejo tu moodboart.</t>
-  </si>
-  <si>
-    <t>&lt;a target="_blank" href="./img/mood.png"&gt;&lt;img src="./img/mood.png" alt="Captura de pantalla del grupo MoodboArt en Waa" style="width:100%" /&gt;&lt;/a&gt;&lt;/br&gt;&lt;a target="_blank" href="./img/botero.jpg"&gt;&lt;img src="./img/botero.jpg" alt="Museo Botero" style="width:100%" /&gt;&lt;/a&gt;</t>
+    <t>Amor, sigue adelante con tu proyecto de tríptico! Es un trabajo hermoso.</t>
   </si>
   <si>
     <t>Reunión estrategia de contenido orientado a ventas</t>
   </si>
   <si>
-    <t>Amor agenda a tu chico para que podamos crear una estrategia de contenido para Entropía Cromática que esté orientada a vender obra, al igual que a fortalecer tu marca. Puede ser la otra semana!</t>
+    <t>Vida mía, mira esta historia de este muchacho que sigo hace mucho. No tiene nada que ver con ilustración pero su contenido de Instagram le ha dado para conseguir clientes como este. Me parece muy tierno porque es un chico muy sencillo y transparente, pero hace un trabajo precioso. Este reel lo vi esta mañana. &lt;b&gt;Agéndame corazón la otra semana&lt;/b&gt; y nos pensamos una estrategia de contenido que tenga una propuesta de valor y una estrategia de funneling!</t>
   </si>
   <si>
-    <t>Curso Palermo</t>
+    <t>&lt;a target="_blank" href="https://www.instagram.com/reel/C8Z5101COIR/?utm_source=ig_web_copy_link"&gt;&lt;img src="./img/logo.jpg" alt="Logo" style="width:100%" /&gt;&lt;/a&gt;</t>
   </si>
   <si>
-    <t>¡Vida, mientras te aprueban apoyo financiero para el curso de ESG, podrías ir comenzando con el curso de la Universidad de Palermo! Está buenísimo que tengas así como tienes una cola de cursos en Domestika, una fila de cursos para tu perfil ESG 🤍 Te dejo el curso enlazado en la imagen.</t>
+    <t>¡¡ESG Course!!</t>
   </si>
   <si>
-    <t>&lt;a target="_blank" href="https://www.coursera.org/learn/etica-gobierno-corporativo"&gt;&lt;img src="./img/palermo.png" alt="Captura de pantalla de curso universidad e palermo en coursera." style="width:100%" /&gt;&lt;/a&gt;</t>
+    <t>¡¡¡Tenemos curso!!! Amor inicia con toda! Vamos a darle consistentemente, tenemos el certificado pero además, clave que me cuentes toooooodo lo que aprendes y así comenzamos a pensarnos contenido profesional para LinkedIn. Te amoooo qué emoción!</t>
   </si>
   <si>
-    <t>Contenido: recordarles que existo</t>
-  </si>
-  <si>
-    <t>Por lo pronto comencemos los cursos. Pero ya nos iremos pensando en qué publicar en LinkedIn para recordarle al mundo que existes y eres una profesional valiosísima!</t>
-  </si>
-  <si>
-    <t>Esperar respuesta Apoyo Financiero</t>
-  </si>
-  <si>
-    <t>Tamos a la espera de este hasta junio 13.</t>
-  </si>
-  <si>
-    <t>&lt;a target="_blank" href="./img/esg.png"&gt;&lt;img src="./img/esg.png" alt="Captura de pantalla del curso de ESG" style="width:100%" /&gt;&lt;/a&gt;</t>
+    <t>&lt;a target="_blank" href="https://www.coursera.org/specializations/materiality-esg-factors"&gt;&lt;img src="./img/esg.png" alt="Captura de pantalla del curso de ESG" style="width:100%" /&gt;&lt;/a&gt;</t>
   </si>
   <si>
     <t>Coursera ESG</t>
@@ -282,6 +270,21 @@
   </si>
   <si>
     <t>https://drive.google.com/drive/folders/1Ml0LH5pWT8PSN9vOIenDOLFNdFwGW83Z?usp=sharing</t>
+  </si>
+  <si>
+    <t>Curso Palermo</t>
+  </si>
+  <si>
+    <t>¡Amor! ¡Comencemos con el curso para el que te aprobaron apoyo financiero! Dale con toda mi leona &lt;3</t>
+  </si>
+  <si>
+    <t>&lt;!--a target="_blank" href="https://www.coursera.org/learn/etica-gobierno-corporativo"&gt;&lt;img src="./img/palermo.png" alt="Captura de pantalla de curso universidad e palermo en coursera." style="width:100%" /&gt;&lt;/a--&gt;</t>
+  </si>
+  <si>
+    <t>Contenido: recordarles que existo</t>
+  </si>
+  <si>
+    <t>Amor, todo lo que vayas aprendiendo, ve anotando: 1) para tu propio aprendizaje "¿Cómo esto que estoy aprendiendo aplica a Colombia/LatAm?", 2) para tu contenido en LinkedIn, qué cosas te parecen interesantes de compartir. Trata de citarme también para esta reunión estratégica y pensarnos una estrategia de contenido en LinkedIn que no sea desgastante pero que te ponga en el radar. Te amo!!!!</t>
   </si>
   <si>
     <t>Reunón con CTP</t>
@@ -410,7 +413,7 @@
     <t>Lectura</t>
   </si>
   <si>
-    <t>Ayer fuiste al gym entonces si quieres ir buscando un libro que quieras leer, está perfecto :3 Te dejo enlazada la página de la biblioteca por si deseas pedirlo prestado de allí cuando vayamos!</t>
+    <t>Recuerda buscar un libro en la página de la biblioteca para cuando vayamos y que quieras pedir prestado preciosa :3</t>
   </si>
   <si>
     <t>&lt;a target="_blank" href="https://biblioteca.uniandes.edu.co/"&gt;&lt;img src="./img/leer.jpg" alt="Mujer leyendo en la ventana." style="width:100%" /&gt;&lt;/a&gt;</t>
@@ -419,43 +422,43 @@
     <t>Journaling</t>
   </si>
   <si>
-    <t>También puedes escribir en tu journal.</t>
+    <t>Tu journal siempre es una opción corazón.</t>
   </si>
   <si>
     <t>Tiempo con mi chico</t>
   </si>
   <si>
-    <t>Amor, depronto cuadremos nuestro tiempo de calidad, me pusieron una reunión mañana las 8 pero estoy tratando de moverla. Deberíamos pensar ese viaje a Villa de Leyva este sábado. Si nos lo pensamos, cancelo vitruvio sí o sí jejejeje. Háblame sobre esto!</t>
+    <t>Tenemos pendientes muchas cosas: 1) Andresito y Anita 2) Liz! 3) Nash</t>
   </si>
   <si>
     <t>Ocio</t>
   </si>
   <si>
-    <t>Tienes tiempo para ver pelis hoy.</t>
+    <t>Hoy puedes ver pelis si quieres...</t>
   </si>
   <si>
     <t>Baile</t>
   </si>
   <si>
-    <t>También es una opción. Amor! deberíamos tomar una clase juntos esta semana. Hoy me pagan, entonces, hay algo para el miércoles en pareja? Sólo por ver.</t>
+    <t>Depronto lueguito :)</t>
   </si>
   <si>
     <t>Arpa</t>
   </si>
   <si>
-    <t>Amo como vas con esa nueva pieza</t>
+    <t>¿Quizá una práctica express?</t>
   </si>
   <si>
     <t>Salir con amigos</t>
   </si>
   <si>
-    <t>Si quieres cuadrar, disponible hoy.</t>
+    <t>Para cuando cuadres.</t>
   </si>
   <si>
     <t>Canto</t>
   </si>
   <si>
-    <t>Para después.</t>
+    <t>Un día preciosa.</t>
   </si>
   <si>
     <t>Calcular</t>
@@ -3567,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="11">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>56</v>
@@ -3659,7 +3662,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="11">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>60</v>
@@ -3677,7 +3680,7 @@
         <v>50</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="13"/>
@@ -3699,7 +3702,7 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="13"/>
     </row>
-    <row r="7">
+    <row r="7" hidden="1">
       <c r="A7" s="11">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -3708,7 +3711,7 @@
         <v>2.0</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" s="11">
         <v>0.0</v>
@@ -3723,16 +3726,16 @@
         <v>50</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
@@ -3751,7 +3754,7 @@
       <c r="Z7" s="13"/>
       <c r="AA7" s="13"/>
     </row>
-    <row r="8">
+    <row r="8" hidden="1">
       <c r="A8" s="11">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -3760,7 +3763,7 @@
         <v>2.0</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D8" s="11">
         <v>0.0</v>
@@ -3775,10 +3778,10 @@
         <v>50</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
@@ -3799,7 +3802,7 @@
       <c r="Z8" s="13"/>
       <c r="AA8" s="13"/>
     </row>
-    <row r="9">
+    <row r="9" hidden="1">
       <c r="A9" s="11">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -3808,7 +3811,7 @@
         <v>3.0</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D9" s="11">
         <v>0.0</v>
@@ -3823,7 +3826,7 @@
         <v>50</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="13"/>
@@ -3845,7 +3848,7 @@
       <c r="Z9" s="13"/>
       <c r="AA9" s="13"/>
     </row>
-    <row r="10" hidden="1">
+    <row r="10">
       <c r="A10" s="11">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -3854,7 +3857,7 @@
         <v>4.0</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D10" s="11">
         <v>0.0</v>
@@ -3869,11 +3872,9 @@
         <v>50</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" s="11" t="s">
         <v>73</v>
       </c>
+      <c r="I10" s="11"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -3893,7 +3894,7 @@
       <c r="Z10" s="13"/>
       <c r="AA10" s="13"/>
     </row>
-    <row r="11" hidden="1">
+    <row r="11">
       <c r="A11" s="11">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -3919,7 +3920,9 @@
       <c r="H11" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="11"/>
+      <c r="I11" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
@@ -3939,7 +3942,7 @@
       <c r="Z11" s="13"/>
       <c r="AA11" s="13"/>
     </row>
-    <row r="12" hidden="1">
+    <row r="12">
       <c r="A12" s="11">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -3948,30 +3951,38 @@
         <v>5.0</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12" s="11">
         <v>0.0</v>
       </c>
       <c r="E12" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="F12" s="5" t="s">
+        <v>1.0</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>50</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
+        <v>79</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
@@ -3987,7 +3998,7 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="13"/>
     </row>
-    <row r="13" hidden="1">
+    <row r="13">
       <c r="A13" s="11">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -3996,13 +4007,13 @@
         <v>5.0</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D13" s="11">
         <v>0.0</v>
       </c>
       <c r="E13" s="11">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>18</v>
@@ -4011,9 +4022,11 @@
         <v>50</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" s="11"/>
+        <v>85</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
@@ -4033,7 +4046,7 @@
       <c r="Z13" s="13"/>
       <c r="AA13" s="13"/>
     </row>
-    <row r="14" hidden="1">
+    <row r="14">
       <c r="A14" s="11">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -4042,7 +4055,7 @@
         <v>5.0</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D14" s="11">
         <v>0.0</v>
@@ -4050,30 +4063,20 @@
       <c r="E14" s="11">
         <v>1.0</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>50</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>87</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
@@ -4098,7 +4101,7 @@
         <v>6.0</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D15" s="11">
         <v>0.0</v>
@@ -4107,13 +4110,13 @@
         <v>1.0</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>50</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -4144,7 +4147,7 @@
         <v>6.0</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D16" s="11">
         <v>0.0</v>
@@ -4153,22 +4156,22 @@
         <v>2.0</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>50</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
@@ -4196,7 +4199,7 @@
         <v>7.0</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D17" s="11">
         <v>0.0</v>
@@ -4211,10 +4214,10 @@
         <v>50</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
@@ -4244,7 +4247,7 @@
         <v>-7.0</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D18" s="11">
         <v>0.0</v>
@@ -4259,7 +4262,7 @@
         <v>50</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="13"/>
@@ -4290,7 +4293,7 @@
         <v>8.0</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D19" s="11">
         <v>0.0</v>
@@ -4305,10 +4308,10 @@
         <v>50</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
@@ -4329,7 +4332,7 @@
       <c r="Z19" s="13"/>
       <c r="AA19" s="13"/>
     </row>
-    <row r="20">
+    <row r="20" hidden="1">
       <c r="A20" s="11">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -4338,7 +4341,7 @@
         <v>9.0</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D20" s="11">
         <v>0.0</v>
@@ -4353,10 +4356,10 @@
         <v>50</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
@@ -4377,7 +4380,7 @@
       <c r="Z20" s="13"/>
       <c r="AA20" s="13"/>
     </row>
-    <row r="21">
+    <row r="21" hidden="1">
       <c r="A21" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -4386,7 +4389,7 @@
         <v>10.0</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D21" s="11">
         <v>1.0</v>
@@ -4401,22 +4404,22 @@
         <v>50</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
@@ -4433,7 +4436,7 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="13"/>
     </row>
-    <row r="22">
+    <row r="22" hidden="1">
       <c r="A22" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -4442,7 +4445,7 @@
         <v>10.0</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D22" s="11">
         <v>1.0</v>
@@ -4457,16 +4460,16 @@
         <v>50</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
@@ -4485,7 +4488,7 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="13"/>
     </row>
-    <row r="23">
+    <row r="23" hidden="1">
       <c r="A23" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -4494,7 +4497,7 @@
         <v>10.0</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D23" s="11">
         <v>1.0</v>
@@ -4509,16 +4512,16 @@
         <v>50</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
@@ -4537,7 +4540,7 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="13"/>
     </row>
-    <row r="24">
+    <row r="24" hidden="1">
       <c r="A24" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -4546,7 +4549,7 @@
         <v>10.0</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D24" s="11">
         <v>1.0</v>
@@ -4561,10 +4564,10 @@
         <v>50</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J24" s="11"/>
       <c r="K24" s="15"/>
@@ -4585,7 +4588,7 @@
       <c r="Z24" s="13"/>
       <c r="AA24" s="13"/>
     </row>
-    <row r="25">
+    <row r="25" hidden="1">
       <c r="A25" s="11">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -4594,7 +4597,7 @@
         <v>11.0</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D25" s="11">
         <v>0.0</v>
@@ -4609,10 +4612,10 @@
         <v>50</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
@@ -4633,7 +4636,7 @@
       <c r="Z25" s="13"/>
       <c r="AA25" s="13"/>
     </row>
-    <row r="26">
+    <row r="26" hidden="1">
       <c r="A26" s="11">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -4642,7 +4645,7 @@
         <v>-11.0</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D26" s="11">
         <v>0.0</v>
@@ -4657,7 +4660,7 @@
         <v>50</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
@@ -4688,7 +4691,7 @@
         <v>12.0</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D27" s="11">
         <v>0.0</v>
@@ -4723,7 +4726,7 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="13"/>
     </row>
-    <row r="28" hidden="1">
+    <row r="28">
       <c r="A28" s="11">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -4732,7 +4735,7 @@
         <v>13.0</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D28" s="11">
         <v>0.0</v>
@@ -4747,10 +4750,10 @@
         <v>50</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
@@ -4771,7 +4774,7 @@
       <c r="Z28" s="13"/>
       <c r="AA28" s="13"/>
     </row>
-    <row r="29" hidden="1">
+    <row r="29">
       <c r="A29" s="11">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -4780,7 +4783,7 @@
         <v>13.0</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D29" s="11">
         <v>0.0</v>
@@ -4795,7 +4798,7 @@
         <v>50</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
@@ -4817,7 +4820,7 @@
       <c r="Z29" s="13"/>
       <c r="AA29" s="13"/>
     </row>
-    <row r="30" hidden="1">
+    <row r="30">
       <c r="A30" s="11">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -4826,7 +4829,7 @@
         <v>13.0</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D30" s="11">
         <v>0.0</v>
@@ -4841,7 +4844,7 @@
         <v>50</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
@@ -4863,7 +4866,7 @@
       <c r="Z30" s="13"/>
       <c r="AA30" s="13"/>
     </row>
-    <row r="31" hidden="1">
+    <row r="31">
       <c r="A31" s="11">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -4872,7 +4875,7 @@
         <v>13.0</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D31" s="11">
         <v>0.0</v>
@@ -4887,7 +4890,7 @@
         <v>50</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
@@ -4909,7 +4912,7 @@
       <c r="Z31" s="13"/>
       <c r="AA31" s="13"/>
     </row>
-    <row r="32" hidden="1">
+    <row r="32">
       <c r="A32" s="11">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -4918,7 +4921,7 @@
         <v>13.0</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D32" s="11">
         <v>0.0</v>
@@ -4933,7 +4936,7 @@
         <v>50</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
@@ -4955,7 +4958,7 @@
       <c r="Z32" s="13"/>
       <c r="AA32" s="13"/>
     </row>
-    <row r="33" hidden="1">
+    <row r="33">
       <c r="A33" s="11">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -4964,7 +4967,7 @@
         <v>13.0</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D33" s="11">
         <v>1.0</v>
@@ -4979,7 +4982,7 @@
         <v>50</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
@@ -5001,7 +5004,7 @@
       <c r="Z33" s="13"/>
       <c r="AA33" s="13"/>
     </row>
-    <row r="34" hidden="1">
+    <row r="34">
       <c r="A34" s="11">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -5010,7 +5013,7 @@
         <v>13.0</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D34" s="11">
         <v>0.0</v>
@@ -5025,7 +5028,7 @@
         <v>50</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
@@ -5047,7 +5050,7 @@
       <c r="Z34" s="13"/>
       <c r="AA34" s="13"/>
     </row>
-    <row r="35" hidden="1">
+    <row r="35">
       <c r="A35" s="11">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -5056,7 +5059,7 @@
         <v>13.0</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D35" s="11">
         <v>0.0</v>
@@ -5071,7 +5074,7 @@
         <v>50</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
@@ -5102,7 +5105,7 @@
         <v>14.0</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D36" s="11">
         <v>0.0</v>
@@ -5111,13 +5114,13 @@
         <v>1.0</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="13"/>
@@ -5148,7 +5151,7 @@
         <v>14.0</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D37" s="11">
         <v>0.0</v>
@@ -5157,16 +5160,16 @@
         <v>2.0</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
@@ -5196,7 +5199,7 @@
         <v>14.0</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D38" s="11">
         <v>0.0</v>
@@ -5205,16 +5208,16 @@
         <v>3.0</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
@@ -5244,7 +5247,7 @@
         <v>14.0</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D39" s="3">
         <v>0.0</v>
@@ -5253,13 +5256,13 @@
         <v>4.0</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I39" s="15"/>
       <c r="P39" s="13"/>
@@ -5284,7 +5287,7 @@
         <v>14.0</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D40" s="3">
         <v>0.0</v>
@@ -5293,13 +5296,13 @@
         <v>5.0</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P40" s="13"/>
       <c r="Q40" s="13"/>
@@ -5323,7 +5326,7 @@
         <v>14.0</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D41" s="3">
         <v>0.0</v>
@@ -5332,13 +5335,13 @@
         <v>6.0</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P41" s="13"/>
       <c r="Q41" s="13"/>
@@ -33429,20 +33432,18 @@
   <autoFilter ref="$A$1:$O$41">
     <filterColumn colId="0">
       <filters>
-        <filter val="11"/>
+        <filter val="13"/>
         <filter val="1"/>
-        <filter val="2"/>
-        <filter val="3"/>
-        <filter val="9"/>
-        <filter val="10"/>
+        <filter val="4"/>
+        <filter val="5"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="K3"/>
     <hyperlink r:id="rId2" ref="K7"/>
-    <hyperlink r:id="rId3" ref="K14"/>
-    <hyperlink r:id="rId4" ref="M14"/>
+    <hyperlink r:id="rId3" ref="K12"/>
+    <hyperlink r:id="rId4" ref="M12"/>
     <hyperlink r:id="rId5" ref="K16"/>
     <hyperlink r:id="rId6" ref="K21"/>
     <hyperlink r:id="rId7" ref="M21"/>
@@ -35748,10 +35749,10 @@
         <v>50</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -35824,7 +35825,7 @@
         <v>2.0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C2" s="4">
         <v>0.0</v>
@@ -35839,16 +35840,16 @@
         <v>50</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N2" s="19"/>
     </row>
@@ -35857,7 +35858,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C3" s="4">
         <v>1.0</v>
@@ -35872,16 +35873,16 @@
         <v>50</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
@@ -35892,7 +35893,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C4" s="4">
         <v>0.0</v>
@@ -35907,16 +35908,16 @@
         <v>50</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
@@ -35928,7 +35929,7 @@
         <v>5.0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C5" s="4">
         <v>0.0</v>
@@ -35943,16 +35944,16 @@
         <v>50</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N5" s="19"/>
     </row>
@@ -35961,7 +35962,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C6" s="4">
         <v>1.0</v>
@@ -35976,16 +35977,16 @@
         <v>50</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
@@ -35996,7 +35997,7 @@
         <v>7.0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C7" s="4">
         <v>0.0</v>
@@ -36011,16 +36012,16 @@
         <v>50</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
@@ -36032,7 +36033,7 @@
         <v>9.0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C8" s="4">
         <v>0.0</v>
@@ -36047,10 +36048,10 @@
         <v>50</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9">
@@ -36073,7 +36074,7 @@
         <v>50</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>54</v>
@@ -36106,7 +36107,7 @@
         <v>50</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>

--- a/db/DB.xlsx
+++ b/db/DB.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="188">
   <si>
     <t>Orden de aparición</t>
   </si>
@@ -77,7 +77,7 @@
     <t>#008080</t>
   </si>
   <si>
-    <t>Comisión</t>
+    <t>Comisión de obra</t>
   </si>
   <si>
     <t>Marca del perfil ESG</t>
@@ -179,7 +179,7 @@
     <t>Congregarme</t>
   </si>
   <si>
-    <t>Hoy tu novio sí va a ir a Alabanza corazón. Gloria a Dios. Me siento cansadito espiritualmente vida. Pero cuando tú has ido a la Iglesia también ha sido para edificación mía, y por eso estoy profundamente agradecido. Te amo.</t>
+    <t>Hoy tienes enseñanza. Te amo! Voy a tratar de ir en la mañana. Tú ve en la tardecita.</t>
   </si>
   <si>
     <t>Horarios y sedes IDMJI</t>
@@ -191,19 +191,16 @@
     <t>Oración y lectura</t>
   </si>
   <si>
-    <t>Trata de llegar un tris antecitos vida mía. Hoy sí! tú puedes. Sales a las 4:15 de la casita y listo!</t>
+    <t>Amor, llega antecitos, tú puedesssss si llegas antecitos me avisas y te doy un premio.</t>
   </si>
   <si>
     <t>Servicio</t>
   </si>
   <si>
-    <t>.</t>
+    <t>Ya prestaste servicio ayer! Y te veías preciosa con tu vestido y blazer &lt;3</t>
   </si>
   <si>
     <t>Fundación</t>
-  </si>
-  <si>
-    <t>Mi corazón, hoy tienes fundación. Ayer le conté a la mona lo que haces allá y le mostré la página de la fundación con mucho orgullo :3 Me pareció muy bello que FUPAD con todo y sus relaciones tiene que esforzarse mucho para conseguir dinero. Pero cuando un proyecto tiene el respaldo de Dios, fluye. Le mostré las brigadas de salud y los colegios que han construído y pensé en que me siento muy orgulloso de participar del plan de Dios.</t>
   </si>
   <si>
     <t>Estructura narrativa</t>
@@ -239,22 +236,31 @@
     <t>Creación de obra</t>
   </si>
   <si>
-    <t>Amor, sigue adelante con tu proyecto de tríptico! Es un trabajo hermoso.</t>
+    <t>¡Amor! tienes dos proyectos de creación de obra sugeridos en este momento. &lt;ul style="padding:30px;"&gt;&lt;li&gt;El tríptico hermoso&lt;/li&gt;&lt;li&gt;Obra en acuarela con dibujo anatómico del cuerpo entero&lt;/li&gt;&lt;li&gt;Una obra en acuarela con dibujo anatómico de manos&lt;/li&gt;&lt;/ul&gt;&lt;/br&gt;&lt;/br&gt;Vida &lt;b&gt;recuerda tomar timelapses de todo lo que hagas&lt;/b&gt;, tienes el tripode y tienes el bracito de mesa, úsalos. Te amooo.</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="./img/triptico.jpg"&gt;&lt;img src="./img/triptico.jpg" alt="Tríptico en acuarela" style="width:100%" /&gt;&lt;/a&gt;</t>
   </si>
   <si>
     <t>Reunión estrategia de contenido orientado a ventas</t>
   </si>
   <si>
-    <t>Vida mía, mira esta historia de este muchacho que sigo hace mucho. No tiene nada que ver con ilustración pero su contenido de Instagram le ha dado para conseguir clientes como este. Me parece muy tierno porque es un chico muy sencillo y transparente, pero hace un trabajo precioso. Este reel lo vi esta mañana. &lt;b&gt;Agéndame corazón la otra semana&lt;/b&gt; y nos pensamos una estrategia de contenido que tenga una propuesta de valor y una estrategia de funneling!</t>
+    <t>Una vez más amor, te dejo esta historia de este muchacho que sigo hace mucho. No tiene nada que ver con ilustración pero su contenido de Instagram le ha dado para conseguir clientes como este. Me parece muy tierno porque es un chico muy sencillo y transparente, pero hace un trabajo precioso. Este reel lo vi la semanita pasada. &lt;b&gt;Agéndame corazón esta semana&lt;/b&gt; y nos pensamos una estrategia de contenido que tenga una propuesta de valor y una estrategia de funneling! Estoy pensando en tomar un curso de domestika que me mandaste y podemos aplicar las cosas. Lo voy a poner aquí para tenerlo</t>
   </si>
   <si>
     <t>&lt;a target="_blank" href="https://www.instagram.com/reel/C8Z5101COIR/?utm_source=ig_web_copy_link"&gt;&lt;img src="./img/logo.jpg" alt="Logo" style="width:100%" /&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>Curso que quiere tomar Alfred</t>
+  </si>
+  <si>
+    <t>https://www.domestika.org/es/courses/3973-estrategias-de-posicionamiento-de-marca-para-creativos</t>
+  </si>
+  <si>
     <t>¡¡ESG Course!!</t>
   </si>
   <si>
-    <t>¡¡¡Tenemos curso!!! Amor inicia con toda! Vamos a darle consistentemente, tenemos el certificado pero además, clave que me cuentes toooooodo lo que aprendes y así comenzamos a pensarnos contenido profesional para LinkedIn. Te amoooo qué emoción!</t>
+    <t>Vida mía! a seguirle dando a este curso. Me vas contando todo lo que aprendas porfis! así puedo entender mejor tu poder :3 Cuéntamelo todo el mismo día. Mándame una notita de voz siempre recapitulando qué viste en un minutito. Te amoooooo.</t>
   </si>
   <si>
     <t>&lt;a target="_blank" href="https://www.coursera.org/specializations/materiality-esg-factors"&gt;&lt;img src="./img/esg.png" alt="Captura de pantalla del curso de ESG" style="width:100%" /&gt;&lt;/a&gt;</t>
@@ -275,16 +281,16 @@
     <t>Curso Palermo</t>
   </si>
   <si>
-    <t>¡Amor! ¡Comencemos con el curso para el que te aprobaron apoyo financiero! Dale con toda mi leona &lt;3</t>
+    <t>Este lo retomamos cuando terminemos el otro amada.</t>
   </si>
   <si>
     <t>&lt;!--a target="_blank" href="https://www.coursera.org/learn/etica-gobierno-corporativo"&gt;&lt;img src="./img/palermo.png" alt="Captura de pantalla de curso universidad e palermo en coursera." style="width:100%" /&gt;&lt;/a--&gt;</t>
   </si>
   <si>
-    <t>Contenido: recordarles que existo</t>
+    <t>Contenido - Hacerte notar</t>
   </si>
   <si>
-    <t>Amor, todo lo que vayas aprendiendo, ve anotando: 1) para tu propio aprendizaje "¿Cómo esto que estoy aprendiendo aplica a Colombia/LatAm?", 2) para tu contenido en LinkedIn, qué cosas te parecen interesantes de compartir. Trata de citarme también para esta reunión estratégica y pensarnos una estrategia de contenido en LinkedIn que no sea desgastante pero que te ponga en el radar. Te amo!!!!</t>
+    <t>Amor, todo lo que vayas aprendiendo, ve anotando: &lt;/br&gt;&lt;/br&gt;1) para tu propio aprendizaje "¿Cómo esto que estoy aprendiendo aplica a Colombia/LatAm?", &lt;/br&gt;&lt;/br&gt;2) para tu contenido en LinkedIn, qué cosas te parecen interesantes de compartir.&lt;/br&gt;&lt;/br&gt;La próxima semana tratas de citarme para comenzarnos  apensar estrategia de contenido en LinkedIn.</t>
   </si>
   <si>
     <t>Reunón con CTP</t>
@@ -395,7 +401,7 @@
     <t>Gym</t>
   </si>
   <si>
-    <t>Buenos días mi vida!!! Hoy puedes ir al gym si quieres.</t>
+    <t>Amor! ve al gym! yo te despierto. Vamosssssss</t>
   </si>
   <si>
     <t>&lt;a target="_blank" href="./img/gym.jpg"&gt;&lt;img src="./img/gym.jpg" alt="Mujer tomando una pesa del gimnasio" style="width:100%" /&gt;&lt;/a&gt;&lt;/br&gt;</t>
@@ -404,7 +410,7 @@
     <t>Natación</t>
   </si>
   <si>
-    <t>Todavía tengo que agendar mi cita médica :(</t>
+    <t>Déjame esta semanita de gracia aún para nadar. Que me paguen y que yo pueda ir a cita médica. Como la mona cumple, me queda difícil por tiempos.</t>
   </si>
   <si>
     <t>Ir a la U a nadar</t>
@@ -521,6 +527,9 @@
   </si>
   <si>
     <t>Hay familias innumerables de endgames, comenzar a ver patrones del estilo: jaque en 1. Y luego jaque en 2, puede ser la clave.</t>
+  </si>
+  <si>
+    <t>Comisión</t>
   </si>
   <si>
     <t>Recuerda que tienes presupuestado tiempo un día a la semana para ofrecer servicio mi corazón. Aquí te dejo el presupuesto general. Puedes correrlo en cualquier día. Sólo lleva la cuenta.</t>
@@ -1047,10 +1056,10 @@
         <v>12</v>
       </c>
       <c r="E2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="3">
         <v>3.0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.0</v>
       </c>
       <c r="G2" s="3">
         <v>3.0</v>
@@ -1397,10 +1406,10 @@
         <v>28</v>
       </c>
       <c r="E12" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F12" s="3">
         <v>0.0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3.0</v>
       </c>
       <c r="G12" s="3">
         <v>0.0</v>
@@ -1432,7 +1441,7 @@
         <v>30</v>
       </c>
       <c r="E13" s="4">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F13" s="4">
         <v>0.0</v>
@@ -3570,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="11">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>56</v>
@@ -3616,13 +3625,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="11">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>58</v>
       </c>
       <c r="D5" s="11">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E5" s="11">
         <v>3.0</v>
@@ -3662,7 +3671,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="11">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>60</v>
@@ -3679,9 +3688,7 @@
       <c r="G6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>61</v>
-      </c>
+      <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -3711,7 +3718,7 @@
         <v>2.0</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="11">
         <v>0.0</v>
@@ -3726,16 +3733,16 @@
         <v>50</v>
       </c>
       <c r="H7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="J7" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="K7" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>66</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
@@ -3763,7 +3770,7 @@
         <v>2.0</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="11">
         <v>0.0</v>
@@ -3778,10 +3785,10 @@
         <v>50</v>
       </c>
       <c r="H8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
@@ -3811,7 +3818,7 @@
         <v>3.0</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="11">
         <v>0.0</v>
@@ -3826,7 +3833,7 @@
         <v>50</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="13"/>
@@ -3857,7 +3864,7 @@
         <v>4.0</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="11">
         <v>0.0</v>
@@ -3872,9 +3879,11 @@
         <v>50</v>
       </c>
       <c r="H10" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="11"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -3923,8 +3932,12 @@
       <c r="I11" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="J11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
@@ -3951,7 +3964,7 @@
         <v>5.0</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D12" s="11">
         <v>0.0</v>
@@ -3966,22 +3979,22 @@
         <v>50</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
@@ -4007,7 +4020,7 @@
         <v>5.0</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D13" s="11">
         <v>0.0</v>
@@ -4022,10 +4035,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -4055,7 +4068,7 @@
         <v>5.0</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D14" s="11">
         <v>0.0</v>
@@ -4070,7 +4083,7 @@
         <v>50</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
@@ -4101,7 +4114,7 @@
         <v>6.0</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D15" s="11">
         <v>0.0</v>
@@ -4110,13 +4123,13 @@
         <v>1.0</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>50</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -4147,7 +4160,7 @@
         <v>6.0</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D16" s="11">
         <v>0.0</v>
@@ -4156,22 +4169,22 @@
         <v>2.0</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>50</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
@@ -4199,7 +4212,7 @@
         <v>7.0</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D17" s="11">
         <v>0.0</v>
@@ -4214,10 +4227,10 @@
         <v>50</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
@@ -4247,7 +4260,7 @@
         <v>-7.0</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D18" s="11">
         <v>0.0</v>
@@ -4262,7 +4275,7 @@
         <v>50</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="13"/>
@@ -4293,7 +4306,7 @@
         <v>8.0</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D19" s="11">
         <v>0.0</v>
@@ -4308,10 +4321,10 @@
         <v>50</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
@@ -4341,7 +4354,7 @@
         <v>9.0</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D20" s="11">
         <v>0.0</v>
@@ -4356,10 +4369,10 @@
         <v>50</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
@@ -4380,7 +4393,7 @@
       <c r="Z20" s="13"/>
       <c r="AA20" s="13"/>
     </row>
-    <row r="21" hidden="1">
+    <row r="21">
       <c r="A21" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -4389,7 +4402,7 @@
         <v>10.0</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D21" s="11">
         <v>1.0</v>
@@ -4404,22 +4417,22 @@
         <v>50</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
@@ -4436,7 +4449,7 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="13"/>
     </row>
-    <row r="22" hidden="1">
+    <row r="22">
       <c r="A22" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -4445,7 +4458,7 @@
         <v>10.0</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D22" s="11">
         <v>1.0</v>
@@ -4460,16 +4473,16 @@
         <v>50</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
@@ -4488,7 +4501,7 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="13"/>
     </row>
-    <row r="23" hidden="1">
+    <row r="23">
       <c r="A23" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -4497,7 +4510,7 @@
         <v>10.0</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D23" s="11">
         <v>1.0</v>
@@ -4512,16 +4525,16 @@
         <v>50</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
@@ -4540,7 +4553,7 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="13"/>
     </row>
-    <row r="24" hidden="1">
+    <row r="24">
       <c r="A24" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -4549,7 +4562,7 @@
         <v>10.0</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D24" s="11">
         <v>1.0</v>
@@ -4564,10 +4577,10 @@
         <v>50</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J24" s="11"/>
       <c r="K24" s="15"/>
@@ -4588,7 +4601,7 @@
       <c r="Z24" s="13"/>
       <c r="AA24" s="13"/>
     </row>
-    <row r="25" hidden="1">
+    <row r="25">
       <c r="A25" s="11">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -4597,7 +4610,7 @@
         <v>11.0</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D25" s="11">
         <v>0.0</v>
@@ -4612,10 +4625,10 @@
         <v>50</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
@@ -4636,16 +4649,16 @@
       <c r="Z25" s="13"/>
       <c r="AA25" s="13"/>
     </row>
-    <row r="26" hidden="1">
+    <row r="26">
       <c r="A26" s="11">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B26" s="11">
-        <v>-11.0</v>
+        <v>11.0</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D26" s="11">
         <v>0.0</v>
@@ -4660,7 +4673,7 @@
         <v>50</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
@@ -4691,7 +4704,7 @@
         <v>12.0</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D27" s="11">
         <v>0.0</v>
@@ -4726,7 +4739,7 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="13"/>
     </row>
-    <row r="28">
+    <row r="28" hidden="1">
       <c r="A28" s="11">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -4735,7 +4748,7 @@
         <v>13.0</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D28" s="11">
         <v>0.0</v>
@@ -4750,10 +4763,10 @@
         <v>50</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
@@ -4774,7 +4787,7 @@
       <c r="Z28" s="13"/>
       <c r="AA28" s="13"/>
     </row>
-    <row r="29">
+    <row r="29" hidden="1">
       <c r="A29" s="11">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -4783,7 +4796,7 @@
         <v>13.0</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D29" s="11">
         <v>0.0</v>
@@ -4798,7 +4811,7 @@
         <v>50</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
@@ -4820,7 +4833,7 @@
       <c r="Z29" s="13"/>
       <c r="AA29" s="13"/>
     </row>
-    <row r="30">
+    <row r="30" hidden="1">
       <c r="A30" s="11">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -4829,7 +4842,7 @@
         <v>13.0</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D30" s="11">
         <v>0.0</v>
@@ -4844,7 +4857,7 @@
         <v>50</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
@@ -4866,7 +4879,7 @@
       <c r="Z30" s="13"/>
       <c r="AA30" s="13"/>
     </row>
-    <row r="31">
+    <row r="31" hidden="1">
       <c r="A31" s="11">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -4875,7 +4888,7 @@
         <v>13.0</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D31" s="11">
         <v>0.0</v>
@@ -4890,7 +4903,7 @@
         <v>50</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
@@ -4912,7 +4925,7 @@
       <c r="Z31" s="13"/>
       <c r="AA31" s="13"/>
     </row>
-    <row r="32">
+    <row r="32" hidden="1">
       <c r="A32" s="11">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -4921,7 +4934,7 @@
         <v>13.0</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D32" s="11">
         <v>0.0</v>
@@ -4936,7 +4949,7 @@
         <v>50</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
@@ -4958,7 +4971,7 @@
       <c r="Z32" s="13"/>
       <c r="AA32" s="13"/>
     </row>
-    <row r="33">
+    <row r="33" hidden="1">
       <c r="A33" s="11">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -4967,7 +4980,7 @@
         <v>13.0</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D33" s="11">
         <v>1.0</v>
@@ -4982,7 +4995,7 @@
         <v>50</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
@@ -5004,7 +5017,7 @@
       <c r="Z33" s="13"/>
       <c r="AA33" s="13"/>
     </row>
-    <row r="34">
+    <row r="34" hidden="1">
       <c r="A34" s="11">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -5013,7 +5026,7 @@
         <v>13.0</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D34" s="11">
         <v>0.0</v>
@@ -5028,7 +5041,7 @@
         <v>50</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
@@ -5050,7 +5063,7 @@
       <c r="Z34" s="13"/>
       <c r="AA34" s="13"/>
     </row>
-    <row r="35">
+    <row r="35" hidden="1">
       <c r="A35" s="11">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -5059,7 +5072,7 @@
         <v>13.0</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D35" s="11">
         <v>0.0</v>
@@ -5074,7 +5087,7 @@
         <v>50</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
@@ -5105,7 +5118,7 @@
         <v>14.0</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D36" s="11">
         <v>0.0</v>
@@ -5114,13 +5127,13 @@
         <v>1.0</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="13"/>
@@ -5151,7 +5164,7 @@
         <v>14.0</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D37" s="11">
         <v>0.0</v>
@@ -5160,16 +5173,16 @@
         <v>2.0</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
@@ -5199,7 +5212,7 @@
         <v>14.0</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D38" s="11">
         <v>0.0</v>
@@ -5208,16 +5221,16 @@
         <v>3.0</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
@@ -5247,7 +5260,7 @@
         <v>14.0</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D39" s="3">
         <v>0.0</v>
@@ -5256,13 +5269,13 @@
         <v>4.0</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I39" s="15"/>
       <c r="P39" s="13"/>
@@ -5287,7 +5300,7 @@
         <v>14.0</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D40" s="3">
         <v>0.0</v>
@@ -5296,13 +5309,13 @@
         <v>5.0</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P40" s="13"/>
       <c r="Q40" s="13"/>
@@ -5326,7 +5339,7 @@
         <v>14.0</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D41" s="3">
         <v>0.0</v>
@@ -5335,13 +5348,13 @@
         <v>6.0</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P41" s="13"/>
       <c r="Q41" s="13"/>
@@ -33432,26 +33445,28 @@
   <autoFilter ref="$A$1:$O$41">
     <filterColumn colId="0">
       <filters>
-        <filter val="13"/>
+        <filter val="11"/>
         <filter val="1"/>
         <filter val="4"/>
         <filter val="5"/>
+        <filter val="10"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="K3"/>
     <hyperlink r:id="rId2" ref="K7"/>
-    <hyperlink r:id="rId3" ref="K12"/>
-    <hyperlink r:id="rId4" ref="M12"/>
-    <hyperlink r:id="rId5" ref="K16"/>
-    <hyperlink r:id="rId6" ref="K21"/>
-    <hyperlink r:id="rId7" ref="M21"/>
-    <hyperlink r:id="rId8" ref="K22"/>
-    <hyperlink r:id="rId9" ref="K23"/>
-    <hyperlink r:id="rId10" ref="I38"/>
+    <hyperlink r:id="rId3" ref="K11"/>
+    <hyperlink r:id="rId4" ref="K12"/>
+    <hyperlink r:id="rId5" ref="M12"/>
+    <hyperlink r:id="rId6" ref="K16"/>
+    <hyperlink r:id="rId7" ref="K21"/>
+    <hyperlink r:id="rId8" ref="M21"/>
+    <hyperlink r:id="rId9" ref="K22"/>
+    <hyperlink r:id="rId10" ref="K23"/>
+    <hyperlink r:id="rId11" ref="I38"/>
   </hyperlinks>
-  <drawing r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -33653,7 +33668,7 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>16</v>
@@ -35749,10 +35764,10 @@
         <v>50</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -35825,7 +35840,7 @@
         <v>2.0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C2" s="4">
         <v>0.0</v>
@@ -35840,16 +35855,16 @@
         <v>50</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N2" s="19"/>
     </row>
@@ -35858,7 +35873,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C3" s="4">
         <v>1.0</v>
@@ -35873,16 +35888,16 @@
         <v>50</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
@@ -35893,7 +35908,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C4" s="4">
         <v>0.0</v>
@@ -35908,16 +35923,16 @@
         <v>50</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
@@ -35929,7 +35944,7 @@
         <v>5.0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C5" s="4">
         <v>0.0</v>
@@ -35944,16 +35959,16 @@
         <v>50</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N5" s="19"/>
     </row>
@@ -35962,7 +35977,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C6" s="4">
         <v>1.0</v>
@@ -35977,16 +35992,16 @@
         <v>50</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
@@ -35997,7 +36012,7 @@
         <v>7.0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C7" s="4">
         <v>0.0</v>
@@ -36012,16 +36027,16 @@
         <v>50</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
@@ -36033,7 +36048,7 @@
         <v>9.0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C8" s="4">
         <v>0.0</v>
@@ -36048,10 +36063,10 @@
         <v>50</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9">
@@ -36074,7 +36089,7 @@
         <v>50</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>54</v>
@@ -36107,7 +36122,7 @@
         <v>50</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>

--- a/db/DB.xlsx
+++ b/db/DB.xlsx
@@ -5,9 +5,9 @@
   <sheets>
     <sheet state="visible" name="areas" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="actividades" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="AsignaciónOriginal" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Archivo de actividades" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="ejemplo" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Archivo de actividades" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="ejemplo" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="AsignaciónOriginal" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">areas!$A$1:$K$15</definedName>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="185">
   <si>
     <t>Orden de aparición</t>
   </si>
@@ -179,7 +179,7 @@
     <t>Congregarme</t>
   </si>
   <si>
-    <t>Hoy tienes enseñanza. Te amo! Voy a tratar de ir en la mañana. Tú ve en la tardecita.</t>
+    <t>Hoy sí es enseñanza :3</t>
   </si>
   <si>
     <t>Horarios y sedes IDMJI</t>
@@ -191,13 +191,10 @@
     <t>Oración y lectura</t>
   </si>
   <si>
-    <t>Amor, llega antecitos, tú puedesssss si llegas antecitos me avisas y te doy un premio.</t>
+    <t>Hermosa llega antecitossss tú puedes, trata de leer &lt;b&gt;Así sea un versículo hoy&lt;/b&gt; &lt;3</t>
   </si>
   <si>
     <t>Servicio</t>
-  </si>
-  <si>
-    <t>Ya prestaste servicio ayer! Y te veías preciosa con tu vestido y blazer &lt;3</t>
   </si>
   <si>
     <t>Fundación</t>
@@ -206,7 +203,7 @@
     <t>Estructura narrativa</t>
   </si>
   <si>
-    <t>¡Amor! Para el proyecto del libro infantil te propongo lo siguiente: &lt;ol&gt;&lt;li&gt;Escoge un objetivo de aprendizaje de los que exploramos la vez pasada. Mantenlo muy claro y muy acotado.&lt;/li&gt;&lt;li&gt;Piensa en una estructura narrativa general (inicio nudo y desenlace? jajaja la que tú prefieras. Guíate en la estructura narrativa de otros libros como el del elefante!&lt;/li&gt;&lt;li&gt;Piensa en tu personaje principal de la historia. Descríbelo, planéalo.&lt;/li&gt;&lt;/ol&gt;Con eso puedes ir armando un storyboard que mostrar. Y puedes citarme esta semana y a Andrés para mostrarle avances. Te dejo un ejemplo del boceto de páginas.</t>
+    <t>¡Amor! De nuevo te dejo lo de la semana pasada. Para el proyecto del libro infantil te propongo lo siguiente: &lt;ol&gt;&lt;li&gt;Escoge un objetivo de aprendizaje de los que exploramos la vez pasada. Mantenlo muy claro y muy acotado.&lt;/li&gt;&lt;li&gt;Piensa en una estructura narrativa general (inicio nudo y desenlace? jajaja la que tú prefieras. Guíate en la estructura narrativa de otros libros como el del elefante!&lt;/li&gt;&lt;li&gt;Piensa en tu personaje principal de la historia. Descríbelo, planéalo.&lt;/li&gt;&lt;/ol&gt;Con eso puedes ir armando un storyboard que mostrar. Y puedes citarme esta semana y a Andrés para mostrarle avances. Te dejo un ejemplo del boceto de páginas.</t>
   </si>
   <si>
     <t>&lt;a target="_blank" href="https://co.pinterest.com/pin/442689838384392596/"&gt;&lt;img src="./img/storyboardacuarela.jpg" alt="Storyboard de libro de acuarela." style="width:100%" /&gt;&lt;/a&gt;</t>
@@ -218,19 +215,19 @@
     <t>https://youtu.be/knA9AlI3R8g?t=108</t>
   </si>
   <si>
-    <t>Doméstika: dibujo anatómico</t>
+    <t>Buscar próximo curso de Domestika</t>
   </si>
   <si>
-    <t>Te propongo que le dediques más timepo al libro hoy, y en la mitad de la semana le dedicas tiempo a esto.</t>
-  </si>
-  <si>
-    <t>&lt;!--a target="_blank" href="https://www.domestika.org/es/courses/area/184-dibujo-anatomico"&gt;&lt;img src="./img/dibujo.png" alt="Imágen del curso de dibujo anatómico en domestika" style="width:100%" /&gt;&lt;/a--&gt;</t>
+    <t>Escoge de la cola de cursos que tienes en Domestika amor para seguir con otro.</t>
   </si>
   <si>
     <t>Aplicar a Vacantes</t>
   </si>
   <si>
-    <t>¡Vida! La semana pasada mapeaste algunas vacantes de trabajos, hoy dedica tiempo a mandar las hojas de vida, yo se que tú puedes. Hazlo como parte de un hábito por ser diligente, muy fresca, sin pararle muchas bolas. Si me necesitas me cuentas :3</t>
+    <t>¡Sigue adelante! Amor recuerda que el objetivo es remar constante. No quemarte y gastar toda tu motivación. Sigue remando! Te amo!</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="./img/canoa.jpg"&gt;&lt;img src="./img/canoa.jpg" alt="Remando en canoa" style="width:100%" /&gt;&lt;/a&gt;</t>
   </si>
   <si>
     <t>Creación de obra</t>
@@ -248,7 +245,7 @@
     <t>Una vez más amor, te dejo esta historia de este muchacho que sigo hace mucho. No tiene nada que ver con ilustración pero su contenido de Instagram le ha dado para conseguir clientes como este. Me parece muy tierno porque es un chico muy sencillo y transparente, pero hace un trabajo precioso. Este reel lo vi la semanita pasada. &lt;b&gt;Agéndame corazón esta semana&lt;/b&gt; y nos pensamos una estrategia de contenido que tenga una propuesta de valor y una estrategia de funneling! Estoy pensando en tomar un curso de domestika que me mandaste y podemos aplicar las cosas. Lo voy a poner aquí para tenerlo</t>
   </si>
   <si>
-    <t>&lt;a target="_blank" href="https://www.instagram.com/reel/C8Z5101COIR/?utm_source=ig_web_copy_link"&gt;&lt;img src="./img/logo.jpg" alt="Logo" style="width:100%" /&gt;&lt;/a&gt;</t>
+    <t>&lt;a target="_blank" href="https://www.instagram.com/reel/C8Z5101COIR/?utm_source=ig_web_copy_link"&gt;&lt;img src="./img/logo.png" alt="Logo" style="width:100%" /&gt;&lt;/a&gt;</t>
   </si>
   <si>
     <t>Curso que quiere tomar Alfred</t>
@@ -293,19 +290,13 @@
     <t>Amor, todo lo que vayas aprendiendo, ve anotando: &lt;/br&gt;&lt;/br&gt;1) para tu propio aprendizaje "¿Cómo esto que estoy aprendiendo aplica a Colombia/LatAm?", &lt;/br&gt;&lt;/br&gt;2) para tu contenido en LinkedIn, qué cosas te parecen interesantes de compartir.&lt;/br&gt;&lt;/br&gt;La próxima semana tratas de citarme para comenzarnos  apensar estrategia de contenido en LinkedIn.</t>
   </si>
   <si>
-    <t>Reunón con CTP</t>
+    <t>Mapear organizaciones</t>
   </si>
   <si>
     <t xml:space="preserve">#339999       </t>
   </si>
   <si>
-    <t>Hoy tienes tu reunión con CTP! lleva tu hoja de vida y algunas de las ofertas que viste ayer amda. Está perfecto que te den feedback sobre lo que tengas. Dedícale una hora a esto y la otra a lo de abajo si puedes porfi. Mañana y pasado vamos aplicando a las ofertas.</t>
-  </si>
-  <si>
-    <t>Mapear organizaciones</t>
-  </si>
-  <si>
-    <t>Hoy no entres a LinkedIn amada mía. Busca en las 100 empresas más grandes de Colombia todas las que tengan departamento de Sostenibilidad o programas ESG y pásaselas a tu novio por favor.&lt;/br&gt;&lt;/br&gt;Mientras vas haciendo la revisión, pon la entrevista que el Diario La República hace a María Lara, directora de sostenibilidad en LatAm Airlines. Empápate de ese ambiente mientras buscas las empresas. Esto también te sirve como referente para irte informando de cómo se ve una estrategia de sostenibilidad para una aerolínea, que es una industria muy compleja. Te amo! Y me siento orgulloso de tí todos los días de mi vida.&lt;/br&gt;&lt;/br&gt;Te dejo la entrevista enlazada en la foto, y las 100 empresas abajo como enlace.</t>
+    <t>Chica hermosa. Busca en las 100 empresas más grandes de Colombia todas las que tengan departamento de Sostenibilidad o programas ESG y pásaselas a tu novio por favor.&lt;/br&gt;&lt;/br&gt;Mientras vas haciendo la revisión, pon la entrevista que el Diario La República hace a María Lara, directora de sostenibilidad en LatAm Airlines. Empápate de ese ambiente mientras buscas las empresas. Esto también te sirve como referente para irte informando de cómo se ve una estrategia de sostenibilidad para una aerolínea, que es una industria muy compleja. Te amo! Y me siento orgulloso de tí todos los días de mi vida.&lt;/br&gt;&lt;/br&gt;Te dejo la entrevista enlazada en la foto, y las 100 empresas abajo como enlace.</t>
   </si>
   <si>
     <t>&lt;a target="_blank" href="https://youtu.be/Z08sRmcWwX8?t=47"&gt;&lt;img src="./img/marialara.jpg" alt="Foto de María Lara." style="width:100%" /&gt;&lt;/a&gt;</t>
@@ -401,7 +392,7 @@
     <t>Gym</t>
   </si>
   <si>
-    <t>Amor! ve al gym! yo te despierto. Vamosssssss</t>
+    <t>Te voy a llamar :3 Por si quieres ir al gym.</t>
   </si>
   <si>
     <t>&lt;a target="_blank" href="./img/gym.jpg"&gt;&lt;img src="./img/gym.jpg" alt="Mujer tomando una pesa del gimnasio" style="width:100%" /&gt;&lt;/a&gt;&lt;/br&gt;</t>
@@ -410,7 +401,7 @@
     <t>Natación</t>
   </si>
   <si>
-    <t>Déjame esta semanita de gracia aún para nadar. Que me paguen y que yo pueda ir a cita médica. Como la mona cumple, me queda difícil por tiempos.</t>
+    <t>Déjame esta semanita de margen aún para nadar. Que me paguen y que yo pueda ir a cita médica. Como la mona cumple, me queda difícil por tiempos amor mío.</t>
   </si>
   <si>
     <t>Ir a la U a nadar</t>
@@ -529,9 +520,6 @@
     <t>Hay familias innumerables de endgames, comenzar a ver patrones del estilo: jaque en 1. Y luego jaque en 2, puede ser la clave.</t>
   </si>
   <si>
-    <t>Comisión</t>
-  </si>
-  <si>
     <t>Recuerda que tienes presupuestado tiempo un día a la semana para ofrecer servicio mi corazón. Aquí te dejo el presupuesto general. Puedes correrlo en cualquier día. Sólo lleva la cuenta.</t>
   </si>
   <si>
@@ -596,6 +584,9 @@
   </si>
   <si>
     <t>Acuérdate de llenar el formulario corazón.</t>
+  </si>
+  <si>
+    <t>Comisión</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1088,7 @@
         <v>2.0</v>
       </c>
       <c r="G3" s="4">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H3" s="4">
         <v>4.0</v>
@@ -1167,7 +1158,7 @@
         <v>0.0</v>
       </c>
       <c r="G5" s="4">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H5" s="4">
         <v>0.0</v>
@@ -1342,7 +1333,7 @@
         <v>0.0</v>
       </c>
       <c r="G10" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H10" s="4">
         <v>0.0</v>
@@ -3479,7 +3470,7 @@
     </row>
     <row r="2">
       <c r="A2" s="11">
-        <f t="shared" ref="A2:A41" si="1">ABS(B2)</f>
+        <f t="shared" ref="A2:A14" si="1">ABS(B2)</f>
         <v>1</v>
       </c>
       <c r="B2" s="11">
@@ -3625,7 +3616,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="11">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>58</v>
@@ -3642,9 +3633,7 @@
       <c r="G5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
@@ -3674,7 +3663,7 @@
         <v>-1.0</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="11">
         <v>0.0</v>
@@ -3709,7 +3698,7 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="13"/>
     </row>
-    <row r="7" hidden="1">
+    <row r="7">
       <c r="A7" s="11">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -3718,7 +3707,7 @@
         <v>2.0</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="11">
         <v>0.0</v>
@@ -3733,16 +3722,16 @@
         <v>50</v>
       </c>
       <c r="H7" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="J7" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="K7" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>65</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
@@ -3761,7 +3750,7 @@
       <c r="Z7" s="13"/>
       <c r="AA7" s="13"/>
     </row>
-    <row r="8" hidden="1">
+    <row r="8">
       <c r="A8" s="11">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -3770,7 +3759,7 @@
         <v>2.0</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="11">
         <v>0.0</v>
@@ -3785,11 +3774,9 @@
         <v>50</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>68</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="I8" s="15"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="13"/>
@@ -3809,7 +3796,7 @@
       <c r="Z8" s="13"/>
       <c r="AA8" s="13"/>
     </row>
-    <row r="9" hidden="1">
+    <row r="9">
       <c r="A9" s="11">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -3818,7 +3805,7 @@
         <v>3.0</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D9" s="11">
         <v>0.0</v>
@@ -3833,9 +3820,11 @@
         <v>50</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>69</v>
+      </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
@@ -3864,7 +3853,7 @@
         <v>4.0</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="11">
         <v>0.0</v>
@@ -3879,10 +3868,10 @@
         <v>50</v>
       </c>
       <c r="H10" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
@@ -3912,7 +3901,7 @@
         <v>4.0</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="11">
         <v>0.0</v>
@@ -3927,16 +3916,16 @@
         <v>50</v>
       </c>
       <c r="H11" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="J11" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="K11" s="16" t="s">
         <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
@@ -3964,7 +3953,7 @@
         <v>5.0</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="11">
         <v>0.0</v>
@@ -3979,22 +3968,22 @@
         <v>50</v>
       </c>
       <c r="H12" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="J12" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="K12" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="L12" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="M12" s="16" t="s">
         <v>84</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>85</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
@@ -4020,7 +4009,7 @@
         <v>5.0</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="11">
         <v>0.0</v>
@@ -4035,10 +4024,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -4068,7 +4057,7 @@
         <v>5.0</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="11">
         <v>0.0</v>
@@ -4083,7 +4072,7 @@
         <v>50</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
@@ -4105,32 +4094,15 @@
       <c r="Z14" s="13"/>
       <c r="AA14" s="13"/>
     </row>
-    <row r="15" hidden="1">
-      <c r="A15" s="11">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B15" s="11">
-        <v>6.0</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="E15" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>93</v>
-      </c>
+    <row r="15">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
@@ -4151,16 +4123,16 @@
       <c r="Z15" s="13"/>
       <c r="AA15" s="13"/>
     </row>
-    <row r="16" hidden="1">
+    <row r="16">
       <c r="A16" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A16:A41" si="2">ABS(B16)</f>
         <v>6</v>
       </c>
       <c r="B16" s="11">
         <v>6.0</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D16" s="11">
         <v>0.0</v>
@@ -4169,22 +4141,22 @@
         <v>2.0</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>50</v>
       </c>
       <c r="H16" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="16" t="s">
         <v>95</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>98</v>
       </c>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
@@ -4203,16 +4175,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="13"/>
     </row>
-    <row r="17" hidden="1">
+    <row r="17">
       <c r="A17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B17" s="11">
         <v>7.0</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D17" s="11">
         <v>0.0</v>
@@ -4227,10 +4199,10 @@
         <v>50</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
@@ -4251,16 +4223,16 @@
       <c r="Z17" s="13"/>
       <c r="AA17" s="13"/>
     </row>
-    <row r="18" hidden="1">
+    <row r="18">
       <c r="A18" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B18" s="11">
         <v>-7.0</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D18" s="11">
         <v>0.0</v>
@@ -4275,7 +4247,7 @@
         <v>50</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="13"/>
@@ -4297,16 +4269,16 @@
       <c r="Z18" s="13"/>
       <c r="AA18" s="13"/>
     </row>
-    <row r="19" hidden="1">
+    <row r="19">
       <c r="A19" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B19" s="11">
         <v>8.0</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D19" s="11">
         <v>0.0</v>
@@ -4321,10 +4293,10 @@
         <v>50</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
@@ -4345,16 +4317,16 @@
       <c r="Z19" s="13"/>
       <c r="AA19" s="13"/>
     </row>
-    <row r="20" hidden="1">
+    <row r="20">
       <c r="A20" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B20" s="11">
         <v>9.0</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D20" s="11">
         <v>0.0</v>
@@ -4369,10 +4341,10 @@
         <v>50</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
@@ -4395,14 +4367,14 @@
     </row>
     <row r="21">
       <c r="A21" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B21" s="11">
         <v>10.0</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D21" s="11">
         <v>1.0</v>
@@ -4417,22 +4389,22 @@
         <v>50</v>
       </c>
       <c r="H21" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K21" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="L21" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="M21" s="16" t="s">
         <v>113</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="M21" s="16" t="s">
-        <v>116</v>
       </c>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
@@ -4451,14 +4423,14 @@
     </row>
     <row r="22">
       <c r="A22" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B22" s="11">
         <v>10.0</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D22" s="11">
         <v>1.0</v>
@@ -4473,16 +4445,16 @@
         <v>50</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
@@ -4503,14 +4475,14 @@
     </row>
     <row r="23">
       <c r="A23" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B23" s="11">
         <v>10.0</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D23" s="11">
         <v>1.0</v>
@@ -4525,16 +4497,16 @@
         <v>50</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
@@ -4555,14 +4527,14 @@
     </row>
     <row r="24">
       <c r="A24" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B24" s="11">
         <v>10.0</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D24" s="11">
         <v>1.0</v>
@@ -4577,10 +4549,10 @@
         <v>50</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J24" s="11"/>
       <c r="K24" s="15"/>
@@ -4603,14 +4575,14 @@
     </row>
     <row r="25">
       <c r="A25" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B25" s="11">
         <v>11.0</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D25" s="11">
         <v>0.0</v>
@@ -4625,10 +4597,10 @@
         <v>50</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
@@ -4651,14 +4623,14 @@
     </row>
     <row r="26">
       <c r="A26" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B26" s="11">
         <v>11.0</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D26" s="11">
         <v>0.0</v>
@@ -4673,7 +4645,7 @@
         <v>50</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
@@ -4695,16 +4667,16 @@
       <c r="Z26" s="13"/>
       <c r="AA26" s="13"/>
     </row>
-    <row r="27" hidden="1">
+    <row r="27">
       <c r="A27" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B27" s="11">
         <v>12.0</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D27" s="11">
         <v>0.0</v>
@@ -4739,16 +4711,16 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="13"/>
     </row>
-    <row r="28" hidden="1">
+    <row r="28">
       <c r="A28" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B28" s="11">
         <v>13.0</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D28" s="11">
         <v>0.0</v>
@@ -4763,10 +4735,10 @@
         <v>50</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
@@ -4787,16 +4759,16 @@
       <c r="Z28" s="13"/>
       <c r="AA28" s="13"/>
     </row>
-    <row r="29" hidden="1">
+    <row r="29">
       <c r="A29" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B29" s="11">
         <v>13.0</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D29" s="11">
         <v>0.0</v>
@@ -4811,7 +4783,7 @@
         <v>50</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
@@ -4833,16 +4805,16 @@
       <c r="Z29" s="13"/>
       <c r="AA29" s="13"/>
     </row>
-    <row r="30" hidden="1">
+    <row r="30">
       <c r="A30" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B30" s="11">
         <v>13.0</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D30" s="11">
         <v>0.0</v>
@@ -4857,7 +4829,7 @@
         <v>50</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
@@ -4879,16 +4851,16 @@
       <c r="Z30" s="13"/>
       <c r="AA30" s="13"/>
     </row>
-    <row r="31" hidden="1">
+    <row r="31">
       <c r="A31" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B31" s="11">
         <v>13.0</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D31" s="11">
         <v>0.0</v>
@@ -4903,7 +4875,7 @@
         <v>50</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
@@ -4925,16 +4897,16 @@
       <c r="Z31" s="13"/>
       <c r="AA31" s="13"/>
     </row>
-    <row r="32" hidden="1">
+    <row r="32">
       <c r="A32" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B32" s="11">
         <v>13.0</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D32" s="11">
         <v>0.0</v>
@@ -4949,7 +4921,7 @@
         <v>50</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
@@ -4971,16 +4943,16 @@
       <c r="Z32" s="13"/>
       <c r="AA32" s="13"/>
     </row>
-    <row r="33" hidden="1">
+    <row r="33">
       <c r="A33" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B33" s="11">
         <v>13.0</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D33" s="11">
         <v>1.0</v>
@@ -4995,7 +4967,7 @@
         <v>50</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
@@ -5017,16 +4989,16 @@
       <c r="Z33" s="13"/>
       <c r="AA33" s="13"/>
     </row>
-    <row r="34" hidden="1">
+    <row r="34">
       <c r="A34" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B34" s="11">
         <v>13.0</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D34" s="11">
         <v>0.0</v>
@@ -5041,7 +5013,7 @@
         <v>50</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
@@ -5063,16 +5035,16 @@
       <c r="Z34" s="13"/>
       <c r="AA34" s="13"/>
     </row>
-    <row r="35" hidden="1">
+    <row r="35">
       <c r="A35" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B35" s="11">
         <v>13.0</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D35" s="11">
         <v>0.0</v>
@@ -5087,7 +5059,7 @@
         <v>50</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
@@ -5109,16 +5081,16 @@
       <c r="Z35" s="13"/>
       <c r="AA35" s="13"/>
     </row>
-    <row r="36" hidden="1">
+    <row r="36">
       <c r="A36" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B36" s="11">
         <v>14.0</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D36" s="11">
         <v>0.0</v>
@@ -5127,13 +5099,13 @@
         <v>1.0</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="13"/>
@@ -5155,16 +5127,16 @@
       <c r="Z36" s="13"/>
       <c r="AA36" s="13"/>
     </row>
-    <row r="37" hidden="1">
+    <row r="37">
       <c r="A37" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B37" s="11">
         <v>14.0</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D37" s="11">
         <v>0.0</v>
@@ -5173,16 +5145,16 @@
         <v>2.0</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G37" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H37" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="H37" s="11" t="s">
-        <v>154</v>
-      </c>
       <c r="I37" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
@@ -5203,16 +5175,16 @@
       <c r="Z37" s="13"/>
       <c r="AA37" s="13"/>
     </row>
-    <row r="38" hidden="1">
+    <row r="38">
       <c r="A38" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B38" s="11">
         <v>14.0</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D38" s="11">
         <v>0.0</v>
@@ -5221,16 +5193,16 @@
         <v>3.0</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
@@ -5251,16 +5223,16 @@
       <c r="Z38" s="13"/>
       <c r="AA38" s="13"/>
     </row>
-    <row r="39" hidden="1">
+    <row r="39">
       <c r="A39" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B39" s="3">
         <v>14.0</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D39" s="3">
         <v>0.0</v>
@@ -5269,13 +5241,13 @@
         <v>4.0</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I39" s="15"/>
       <c r="P39" s="13"/>
@@ -5291,16 +5263,16 @@
       <c r="Z39" s="13"/>
       <c r="AA39" s="13"/>
     </row>
-    <row r="40" hidden="1">
+    <row r="40">
       <c r="A40" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B40" s="3">
         <v>14.0</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D40" s="3">
         <v>0.0</v>
@@ -5309,13 +5281,13 @@
         <v>5.0</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P40" s="13"/>
       <c r="Q40" s="13"/>
@@ -5330,16 +5302,16 @@
       <c r="Z40" s="13"/>
       <c r="AA40" s="13"/>
     </row>
-    <row r="41" hidden="1">
+    <row r="41">
       <c r="A41" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B41" s="3">
         <v>14.0</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D41" s="3">
         <v>0.0</v>
@@ -5348,13 +5320,13 @@
         <v>6.0</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P41" s="13"/>
       <c r="Q41" s="13"/>
@@ -33442,17 +33414,7 @@
       <c r="AA1009" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$O$41">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="11"/>
-        <filter val="1"/>
-        <filter val="4"/>
-        <filter val="5"/>
-        <filter val="10"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="$A$1:$O$41"/>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="K3"/>
     <hyperlink r:id="rId2" ref="K7"/>
@@ -33479,2213 +33441,84 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="15.63"/>
-    <col customWidth="1" min="2" max="2" width="9.25"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+      <c r="F1" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3">
         <v>1.0</v>
       </c>
-      <c r="B2" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="B2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="3">
         <v>0.0</v>
       </c>
-      <c r="G2" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4">
+      <c r="D2" s="3">
         <v>2.0</v>
       </c>
-      <c r="B3" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="3">
-        <v>12.0</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I11" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="3">
-        <v>13.0</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="4">
-        <v>9.0</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3">
-        <v>12.0</v>
-      </c>
-      <c r="B14" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3">
-        <v>13.0</v>
-      </c>
-      <c r="B15" s="3">
-        <v>14.0</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17">
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18">
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19">
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20">
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21">
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22">
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23">
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24">
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25">
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-    </row>
-    <row r="26">
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-    </row>
-    <row r="27">
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28">
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-    </row>
-    <row r="29">
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-    </row>
-    <row r="30">
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-    </row>
-    <row r="31">
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-    </row>
-    <row r="32">
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-    </row>
-    <row r="33">
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-    </row>
-    <row r="34">
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-    </row>
-    <row r="35">
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-    </row>
-    <row r="36">
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-    </row>
-    <row r="37">
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-    </row>
-    <row r="38">
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-    </row>
-    <row r="39">
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-    </row>
-    <row r="40">
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-    </row>
-    <row r="41">
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-    </row>
-    <row r="42">
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-    </row>
-    <row r="43">
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-    </row>
-    <row r="44">
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-    </row>
-    <row r="45">
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-    </row>
-    <row r="46">
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-    </row>
-    <row r="47">
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-    </row>
-    <row r="48">
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-    </row>
-    <row r="49">
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-    </row>
-    <row r="50">
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-    </row>
-    <row r="51">
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-    </row>
-    <row r="52">
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-    </row>
-    <row r="53">
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-    </row>
-    <row r="54">
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-    </row>
-    <row r="55">
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-    </row>
-    <row r="56">
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-    </row>
-    <row r="57">
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-    </row>
-    <row r="58">
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-    </row>
-    <row r="59">
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-    </row>
-    <row r="60">
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-    </row>
-    <row r="61">
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-    </row>
-    <row r="62">
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-    </row>
-    <row r="63">
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-    </row>
-    <row r="64">
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-    </row>
-    <row r="65">
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-    </row>
-    <row r="66">
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-    </row>
-    <row r="67">
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-    </row>
-    <row r="68">
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-    </row>
-    <row r="69">
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-    </row>
-    <row r="70">
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-    </row>
-    <row r="71">
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-    </row>
-    <row r="72">
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-    </row>
-    <row r="73">
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-    </row>
-    <row r="74">
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-    </row>
-    <row r="75">
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-    </row>
-    <row r="76">
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-    </row>
-    <row r="77">
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-    </row>
-    <row r="78">
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-    </row>
-    <row r="79">
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-    </row>
-    <row r="80">
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-    </row>
-    <row r="81">
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-    </row>
-    <row r="82">
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-    </row>
-    <row r="83">
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-    </row>
-    <row r="84">
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-    </row>
-    <row r="85">
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
-    </row>
-    <row r="86">
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-    </row>
-    <row r="87">
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-    </row>
-    <row r="88">
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-    </row>
-    <row r="89">
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
-    </row>
-    <row r="90">
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
-    </row>
-    <row r="91">
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
-    </row>
-    <row r="92">
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
-    </row>
-    <row r="93">
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-    </row>
-    <row r="94">
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
-    </row>
-    <row r="95">
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
-    </row>
-    <row r="96">
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
-    </row>
-    <row r="97">
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
-    </row>
-    <row r="98">
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
-    </row>
-    <row r="99">
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="7"/>
-    </row>
-    <row r="100">
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7"/>
-      <c r="K100" s="7"/>
-    </row>
-    <row r="101">
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="7"/>
-    </row>
-    <row r="102">
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
-      <c r="K102" s="7"/>
-    </row>
-    <row r="103">
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
-      <c r="K103" s="7"/>
-    </row>
-    <row r="104">
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
-      <c r="I104" s="7"/>
-      <c r="J104" s="7"/>
-      <c r="K104" s="7"/>
-    </row>
-    <row r="105">
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
-      <c r="J105" s="7"/>
-      <c r="K105" s="7"/>
-    </row>
-    <row r="106">
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
-      <c r="J106" s="7"/>
-      <c r="K106" s="7"/>
-    </row>
-    <row r="107">
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
-      <c r="K107" s="7"/>
-    </row>
-    <row r="108">
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
-      <c r="K108" s="7"/>
-    </row>
-    <row r="109">
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="7"/>
-      <c r="I109" s="7"/>
-      <c r="J109" s="7"/>
-      <c r="K109" s="7"/>
-    </row>
-    <row r="110">
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
-      <c r="K110" s="7"/>
-    </row>
-    <row r="111">
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
-      <c r="K111" s="7"/>
-    </row>
-    <row r="112">
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="7"/>
-      <c r="K112" s="7"/>
-    </row>
-    <row r="113">
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="7"/>
-      <c r="K113" s="7"/>
-    </row>
-    <row r="114">
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="7"/>
-      <c r="I114" s="7"/>
-      <c r="J114" s="7"/>
-      <c r="K114" s="7"/>
-    </row>
-    <row r="115">
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="7"/>
-      <c r="I115" s="7"/>
-      <c r="J115" s="7"/>
-      <c r="K115" s="7"/>
-    </row>
-    <row r="116">
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
-      <c r="I116" s="7"/>
-      <c r="J116" s="7"/>
-      <c r="K116" s="7"/>
-    </row>
-    <row r="117">
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
-      <c r="K117" s="7"/>
-    </row>
-    <row r="118">
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
-      <c r="K118" s="7"/>
-    </row>
-    <row r="119">
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
-      <c r="I119" s="7"/>
-      <c r="J119" s="7"/>
-      <c r="K119" s="7"/>
-    </row>
-    <row r="120">
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="7"/>
-      <c r="I120" s="7"/>
-      <c r="J120" s="7"/>
-      <c r="K120" s="7"/>
-    </row>
-    <row r="121">
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
-      <c r="K121" s="7"/>
-    </row>
-    <row r="122">
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="7"/>
-      <c r="I122" s="7"/>
-      <c r="J122" s="7"/>
-      <c r="K122" s="7"/>
-    </row>
-    <row r="123">
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
-      <c r="I123" s="7"/>
-      <c r="J123" s="7"/>
-      <c r="K123" s="7"/>
-    </row>
-    <row r="124">
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
-      <c r="I124" s="7"/>
-      <c r="J124" s="7"/>
-      <c r="K124" s="7"/>
-    </row>
-    <row r="125">
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="7"/>
-      <c r="I125" s="7"/>
-      <c r="J125" s="7"/>
-      <c r="K125" s="7"/>
-    </row>
-    <row r="126">
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="7"/>
-      <c r="I126" s="7"/>
-      <c r="J126" s="7"/>
-      <c r="K126" s="7"/>
-    </row>
-    <row r="127">
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
-      <c r="H127" s="7"/>
-      <c r="I127" s="7"/>
-      <c r="J127" s="7"/>
-      <c r="K127" s="7"/>
-    </row>
-    <row r="128">
-      <c r="E128" s="7"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="7"/>
-      <c r="H128" s="7"/>
-      <c r="I128" s="7"/>
-      <c r="J128" s="7"/>
-      <c r="K128" s="7"/>
-    </row>
-    <row r="129">
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="7"/>
-      <c r="H129" s="7"/>
-      <c r="I129" s="7"/>
-      <c r="J129" s="7"/>
-      <c r="K129" s="7"/>
-    </row>
-    <row r="130">
-      <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="7"/>
-      <c r="H130" s="7"/>
-      <c r="I130" s="7"/>
-      <c r="J130" s="7"/>
-      <c r="K130" s="7"/>
-    </row>
-    <row r="131">
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
-      <c r="I131" s="7"/>
-      <c r="J131" s="7"/>
-      <c r="K131" s="7"/>
-    </row>
-    <row r="132">
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="7"/>
-      <c r="I132" s="7"/>
-      <c r="J132" s="7"/>
-      <c r="K132" s="7"/>
-    </row>
-    <row r="133">
-      <c r="E133" s="7"/>
-      <c r="F133" s="7"/>
-      <c r="G133" s="7"/>
-      <c r="H133" s="7"/>
-      <c r="I133" s="7"/>
-      <c r="J133" s="7"/>
-      <c r="K133" s="7"/>
-    </row>
-    <row r="134">
-      <c r="E134" s="7"/>
-      <c r="F134" s="7"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="7"/>
-      <c r="I134" s="7"/>
-      <c r="J134" s="7"/>
-      <c r="K134" s="7"/>
-    </row>
-    <row r="135">
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="7"/>
-      <c r="I135" s="7"/>
-      <c r="J135" s="7"/>
-      <c r="K135" s="7"/>
-    </row>
-    <row r="136">
-      <c r="E136" s="7"/>
-      <c r="F136" s="7"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="7"/>
-      <c r="I136" s="7"/>
-      <c r="J136" s="7"/>
-      <c r="K136" s="7"/>
-    </row>
-    <row r="137">
-      <c r="E137" s="7"/>
-      <c r="F137" s="7"/>
-      <c r="G137" s="7"/>
-      <c r="H137" s="7"/>
-      <c r="I137" s="7"/>
-      <c r="J137" s="7"/>
-      <c r="K137" s="7"/>
-    </row>
-    <row r="138">
-      <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
-      <c r="G138" s="7"/>
-      <c r="H138" s="7"/>
-      <c r="I138" s="7"/>
-      <c r="J138" s="7"/>
-      <c r="K138" s="7"/>
-    </row>
-    <row r="139">
-      <c r="E139" s="7"/>
-      <c r="F139" s="7"/>
-      <c r="G139" s="7"/>
-      <c r="H139" s="7"/>
-      <c r="I139" s="7"/>
-      <c r="J139" s="7"/>
-      <c r="K139" s="7"/>
-    </row>
-    <row r="140">
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="7"/>
-      <c r="I140" s="7"/>
-      <c r="J140" s="7"/>
-      <c r="K140" s="7"/>
-    </row>
-    <row r="141">
-      <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
-      <c r="G141" s="7"/>
-      <c r="H141" s="7"/>
-      <c r="I141" s="7"/>
-      <c r="J141" s="7"/>
-      <c r="K141" s="7"/>
-    </row>
-    <row r="142">
-      <c r="E142" s="7"/>
-      <c r="F142" s="7"/>
-      <c r="G142" s="7"/>
-      <c r="H142" s="7"/>
-      <c r="I142" s="7"/>
-      <c r="J142" s="7"/>
-      <c r="K142" s="7"/>
-    </row>
-    <row r="143">
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="7"/>
-      <c r="I143" s="7"/>
-      <c r="J143" s="7"/>
-      <c r="K143" s="7"/>
-    </row>
-    <row r="144">
-      <c r="E144" s="7"/>
-      <c r="F144" s="7"/>
-      <c r="G144" s="7"/>
-      <c r="H144" s="7"/>
-      <c r="I144" s="7"/>
-      <c r="J144" s="7"/>
-      <c r="K144" s="7"/>
-    </row>
-    <row r="145">
-      <c r="E145" s="7"/>
-      <c r="F145" s="7"/>
-      <c r="G145" s="7"/>
-      <c r="H145" s="7"/>
-      <c r="I145" s="7"/>
-      <c r="J145" s="7"/>
-      <c r="K145" s="7"/>
-    </row>
-    <row r="146">
-      <c r="E146" s="7"/>
-      <c r="F146" s="7"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="7"/>
-      <c r="I146" s="7"/>
-      <c r="J146" s="7"/>
-      <c r="K146" s="7"/>
-    </row>
-    <row r="147">
-      <c r="E147" s="7"/>
-      <c r="F147" s="7"/>
-      <c r="G147" s="7"/>
-      <c r="H147" s="7"/>
-      <c r="I147" s="7"/>
-      <c r="J147" s="7"/>
-      <c r="K147" s="7"/>
-    </row>
-    <row r="148">
-      <c r="E148" s="7"/>
-      <c r="F148" s="7"/>
-      <c r="G148" s="7"/>
-      <c r="H148" s="7"/>
-      <c r="I148" s="7"/>
-      <c r="J148" s="7"/>
-      <c r="K148" s="7"/>
-    </row>
-    <row r="149">
-      <c r="E149" s="7"/>
-      <c r="F149" s="7"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="7"/>
-      <c r="I149" s="7"/>
-      <c r="J149" s="7"/>
-      <c r="K149" s="7"/>
-    </row>
-    <row r="150">
-      <c r="E150" s="7"/>
-      <c r="F150" s="7"/>
-      <c r="G150" s="7"/>
-      <c r="H150" s="7"/>
-      <c r="I150" s="7"/>
-      <c r="J150" s="7"/>
-      <c r="K150" s="7"/>
-    </row>
-    <row r="151">
-      <c r="E151" s="7"/>
-      <c r="F151" s="7"/>
-      <c r="G151" s="7"/>
-      <c r="H151" s="7"/>
-      <c r="I151" s="7"/>
-      <c r="J151" s="7"/>
-      <c r="K151" s="7"/>
-    </row>
-    <row r="152">
-      <c r="E152" s="7"/>
-      <c r="F152" s="7"/>
-      <c r="G152" s="7"/>
-      <c r="H152" s="7"/>
-      <c r="I152" s="7"/>
-      <c r="J152" s="7"/>
-      <c r="K152" s="7"/>
-    </row>
-    <row r="153">
-      <c r="E153" s="7"/>
-      <c r="F153" s="7"/>
-      <c r="G153" s="7"/>
-      <c r="H153" s="7"/>
-      <c r="I153" s="7"/>
-      <c r="J153" s="7"/>
-      <c r="K153" s="7"/>
-    </row>
-    <row r="154">
-      <c r="E154" s="7"/>
-      <c r="F154" s="7"/>
-      <c r="G154" s="7"/>
-      <c r="H154" s="7"/>
-      <c r="I154" s="7"/>
-      <c r="J154" s="7"/>
-      <c r="K154" s="7"/>
-    </row>
-    <row r="155">
-      <c r="E155" s="7"/>
-      <c r="F155" s="7"/>
-      <c r="G155" s="7"/>
-      <c r="H155" s="7"/>
-      <c r="I155" s="7"/>
-      <c r="J155" s="7"/>
-      <c r="K155" s="7"/>
-    </row>
-    <row r="156">
-      <c r="E156" s="7"/>
-      <c r="F156" s="7"/>
-      <c r="G156" s="7"/>
-      <c r="H156" s="7"/>
-      <c r="I156" s="7"/>
-      <c r="J156" s="7"/>
-      <c r="K156" s="7"/>
-    </row>
-    <row r="157">
-      <c r="E157" s="7"/>
-      <c r="F157" s="7"/>
-      <c r="G157" s="7"/>
-      <c r="H157" s="7"/>
-      <c r="I157" s="7"/>
-      <c r="J157" s="7"/>
-      <c r="K157" s="7"/>
-    </row>
-    <row r="158">
-      <c r="E158" s="7"/>
-      <c r="F158" s="7"/>
-      <c r="G158" s="7"/>
-      <c r="H158" s="7"/>
-      <c r="I158" s="7"/>
-      <c r="J158" s="7"/>
-      <c r="K158" s="7"/>
-    </row>
-    <row r="159">
-      <c r="E159" s="7"/>
-      <c r="F159" s="7"/>
-      <c r="G159" s="7"/>
-      <c r="H159" s="7"/>
-      <c r="I159" s="7"/>
-      <c r="J159" s="7"/>
-      <c r="K159" s="7"/>
-    </row>
-    <row r="160">
-      <c r="E160" s="7"/>
-      <c r="F160" s="7"/>
-      <c r="G160" s="7"/>
-      <c r="H160" s="7"/>
-      <c r="I160" s="7"/>
-      <c r="J160" s="7"/>
-      <c r="K160" s="7"/>
-    </row>
-    <row r="161">
-      <c r="E161" s="7"/>
-      <c r="F161" s="7"/>
-      <c r="G161" s="7"/>
-      <c r="H161" s="7"/>
-      <c r="I161" s="7"/>
-      <c r="J161" s="7"/>
-      <c r="K161" s="7"/>
-    </row>
-    <row r="162">
-      <c r="E162" s="7"/>
-      <c r="F162" s="7"/>
-      <c r="G162" s="7"/>
-      <c r="H162" s="7"/>
-      <c r="I162" s="7"/>
-      <c r="J162" s="7"/>
-      <c r="K162" s="7"/>
-    </row>
-    <row r="163">
-      <c r="E163" s="7"/>
-      <c r="F163" s="7"/>
-      <c r="G163" s="7"/>
-      <c r="H163" s="7"/>
-      <c r="I163" s="7"/>
-      <c r="J163" s="7"/>
-      <c r="K163" s="7"/>
-    </row>
-    <row r="164">
-      <c r="E164" s="7"/>
-      <c r="F164" s="7"/>
-      <c r="G164" s="7"/>
-      <c r="H164" s="7"/>
-      <c r="I164" s="7"/>
-      <c r="J164" s="7"/>
-      <c r="K164" s="7"/>
-    </row>
-    <row r="165">
-      <c r="E165" s="7"/>
-      <c r="F165" s="7"/>
-      <c r="G165" s="7"/>
-      <c r="H165" s="7"/>
-      <c r="I165" s="7"/>
-      <c r="J165" s="7"/>
-      <c r="K165" s="7"/>
-    </row>
-    <row r="166">
-      <c r="E166" s="7"/>
-      <c r="F166" s="7"/>
-      <c r="G166" s="7"/>
-      <c r="H166" s="7"/>
-      <c r="I166" s="7"/>
-      <c r="J166" s="7"/>
-      <c r="K166" s="7"/>
-    </row>
-    <row r="167">
-      <c r="E167" s="7"/>
-      <c r="F167" s="7"/>
-      <c r="G167" s="7"/>
-      <c r="H167" s="7"/>
-      <c r="I167" s="7"/>
-      <c r="J167" s="7"/>
-      <c r="K167" s="7"/>
-    </row>
-    <row r="168">
-      <c r="E168" s="7"/>
-      <c r="F168" s="7"/>
-      <c r="G168" s="7"/>
-      <c r="H168" s="7"/>
-      <c r="I168" s="7"/>
-      <c r="J168" s="7"/>
-      <c r="K168" s="7"/>
-    </row>
-    <row r="169">
-      <c r="E169" s="7"/>
-      <c r="F169" s="7"/>
-      <c r="G169" s="7"/>
-      <c r="H169" s="7"/>
-      <c r="I169" s="7"/>
-      <c r="J169" s="7"/>
-      <c r="K169" s="7"/>
-    </row>
-    <row r="170">
-      <c r="E170" s="7"/>
-      <c r="F170" s="7"/>
-      <c r="G170" s="7"/>
-      <c r="H170" s="7"/>
-      <c r="I170" s="7"/>
-      <c r="J170" s="7"/>
-      <c r="K170" s="7"/>
-    </row>
-    <row r="171">
-      <c r="E171" s="7"/>
-      <c r="F171" s="7"/>
-      <c r="G171" s="7"/>
-      <c r="H171" s="7"/>
-      <c r="I171" s="7"/>
-      <c r="J171" s="7"/>
-      <c r="K171" s="7"/>
-    </row>
-    <row r="172">
-      <c r="E172" s="7"/>
-      <c r="F172" s="7"/>
-      <c r="G172" s="7"/>
-      <c r="H172" s="7"/>
-      <c r="I172" s="7"/>
-      <c r="J172" s="7"/>
-      <c r="K172" s="7"/>
-    </row>
-    <row r="173">
-      <c r="E173" s="7"/>
-      <c r="F173" s="7"/>
-      <c r="G173" s="7"/>
-      <c r="H173" s="7"/>
-      <c r="I173" s="7"/>
-      <c r="J173" s="7"/>
-      <c r="K173" s="7"/>
-    </row>
-    <row r="174">
-      <c r="E174" s="7"/>
-      <c r="F174" s="7"/>
-      <c r="G174" s="7"/>
-      <c r="H174" s="7"/>
-      <c r="I174" s="7"/>
-      <c r="J174" s="7"/>
-      <c r="K174" s="7"/>
-    </row>
-    <row r="175">
-      <c r="E175" s="7"/>
-      <c r="F175" s="7"/>
-      <c r="G175" s="7"/>
-      <c r="H175" s="7"/>
-      <c r="I175" s="7"/>
-      <c r="J175" s="7"/>
-      <c r="K175" s="7"/>
-    </row>
-    <row r="176">
-      <c r="E176" s="7"/>
-      <c r="F176" s="7"/>
-      <c r="G176" s="7"/>
-      <c r="H176" s="7"/>
-      <c r="I176" s="7"/>
-      <c r="J176" s="7"/>
-      <c r="K176" s="7"/>
-    </row>
-    <row r="177">
-      <c r="E177" s="7"/>
-      <c r="F177" s="7"/>
-      <c r="G177" s="7"/>
-      <c r="H177" s="7"/>
-      <c r="I177" s="7"/>
-      <c r="J177" s="7"/>
-      <c r="K177" s="7"/>
-    </row>
-    <row r="178">
-      <c r="E178" s="7"/>
-      <c r="F178" s="7"/>
-      <c r="G178" s="7"/>
-      <c r="H178" s="7"/>
-      <c r="I178" s="7"/>
-      <c r="J178" s="7"/>
-      <c r="K178" s="7"/>
-    </row>
-    <row r="179">
-      <c r="E179" s="7"/>
-      <c r="F179" s="7"/>
-      <c r="G179" s="7"/>
-      <c r="H179" s="7"/>
-      <c r="I179" s="7"/>
-      <c r="J179" s="7"/>
-      <c r="K179" s="7"/>
-    </row>
-    <row r="180">
-      <c r="E180" s="7"/>
-      <c r="F180" s="7"/>
-      <c r="G180" s="7"/>
-      <c r="H180" s="7"/>
-      <c r="I180" s="7"/>
-      <c r="J180" s="7"/>
-      <c r="K180" s="7"/>
-    </row>
-    <row r="181">
-      <c r="E181" s="7"/>
-      <c r="F181" s="7"/>
-      <c r="G181" s="7"/>
-      <c r="H181" s="7"/>
-      <c r="I181" s="7"/>
-      <c r="J181" s="7"/>
-      <c r="K181" s="7"/>
-    </row>
-    <row r="182">
-      <c r="E182" s="7"/>
-      <c r="F182" s="7"/>
-      <c r="G182" s="7"/>
-      <c r="H182" s="7"/>
-      <c r="I182" s="7"/>
-      <c r="J182" s="7"/>
-      <c r="K182" s="7"/>
-    </row>
-    <row r="183">
-      <c r="E183" s="7"/>
-      <c r="F183" s="7"/>
-      <c r="G183" s="7"/>
-      <c r="H183" s="7"/>
-      <c r="I183" s="7"/>
-      <c r="J183" s="7"/>
-      <c r="K183" s="7"/>
-    </row>
-    <row r="184">
-      <c r="E184" s="7"/>
-      <c r="F184" s="7"/>
-      <c r="G184" s="7"/>
-      <c r="H184" s="7"/>
-      <c r="I184" s="7"/>
-      <c r="J184" s="7"/>
-      <c r="K184" s="7"/>
-    </row>
-    <row r="185">
-      <c r="E185" s="7"/>
-      <c r="F185" s="7"/>
-      <c r="G185" s="7"/>
-      <c r="H185" s="7"/>
-      <c r="I185" s="7"/>
-      <c r="J185" s="7"/>
-      <c r="K185" s="7"/>
-    </row>
-    <row r="186">
-      <c r="E186" s="7"/>
-      <c r="F186" s="7"/>
-      <c r="G186" s="7"/>
-      <c r="H186" s="7"/>
-      <c r="I186" s="7"/>
-      <c r="J186" s="7"/>
-      <c r="K186" s="7"/>
-    </row>
-    <row r="187">
-      <c r="E187" s="7"/>
-      <c r="F187" s="7"/>
-      <c r="G187" s="7"/>
-      <c r="H187" s="7"/>
-      <c r="I187" s="7"/>
-      <c r="J187" s="7"/>
-      <c r="K187" s="7"/>
-    </row>
-    <row r="188">
-      <c r="E188" s="7"/>
-      <c r="F188" s="7"/>
-      <c r="G188" s="7"/>
-      <c r="H188" s="7"/>
-      <c r="I188" s="7"/>
-      <c r="J188" s="7"/>
-      <c r="K188" s="7"/>
-    </row>
-    <row r="189">
-      <c r="E189" s="7"/>
-      <c r="F189" s="7"/>
-      <c r="G189" s="7"/>
-      <c r="H189" s="7"/>
-      <c r="I189" s="7"/>
-      <c r="J189" s="7"/>
-      <c r="K189" s="7"/>
-    </row>
-    <row r="190">
-      <c r="E190" s="7"/>
-      <c r="F190" s="7"/>
-      <c r="G190" s="7"/>
-      <c r="H190" s="7"/>
-      <c r="I190" s="7"/>
-      <c r="J190" s="7"/>
-      <c r="K190" s="7"/>
-    </row>
-    <row r="191">
-      <c r="E191" s="7"/>
-      <c r="F191" s="7"/>
-      <c r="G191" s="7"/>
-      <c r="H191" s="7"/>
-      <c r="I191" s="7"/>
-      <c r="J191" s="7"/>
-      <c r="K191" s="7"/>
-    </row>
-    <row r="192">
-      <c r="E192" s="7"/>
-      <c r="F192" s="7"/>
-      <c r="G192" s="7"/>
-      <c r="H192" s="7"/>
-      <c r="I192" s="7"/>
-      <c r="J192" s="7"/>
-      <c r="K192" s="7"/>
-    </row>
-    <row r="193">
-      <c r="E193" s="7"/>
-      <c r="F193" s="7"/>
-      <c r="G193" s="7"/>
-      <c r="H193" s="7"/>
-      <c r="I193" s="7"/>
-      <c r="J193" s="7"/>
-      <c r="K193" s="7"/>
-    </row>
-    <row r="194">
-      <c r="E194" s="7"/>
-      <c r="F194" s="7"/>
-      <c r="G194" s="7"/>
-      <c r="H194" s="7"/>
-      <c r="I194" s="7"/>
-      <c r="J194" s="7"/>
-      <c r="K194" s="7"/>
-    </row>
-    <row r="195">
-      <c r="E195" s="7"/>
-      <c r="F195" s="7"/>
-      <c r="G195" s="7"/>
-      <c r="H195" s="7"/>
-      <c r="I195" s="7"/>
-      <c r="J195" s="7"/>
-      <c r="K195" s="7"/>
-    </row>
-    <row r="196">
-      <c r="E196" s="7"/>
-      <c r="F196" s="7"/>
-      <c r="G196" s="7"/>
-      <c r="H196" s="7"/>
-      <c r="I196" s="7"/>
-      <c r="J196" s="7"/>
-      <c r="K196" s="7"/>
-    </row>
-    <row r="197">
-      <c r="E197" s="7"/>
-      <c r="F197" s="7"/>
-      <c r="G197" s="7"/>
-      <c r="H197" s="7"/>
-      <c r="I197" s="7"/>
-      <c r="J197" s="7"/>
-      <c r="K197" s="7"/>
-    </row>
-    <row r="198">
-      <c r="E198" s="7"/>
-      <c r="F198" s="7"/>
-      <c r="G198" s="7"/>
-      <c r="H198" s="7"/>
-      <c r="I198" s="7"/>
-      <c r="J198" s="7"/>
-      <c r="K198" s="7"/>
-    </row>
-    <row r="199">
-      <c r="E199" s="7"/>
-      <c r="F199" s="7"/>
-      <c r="G199" s="7"/>
-      <c r="H199" s="7"/>
-      <c r="I199" s="7"/>
-      <c r="J199" s="7"/>
-      <c r="K199" s="7"/>
-    </row>
-    <row r="200">
-      <c r="E200" s="7"/>
-      <c r="F200" s="7"/>
-      <c r="G200" s="7"/>
-      <c r="H200" s="7"/>
-      <c r="I200" s="7"/>
-      <c r="J200" s="7"/>
-      <c r="K200" s="7"/>
+      <c r="F2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:K200">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(E2))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:K200">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -35701,97 +33534,6 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
@@ -35840,7 +33582,7 @@
         <v>2.0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C2" s="4">
         <v>0.0</v>
@@ -35855,16 +33597,16 @@
         <v>50</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="N2" s="19"/>
     </row>
@@ -35873,7 +33615,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C3" s="4">
         <v>1.0</v>
@@ -35888,16 +33630,16 @@
         <v>50</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
@@ -35908,7 +33650,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C4" s="4">
         <v>0.0</v>
@@ -35923,16 +33665,16 @@
         <v>50</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
@@ -35944,7 +33686,7 @@
         <v>5.0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C5" s="4">
         <v>0.0</v>
@@ -35959,16 +33701,16 @@
         <v>50</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="N5" s="19"/>
     </row>
@@ -35977,7 +33719,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C6" s="4">
         <v>1.0</v>
@@ -35992,16 +33734,16 @@
         <v>50</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
@@ -36012,7 +33754,7 @@
         <v>7.0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C7" s="4">
         <v>0.0</v>
@@ -36027,16 +33769,16 @@
         <v>50</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
@@ -36048,7 +33790,7 @@
         <v>9.0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C8" s="4">
         <v>0.0</v>
@@ -36063,10 +33805,10 @@
         <v>50</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9">
@@ -36089,7 +33831,7 @@
         <v>50</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>54</v>
@@ -36122,7 +33864,7 @@
         <v>50</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
@@ -36152,4 +33894,2224 @@
   </hyperlinks>
   <drawing r:id="rId8"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="15.63"/>
+    <col customWidth="1" min="2" max="2" width="9.25"/>
+    <col customWidth="1" min="3" max="3" width="18.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18">
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19">
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21">
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24">
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25">
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26">
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27">
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28">
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29">
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30">
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31">
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32">
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33">
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34">
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35">
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36">
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37">
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38">
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+    </row>
+    <row r="39">
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40">
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+    </row>
+    <row r="41">
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42">
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43">
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+    </row>
+    <row r="44">
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+    </row>
+    <row r="45">
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+    </row>
+    <row r="46">
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+    </row>
+    <row r="47">
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+    </row>
+    <row r="48">
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+    </row>
+    <row r="49">
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+    </row>
+    <row r="50">
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+    </row>
+    <row r="51">
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+    </row>
+    <row r="52">
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+    </row>
+    <row r="53">
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+    </row>
+    <row r="54">
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+    </row>
+    <row r="55">
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+    </row>
+    <row r="56">
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+    </row>
+    <row r="57">
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+    </row>
+    <row r="58">
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+    </row>
+    <row r="59">
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+    </row>
+    <row r="60">
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+    </row>
+    <row r="61">
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+    </row>
+    <row r="62">
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+    </row>
+    <row r="63">
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+    </row>
+    <row r="64">
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+    </row>
+    <row r="65">
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+    </row>
+    <row r="66">
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+    </row>
+    <row r="67">
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+    </row>
+    <row r="68">
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+    </row>
+    <row r="69">
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+    </row>
+    <row r="70">
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+    </row>
+    <row r="71">
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+    </row>
+    <row r="72">
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+    </row>
+    <row r="73">
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+    </row>
+    <row r="74">
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+    </row>
+    <row r="75">
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+    </row>
+    <row r="76">
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+    </row>
+    <row r="77">
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+    </row>
+    <row r="78">
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+    </row>
+    <row r="79">
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+    </row>
+    <row r="80">
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+    </row>
+    <row r="81">
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+    </row>
+    <row r="82">
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+    </row>
+    <row r="83">
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+    </row>
+    <row r="84">
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+    </row>
+    <row r="85">
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+    </row>
+    <row r="86">
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+    </row>
+    <row r="87">
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+    </row>
+    <row r="88">
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+    </row>
+    <row r="89">
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+    </row>
+    <row r="90">
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+    </row>
+    <row r="91">
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+    </row>
+    <row r="92">
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+    </row>
+    <row r="93">
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+    </row>
+    <row r="94">
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+    </row>
+    <row r="95">
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+    </row>
+    <row r="96">
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+    </row>
+    <row r="97">
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+    </row>
+    <row r="98">
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+    </row>
+    <row r="99">
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+    </row>
+    <row r="100">
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+    </row>
+    <row r="101">
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+    </row>
+    <row r="102">
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+    </row>
+    <row r="103">
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+    </row>
+    <row r="104">
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
+    </row>
+    <row r="105">
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
+    </row>
+    <row r="106">
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="7"/>
+    </row>
+    <row r="107">
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
+    </row>
+    <row r="108">
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
+    </row>
+    <row r="109">
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
+    </row>
+    <row r="110">
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
+    </row>
+    <row r="111">
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
+    </row>
+    <row r="112">
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
+    </row>
+    <row r="113">
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="7"/>
+    </row>
+    <row r="114">
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="7"/>
+    </row>
+    <row r="115">
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
+      <c r="K115" s="7"/>
+    </row>
+    <row r="116">
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="7"/>
+    </row>
+    <row r="117">
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
+      <c r="K117" s="7"/>
+    </row>
+    <row r="118">
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
+      <c r="K118" s="7"/>
+    </row>
+    <row r="119">
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
+    </row>
+    <row r="120">
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="7"/>
+      <c r="K120" s="7"/>
+    </row>
+    <row r="121">
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="7"/>
+      <c r="J121" s="7"/>
+      <c r="K121" s="7"/>
+    </row>
+    <row r="122">
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7"/>
+      <c r="J122" s="7"/>
+      <c r="K122" s="7"/>
+    </row>
+    <row r="123">
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7"/>
+      <c r="J123" s="7"/>
+      <c r="K123" s="7"/>
+    </row>
+    <row r="124">
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="7"/>
+      <c r="J124" s="7"/>
+      <c r="K124" s="7"/>
+    </row>
+    <row r="125">
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7"/>
+      <c r="J125" s="7"/>
+      <c r="K125" s="7"/>
+    </row>
+    <row r="126">
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="7"/>
+      <c r="J126" s="7"/>
+      <c r="K126" s="7"/>
+    </row>
+    <row r="127">
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="7"/>
+      <c r="J127" s="7"/>
+      <c r="K127" s="7"/>
+    </row>
+    <row r="128">
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="7"/>
+      <c r="J128" s="7"/>
+      <c r="K128" s="7"/>
+    </row>
+    <row r="129">
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="7"/>
+      <c r="J129" s="7"/>
+      <c r="K129" s="7"/>
+    </row>
+    <row r="130">
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="7"/>
+      <c r="J130" s="7"/>
+      <c r="K130" s="7"/>
+    </row>
+    <row r="131">
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="7"/>
+      <c r="J131" s="7"/>
+      <c r="K131" s="7"/>
+    </row>
+    <row r="132">
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="7"/>
+      <c r="J132" s="7"/>
+      <c r="K132" s="7"/>
+    </row>
+    <row r="133">
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="7"/>
+      <c r="J133" s="7"/>
+      <c r="K133" s="7"/>
+    </row>
+    <row r="134">
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="7"/>
+      <c r="J134" s="7"/>
+      <c r="K134" s="7"/>
+    </row>
+    <row r="135">
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="7"/>
+      <c r="J135" s="7"/>
+      <c r="K135" s="7"/>
+    </row>
+    <row r="136">
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="7"/>
+      <c r="J136" s="7"/>
+      <c r="K136" s="7"/>
+    </row>
+    <row r="137">
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="7"/>
+      <c r="I137" s="7"/>
+      <c r="J137" s="7"/>
+      <c r="K137" s="7"/>
+    </row>
+    <row r="138">
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="7"/>
+      <c r="J138" s="7"/>
+      <c r="K138" s="7"/>
+    </row>
+    <row r="139">
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="7"/>
+      <c r="I139" s="7"/>
+      <c r="J139" s="7"/>
+      <c r="K139" s="7"/>
+    </row>
+    <row r="140">
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="7"/>
+      <c r="I140" s="7"/>
+      <c r="J140" s="7"/>
+      <c r="K140" s="7"/>
+    </row>
+    <row r="141">
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="7"/>
+      <c r="I141" s="7"/>
+      <c r="J141" s="7"/>
+      <c r="K141" s="7"/>
+    </row>
+    <row r="142">
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="7"/>
+      <c r="J142" s="7"/>
+      <c r="K142" s="7"/>
+    </row>
+    <row r="143">
+      <c r="E143" s="7"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="7"/>
+      <c r="J143" s="7"/>
+      <c r="K143" s="7"/>
+    </row>
+    <row r="144">
+      <c r="E144" s="7"/>
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="7"/>
+      <c r="I144" s="7"/>
+      <c r="J144" s="7"/>
+      <c r="K144" s="7"/>
+    </row>
+    <row r="145">
+      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="7"/>
+      <c r="I145" s="7"/>
+      <c r="J145" s="7"/>
+      <c r="K145" s="7"/>
+    </row>
+    <row r="146">
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="7"/>
+      <c r="I146" s="7"/>
+      <c r="J146" s="7"/>
+      <c r="K146" s="7"/>
+    </row>
+    <row r="147">
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="7"/>
+      <c r="J147" s="7"/>
+      <c r="K147" s="7"/>
+    </row>
+    <row r="148">
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="7"/>
+      <c r="I148" s="7"/>
+      <c r="J148" s="7"/>
+      <c r="K148" s="7"/>
+    </row>
+    <row r="149">
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="7"/>
+      <c r="I149" s="7"/>
+      <c r="J149" s="7"/>
+      <c r="K149" s="7"/>
+    </row>
+    <row r="150">
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="7"/>
+      <c r="J150" s="7"/>
+      <c r="K150" s="7"/>
+    </row>
+    <row r="151">
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
+      <c r="G151" s="7"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="7"/>
+      <c r="J151" s="7"/>
+      <c r="K151" s="7"/>
+    </row>
+    <row r="152">
+      <c r="E152" s="7"/>
+      <c r="F152" s="7"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="7"/>
+      <c r="I152" s="7"/>
+      <c r="J152" s="7"/>
+      <c r="K152" s="7"/>
+    </row>
+    <row r="153">
+      <c r="E153" s="7"/>
+      <c r="F153" s="7"/>
+      <c r="G153" s="7"/>
+      <c r="H153" s="7"/>
+      <c r="I153" s="7"/>
+      <c r="J153" s="7"/>
+      <c r="K153" s="7"/>
+    </row>
+    <row r="154">
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
+      <c r="I154" s="7"/>
+      <c r="J154" s="7"/>
+      <c r="K154" s="7"/>
+    </row>
+    <row r="155">
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="7"/>
+      <c r="J155" s="7"/>
+      <c r="K155" s="7"/>
+    </row>
+    <row r="156">
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="7"/>
+      <c r="I156" s="7"/>
+      <c r="J156" s="7"/>
+      <c r="K156" s="7"/>
+    </row>
+    <row r="157">
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="7"/>
+      <c r="I157" s="7"/>
+      <c r="J157" s="7"/>
+      <c r="K157" s="7"/>
+    </row>
+    <row r="158">
+      <c r="E158" s="7"/>
+      <c r="F158" s="7"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="7"/>
+      <c r="I158" s="7"/>
+      <c r="J158" s="7"/>
+      <c r="K158" s="7"/>
+    </row>
+    <row r="159">
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7"/>
+      <c r="I159" s="7"/>
+      <c r="J159" s="7"/>
+      <c r="K159" s="7"/>
+    </row>
+    <row r="160">
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="7"/>
+      <c r="J160" s="7"/>
+      <c r="K160" s="7"/>
+    </row>
+    <row r="161">
+      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
+      <c r="G161" s="7"/>
+      <c r="H161" s="7"/>
+      <c r="I161" s="7"/>
+      <c r="J161" s="7"/>
+      <c r="K161" s="7"/>
+    </row>
+    <row r="162">
+      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="7"/>
+      <c r="I162" s="7"/>
+      <c r="J162" s="7"/>
+      <c r="K162" s="7"/>
+    </row>
+    <row r="163">
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="7"/>
+      <c r="I163" s="7"/>
+      <c r="J163" s="7"/>
+      <c r="K163" s="7"/>
+    </row>
+    <row r="164">
+      <c r="E164" s="7"/>
+      <c r="F164" s="7"/>
+      <c r="G164" s="7"/>
+      <c r="H164" s="7"/>
+      <c r="I164" s="7"/>
+      <c r="J164" s="7"/>
+      <c r="K164" s="7"/>
+    </row>
+    <row r="165">
+      <c r="E165" s="7"/>
+      <c r="F165" s="7"/>
+      <c r="G165" s="7"/>
+      <c r="H165" s="7"/>
+      <c r="I165" s="7"/>
+      <c r="J165" s="7"/>
+      <c r="K165" s="7"/>
+    </row>
+    <row r="166">
+      <c r="E166" s="7"/>
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
+      <c r="I166" s="7"/>
+      <c r="J166" s="7"/>
+      <c r="K166" s="7"/>
+    </row>
+    <row r="167">
+      <c r="E167" s="7"/>
+      <c r="F167" s="7"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="7"/>
+      <c r="I167" s="7"/>
+      <c r="J167" s="7"/>
+      <c r="K167" s="7"/>
+    </row>
+    <row r="168">
+      <c r="E168" s="7"/>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
+      <c r="I168" s="7"/>
+      <c r="J168" s="7"/>
+      <c r="K168" s="7"/>
+    </row>
+    <row r="169">
+      <c r="E169" s="7"/>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
+      <c r="H169" s="7"/>
+      <c r="I169" s="7"/>
+      <c r="J169" s="7"/>
+      <c r="K169" s="7"/>
+    </row>
+    <row r="170">
+      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="7"/>
+      <c r="I170" s="7"/>
+      <c r="J170" s="7"/>
+      <c r="K170" s="7"/>
+    </row>
+    <row r="171">
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
+      <c r="H171" s="7"/>
+      <c r="I171" s="7"/>
+      <c r="J171" s="7"/>
+      <c r="K171" s="7"/>
+    </row>
+    <row r="172">
+      <c r="E172" s="7"/>
+      <c r="F172" s="7"/>
+      <c r="G172" s="7"/>
+      <c r="H172" s="7"/>
+      <c r="I172" s="7"/>
+      <c r="J172" s="7"/>
+      <c r="K172" s="7"/>
+    </row>
+    <row r="173">
+      <c r="E173" s="7"/>
+      <c r="F173" s="7"/>
+      <c r="G173" s="7"/>
+      <c r="H173" s="7"/>
+      <c r="I173" s="7"/>
+      <c r="J173" s="7"/>
+      <c r="K173" s="7"/>
+    </row>
+    <row r="174">
+      <c r="E174" s="7"/>
+      <c r="F174" s="7"/>
+      <c r="G174" s="7"/>
+      <c r="H174" s="7"/>
+      <c r="I174" s="7"/>
+      <c r="J174" s="7"/>
+      <c r="K174" s="7"/>
+    </row>
+    <row r="175">
+      <c r="E175" s="7"/>
+      <c r="F175" s="7"/>
+      <c r="G175" s="7"/>
+      <c r="H175" s="7"/>
+      <c r="I175" s="7"/>
+      <c r="J175" s="7"/>
+      <c r="K175" s="7"/>
+    </row>
+    <row r="176">
+      <c r="E176" s="7"/>
+      <c r="F176" s="7"/>
+      <c r="G176" s="7"/>
+      <c r="H176" s="7"/>
+      <c r="I176" s="7"/>
+      <c r="J176" s="7"/>
+      <c r="K176" s="7"/>
+    </row>
+    <row r="177">
+      <c r="E177" s="7"/>
+      <c r="F177" s="7"/>
+      <c r="G177" s="7"/>
+      <c r="H177" s="7"/>
+      <c r="I177" s="7"/>
+      <c r="J177" s="7"/>
+      <c r="K177" s="7"/>
+    </row>
+    <row r="178">
+      <c r="E178" s="7"/>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7"/>
+      <c r="H178" s="7"/>
+      <c r="I178" s="7"/>
+      <c r="J178" s="7"/>
+      <c r="K178" s="7"/>
+    </row>
+    <row r="179">
+      <c r="E179" s="7"/>
+      <c r="F179" s="7"/>
+      <c r="G179" s="7"/>
+      <c r="H179" s="7"/>
+      <c r="I179" s="7"/>
+      <c r="J179" s="7"/>
+      <c r="K179" s="7"/>
+    </row>
+    <row r="180">
+      <c r="E180" s="7"/>
+      <c r="F180" s="7"/>
+      <c r="G180" s="7"/>
+      <c r="H180" s="7"/>
+      <c r="I180" s="7"/>
+      <c r="J180" s="7"/>
+      <c r="K180" s="7"/>
+    </row>
+    <row r="181">
+      <c r="E181" s="7"/>
+      <c r="F181" s="7"/>
+      <c r="G181" s="7"/>
+      <c r="H181" s="7"/>
+      <c r="I181" s="7"/>
+      <c r="J181" s="7"/>
+      <c r="K181" s="7"/>
+    </row>
+    <row r="182">
+      <c r="E182" s="7"/>
+      <c r="F182" s="7"/>
+      <c r="G182" s="7"/>
+      <c r="H182" s="7"/>
+      <c r="I182" s="7"/>
+      <c r="J182" s="7"/>
+      <c r="K182" s="7"/>
+    </row>
+    <row r="183">
+      <c r="E183" s="7"/>
+      <c r="F183" s="7"/>
+      <c r="G183" s="7"/>
+      <c r="H183" s="7"/>
+      <c r="I183" s="7"/>
+      <c r="J183" s="7"/>
+      <c r="K183" s="7"/>
+    </row>
+    <row r="184">
+      <c r="E184" s="7"/>
+      <c r="F184" s="7"/>
+      <c r="G184" s="7"/>
+      <c r="H184" s="7"/>
+      <c r="I184" s="7"/>
+      <c r="J184" s="7"/>
+      <c r="K184" s="7"/>
+    </row>
+    <row r="185">
+      <c r="E185" s="7"/>
+      <c r="F185" s="7"/>
+      <c r="G185" s="7"/>
+      <c r="H185" s="7"/>
+      <c r="I185" s="7"/>
+      <c r="J185" s="7"/>
+      <c r="K185" s="7"/>
+    </row>
+    <row r="186">
+      <c r="E186" s="7"/>
+      <c r="F186" s="7"/>
+      <c r="G186" s="7"/>
+      <c r="H186" s="7"/>
+      <c r="I186" s="7"/>
+      <c r="J186" s="7"/>
+      <c r="K186" s="7"/>
+    </row>
+    <row r="187">
+      <c r="E187" s="7"/>
+      <c r="F187" s="7"/>
+      <c r="G187" s="7"/>
+      <c r="H187" s="7"/>
+      <c r="I187" s="7"/>
+      <c r="J187" s="7"/>
+      <c r="K187" s="7"/>
+    </row>
+    <row r="188">
+      <c r="E188" s="7"/>
+      <c r="F188" s="7"/>
+      <c r="G188" s="7"/>
+      <c r="H188" s="7"/>
+      <c r="I188" s="7"/>
+      <c r="J188" s="7"/>
+      <c r="K188" s="7"/>
+    </row>
+    <row r="189">
+      <c r="E189" s="7"/>
+      <c r="F189" s="7"/>
+      <c r="G189" s="7"/>
+      <c r="H189" s="7"/>
+      <c r="I189" s="7"/>
+      <c r="J189" s="7"/>
+      <c r="K189" s="7"/>
+    </row>
+    <row r="190">
+      <c r="E190" s="7"/>
+      <c r="F190" s="7"/>
+      <c r="G190" s="7"/>
+      <c r="H190" s="7"/>
+      <c r="I190" s="7"/>
+      <c r="J190" s="7"/>
+      <c r="K190" s="7"/>
+    </row>
+    <row r="191">
+      <c r="E191" s="7"/>
+      <c r="F191" s="7"/>
+      <c r="G191" s="7"/>
+      <c r="H191" s="7"/>
+      <c r="I191" s="7"/>
+      <c r="J191" s="7"/>
+      <c r="K191" s="7"/>
+    </row>
+    <row r="192">
+      <c r="E192" s="7"/>
+      <c r="F192" s="7"/>
+      <c r="G192" s="7"/>
+      <c r="H192" s="7"/>
+      <c r="I192" s="7"/>
+      <c r="J192" s="7"/>
+      <c r="K192" s="7"/>
+    </row>
+    <row r="193">
+      <c r="E193" s="7"/>
+      <c r="F193" s="7"/>
+      <c r="G193" s="7"/>
+      <c r="H193" s="7"/>
+      <c r="I193" s="7"/>
+      <c r="J193" s="7"/>
+      <c r="K193" s="7"/>
+    </row>
+    <row r="194">
+      <c r="E194" s="7"/>
+      <c r="F194" s="7"/>
+      <c r="G194" s="7"/>
+      <c r="H194" s="7"/>
+      <c r="I194" s="7"/>
+      <c r="J194" s="7"/>
+      <c r="K194" s="7"/>
+    </row>
+    <row r="195">
+      <c r="E195" s="7"/>
+      <c r="F195" s="7"/>
+      <c r="G195" s="7"/>
+      <c r="H195" s="7"/>
+      <c r="I195" s="7"/>
+      <c r="J195" s="7"/>
+      <c r="K195" s="7"/>
+    </row>
+    <row r="196">
+      <c r="E196" s="7"/>
+      <c r="F196" s="7"/>
+      <c r="G196" s="7"/>
+      <c r="H196" s="7"/>
+      <c r="I196" s="7"/>
+      <c r="J196" s="7"/>
+      <c r="K196" s="7"/>
+    </row>
+    <row r="197">
+      <c r="E197" s="7"/>
+      <c r="F197" s="7"/>
+      <c r="G197" s="7"/>
+      <c r="H197" s="7"/>
+      <c r="I197" s="7"/>
+      <c r="J197" s="7"/>
+      <c r="K197" s="7"/>
+    </row>
+    <row r="198">
+      <c r="E198" s="7"/>
+      <c r="F198" s="7"/>
+      <c r="G198" s="7"/>
+      <c r="H198" s="7"/>
+      <c r="I198" s="7"/>
+      <c r="J198" s="7"/>
+      <c r="K198" s="7"/>
+    </row>
+    <row r="199">
+      <c r="E199" s="7"/>
+      <c r="F199" s="7"/>
+      <c r="G199" s="7"/>
+      <c r="H199" s="7"/>
+      <c r="I199" s="7"/>
+      <c r="J199" s="7"/>
+      <c r="K199" s="7"/>
+    </row>
+    <row r="200">
+      <c r="E200" s="7"/>
+      <c r="F200" s="7"/>
+      <c r="G200" s="7"/>
+      <c r="H200" s="7"/>
+      <c r="I200" s="7"/>
+      <c r="J200" s="7"/>
+      <c r="K200" s="7"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2:K200">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(E2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:K200">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/db/DB.xlsx
+++ b/db/DB.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">areas!$A$1:$K$15</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">actividades!$A$1:$O$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">actividades!$A$1:$O$42</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="188">
   <si>
     <t>Orden de aparición</t>
   </si>
@@ -77,7 +77,7 @@
     <t>#008080</t>
   </si>
   <si>
-    <t>Comisión de obra</t>
+    <t>Comisión</t>
   </si>
   <si>
     <t>Marca del perfil ESG</t>
@@ -179,7 +179,7 @@
     <t>Congregarme</t>
   </si>
   <si>
-    <t>Hoy sí es enseñanza :3</t>
+    <t>Hoy nos vemos en la iglesia corazón. Te voy a llamar para despertarte 🙈</t>
   </si>
   <si>
     <t>Horarios y sedes IDMJI</t>
@@ -191,13 +191,16 @@
     <t>Oración y lectura</t>
   </si>
   <si>
-    <t>Hermosa llega antecitossss tú puedes, trata de leer &lt;b&gt;Así sea un versículo hoy&lt;/b&gt; &lt;3</t>
+    <t>Mi corazón hoy sí llegamos tempranito. Si me da el trabajo trato de llegar temprano después. Para eso, te levanto a las 5 para que te bañes y salgas a las 6:30 a.m. Tú puedes!</t>
   </si>
   <si>
     <t>Servicio</t>
   </si>
   <si>
     <t>Fundación</t>
+  </si>
+  <si>
+    <t>Hoy no tienes fundación, ¿verdad?</t>
   </si>
   <si>
     <t>Estructura narrativa</t>
@@ -230,19 +233,25 @@
     <t>&lt;a target="_blank" href="./img/canoa.jpg"&gt;&lt;img src="./img/canoa.jpg" alt="Remando en canoa" style="width:100%" /&gt;&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Creación de obra</t>
+    <t>Tríptico</t>
   </si>
   <si>
-    <t>¡Amor! tienes dos proyectos de creación de obra sugeridos en este momento. &lt;ul style="padding:30px;"&gt;&lt;li&gt;El tríptico hermoso&lt;/li&gt;&lt;li&gt;Obra en acuarela con dibujo anatómico del cuerpo entero&lt;/li&gt;&lt;li&gt;Una obra en acuarela con dibujo anatómico de manos&lt;/li&gt;&lt;/ul&gt;&lt;/br&gt;&lt;/br&gt;Vida &lt;b&gt;recuerda tomar timelapses de todo lo que hagas&lt;/b&gt;, tienes el tripode y tienes el bracito de mesa, úsalos. Te amooo.</t>
+    <t>Mi corazón sigue adelante con tu proyecto de tríptico. ¡¡Ya sólo te falta un cuadro!! Cuando lo termines tenemos que celebrarlo. &lt;b&gt;Para este porfa trata grabar un timelapse&lt;/b&gt;. Esta documentación va a ser importante para subir a entropía un contenido del tríptico.</t>
   </si>
   <si>
-    <t>&lt;a target="_blank" href="./img/triptico.jpg"&gt;&lt;img src="./img/triptico.jpg" alt="Tríptico en acuarela" style="width:100%" /&gt;&lt;/a&gt;</t>
+    <t>&lt;a target="_blank" href="./img/triptico2.jpg"&gt;&lt;img src="./img/triptico2.jpg" alt="Tríptico en acuarela" style="width:100%" /&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Obra dibujo anatómico</t>
+  </si>
+  <si>
+    <t>Bella cuando termines con tu pieza del tríptico sería maravilloso que hagas obra que utilice tus habilidades de dibujo anatómico en acuarela. Te dejo las dos propuestas:&lt;ul style="padding:30px;"&gt;&lt;li&gt;Una que muestre el cuerpo entero&lt;/li&gt;&lt;li&gt;Una obra en la que el protagonista sean las manos&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>Reunión estrategia de contenido orientado a ventas</t>
   </si>
   <si>
-    <t>Una vez más amor, te dejo esta historia de este muchacho que sigo hace mucho. No tiene nada que ver con ilustración pero su contenido de Instagram le ha dado para conseguir clientes como este. Me parece muy tierno porque es un chico muy sencillo y transparente, pero hace un trabajo precioso. Este reel lo vi la semanita pasada. &lt;b&gt;Agéndame corazón esta semana&lt;/b&gt; y nos pensamos una estrategia de contenido que tenga una propuesta de valor y una estrategia de funneling! Estoy pensando en tomar un curso de domestika que me mandaste y podemos aplicar las cosas. Lo voy a poner aquí para tenerlo</t>
+    <t>Preciosa, te dejo el contenido de este muchacho para que veas cómo mostrar tu trabajo en redes, y hacer call to action claros puede traerte comisión de obra. &lt;b&gt;Porfi avísame cuando lo veas para retirarlo jaja&lt;/b&gt;. Agéndame la otra semana, de una vez a Google Calendar para que hagamos una reunión de estrategia de contenido que involucre funneling. Dejo el curso que quiero tomar para también apoyarte con esto!</t>
   </si>
   <si>
     <t>&lt;a target="_blank" href="https://www.instagram.com/reel/C8Z5101COIR/?utm_source=ig_web_copy_link"&gt;&lt;img src="./img/logo.png" alt="Logo" style="width:100%" /&gt;&lt;/a&gt;</t>
@@ -257,7 +266,7 @@
     <t>¡¡ESG Course!!</t>
   </si>
   <si>
-    <t>Vida mía! a seguirle dando a este curso. Me vas contando todo lo que aprendas porfis! así puedo entender mejor tu poder :3 Cuéntamelo todo el mismo día. Mándame una notita de voz siempre recapitulando qué viste en un minutito. Te amoooooo.</t>
+    <t>¡Dale duro hermosa! No pares con este curso que va a ser evidencia importante ne tu hoja de vida. &lt;b&gt;Cuéntame todo todo lo que aprendas&lt;/b&gt; en este curso preciosa. Mientras más sepa yo de tu campo, mejor puedo gestionarte en mi red.</t>
   </si>
   <si>
     <t>&lt;a target="_blank" href="https://www.coursera.org/specializations/materiality-esg-factors"&gt;&lt;img src="./img/esg.png" alt="Captura de pantalla del curso de ESG" style="width:100%" /&gt;&lt;/a&gt;</t>
@@ -278,7 +287,7 @@
     <t>Curso Palermo</t>
   </si>
   <si>
-    <t>Este lo retomamos cuando terminemos el otro amada.</t>
+    <t>Despuecito del otro curso.</t>
   </si>
   <si>
     <t>&lt;!--a target="_blank" href="https://www.coursera.org/learn/etica-gobierno-corporativo"&gt;&lt;img src="./img/palermo.png" alt="Captura de pantalla de curso universidad e palermo en coursera." style="width:100%" /&gt;&lt;/a--&gt;</t>
@@ -287,7 +296,10 @@
     <t>Contenido - Hacerte notar</t>
   </si>
   <si>
-    <t>Amor, todo lo que vayas aprendiendo, ve anotando: &lt;/br&gt;&lt;/br&gt;1) para tu propio aprendizaje "¿Cómo esto que estoy aprendiendo aplica a Colombia/LatAm?", &lt;/br&gt;&lt;/br&gt;2) para tu contenido en LinkedIn, qué cosas te parecen interesantes de compartir.&lt;/br&gt;&lt;/br&gt;La próxima semana tratas de citarme para comenzarnos  apensar estrategia de contenido en LinkedIn.</t>
+    <t>Todo todo lo que aprendas en tu curso amada piensa en cómo aplicarlo a tu contexto en LatAm. Depronto ten una bitácora de reflexión. Todos estos análisis los podemos compartir en LinkedIn. Cuéntame todo lo que aprendas corazón. Te amoo.</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="./img/pensando.jpg"&gt;&lt;img src="./img/pensando.jpg" alt="Mujer escribiendo en libreta frente a un computador." style="width:100%" /&gt;&lt;/a&gt;</t>
   </si>
   <si>
     <t>Mapear organizaciones</t>
@@ -410,7 +422,7 @@
     <t>Lectura</t>
   </si>
   <si>
-    <t>Recuerda buscar un libro en la página de la biblioteca para cuando vayamos y que quieras pedir prestado preciosa :3</t>
+    <t>Amor mira depronto recomendados de libros que quieras leer, si quieres me puedes contar y buscamos entre los dos. Te dejo la página de la bilioteca preciosa.</t>
   </si>
   <si>
     <t>&lt;a target="_blank" href="https://biblioteca.uniandes.edu.co/"&gt;&lt;img src="./img/leer.jpg" alt="Mujer leyendo en la ventana." style="width:100%" /&gt;&lt;/a&gt;</t>
@@ -419,31 +431,31 @@
     <t>Journaling</t>
   </si>
   <si>
-    <t>Tu journal siempre es una opción corazón.</t>
+    <t>Amor escribe nuestra tarde juntos antier en tu journal :3 si quieres.</t>
   </si>
   <si>
     <t>Tiempo con mi chico</t>
   </si>
   <si>
-    <t>Tenemos pendientes muchas cosas: 1) Andresito y Anita 2) Liz! 3) Nash</t>
+    <t>Cosas pendientes: 1) Andresito y Anita 2) Liz! 3) Nash</t>
   </si>
   <si>
     <t>Ocio</t>
   </si>
   <si>
-    <t>Hoy puedes ver pelis si quieres...</t>
+    <t>Tienes tiempo.</t>
   </si>
   <si>
     <t>Baile</t>
   </si>
   <si>
-    <t>Depronto lueguito :)</t>
+    <t>Podrías revisar, lo que quieras amor.</t>
   </si>
   <si>
     <t>Arpa</t>
   </si>
   <si>
-    <t>¿Quizá una práctica express?</t>
+    <t>También se vale hacer una práctica así express. Corta pero constante.</t>
   </si>
   <si>
     <t>Salir con amigos</t>
@@ -455,7 +467,7 @@
     <t>Canto</t>
   </si>
   <si>
-    <t>Un día preciosa.</t>
+    <t>En su momento vida.</t>
   </si>
   <si>
     <t>Calcular</t>
@@ -584,9 +596,6 @@
   </si>
   <si>
     <t>Acuérdate de llenar el formulario corazón.</t>
-  </si>
-  <si>
-    <t>Comisión</t>
   </si>
 </sst>
 </file>
@@ -1047,10 +1056,10 @@
         <v>12</v>
       </c>
       <c r="E2" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F2" s="3">
         <v>0.0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>3.0</v>
       </c>
       <c r="G2" s="3">
         <v>3.0</v>
@@ -1088,7 +1097,7 @@
         <v>2.0</v>
       </c>
       <c r="G3" s="4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H3" s="4">
         <v>4.0</v>
@@ -1158,7 +1167,7 @@
         <v>0.0</v>
       </c>
       <c r="G5" s="4">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H5" s="4">
         <v>0.0</v>
@@ -1333,7 +1342,7 @@
         <v>0.0</v>
       </c>
       <c r="G10" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H10" s="4">
         <v>0.0</v>
@@ -1397,10 +1406,10 @@
         <v>28</v>
       </c>
       <c r="E12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="3">
         <v>3.0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.0</v>
       </c>
       <c r="G12" s="3">
         <v>0.0</v>
@@ -3470,7 +3479,7 @@
     </row>
     <row r="2">
       <c r="A2" s="11">
-        <f t="shared" ref="A2:A14" si="1">ABS(B2)</f>
+        <f t="shared" ref="A2:A10" si="1">ABS(B2)</f>
         <v>1</v>
       </c>
       <c r="B2" s="11">
@@ -3660,7 +3669,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="11">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>59</v>
@@ -3677,7 +3686,9 @@
       <c r="G6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="I6" s="11"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -3698,7 +3709,7 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="13"/>
     </row>
-    <row r="7">
+    <row r="7" hidden="1">
       <c r="A7" s="11">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -3707,7 +3718,7 @@
         <v>2.0</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D7" s="11">
         <v>0.0</v>
@@ -3722,16 +3733,16 @@
         <v>50</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
@@ -3750,7 +3761,7 @@
       <c r="Z7" s="13"/>
       <c r="AA7" s="13"/>
     </row>
-    <row r="8">
+    <row r="8" hidden="1">
       <c r="A8" s="11">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -3759,7 +3770,7 @@
         <v>2.0</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D8" s="11">
         <v>0.0</v>
@@ -3774,7 +3785,7 @@
         <v>50</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="11"/>
@@ -3796,7 +3807,7 @@
       <c r="Z8" s="13"/>
       <c r="AA8" s="13"/>
     </row>
-    <row r="9">
+    <row r="9" hidden="1">
       <c r="A9" s="11">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -3805,7 +3816,7 @@
         <v>3.0</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D9" s="11">
         <v>0.0</v>
@@ -3820,10 +3831,10 @@
         <v>50</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
@@ -3853,7 +3864,7 @@
         <v>4.0</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" s="11">
         <v>0.0</v>
@@ -3868,10 +3879,10 @@
         <v>50</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
@@ -3894,14 +3905,13 @@
     </row>
     <row r="11">
       <c r="A11" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B11" s="11">
         <v>4.0</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D11" s="11">
         <v>0.0</v>
@@ -3916,17 +3926,11 @@
         <v>50</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>77</v>
-      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
@@ -3946,45 +3950,41 @@
     </row>
     <row r="12">
       <c r="A12" s="11">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" ref="A12:A15" si="2">ABS(B12)</f>
+        <v>4</v>
       </c>
       <c r="B12" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D12" s="11">
         <v>0.0</v>
       </c>
       <c r="E12" s="11">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>50</v>
       </c>
       <c r="H12" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="K12" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>84</v>
-      </c>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
@@ -4002,37 +4002,45 @@
     </row>
     <row r="13">
       <c r="A13" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B13" s="11">
         <v>5.0</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D13" s="11">
         <v>0.0</v>
       </c>
       <c r="E13" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="F13" s="5" t="s">
+        <v>1.0</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>50</v>
       </c>
       <c r="H13" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="M13" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
@@ -4050,7 +4058,7 @@
     </row>
     <row r="14">
       <c r="A14" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B14" s="11">
@@ -4063,7 +4071,7 @@
         <v>0.0</v>
       </c>
       <c r="E14" s="11">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>18</v>
@@ -4074,7 +4082,9 @@
       <c r="H14" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="I14" s="11"/>
+      <c r="I14" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
@@ -4095,19 +4105,38 @@
       <c r="AA14" s="13"/>
     </row>
     <row r="15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="A15" s="11">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B15" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E15" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
@@ -4123,41 +4152,18 @@
       <c r="Z15" s="13"/>
       <c r="AA15" s="13"/>
     </row>
-    <row r="16">
-      <c r="A16" s="11">
-        <f t="shared" ref="A16:A41" si="2">ABS(B16)</f>
-        <v>6</v>
-      </c>
-      <c r="B16" s="11">
-        <v>6.0</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="E16" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>95</v>
-      </c>
+    <row r="16" hidden="1">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
@@ -4175,37 +4181,41 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="13"/>
     </row>
-    <row r="17">
+    <row r="17" hidden="1">
       <c r="A17" s="11">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" ref="A17:A42" si="3">ABS(B17)</f>
+        <v>6</v>
       </c>
       <c r="B17" s="11">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D17" s="11">
         <v>0.0</v>
       </c>
       <c r="E17" s="11">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>50</v>
       </c>
       <c r="H17" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="J17" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
+      <c r="K17" s="16" t="s">
+        <v>99</v>
+      </c>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
@@ -4223,22 +4233,22 @@
       <c r="Z17" s="13"/>
       <c r="AA17" s="13"/>
     </row>
-    <row r="18">
+    <row r="18" hidden="1">
       <c r="A18" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B18" s="11">
-        <v>-7.0</v>
+        <v>7.0</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D18" s="11">
         <v>0.0</v>
       </c>
       <c r="E18" s="11">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>16</v>
@@ -4247,9 +4257,11 @@
         <v>50</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18" s="11"/>
+        <v>101</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>102</v>
+      </c>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
@@ -4269,35 +4281,33 @@
       <c r="Z18" s="13"/>
       <c r="AA18" s="13"/>
     </row>
-    <row r="19">
+    <row r="19" hidden="1">
       <c r="A19" s="11">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="B19" s="11">
-        <v>8.0</v>
+        <v>-7.0</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D19" s="11">
         <v>0.0</v>
       </c>
       <c r="E19" s="11">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>50</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>103</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="I19" s="11"/>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
@@ -4317,16 +4327,16 @@
       <c r="Z19" s="13"/>
       <c r="AA19" s="13"/>
     </row>
-    <row r="20">
+    <row r="20" hidden="1">
       <c r="A20" s="11">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="B20" s="11">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D20" s="11">
         <v>0.0</v>
@@ -4334,17 +4344,17 @@
       <c r="E20" s="11">
         <v>1.0</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>30</v>
+      <c r="F20" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>50</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
@@ -4365,47 +4375,39 @@
       <c r="Z20" s="13"/>
       <c r="AA20" s="13"/>
     </row>
-    <row r="21">
+    <row r="21" hidden="1">
       <c r="A21" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
       <c r="B21" s="11">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D21" s="11">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E21" s="11">
         <v>1.0</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>50</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="J21" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="K21" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="M21" s="16" t="s">
-        <v>113</v>
-      </c>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
@@ -4423,20 +4425,20 @@
     </row>
     <row r="22">
       <c r="A22" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B22" s="11">
         <v>10.0</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D22" s="11">
         <v>1.0</v>
       </c>
       <c r="E22" s="11">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>32</v>
@@ -4445,19 +4447,23 @@
         <v>50</v>
       </c>
       <c r="H22" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="L22" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="J22" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
+      <c r="M22" s="16" t="s">
+        <v>117</v>
+      </c>
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
       <c r="P22" s="13"/>
@@ -4475,20 +4481,20 @@
     </row>
     <row r="23">
       <c r="A23" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B23" s="11">
         <v>10.0</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D23" s="11">
         <v>1.0</v>
       </c>
       <c r="E23" s="11">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>32</v>
@@ -4497,16 +4503,16 @@
         <v>50</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
@@ -4527,20 +4533,20 @@
     </row>
     <row r="24">
       <c r="A24" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B24" s="11">
         <v>10.0</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D24" s="11">
         <v>1.0</v>
       </c>
       <c r="E24" s="11">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>32</v>
@@ -4549,13 +4555,17 @@
         <v>50</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="J24" s="11"/>
-      <c r="K24" s="15"/>
+        <v>123</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>115</v>
+      </c>
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
@@ -4575,35 +4585,35 @@
     </row>
     <row r="25">
       <c r="A25" s="11">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="B25" s="11">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D25" s="11">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E25" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>12</v>
+        <v>4.0</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>50</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
+        <v>126</v>
+      </c>
+      <c r="J25" s="11"/>
+      <c r="K25" s="15"/>
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
@@ -4621,22 +4631,22 @@
       <c r="Z25" s="13"/>
       <c r="AA25" s="13"/>
     </row>
-    <row r="26">
+    <row r="26" hidden="1">
       <c r="A26" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B26" s="11">
         <v>11.0</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D26" s="11">
         <v>0.0</v>
       </c>
       <c r="E26" s="11">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>12</v>
@@ -4645,9 +4655,11 @@
         <v>50</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="I26" s="13"/>
+        <v>128</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
@@ -4667,30 +4679,32 @@
       <c r="Z26" s="13"/>
       <c r="AA26" s="13"/>
     </row>
-    <row r="27">
+    <row r="27" hidden="1">
       <c r="A27" s="11">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="B27" s="11">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D27" s="11">
         <v>0.0</v>
       </c>
       <c r="E27" s="11">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="13"/>
+      <c r="H27" s="11" t="s">
+        <v>131</v>
+      </c>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
@@ -4711,35 +4725,31 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="13"/>
     </row>
-    <row r="28">
+    <row r="28" hidden="1">
       <c r="A28" s="11">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="B28" s="11">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D28" s="11">
         <v>0.0</v>
       </c>
       <c r="E28" s="11">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>131</v>
-      </c>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
@@ -4761,20 +4771,20 @@
     </row>
     <row r="29">
       <c r="A29" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B29" s="11">
         <v>13.0</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D29" s="11">
         <v>0.0</v>
       </c>
       <c r="E29" s="11">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>28</v>
@@ -4783,9 +4793,11 @@
         <v>50</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="I29" s="13"/>
+        <v>134</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
@@ -4807,20 +4819,20 @@
     </row>
     <row r="30">
       <c r="A30" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B30" s="11">
         <v>13.0</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D30" s="11">
         <v>0.0</v>
       </c>
       <c r="E30" s="11">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>28</v>
@@ -4829,7 +4841,7 @@
         <v>50</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
@@ -4853,20 +4865,20 @@
     </row>
     <row r="31">
       <c r="A31" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B31" s="11">
         <v>13.0</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D31" s="11">
         <v>0.0</v>
       </c>
       <c r="E31" s="11">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>28</v>
@@ -4875,7 +4887,7 @@
         <v>50</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
@@ -4899,20 +4911,20 @@
     </row>
     <row r="32">
       <c r="A32" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B32" s="11">
         <v>13.0</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D32" s="11">
         <v>0.0</v>
       </c>
       <c r="E32" s="11">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>28</v>
@@ -4921,7 +4933,7 @@
         <v>50</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
@@ -4945,20 +4957,20 @@
     </row>
     <row r="33">
       <c r="A33" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B33" s="11">
         <v>13.0</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D33" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E33" s="11">
         <v>1.0</v>
-      </c>
-      <c r="E33" s="11">
-        <v>4.0</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>28</v>
@@ -4967,7 +4979,7 @@
         <v>50</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
@@ -4991,20 +5003,20 @@
     </row>
     <row r="34">
       <c r="A34" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B34" s="11">
         <v>13.0</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D34" s="11">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E34" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>28</v>
@@ -5013,7 +5025,7 @@
         <v>50</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
@@ -5037,20 +5049,20 @@
     </row>
     <row r="35">
       <c r="A35" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B35" s="11">
         <v>13.0</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D35" s="11">
         <v>0.0</v>
       </c>
       <c r="E35" s="11">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>28</v>
@@ -5059,7 +5071,7 @@
         <v>50</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
@@ -5083,31 +5095,31 @@
     </row>
     <row r="36">
       <c r="A36" s="11">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
       <c r="B36" s="11">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D36" s="11">
         <v>0.0</v>
       </c>
       <c r="E36" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>147</v>
+        <v>2.0</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="H36" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="I36" s="11"/>
+      <c r="I36" s="13"/>
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
@@ -5127,9 +5139,9 @@
       <c r="Z36" s="13"/>
       <c r="AA36" s="13"/>
     </row>
-    <row r="37">
+    <row r="37" hidden="1">
       <c r="A37" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B37" s="11">
@@ -5142,20 +5154,18 @@
         <v>0.0</v>
       </c>
       <c r="E37" s="11">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>152</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="I37" s="11"/>
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
@@ -5175,34 +5185,34 @@
       <c r="Z37" s="13"/>
       <c r="AA37" s="13"/>
     </row>
-    <row r="38">
+    <row r="38" hidden="1">
       <c r="A38" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B38" s="11">
         <v>14.0</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D38" s="11">
         <v>0.0</v>
       </c>
       <c r="E38" s="11">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="I38" s="17" t="s">
         <v>155</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
@@ -5223,33 +5233,41 @@
       <c r="Z38" s="13"/>
       <c r="AA38" s="13"/>
     </row>
-    <row r="39">
+    <row r="39" hidden="1">
       <c r="A39" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="11">
         <v>14.0</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D39" s="3">
+      <c r="C39" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="11">
         <v>0.0</v>
       </c>
-      <c r="E39" s="3">
-        <v>4.0</v>
+      <c r="E39" s="11">
+        <v>3.0</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="I39" s="15"/>
+        <v>152</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
       <c r="P39" s="13"/>
       <c r="Q39" s="13"/>
       <c r="R39" s="13"/>
@@ -5263,32 +5281,33 @@
       <c r="Z39" s="13"/>
       <c r="AA39" s="13"/>
     </row>
-    <row r="40">
+    <row r="40" hidden="1">
       <c r="A40" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B40" s="3">
         <v>14.0</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D40" s="3">
         <v>0.0</v>
       </c>
       <c r="E40" s="3">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>159</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="I40" s="15"/>
       <c r="P40" s="13"/>
       <c r="Q40" s="13"/>
       <c r="R40" s="13"/>
@@ -5302,31 +5321,31 @@
       <c r="Z40" s="13"/>
       <c r="AA40" s="13"/>
     </row>
-    <row r="41">
+    <row r="41" hidden="1">
       <c r="A41" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B41" s="3">
         <v>14.0</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D41" s="3">
         <v>0.0</v>
       </c>
       <c r="E41" s="3">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P41" s="13"/>
       <c r="Q41" s="13"/>
@@ -5341,22 +5360,32 @@
       <c r="Z41" s="13"/>
       <c r="AA41" s="13"/>
     </row>
-    <row r="42">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
+    <row r="42" hidden="1">
+      <c r="A42" s="11">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B42" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="P42" s="13"/>
       <c r="Q42" s="13"/>
       <c r="R42" s="13"/>
@@ -33413,20 +33442,59 @@
       <c r="Z1009" s="13"/>
       <c r="AA1009" s="13"/>
     </row>
+    <row r="1010">
+      <c r="A1010" s="13"/>
+      <c r="B1010" s="13"/>
+      <c r="C1010" s="13"/>
+      <c r="D1010" s="13"/>
+      <c r="E1010" s="13"/>
+      <c r="F1010" s="13"/>
+      <c r="G1010" s="13"/>
+      <c r="H1010" s="13"/>
+      <c r="I1010" s="13"/>
+      <c r="J1010" s="13"/>
+      <c r="K1010" s="13"/>
+      <c r="L1010" s="13"/>
+      <c r="M1010" s="13"/>
+      <c r="N1010" s="13"/>
+      <c r="O1010" s="13"/>
+      <c r="P1010" s="13"/>
+      <c r="Q1010" s="13"/>
+      <c r="R1010" s="13"/>
+      <c r="S1010" s="13"/>
+      <c r="T1010" s="13"/>
+      <c r="U1010" s="13"/>
+      <c r="V1010" s="13"/>
+      <c r="W1010" s="13"/>
+      <c r="X1010" s="13"/>
+      <c r="Y1010" s="13"/>
+      <c r="Z1010" s="13"/>
+      <c r="AA1010" s="13"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$O$41"/>
+  <autoFilter ref="$A$1:$O$42">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="13"/>
+        <filter val="1"/>
+        <filter val="4"/>
+        <filter val="5"/>
+        <filter val="10"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="K3"/>
     <hyperlink r:id="rId2" ref="K7"/>
-    <hyperlink r:id="rId3" ref="K11"/>
-    <hyperlink r:id="rId4" ref="K12"/>
-    <hyperlink r:id="rId5" ref="M12"/>
-    <hyperlink r:id="rId6" ref="K16"/>
-    <hyperlink r:id="rId7" ref="K21"/>
-    <hyperlink r:id="rId8" ref="M21"/>
-    <hyperlink r:id="rId9" ref="K22"/>
-    <hyperlink r:id="rId10" ref="K23"/>
-    <hyperlink r:id="rId11" ref="I38"/>
+    <hyperlink r:id="rId3" ref="K12"/>
+    <hyperlink r:id="rId4" ref="K13"/>
+    <hyperlink r:id="rId5" ref="M13"/>
+    <hyperlink r:id="rId6" ref="K17"/>
+    <hyperlink r:id="rId7" ref="K22"/>
+    <hyperlink r:id="rId8" ref="M22"/>
+    <hyperlink r:id="rId9" ref="K23"/>
+    <hyperlink r:id="rId10" ref="K24"/>
+    <hyperlink r:id="rId11" ref="I39"/>
   </hyperlinks>
   <drawing r:id="rId12"/>
 </worksheet>
@@ -33506,10 +33574,10 @@
         <v>50</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -33582,7 +33650,7 @@
         <v>2.0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C2" s="4">
         <v>0.0</v>
@@ -33597,16 +33665,16 @@
         <v>50</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="N2" s="19"/>
     </row>
@@ -33615,7 +33683,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C3" s="4">
         <v>1.0</v>
@@ -33630,16 +33698,16 @@
         <v>50</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
@@ -33650,7 +33718,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C4" s="4">
         <v>0.0</v>
@@ -33665,16 +33733,16 @@
         <v>50</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
@@ -33686,7 +33754,7 @@
         <v>5.0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C5" s="4">
         <v>0.0</v>
@@ -33701,16 +33769,16 @@
         <v>50</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="N5" s="19"/>
     </row>
@@ -33719,7 +33787,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C6" s="4">
         <v>1.0</v>
@@ -33734,16 +33802,16 @@
         <v>50</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
@@ -33754,7 +33822,7 @@
         <v>7.0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C7" s="4">
         <v>0.0</v>
@@ -33769,16 +33837,16 @@
         <v>50</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
@@ -33790,7 +33858,7 @@
         <v>9.0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C8" s="4">
         <v>0.0</v>
@@ -33805,10 +33873,10 @@
         <v>50</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9">
@@ -33831,7 +33899,7 @@
         <v>50</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>54</v>
@@ -33864,7 +33932,7 @@
         <v>50</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
@@ -34094,7 +34162,7 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>16</v>

--- a/db/DB.xlsx
+++ b/db/DB.xlsx
@@ -10,14 +10,14 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">areas!$A$1:$K$16</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">actividades!$A$1:$O$45</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">actividades!$A$1:$O$47</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="209">
   <si>
     <t>Orden de aparición</t>
   </si>
@@ -184,7 +184,7 @@
     <t>Congregarme</t>
   </si>
   <si>
-    <t>Corazón buenos días, hoy es enseñanza. Iniciemos con toda agradeciéndole a Dios que volviste bien después de un trabajo satisfactorio y respaldado.</t>
+    <t>Hoy sería alabanza amor. Vida tu chico está muy alejado de la iglesia por los seguimientos de la mañana en la ADRES. Tenemos que ir redireccionando para que yo pueda mejorar en esto :(</t>
   </si>
   <si>
     <t>Horarios y sedes IDMJI</t>
@@ -196,7 +196,13 @@
     <t>Oración y lectura</t>
   </si>
   <si>
-    <t>Recuerda dedicar un momento a orar bella, ya que puedes hacerlo de nuevo en voz alta.</t>
+    <t>Amor si quieres dedícale 5 minutos a una microenseñanza y oras. Sólo con eso ya estás dedicándole tiempo a Dios. Agarré un video que subieron ayer de cualquier tema. Seguro es para edificación.</t>
+  </si>
+  <si>
+    <t>Pregunta de estudio Bíblico</t>
+  </si>
+  <si>
+    <t>https://youtu.be/XvKaTcYQHvU</t>
   </si>
   <si>
     <t>Servicio</t>
@@ -235,7 +241,10 @@
     <t>Aplicar a Juan Valdez</t>
   </si>
   <si>
-    <t>¡Amada! Apliquemos a la oferta de Juan Valdez de una!</t>
+    <t>#b30000</t>
+  </si>
+  <si>
+    <t>Vida hoy hay que avanzar en la aplicación a Juan Valdez, procura avanzar un poco así como mandar la CV de PWC.</t>
   </si>
   <si>
     <t>&lt;a target="_blank" href="./img/juanvaldez.png"&gt;&lt;img src="./img/juanvaldez.png" alt="Logo de Juan Valdez" style="width:100%" /&gt;&lt;/a&gt;</t>
@@ -247,10 +256,25 @@
     <t>https://www.linkedin.com/jobs/view/3972950807</t>
   </si>
   <si>
+    <t>Enviar CV a Pwc</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>Corazón, manda hoy tu CV, yo avancé en tu perfil. Termina de ajustarlo y ojalá lo mandes en la mañana preciosa. Vida esta es una oportunidad que tú misma gestionaste! Eres una dura!!!! Te amo</t>
+  </si>
+  <si>
+    <t>Enlace al documento de CV</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1EcTL8nRZBtR6LfLpAvnZAEwEH34PWANK/edit?usp=sharing&amp;ouid=108800830001048094446&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
     <t>Atlas Renewable Energy</t>
   </si>
   <si>
-    <t>No he revisado esta convocatoria amor, pero tú la mapeaste. Muy bien! así que podemos echarle ojo.</t>
+    <t>Esta ya la puedes dejar para después pero la tenemos mapeada.</t>
   </si>
   <si>
     <t>https://www.linkedin.com/jobs/view/3968168211</t>
@@ -259,7 +283,7 @@
     <t>Tríptico</t>
   </si>
   <si>
-    <t>Mi corazón sigue adelante con tu proyecto de tríptico. ¡¡Ya sólo te falta un cuadro!! Cuando lo termines tenemos que celebrarlo. &lt;b&gt;Para este porfa trata grabar un timelapse&lt;/b&gt;. Esta documentación va a ser importante para subir a entropía un contenido del tríptico.</t>
+    <t>¿Vida tú terminaste el tríptico ya? Me parece que sigues en el tercer cuadro. Hay que celebrar cuando lo termines!</t>
   </si>
   <si>
     <t>&lt;a target="_blank" href="./img/triptico2.jpg"&gt;&lt;img src="./img/triptico2.jpg" alt="Tríptico en acuarela" style="width:100%" /&gt;&lt;/a&gt;</t>
@@ -268,13 +292,16 @@
     <t>Obra dibujo anatómico</t>
   </si>
   <si>
-    <t>Bella cuando termines con tu pieza del tríptico sería maravilloso que hagas obra que utilice tus habilidades de dibujo anatómico en acuarela. Te dejo las dos propuestas:&lt;ul style="padding:30px;"&gt;&lt;li&gt;Una que muestre el cuerpo entero&lt;/li&gt;&lt;li&gt;Una obra en la que el protagonista sean las manos&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>Vida, insisto gentilmente en que cuando termines el tríptico te embarques en hacer obra con tus habilidades de dibujo anatómico. Corazón! Podrías dedicarte a pintar seres humanos interactuando con naturaleza o animales! Te imaginas????</t>
   </si>
   <si>
-    <t>Reunión estrategia de contenido orientado a ventas</t>
+    <t>&lt;a target="_blank" href="./img/nadando.jpg"&gt;&lt;img src="./img/nadando.jpg" alt="Mujer nadando con tiburones pintura" style="width:100%" /&gt;&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Preciosa, te dejo el contenido de este muchacho para que veas cómo mostrar tu trabajo en redes, y hacer call to action claros puede traerte comisión de obra. &lt;b&gt;Porfi avísame cuando lo veas para retirarlo jaja&lt;/b&gt;. Agéndame la otra semana, de una vez a Google Calendar para que hagamos una reunión de estrategia de contenido que involucre funneling. Dejo el curso que quiero tomar para también apoyarte con esto!</t>
+    <t>Nota: instagram genera comisiones</t>
+  </si>
+  <si>
+    <t>Amor, mira el video, sí? jajaja te amo! Me avisas cuando lo veas para retirarlo. Dejo el curso que quiero tomar eventualmente para apoyarte.</t>
   </si>
   <si>
     <t>&lt;a target="_blank" href="https://www.instagram.com/reel/C8Z5101COIR/?utm_source=ig_web_copy_link"&gt;&lt;img src="./img/logo.png" alt="Logo" style="width:100%" /&gt;&lt;/a&gt;</t>
@@ -286,10 +313,13 @@
     <t>https://www.domestika.org/es/courses/3973-estrategias-de-posicionamiento-de-marca-para-creativos</t>
   </si>
   <si>
+    <t>Reunión estrategia de contenido orientado a ventas</t>
+  </si>
+  <si>
     <t>¡¡ESG Course!!</t>
   </si>
   <si>
-    <t>¡Dale duro hermosa! No pares con este curso que va a ser evidencia importante ne tu hoja de vida. &lt;b&gt;Cuéntame todo todo lo que aprendas&lt;/b&gt; en este curso preciosa. Mientras más sepa yo de tu campo, mejor puedo gestionarte en mi red.</t>
+    <t>Mi vida sigue con tu curso y me cuentas lo que vas aprendiendo. Mándame notas de voz recapitulando apenas termines sesiones porfi. Así puedo entender mejor para apoyarte.</t>
   </si>
   <si>
     <t>&lt;a target="_blank" href="https://www.coursera.org/specializations/materiality-esg-factors"&gt;&lt;img src="./img/esg.png" alt="Captura de pantalla del curso de ESG" style="width:100%" /&gt;&lt;/a&gt;</t>
@@ -319,7 +349,7 @@
     <t>Contenido - Hacerte notar</t>
   </si>
   <si>
-    <t>Todo todo lo que aprendas en tu curso amada piensa en cómo aplicarlo a tu contexto en LatAm. Depronto ten una bitácora de reflexión. Todos estos análisis los podemos compartir en LinkedIn. Cuéntame todo lo que aprendas corazón. Te amoo.</t>
+    <t>Esto sigue siendo vigente, te lo reafirmo. Todo todo lo que aprendas en tu curso amada piensa en cómo aplicarlo a tu contexto en LatAm. Depronto ten una bitácora de reflexión. Todos estos análisis los podemos compartir en LinkedIn. Cuéntame todo lo que aprendas corazón. Te amoo.</t>
   </si>
   <si>
     <t>&lt;a target="_blank" href="./img/pensando.jpg"&gt;&lt;img src="./img/pensando.jpg" alt="Mujer escribiendo en libreta frente a un computador." style="width:100%" /&gt;&lt;/a&gt;</t>
@@ -367,13 +397,13 @@
     <t>&lt;ul&gt;&lt;li&gt;Inglaterra &amp;lt;3&lt;/li&gt;&lt;li&gt;Suiza &amp;lt;3&lt;/li&gt;&lt;li&gt;Noruega*&lt;/li&gt;&lt;li&gt;Italia &amp;lt;3&lt;/li&gt;&lt;li&gt;Alemania &amp;lt;3&lt;/li&gt;&lt;li&gt;España &amp;lt;3&lt;/li&gt;&lt;li&gt;Francia&lt;/li&gt;&lt;li&gt;Canadá &amp;lt;3&lt;/li&gt;&lt;li&gt;Suencia*&lt;/li&gt;&lt;li&gt;Dinamarca*&lt;/li&gt;&lt;li&gt;Austria &amp;lt;3&lt;/li&gt;&lt;li&gt;Nueva Zelanda&lt;/li&gt;&lt;li&gt;Australia&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>Estrategia con tu chicooo</t>
+    <t>Citar a estrategia cierre de año</t>
   </si>
   <si>
-    <t>¡La semana pasada fue una semana poderosísima para tí amor! Hoy veámonos porque quiero alinear las métricas que nos permitan agregar al marco de medición un detalle: &lt;b&gt;métricas de consistencia para que puedas visualizar semanas super podedoras como la semana pasada&lt;/b&gt; y las &lt;b&gt;métricas de resultado como las que tenemos&lt;/b&gt;&lt;/br&gt;&lt;/br&gt;Si quieres le quitamos 2 horas a proyectos y le dedicamos a esto en la tardecita. Te amooo.&lt;/br&gt;</t>
+    <t>¡Amor! de una vez cítame por favor para que hagamos una sesión de estrategia de mitad de año, que dure depronto 3 horas. La idea es que sea presencial y la hagamos en un cafecito :3 Aquí vamos a revisar los meses pasados, ver nuestros avances y vamos a ajustar el curso para priorizar las metas que queremos chulear a final de año. Así le vamos a sacar el máximo provecho a estos meses. Te amooo!</t>
   </si>
   <si>
-    <t>&lt;/br&gt; Nota para alfred: se me ocurre algo sencillo como un mapita de calor con el número de bloques que has dedicado a cada actividad desde hace rato.</t>
+    <t>&lt;a target="_blank" href="./img/meeting.jpg"&gt;&lt;img src="./img/meeting.jpg" alt="Mujer y hombre tomando café." style="width:100%" /&gt;&lt;/a&gt;</t>
   </si>
   <si>
     <t>Configurar colores</t>
@@ -424,19 +454,19 @@
     <t>&lt;a target="_blank" href="./img/board.png"&gt;&lt;img src="./img/board.png" alt="Captura de pantalla de baord de areas" style="width:100%" /&gt;&lt;/a&gt; &lt;/br&gt;&lt;/br&gt; &lt;a target="_blank" href="./img/board1.png"&gt;&lt;img src="./img/board1.png" alt="Captura de pantalla de baord de areas" style="width:100%" /&gt;&lt;/br&gt;&lt;/br&gt;&lt;a target="_blank" href="./img/board2.png"&gt;&lt;img src="./img/board2.png" alt="Captura de pantalla de baord de areas" style="width:100%" /&gt;&lt;/br&gt;&lt;/br&gt;&lt;a target="_blank" href="./img/board3.png"&gt;&lt;img src="./img/board3.png" alt="Captura de pantalla de baord de areas" style="width:100%" /&gt;&lt;/br&gt;&lt;/br&gt;&lt;a target="_blank" href="./img/board4.png"&gt;&lt;img src="./img/board4.png" alt="Captura de pantalla de baord de areas" style="width:100%" /&gt;&lt;/br&gt;&lt;/br&gt;</t>
   </si>
   <si>
-    <t>Bienvendia</t>
+    <t>Día intenso pero emocionante</t>
   </si>
   <si>
-    <t>¡Buenos días amada! Bienvenida a casita. Te extrañé montones, me hiciste una falta tremenda, pero ayer pasé un día maravilloso contigo. Organicé el resto de la semana de forma que tengas 3 días seguidos para aplicar a Juan Valdez, sin descuidar tus actividades de Entropía cromática. Te amo y estoy muy agradecido de que estés en mi vida.</t>
+    <t>¡Amada buenos días! Hoy es un día que tiene una gran dedicación a aplicar a Juan Valdez y PwC. Si puedes dedicarle un rato a tu curso de ESG sería maravilloso. Finalmente te dejé abierto el espacio para pintura porque sé que querías hacerlo. Considera de todo esto qué quieres hacer. Si eres juiciosa con los tiempos alcanzas a dedicarle tiempo a todo, pero con calmita.&lt;/br&gt;&lt;/br&gt;Te amo corazón! Hoy voy a la ADRES, entonces voy a estar lejitos pero estamos hablando por teléfono. Ya te extrañooooo!</t>
   </si>
   <si>
     <t>Gym</t>
   </si>
   <si>
-    <t>Te voy a llamar :3 Por si quieres ir al gym.</t>
+    <t>Si te levantas orgánicamente temprano podrías ir al gym amor.</t>
   </si>
   <si>
-    <t>&lt;a target="_blank" href="./img/gym.jpg"&gt;&lt;img src="./img/gym.jpg" alt="Mujer tomando una pesa del gimnasio" style="width:100%" /&gt;&lt;/a&gt;&lt;/br&gt;</t>
+    <t>&lt;a target="_blank" href="./img/gym2.jpg"&gt;&lt;img src="./img/gym2.jpg" alt="Gimnasio" style="width:100%" /&gt;&lt;/a&gt;&lt;/br&gt;</t>
   </si>
   <si>
     <t>Natación</t>
@@ -1163,7 +1193,7 @@
         <v>3.0</v>
       </c>
       <c r="H4" s="4">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="I4" s="4">
         <v>2.0</v>
@@ -1303,7 +1333,7 @@
         <v>0.0</v>
       </c>
       <c r="H8" s="4">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I8" s="4">
         <v>0.0</v>
@@ -1478,7 +1508,7 @@
         <v>0.0</v>
       </c>
       <c r="H13" s="3">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I13" s="3">
         <v>0.0</v>
@@ -3673,8 +3703,12 @@
         <v>59</v>
       </c>
       <c r="I4" s="13"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="14"/>
+      <c r="J4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
@@ -3701,7 +3735,7 @@
         <v>-1.0</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D5" s="11">
         <v>1.0</v>
@@ -3745,7 +3779,7 @@
         <v>-1.0</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D6" s="11">
         <v>0.0</v>
@@ -3760,7 +3794,7 @@
         <v>52</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="13"/>
@@ -3782,7 +3816,7 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="13"/>
     </row>
-    <row r="7">
+    <row r="7" hidden="1">
       <c r="A7" s="11">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -3791,7 +3825,7 @@
         <v>-2.0</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D7" s="11">
         <v>0.0</v>
@@ -3806,16 +3840,16 @@
         <v>52</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
@@ -3834,7 +3868,7 @@
       <c r="Z7" s="13"/>
       <c r="AA7" s="13"/>
     </row>
-    <row r="8">
+    <row r="8" hidden="1">
       <c r="A8" s="11">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -3843,7 +3877,7 @@
         <v>2.0</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D8" s="11">
         <v>0.0</v>
@@ -3858,10 +3892,10 @@
         <v>52</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
@@ -3891,7 +3925,7 @@
         <v>3.0</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D9" s="11">
         <v>0.0</v>
@@ -3900,22 +3934,22 @@
         <v>1.0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
@@ -3942,7 +3976,7 @@
         <v>3.0</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D10" s="11">
         <v>0.0</v>
@@ -3951,20 +3985,20 @@
         <v>2.0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="11" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
@@ -3983,37 +4017,38 @@
       <c r="Z10" s="13"/>
       <c r="AA10" s="13"/>
     </row>
-    <row r="11" hidden="1">
+    <row r="11">
       <c r="A11" s="11">
-        <f>ABS(B11)</f>
-        <v>4</v>
+        <v>3.0</v>
       </c>
       <c r="B11" s="11">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D11" s="11">
         <v>0.0</v>
       </c>
       <c r="E11" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>18</v>
+        <v>2.0</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>52</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+        <v>85</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>86</v>
+      </c>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
@@ -4031,21 +4066,22 @@
       <c r="Z11" s="13"/>
       <c r="AA11" s="13"/>
     </row>
-    <row r="12" hidden="1">
+    <row r="12">
       <c r="A12" s="11">
-        <v>4.0</v>
+        <f>ABS(B12)</f>
+        <v>4</v>
       </c>
       <c r="B12" s="11">
         <v>4.0</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D12" s="11">
         <v>0.0</v>
       </c>
       <c r="E12" s="11">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>18</v>
@@ -4054,9 +4090,11 @@
         <v>52</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="I12" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
@@ -4076,22 +4114,21 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="13"/>
     </row>
-    <row r="13" hidden="1">
+    <row r="13">
       <c r="A13" s="11">
-        <f t="shared" ref="A13:A16" si="2">ABS(B13)</f>
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B13" s="11">
         <v>4.0</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D13" s="11">
         <v>0.0</v>
       </c>
       <c r="E13" s="11">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>18</v>
@@ -4100,17 +4137,13 @@
         <v>52</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>88</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
@@ -4128,47 +4161,43 @@
       <c r="Z13" s="13"/>
       <c r="AA13" s="13"/>
     </row>
-    <row r="14" hidden="1">
+    <row r="14">
       <c r="A14" s="11">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f>ABS(B14)</f>
+        <v>4</v>
       </c>
       <c r="B14" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D14" s="11">
         <v>0.0</v>
       </c>
       <c r="E14" s="11">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>52</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>95</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
@@ -4184,39 +4213,34 @@
       <c r="Z14" s="13"/>
       <c r="AA14" s="13"/>
     </row>
-    <row r="15" hidden="1">
+    <row r="15">
       <c r="A15" s="11">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4.0</v>
       </c>
       <c r="B15" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D15" s="11">
         <v>0.0</v>
       </c>
       <c r="E15" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>20</v>
+        <v>3.0</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>98</v>
-      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
@@ -4232,9 +4256,9 @@
       <c r="Z15" s="13"/>
       <c r="AA15" s="13"/>
     </row>
-    <row r="16" hidden="1">
+    <row r="16">
       <c r="A16" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A16:A18" si="2">ABS(B16)</f>
         <v>5</v>
       </c>
       <c r="B16" s="11">
@@ -4249,7 +4273,7 @@
       <c r="E16" s="11">
         <v>1.0</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="12" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="11" t="s">
@@ -4261,10 +4285,18 @@
       <c r="I16" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
+      <c r="J16" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>105</v>
+      </c>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
       <c r="P16" s="13"/>
@@ -4280,20 +4312,39 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="13"/>
     </row>
-    <row r="17" hidden="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+    <row r="17">
+      <c r="A17" s="11">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B17" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E17" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>108</v>
+      </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
@@ -4309,43 +4360,39 @@
       <c r="Z17" s="13"/>
       <c r="AA17" s="13"/>
     </row>
-    <row r="18" hidden="1">
+    <row r="18">
       <c r="A18" s="11">
-        <f t="shared" ref="A18:A26" si="3">ABS(B18)</f>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="B18" s="11">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D18" s="11">
         <v>0.0</v>
       </c>
       <c r="E18" s="11">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>52</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
+        <v>111</v>
+      </c>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
@@ -4362,36 +4409,17 @@
       <c r="AA18" s="13"/>
     </row>
     <row r="19" hidden="1">
-      <c r="A19" s="11">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="B19" s="11">
-        <v>7.0</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="E19" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
@@ -4411,14 +4439,14 @@
     </row>
     <row r="20" hidden="1">
       <c r="A20" s="11">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f t="shared" ref="A20:A28" si="3">ABS(B20)</f>
+        <v>6</v>
       </c>
       <c r="B20" s="11">
-        <v>-7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D20" s="11">
         <v>0.0</v>
@@ -4427,17 +4455,23 @@
         <v>2.0</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>52</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
+        <v>114</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>117</v>
+      </c>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
@@ -4455,16 +4489,16 @@
       <c r="Z20" s="13"/>
       <c r="AA20" s="13"/>
     </row>
-    <row r="21">
+    <row r="21" hidden="1">
       <c r="A21" s="11">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="11">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D21" s="11">
         <v>0.0</v>
@@ -4473,16 +4507,16 @@
         <v>1.0</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>52</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
@@ -4506,32 +4540,30 @@
     <row r="22" hidden="1">
       <c r="A22" s="11">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B22" s="11">
-        <v>9.0</v>
+        <v>-7.0</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D22" s="11">
         <v>0.0</v>
       </c>
       <c r="E22" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>32</v>
+        <v>2.0</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>52</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>118</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="I22" s="11"/>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
@@ -4551,47 +4583,39 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="13"/>
     </row>
-    <row r="23">
+    <row r="23" hidden="1">
       <c r="A23" s="11">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B23" s="11">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D23" s="11">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E23" s="11">
         <v>1.0</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>34</v>
+      <c r="F23" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>52</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="K23" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="M23" s="16" t="s">
         <v>125</v>
       </c>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
       <c r="P23" s="13"/>
@@ -4610,22 +4634,22 @@
     <row r="24">
       <c r="A24" s="11">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" s="11">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>126</v>
       </c>
       <c r="D24" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E24" s="11">
         <v>1.0</v>
       </c>
-      <c r="E24" s="11">
-        <v>2.0</v>
-      </c>
       <c r="F24" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>52</v>
@@ -4636,12 +4660,8 @@
       <c r="I24" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="J24" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="K24" s="17" t="s">
-        <v>123</v>
-      </c>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
@@ -4674,7 +4694,7 @@
         <v>1.0</v>
       </c>
       <c r="E25" s="11">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>34</v>
@@ -4689,13 +4709,17 @@
         <v>131</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K25" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+        <v>133</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>135</v>
+      </c>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
       <c r="P25" s="13"/>
@@ -4720,13 +4744,13 @@
         <v>10.0</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D26" s="11">
         <v>1.0</v>
       </c>
       <c r="E26" s="11">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>34</v>
@@ -4735,13 +4759,17 @@
         <v>52</v>
       </c>
       <c r="H26" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="K26" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="I26" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="J26" s="11"/>
-      <c r="K26" s="15"/>
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
@@ -4761,32 +4789,39 @@
     </row>
     <row r="27">
       <c r="A27" s="11">
-        <v>15.0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="B27" s="11">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D27" s="11">
         <v>1.0</v>
       </c>
       <c r="E27" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>12</v>
+        <v>3.0</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>52</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="15"/>
+        <v>140</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>133</v>
+      </c>
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
@@ -4804,37 +4839,37 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="13"/>
     </row>
-    <row r="28" hidden="1">
+    <row r="28">
       <c r="A28" s="11">
-        <f t="shared" ref="A28:A38" si="4">ABS(B28)</f>
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="B28" s="11">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D28" s="11">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E28" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>14</v>
+        <v>4.0</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>52</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
+        <v>144</v>
+      </c>
+      <c r="J28" s="11"/>
+      <c r="K28" s="15"/>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
@@ -4852,35 +4887,34 @@
       <c r="Z28" s="13"/>
       <c r="AA28" s="13"/>
     </row>
-    <row r="29" hidden="1">
+    <row r="29">
       <c r="A29" s="11">
-        <f t="shared" si="4"/>
-        <v>11</v>
+        <v>15.0</v>
       </c>
       <c r="B29" s="11">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D29" s="11">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E29" s="11">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>52</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
+        <v>146</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="15"/>
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
@@ -4898,16 +4932,16 @@
       <c r="Z29" s="13"/>
       <c r="AA29" s="13"/>
     </row>
-    <row r="30" hidden="1">
+    <row r="30">
       <c r="A30" s="11">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f t="shared" ref="A30:A40" si="4">ABS(B30)</f>
+        <v>11</v>
       </c>
       <c r="B30" s="11">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D30" s="11">
         <v>0.0</v>
@@ -4916,13 +4950,17 @@
         <v>1.0</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
+      <c r="H30" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>149</v>
+      </c>
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
@@ -4942,35 +4980,33 @@
       <c r="Z30" s="13"/>
       <c r="AA30" s="13"/>
     </row>
-    <row r="31" hidden="1">
+    <row r="31">
       <c r="A31" s="11">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B31" s="11">
-        <v>13.0</v>
+        <v>-11.0</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D31" s="11">
         <v>0.0</v>
       </c>
       <c r="E31" s="11">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>52</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>145</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="I31" s="13"/>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
@@ -4993,29 +5029,27 @@
     <row r="32" hidden="1">
       <c r="A32" s="11">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" s="11">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D32" s="11">
         <v>0.0</v>
       </c>
       <c r="E32" s="11">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H32" s="11" t="s">
-        <v>147</v>
-      </c>
+      <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
@@ -5045,13 +5079,13 @@
         <v>13.0</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D33" s="11">
         <v>0.0</v>
       </c>
       <c r="E33" s="11">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>30</v>
@@ -5060,9 +5094,11 @@
         <v>52</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="I33" s="13"/>
+        <v>154</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
@@ -5091,13 +5127,13 @@
         <v>13.0</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D34" s="11">
         <v>0.0</v>
       </c>
       <c r="E34" s="11">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>30</v>
@@ -5106,7 +5142,7 @@
         <v>52</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
@@ -5137,13 +5173,13 @@
         <v>13.0</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D35" s="11">
         <v>0.0</v>
       </c>
       <c r="E35" s="11">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>30</v>
@@ -5152,7 +5188,7 @@
         <v>52</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
@@ -5183,13 +5219,13 @@
         <v>13.0</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D36" s="11">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E36" s="11">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>30</v>
@@ -5198,7 +5234,7 @@
         <v>52</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
@@ -5229,13 +5265,13 @@
         <v>13.0</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D37" s="11">
         <v>0.0</v>
       </c>
       <c r="E37" s="11">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>30</v>
@@ -5244,7 +5280,7 @@
         <v>52</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
@@ -5275,13 +5311,13 @@
         <v>13.0</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D38" s="11">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E38" s="11">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>30</v>
@@ -5290,7 +5326,7 @@
         <v>52</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="I38" s="13"/>
       <c r="J38" s="13"/>
@@ -5314,32 +5350,31 @@
     </row>
     <row r="39" hidden="1">
       <c r="A39" s="11">
-        <v>14.0</v>
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
       <c r="B39" s="11">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D39" s="11">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E39" s="11">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>52</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>162</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="I39" s="13"/>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
@@ -5361,31 +5396,31 @@
     </row>
     <row r="40" hidden="1">
       <c r="A40" s="11">
-        <f t="shared" ref="A40:A45" si="5">ABS(B40)</f>
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
       <c r="B40" s="11">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D40" s="11">
         <v>0.0</v>
       </c>
       <c r="E40" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>164</v>
+        <v>2.0</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="I40" s="11"/>
+        <v>169</v>
+      </c>
+      <c r="I40" s="13"/>
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
@@ -5407,32 +5442,31 @@
     </row>
     <row r="41" hidden="1">
       <c r="A41" s="11">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="B41" s="11">
         <v>14.0</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D41" s="11">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E41" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>164</v>
+        <v>1.0</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
@@ -5455,33 +5489,31 @@
     </row>
     <row r="42" hidden="1">
       <c r="A42" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A42:A47" si="5">ABS(B42)</f>
         <v>14</v>
       </c>
       <c r="B42" s="11">
         <v>14.0</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D42" s="11">
         <v>0.0</v>
       </c>
       <c r="E42" s="11">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="I42" s="17" t="s">
-        <v>172</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="I42" s="11"/>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
       <c r="L42" s="13"/>
@@ -5506,28 +5538,36 @@
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="11">
         <v>14.0</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D43" s="3">
+      <c r="C43" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" s="11">
         <v>0.0</v>
       </c>
-      <c r="E43" s="3">
-        <v>4.0</v>
+      <c r="E43" s="11">
+        <v>2.0</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="I43" s="15"/>
+        <v>175</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
       <c r="P43" s="13"/>
       <c r="Q43" s="13"/>
       <c r="R43" s="13"/>
@@ -5546,27 +5586,36 @@
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="11">
         <v>14.0</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D44" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E44" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G44" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D44" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>176</v>
-      </c>
+      <c r="H44" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
       <c r="P44" s="13"/>
       <c r="Q44" s="13"/>
       <c r="R44" s="13"/>
@@ -5589,23 +5638,24 @@
         <v>14.0</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D45" s="3">
         <v>0.0</v>
       </c>
       <c r="E45" s="3">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>178</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="I45" s="15"/>
       <c r="P45" s="13"/>
       <c r="Q45" s="13"/>
       <c r="R45" s="13"/>
@@ -5619,22 +5669,32 @@
       <c r="Z45" s="13"/>
       <c r="AA45" s="13"/>
     </row>
-    <row r="46">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
+    <row r="46" hidden="1">
+      <c r="A46" s="11">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="B46" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="P46" s="13"/>
       <c r="Q46" s="13"/>
       <c r="R46" s="13"/>
@@ -5648,22 +5708,32 @@
       <c r="Z46" s="13"/>
       <c r="AA46" s="13"/>
     </row>
-    <row r="47">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
+    <row r="47" hidden="1">
+      <c r="A47" s="11">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="B47" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="P47" s="13"/>
       <c r="Q47" s="13"/>
       <c r="R47" s="13"/>
@@ -33691,40 +33761,102 @@
       <c r="Z1013" s="13"/>
       <c r="AA1013" s="13"/>
     </row>
+    <row r="1014">
+      <c r="A1014" s="13"/>
+      <c r="B1014" s="13"/>
+      <c r="C1014" s="13"/>
+      <c r="D1014" s="13"/>
+      <c r="E1014" s="13"/>
+      <c r="F1014" s="13"/>
+      <c r="G1014" s="13"/>
+      <c r="H1014" s="13"/>
+      <c r="I1014" s="13"/>
+      <c r="J1014" s="13"/>
+      <c r="K1014" s="13"/>
+      <c r="L1014" s="13"/>
+      <c r="M1014" s="13"/>
+      <c r="N1014" s="13"/>
+      <c r="O1014" s="13"/>
+      <c r="P1014" s="13"/>
+      <c r="Q1014" s="13"/>
+      <c r="R1014" s="13"/>
+      <c r="S1014" s="13"/>
+      <c r="T1014" s="13"/>
+      <c r="U1014" s="13"/>
+      <c r="V1014" s="13"/>
+      <c r="W1014" s="13"/>
+      <c r="X1014" s="13"/>
+      <c r="Y1014" s="13"/>
+      <c r="Z1014" s="13"/>
+      <c r="AA1014" s="13"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="13"/>
+      <c r="B1015" s="13"/>
+      <c r="C1015" s="13"/>
+      <c r="D1015" s="13"/>
+      <c r="E1015" s="13"/>
+      <c r="F1015" s="13"/>
+      <c r="G1015" s="13"/>
+      <c r="H1015" s="13"/>
+      <c r="I1015" s="13"/>
+      <c r="J1015" s="13"/>
+      <c r="K1015" s="13"/>
+      <c r="L1015" s="13"/>
+      <c r="M1015" s="13"/>
+      <c r="N1015" s="13"/>
+      <c r="O1015" s="13"/>
+      <c r="P1015" s="13"/>
+      <c r="Q1015" s="13"/>
+      <c r="R1015" s="13"/>
+      <c r="S1015" s="13"/>
+      <c r="T1015" s="13"/>
+      <c r="U1015" s="13"/>
+      <c r="V1015" s="13"/>
+      <c r="W1015" s="13"/>
+      <c r="X1015" s="13"/>
+      <c r="Y1015" s="13"/>
+      <c r="Z1015" s="13"/>
+      <c r="AA1015" s="13"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$O$45">
+  <autoFilter ref="$A$1:$O$47">
     <filterColumn colId="0">
       <filters>
+        <filter val="11"/>
         <filter val="15"/>
         <filter val="1"/>
-        <filter val="2"/>
         <filter val="3"/>
-        <filter val="8"/>
+        <filter val="4"/>
+        <filter val="5"/>
+        <filter val="9"/>
         <filter val="10"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="F27">
+  <conditionalFormatting sqref="F29">
     <cfRule type="containsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(F27))=0</formula>
+      <formula>LEN(TRIM(F29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="K3"/>
-    <hyperlink r:id="rId2" ref="K7"/>
-    <hyperlink r:id="rId3" ref="K9"/>
-    <hyperlink r:id="rId4" ref="K10"/>
-    <hyperlink r:id="rId5" ref="K13"/>
-    <hyperlink r:id="rId6" ref="K14"/>
-    <hyperlink r:id="rId7" ref="M14"/>
-    <hyperlink r:id="rId8" ref="K18"/>
-    <hyperlink r:id="rId9" ref="K23"/>
-    <hyperlink r:id="rId10" ref="M23"/>
-    <hyperlink r:id="rId11" ref="K24"/>
-    <hyperlink r:id="rId12" ref="K25"/>
-    <hyperlink r:id="rId13" ref="I42"/>
+    <hyperlink r:id="rId2" ref="K4"/>
+    <hyperlink r:id="rId3" ref="K7"/>
+    <hyperlink r:id="rId4" ref="K9"/>
+    <hyperlink r:id="rId5" ref="K10"/>
+    <hyperlink r:id="rId6" ref="K11"/>
+    <hyperlink r:id="rId7" ref="K14"/>
+    <hyperlink r:id="rId8" ref="K16"/>
+    <hyperlink r:id="rId9" ref="M16"/>
+    <hyperlink r:id="rId10" ref="K20"/>
+    <hyperlink r:id="rId11" ref="K25"/>
+    <hyperlink r:id="rId12" ref="M25"/>
+    <hyperlink r:id="rId13" ref="K26"/>
+    <hyperlink r:id="rId14" ref="K27"/>
+    <hyperlink r:id="rId15" ref="I44"/>
   </hyperlinks>
-  <drawing r:id="rId14"/>
+  <drawing r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -33787,7 +33919,7 @@
         <v>2.0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C2" s="4">
         <v>0.0</v>
@@ -33802,16 +33934,16 @@
         <v>52</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="N2" s="19"/>
     </row>
@@ -33820,7 +33952,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C3" s="4">
         <v>1.0</v>
@@ -33835,16 +33967,16 @@
         <v>52</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
@@ -33855,7 +33987,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C4" s="4">
         <v>0.0</v>
@@ -33870,16 +34002,16 @@
         <v>52</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
@@ -33891,7 +34023,7 @@
         <v>5.0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C5" s="4">
         <v>0.0</v>
@@ -33906,16 +34038,16 @@
         <v>52</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="N5" s="19"/>
     </row>
@@ -33924,7 +34056,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C6" s="4">
         <v>1.0</v>
@@ -33939,16 +34071,16 @@
         <v>52</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
@@ -33959,7 +34091,7 @@
         <v>7.0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C7" s="4">
         <v>0.0</v>
@@ -33974,16 +34106,16 @@
         <v>52</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
@@ -33995,7 +34127,7 @@
         <v>9.0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C8" s="4">
         <v>0.0</v>
@@ -34010,10 +34142,10 @@
         <v>52</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9">
@@ -34036,7 +34168,7 @@
         <v>52</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>56</v>
@@ -34054,7 +34186,7 @@
         <v>1.0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C10" s="4">
         <v>0.0</v>
@@ -34069,7 +34201,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>

--- a/db/DB.xlsx
+++ b/db/DB.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">areas!$A$1:$K$18</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">actividades!$A$1:$O$58</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">actividades!$A$1:$O$60</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="280">
   <si>
     <t>Orden de aparición</t>
   </si>
@@ -130,7 +130,7 @@
     <t>Transporte</t>
   </si>
   <si>
-    <t>#00e6ac</t>
+    <t>#818c89</t>
   </si>
   <si>
     <t>Extra</t>
@@ -145,7 +145,7 @@
     <t>#2a0080</t>
   </si>
   <si>
-    <t>Marco estratégico</t>
+    <t>Marco estratégco</t>
   </si>
   <si>
     <t>#009999</t>
@@ -289,7 +289,7 @@
     <t>white</t>
   </si>
   <si>
-    <t>Corazón, hoy estás haciendo el almuerzo y todo, está bien que inicies la otra semanita.</t>
+    <t>La otra semanita empezamos si quieres porque estás cocinando y todo esta semana. Ta perfecto.</t>
   </si>
   <si>
     <t>Enseñanza</t>
@@ -298,10 +298,16 @@
     <t>Vida, hoy nos vemos en la iglesia. No se dónde voy a almorzar jaja pero voy a tratar de ir a la i.</t>
   </si>
   <si>
+    <t>Alabanza</t>
+  </si>
+  <si>
+    <t>Tu novio va a ir a alabanza hoy a las 7 de la noche bella. Aunque estoy atrasado con Vitruvio :( voy a hacer lo más posible. Pero ve tú a la hora que prefieras amor.</t>
+  </si>
+  <si>
     <t>Oración y lectura</t>
   </si>
   <si>
-    <t>Amor, hoy lleguemos a las 4:30 a la iglesia y los dos oramos. Te parece? Pero no se cómo hacer porque me toca devolverme a casa. Bueno, ahí vemos.</t>
+    <t>Amor haz el esfuerzo por ver un short de estudio bíblico y horar 10 minutos bella. vamos, tú puedes.</t>
   </si>
   <si>
     <t>Libro: provisional</t>
@@ -350,6 +356,36 @@
   </si>
   <si>
     <t>Corazón buenos días! Hoy tenemos cosas emocionantes que hacer. Habrá tiempo para que trabajes en el libro y tiempo para que perfilemos un poco tus actividades en sostenibilidad. Si me lo permites hoy te voy a regar en ese tema. No vayas al gym esta semanita, comienza con toda la otra porque estás cocinando cositas y todo. Comencemos a retomar el hábito de dormirnos temprano, tipo 10 para que te puedas levantar a las 6 amor. Te amooo con todas mis fuerzas.</t>
+  </si>
+  <si>
+    <t>Sigamos remando</t>
+  </si>
+  <si>
+    <t>Vida mía, buenos días, estamos retomando actividades con calmita. Ora mucho para que nuestro Dios te de ciencia en tus labores y respalde tus esfuerzos preciosa. Vamos con calma, disfruta el camino y dedícale tiempo a cada cosa. Amada, si tú quieres dedica el tiempo que ibas a dedicar a ir al centro, a pintar las ilustraciones. Trata de avanzar mucho, ya la otra semana comenzamos a darle a los procesos artísticos además del libro infantil, entonces trata de seguir cerrando ilustraciones. Te amo con todas las fuerzas de mi corazón.</t>
+  </si>
+  <si>
+    <t>Mapear de nuevo</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Vida, tú me mandaste un par de convocatorias, volvamos a mapear organizadamente para comenzar a aplicar la siguiente semana. Dedícale un ratito, con calmita. Vamos adelante hermosa. Remando con calma.</t>
+  </si>
+  <si>
+    <t>Artistas inspiradores</t>
+  </si>
+  <si>
+    <t>Amor, para posicionarnos primero tenemos que hacer la proyección de artista que no hemos hecho porque acabamos de comenzar :3 Te propondría que podamos identificar artistas que son referentes para tí. Aspiracionales. Para ver después su trayectoria. Te recomiendo que veas &lt;u&gt;tanto artistas más académicos&lt;/u&gt;que pueden O NO hablar sobre temas particulares, pueden O NO proyectarse a mercado de lujo, pueden O NO querer detonar algún diálogo o reflexión... como también veas &lt;u&gt;artistas más comerciales&lt;/u&gt; que tienen una marca establecida y venden productos de arte al mercado más amplio, de vez en cuando los llaman para hacer murales, etc.&lt;/br&gt;&lt;/br&gt;Para los más académicos te recomiendo @liarteconarte en instagram, ella es muy top porque describe en voz alta.&lt;/br&gt;&lt;/br&gt;Para los más comerciales te puedes fijar en instagram también hermosa, toca buscar referentes! Lo importante es comenzar a exponernos a este mundo.&lt;/br&gt;&lt;/br&gt;Es MUY IMPORTANTE que cuando veas esto sepas que &lt;u&gt;la obra de ningún artista se parece a la obra de otro artista&lt;/u&gt;. Tu obra es bellísima y tiene un mercado. No tienes que comprometerla y modificarla para &lt;u&gt;encajar&lt;/u&gt; en un mercado. NO. Este es un ejercicio de &lt;u&gt;reconocer la diversidad en el arte&lt;/u&gt;. ¡Te amo! y estoy orgulloso de tí siempre!</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="https://www.instagram.com/liarteconarte/"&gt;&lt;img src="./img/liarte.png" alt="Feed de Instagram" style="width:100%" /&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>¿Coger bus a la U?</t>
+  </si>
+  <si>
+    <t>Hoy tienes presupuestadas 3 horitas para mobilizarte en transporte amor, por si quisieras acompañar a tu novio a la U. Doy clase de 2:00 a 3:30. Y me conecto a apoyar a un estudiante de 4 a 5. Luevo vuelvo a la iglesia para ir a alabanza a las 7. Yo se que no agendamos nada hoy de natación. Si quieres más bien le puedes dedicar este tiempo a las ilustraciones del libro.</t>
   </si>
   <si>
     <t>IDMJI-EN</t>
@@ -649,6 +685,9 @@
     <t>Ir a la U a nadar</t>
   </si>
   <si>
+    <t>#00e6ac</t>
+  </si>
+  <si>
     <t>Lectura</t>
   </si>
   <si>
@@ -769,9 +808,6 @@
   </si>
   <si>
     <t>Hay familias innumerables de endgames, comenzar a ver patrones del estilo: jaque en 1. Y luego jaque en 2, puede ser la clave.</t>
-  </si>
-  <si>
-    <t>Marco estratégco</t>
   </si>
   <si>
     <t>Pensar modelos de negocio</t>
@@ -1513,7 +1549,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="8" hidden="1">
+    <row r="8">
       <c r="A8" s="4">
         <v>4.0</v>
       </c>
@@ -1548,7 +1584,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="1">
       <c r="A9" s="4">
         <v>5.0</v>
       </c>
@@ -1568,22 +1604,22 @@
         <v>0.0</v>
       </c>
       <c r="G9" s="4">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="H9" s="4">
         <v>0.0</v>
       </c>
       <c r="I9" s="4">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J9" s="4">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="K9" s="4">
         <v>0.0</v>
       </c>
     </row>
-    <row r="10" hidden="1">
+    <row r="10">
       <c r="A10" s="4">
         <v>5.0</v>
       </c>
@@ -1596,15 +1632,29 @@
       <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11">
+      <c r="E10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" hidden="1">
       <c r="A11" s="4">
         <v>5.0</v>
       </c>
@@ -1674,7 +1724,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="1">
       <c r="A13" s="4">
         <v>7.0</v>
       </c>
@@ -1709,7 +1759,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="14" hidden="1">
+    <row r="14">
       <c r="A14" s="3">
         <v>10.0</v>
       </c>
@@ -3726,13 +3776,12 @@
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$K$18">
-    <filterColumn colId="6">
+    <filterColumn colId="8">
       <filters>
         <filter val="1"/>
         <filter val="100"/>
         <filter val="2"/>
         <filter val="3"/>
-        <filter val="4"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3831,7 +3880,7 @@
     </row>
     <row r="2">
       <c r="A2" s="10">
-        <f t="shared" ref="A2:A22" si="1">ABS(B2)</f>
+        <f t="shared" ref="A2:A27" si="1">ABS(B2)</f>
         <v>16</v>
       </c>
       <c r="B2" s="3">
@@ -4387,7 +4436,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="10">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>85</v>
@@ -4476,10 +4525,10 @@
     <row r="16">
       <c r="A16" s="10">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" s="10">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>89</v>
@@ -4490,11 +4539,11 @@
       <c r="E16" s="10">
         <v>1.0</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>20</v>
+      <c r="F16" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>90</v>
@@ -4502,8 +4551,8 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
@@ -4519,13 +4568,13 @@
       <c r="Z16" s="11"/>
       <c r="AA16" s="11"/>
     </row>
-    <row r="17">
+    <row r="17" hidden="1">
       <c r="A17" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B17" s="10">
-        <v>20.0</v>
+        <v>4.0</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>91</v>
@@ -4537,7 +4586,7 @@
         <v>1.0</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>83</v>
@@ -4565,7 +4614,7 @@
       <c r="Z17" s="11"/>
       <c r="AA17" s="11"/>
     </row>
-    <row r="18">
+    <row r="18" hidden="1">
       <c r="A18" s="10">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -4611,13 +4660,13 @@
       <c r="Z18" s="11"/>
       <c r="AA18" s="11"/>
     </row>
-    <row r="19">
+    <row r="19" hidden="1">
       <c r="A19" s="10">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B19" s="10">
-        <v>-20.0</v>
+        <v>20.0</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>95</v>
@@ -4637,9 +4686,7 @@
       <c r="H19" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="I19" s="10" t="s">
-        <v>97</v>
-      </c>
+      <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
@@ -4659,16 +4706,16 @@
       <c r="Z19" s="11"/>
       <c r="AA19" s="11"/>
     </row>
-    <row r="20">
+    <row r="20" hidden="1">
       <c r="A20" s="10">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B20" s="10">
-        <v>6.0</v>
+        <v>-20.0</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" s="10">
         <v>0.0</v>
@@ -4677,19 +4724,21 @@
         <v>1.0</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>83</v>
       </c>
       <c r="H20" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
@@ -4705,25 +4754,25 @@
       <c r="Z20" s="11"/>
       <c r="AA20" s="11"/>
     </row>
-    <row r="21">
+    <row r="21" hidden="1">
       <c r="A21" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B21" s="10">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>100</v>
       </c>
       <c r="D21" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="E21" s="10">
         <v>1.0</v>
       </c>
-      <c r="E21" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>37</v>
+      <c r="F21" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>83</v>
@@ -4731,11 +4780,9 @@
       <c r="H21" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="I21" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
@@ -4756,30 +4803,32 @@
     <row r="22">
       <c r="A22" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B22" s="10">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D22" s="10">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E22" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>12</v>
+        <v>4.0</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>83</v>
       </c>
       <c r="H22" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I22" s="10"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -4800,14 +4849,31 @@
       <c r="AA22" s="11"/>
     </row>
     <row r="23">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+      <c r="A23" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B23" s="10">
+        <v>-15.0</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="E23" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>106</v>
+      </c>
       <c r="I23" s="10"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
@@ -4829,14 +4895,31 @@
       <c r="AA23" s="11"/>
     </row>
     <row r="24">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
+      <c r="A24" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B24" s="10">
+        <v>15.0</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="I24" s="10"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
@@ -4858,19 +4941,36 @@
       <c r="AA24" s="11"/>
     </row>
     <row r="25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
+      <c r="A25" s="10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B25" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
@@ -4887,17 +4987,36 @@
       <c r="AA25" s="11"/>
     </row>
     <row r="26">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="14"/>
+      <c r="A26" s="10">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B26" s="10">
+        <v>19.0</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
@@ -4916,19 +5035,36 @@
       <c r="AA26" s="11"/>
     </row>
     <row r="27">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
+      <c r="A27" s="10">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B27" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>116</v>
+      </c>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="14"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
@@ -4944,7 +5080,7 @@
       <c r="Z27" s="11"/>
       <c r="AA27" s="11"/>
     </row>
-    <row r="28">
+    <row r="28" hidden="1">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -4973,13 +5109,13 @@
       <c r="Z28" s="11"/>
       <c r="AA28" s="11"/>
     </row>
-    <row r="29">
+    <row r="29" hidden="1">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="6"/>
+      <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -5002,17 +5138,18 @@
       <c r="Z29" s="11"/>
       <c r="AA29" s="11"/>
     </row>
-    <row r="30">
+    <row r="30" hidden="1">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="14"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
@@ -5030,17 +5167,18 @@
       <c r="Z30" s="11"/>
       <c r="AA30" s="11"/>
     </row>
-    <row r="31">
+    <row r="31" hidden="1">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
+      <c r="F31" s="6"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="14"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
@@ -5058,15 +5196,15 @@
       <c r="Z31" s="11"/>
       <c r="AA31" s="11"/>
     </row>
-    <row r="32">
+    <row r="32" hidden="1">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="G32" s="10"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
@@ -5086,7 +5224,7 @@
       <c r="Z32" s="11"/>
       <c r="AA32" s="11"/>
     </row>
-    <row r="33">
+    <row r="33" hidden="1">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -5094,7 +5232,7 @@
       <c r="E33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
-      <c r="I33" s="14"/>
+      <c r="I33" s="11"/>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
@@ -5114,14 +5252,14 @@
       <c r="Z33" s="11"/>
       <c r="AA33" s="11"/>
     </row>
-    <row r="34">
+    <row r="34" hidden="1">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
+      <c r="H34" s="11"/>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
@@ -5142,7 +5280,7 @@
       <c r="Z34" s="11"/>
       <c r="AA34" s="11"/>
     </row>
-    <row r="35">
+    <row r="35" hidden="1">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -5150,7 +5288,7 @@
       <c r="E35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
-      <c r="I35" s="11"/>
+      <c r="I35" s="14"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
@@ -5170,7 +5308,7 @@
       <c r="Z35" s="11"/>
       <c r="AA35" s="11"/>
     </row>
-    <row r="36">
+    <row r="36" hidden="1">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -5198,7 +5336,7 @@
       <c r="Z36" s="11"/>
       <c r="AA36" s="11"/>
     </row>
-    <row r="37">
+    <row r="37" hidden="1">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -5226,7 +5364,7 @@
       <c r="Z37" s="11"/>
       <c r="AA37" s="11"/>
     </row>
-    <row r="38">
+    <row r="38" hidden="1">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -5254,7 +5392,7 @@
       <c r="Z38" s="11"/>
       <c r="AA38" s="11"/>
     </row>
-    <row r="39">
+    <row r="39" hidden="1">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -5282,7 +5420,7 @@
       <c r="Z39" s="11"/>
       <c r="AA39" s="11"/>
     </row>
-    <row r="40">
+    <row r="40" hidden="1">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -5310,7 +5448,7 @@
       <c r="Z40" s="11"/>
       <c r="AA40" s="11"/>
     </row>
-    <row r="41">
+    <row r="41" hidden="1">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -5318,7 +5456,7 @@
       <c r="E41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
+      <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
@@ -5338,16 +5476,15 @@
       <c r="Z41" s="11"/>
       <c r="AA41" s="11"/>
     </row>
-    <row r="42">
+    <row r="42" hidden="1">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
+      <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
@@ -5367,13 +5504,12 @@
       <c r="Z42" s="11"/>
       <c r="AA42" s="11"/>
     </row>
-    <row r="43">
+    <row r="43" hidden="1">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
@@ -5396,7 +5532,7 @@
       <c r="Z43" s="11"/>
       <c r="AA43" s="11"/>
     </row>
-    <row r="44">
+    <row r="44" hidden="1">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -5405,7 +5541,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
-      <c r="I44" s="14"/>
+      <c r="I44" s="10"/>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
       <c r="L44" s="11"/>
@@ -5425,11 +5561,22 @@
       <c r="Z44" s="11"/>
       <c r="AA44" s="11"/>
     </row>
-    <row r="45">
+    <row r="45" hidden="1">
       <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
-      <c r="I45" s="14"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
       <c r="R45" s="11"/>
@@ -5443,10 +5590,22 @@
       <c r="Z45" s="11"/>
       <c r="AA45" s="11"/>
     </row>
-    <row r="46">
+    <row r="46" hidden="1">
       <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
       <c r="R46" s="11"/>
@@ -5460,10 +5619,11 @@
       <c r="Z46" s="11"/>
       <c r="AA46" s="11"/>
     </row>
-    <row r="47">
+    <row r="47" hidden="1">
       <c r="A47" s="10"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
+      <c r="I47" s="14"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
       <c r="R47" s="11"/>
@@ -5477,7 +5637,7 @@
       <c r="Z47" s="11"/>
       <c r="AA47" s="11"/>
     </row>
-    <row r="48">
+    <row r="48" hidden="1">
       <c r="A48" s="10"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
@@ -5494,18 +5654,10 @@
       <c r="Z48" s="11"/>
       <c r="AA48" s="11"/>
     </row>
-    <row r="49">
+    <row r="49" hidden="1">
       <c r="A49" s="10"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
       <c r="R49" s="11"/>
@@ -5519,18 +5671,10 @@
       <c r="Z49" s="11"/>
       <c r="AA49" s="11"/>
     </row>
-    <row r="50">
+    <row r="50" hidden="1">
       <c r="A50" s="10"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
@@ -5544,7 +5688,7 @@
       <c r="Z50" s="11"/>
       <c r="AA50" s="11"/>
     </row>
-    <row r="51">
+    <row r="51" hidden="1">
       <c r="A51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
@@ -5569,9 +5713,8 @@
       <c r="Z51" s="11"/>
       <c r="AA51" s="11"/>
     </row>
-    <row r="52">
+    <row r="52" hidden="1">
       <c r="A52" s="10"/>
-      <c r="C52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
@@ -5595,9 +5738,8 @@
       <c r="Z52" s="11"/>
       <c r="AA52" s="11"/>
     </row>
-    <row r="53">
+    <row r="53" hidden="1">
       <c r="A53" s="10"/>
-      <c r="C53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
@@ -5621,7 +5763,7 @@
       <c r="Z53" s="11"/>
       <c r="AA53" s="11"/>
     </row>
-    <row r="54">
+    <row r="54" hidden="1">
       <c r="A54" s="10"/>
       <c r="C54" s="10"/>
       <c r="F54" s="10"/>
@@ -5647,7 +5789,7 @@
       <c r="Z54" s="11"/>
       <c r="AA54" s="11"/>
     </row>
-    <row r="55">
+    <row r="55" hidden="1">
       <c r="A55" s="10"/>
       <c r="C55" s="10"/>
       <c r="F55" s="10"/>
@@ -5673,7 +5815,7 @@
       <c r="Z55" s="11"/>
       <c r="AA55" s="11"/>
     </row>
-    <row r="56">
+    <row r="56" hidden="1">
       <c r="A56" s="10"/>
       <c r="C56" s="10"/>
       <c r="F56" s="10"/>
@@ -5699,7 +5841,7 @@
       <c r="Z56" s="11"/>
       <c r="AA56" s="11"/>
     </row>
-    <row r="57">
+    <row r="57" hidden="1">
       <c r="A57" s="10"/>
       <c r="C57" s="10"/>
       <c r="F57" s="10"/>
@@ -5725,7 +5867,7 @@
       <c r="Z57" s="11"/>
       <c r="AA57" s="11"/>
     </row>
-    <row r="58">
+    <row r="58" hidden="1">
       <c r="A58" s="10"/>
       <c r="C58" s="10"/>
       <c r="F58" s="10"/>
@@ -5751,12 +5893,12 @@
       <c r="Z58" s="11"/>
       <c r="AA58" s="11"/>
     </row>
-    <row r="59">
+    <row r="59" hidden="1">
       <c r="A59" s="10"/>
-      <c r="C59" s="11"/>
+      <c r="C59" s="10"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
-      <c r="H59" s="11"/>
+      <c r="H59" s="10"/>
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
@@ -5777,15 +5919,12 @@
       <c r="Z59" s="11"/>
       <c r="AA59" s="11"/>
     </row>
-    <row r="60">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
+    <row r="60" hidden="1">
+      <c r="A60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
@@ -5807,13 +5946,10 @@
       <c r="AA60" s="11"/>
     </row>
     <row r="61">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
+      <c r="A61" s="10"/>
       <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
@@ -33530,9 +33666,82 @@
       <c r="Z1016" s="11"/>
       <c r="AA1016" s="11"/>
     </row>
+    <row r="1017">
+      <c r="A1017" s="11"/>
+      <c r="B1017" s="11"/>
+      <c r="C1017" s="11"/>
+      <c r="D1017" s="11"/>
+      <c r="E1017" s="11"/>
+      <c r="F1017" s="11"/>
+      <c r="G1017" s="11"/>
+      <c r="H1017" s="11"/>
+      <c r="I1017" s="11"/>
+      <c r="J1017" s="11"/>
+      <c r="K1017" s="11"/>
+      <c r="L1017" s="11"/>
+      <c r="M1017" s="11"/>
+      <c r="N1017" s="11"/>
+      <c r="O1017" s="11"/>
+      <c r="P1017" s="11"/>
+      <c r="Q1017" s="11"/>
+      <c r="R1017" s="11"/>
+      <c r="S1017" s="11"/>
+      <c r="T1017" s="11"/>
+      <c r="U1017" s="11"/>
+      <c r="V1017" s="11"/>
+      <c r="W1017" s="11"/>
+      <c r="X1017" s="11"/>
+      <c r="Y1017" s="11"/>
+      <c r="Z1017" s="11"/>
+      <c r="AA1017" s="11"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="11"/>
+      <c r="B1018" s="11"/>
+      <c r="C1018" s="11"/>
+      <c r="D1018" s="11"/>
+      <c r="E1018" s="11"/>
+      <c r="F1018" s="11"/>
+      <c r="G1018" s="11"/>
+      <c r="H1018" s="11"/>
+      <c r="I1018" s="11"/>
+      <c r="J1018" s="11"/>
+      <c r="K1018" s="11"/>
+      <c r="L1018" s="11"/>
+      <c r="M1018" s="11"/>
+      <c r="N1018" s="11"/>
+      <c r="O1018" s="11"/>
+      <c r="P1018" s="11"/>
+      <c r="Q1018" s="11"/>
+      <c r="R1018" s="11"/>
+      <c r="S1018" s="11"/>
+      <c r="T1018" s="11"/>
+      <c r="U1018" s="11"/>
+      <c r="V1018" s="11"/>
+      <c r="W1018" s="11"/>
+      <c r="X1018" s="11"/>
+      <c r="Y1018" s="11"/>
+      <c r="Z1018" s="11"/>
+      <c r="AA1018" s="11"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$O$58"/>
-  <conditionalFormatting sqref="F13 F16 F20 F22 F29">
+  <autoFilter ref="$A$1:$O$60">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="11"/>
+        <filter val="12"/>
+        <filter val="-1"/>
+        <filter val="15"/>
+        <filter val="16"/>
+        <filter val="19"/>
+        <filter val="1"/>
+        <filter val="-15"/>
+        <filter val="3"/>
+        <filter val="10"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="F13 F17 F21 F23:F26 F31">
     <cfRule type="containsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(F13))=0</formula>
     </cfRule>
@@ -33607,7 +33816,7 @@
         <v>-1.0</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D2" s="10">
         <v>0.0</v>
@@ -33622,7 +33831,7 @@
         <v>83</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="11"/>
@@ -33641,7 +33850,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D3" s="10">
         <v>0.0</v>
@@ -33656,14 +33865,14 @@
         <v>83</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="12" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
@@ -33679,7 +33888,7 @@
         <v>1.0</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4" s="10">
         <v>0.0</v>
@@ -33694,14 +33903,14 @@
         <v>83</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="12" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
@@ -33717,7 +33926,7 @@
         <v>-1.0</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D5" s="10">
         <v>1.0</v>
@@ -33749,7 +33958,7 @@
         <v>-1.0</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D6" s="10">
         <v>0.0</v>
@@ -33764,7 +33973,7 @@
         <v>83</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
@@ -33783,7 +33992,7 @@
         <v>-2.0</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D7" s="10">
         <v>0.0</v>
@@ -33798,16 +34007,16 @@
         <v>83</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
@@ -33823,7 +34032,7 @@
         <v>2.0</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D8" s="10">
         <v>0.0</v>
@@ -33838,10 +34047,10 @@
         <v>83</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -33859,7 +34068,7 @@
         <v>3.0</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D9" s="10">
         <v>0.0</v>
@@ -33871,19 +34080,19 @@
         <v>83</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -33898,7 +34107,7 @@
         <v>3.0</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D10" s="10">
         <v>0.0</v>
@@ -33913,14 +34122,14 @@
         <v>55</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="10" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
@@ -33935,7 +34144,7 @@
         <v>3.0</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D11" s="10">
         <v>0.0</v>
@@ -33950,14 +34159,14 @@
         <v>83</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="10" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
@@ -33973,7 +34182,7 @@
         <v>4.0</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D12" s="10">
         <v>0.0</v>
@@ -33988,10 +34197,10 @@
         <v>83</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
@@ -34008,7 +34217,7 @@
         <v>4.0</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D13" s="10">
         <v>0.0</v>
@@ -34023,10 +34232,10 @@
         <v>83</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -34044,7 +34253,7 @@
         <v>4.0</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D14" s="10">
         <v>0.0</v>
@@ -34059,16 +34268,16 @@
         <v>83</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
@@ -34083,7 +34292,7 @@
         <v>4.0</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D15" s="10">
         <v>0.0</v>
@@ -34115,7 +34324,7 @@
         <v>5.0</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D16" s="10">
         <v>0.0</v>
@@ -34130,22 +34339,22 @@
         <v>83</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="M16" s="15" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
@@ -34159,7 +34368,7 @@
         <v>5.0</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="D17" s="10">
         <v>0.0</v>
@@ -34174,10 +34383,10 @@
         <v>83</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -34195,7 +34404,7 @@
         <v>5.0</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="D18" s="10">
         <v>0.0</v>
@@ -34210,10 +34419,10 @@
         <v>83</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -34231,7 +34440,7 @@
         <v>6.0</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="D19" s="10">
         <v>0.0</v>
@@ -34240,22 +34449,22 @@
         <v>2.0</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>83</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
@@ -34271,7 +34480,7 @@
         <v>7.0</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="D20" s="10">
         <v>0.0</v>
@@ -34286,10 +34495,10 @@
         <v>83</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
@@ -34307,7 +34516,7 @@
         <v>-7.0</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="D21" s="10">
         <v>0.0</v>
@@ -34322,7 +34531,7 @@
         <v>83</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="11"/>
@@ -34341,7 +34550,7 @@
         <v>8.0</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="D22" s="10">
         <v>0.0</v>
@@ -34350,16 +34559,16 @@
         <v>1.0</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>83</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
@@ -34377,7 +34586,7 @@
         <v>9.0</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="D23" s="10">
         <v>0.0</v>
@@ -34392,10 +34601,10 @@
         <v>83</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
@@ -34413,7 +34622,7 @@
         <v>10.0</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="D24" s="10">
         <v>1.0</v>
@@ -34428,22 +34637,22 @@
         <v>83</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
@@ -34457,7 +34666,7 @@
         <v>10.0</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="D25" s="10">
         <v>1.0</v>
@@ -34472,16 +34681,16 @@
         <v>83</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
@@ -34497,7 +34706,7 @@
         <v>10.0</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="D26" s="10">
         <v>1.0</v>
@@ -34512,16 +34721,16 @@
         <v>83</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
@@ -34537,7 +34746,7 @@
         <v>10.0</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D27" s="10">
         <v>1.0</v>
@@ -34552,10 +34761,10 @@
         <v>83</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="14"/>
@@ -34572,7 +34781,7 @@
         <v>15.0</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D28" s="10">
         <v>1.0</v>
@@ -34587,7 +34796,7 @@
         <v>83</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
@@ -34606,7 +34815,7 @@
         <v>11.0</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="D29" s="10">
         <v>0.0</v>
@@ -34621,10 +34830,10 @@
         <v>83</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
@@ -34642,7 +34851,7 @@
         <v>-11.0</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="D30" s="10">
         <v>0.0</v>
@@ -34657,7 +34866,7 @@
         <v>83</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
@@ -34676,7 +34885,7 @@
         <v>12.0</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="D31" s="10">
         <v>0.0</v>
@@ -34685,7 +34894,7 @@
         <v>1.0</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>31</v>
+        <v>216</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>83</v>
@@ -34708,7 +34917,7 @@
         <v>13.0</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="D32" s="10">
         <v>0.0</v>
@@ -34723,10 +34932,10 @@
         <v>83</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
@@ -34744,7 +34953,7 @@
         <v>13.0</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="D33" s="10">
         <v>0.0</v>
@@ -34759,7 +34968,7 @@
         <v>83</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
@@ -34778,7 +34987,7 @@
         <v>13.0</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="D34" s="10">
         <v>0.0</v>
@@ -34793,7 +35002,7 @@
         <v>83</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
@@ -34812,7 +35021,7 @@
         <v>13.0</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="D35" s="10">
         <v>0.0</v>
@@ -34827,7 +35036,7 @@
         <v>83</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
@@ -34846,7 +35055,7 @@
         <v>13.0</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="D36" s="10">
         <v>0.0</v>
@@ -34861,7 +35070,7 @@
         <v>83</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
@@ -34880,7 +35089,7 @@
         <v>13.0</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D37" s="10">
         <v>1.0</v>
@@ -34895,7 +35104,7 @@
         <v>83</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
@@ -34914,7 +35123,7 @@
         <v>13.0</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="D38" s="10">
         <v>0.0</v>
@@ -34929,7 +35138,7 @@
         <v>83</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
@@ -34948,7 +35157,7 @@
         <v>13.0</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="D39" s="10">
         <v>0.0</v>
@@ -34963,7 +35172,7 @@
         <v>83</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
@@ -34981,7 +35190,7 @@
         <v>14.0</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="D40" s="10">
         <v>1.0</v>
@@ -34996,10 +35205,10 @@
         <v>83</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
@@ -35017,7 +35226,7 @@
         <v>14.0</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="D41" s="10">
         <v>0.0</v>
@@ -35026,13 +35235,13 @@
         <v>1.0</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="I41" s="10"/>
       <c r="J41" s="11"/>
@@ -35051,7 +35260,7 @@
         <v>14.0</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="D42" s="10">
         <v>0.0</v>
@@ -35060,16 +35269,16 @@
         <v>2.0</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
@@ -35087,7 +35296,7 @@
         <v>14.0</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="D43" s="10">
         <v>0.0</v>
@@ -35096,16 +35305,16 @@
         <v>3.0</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
@@ -35123,7 +35332,7 @@
         <v>14.0</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="D44" s="3">
         <v>0.0</v>
@@ -35132,13 +35341,13 @@
         <v>4.0</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="I44" s="14"/>
     </row>
@@ -35151,7 +35360,7 @@
         <v>14.0</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="D45" s="3">
         <v>0.0</v>
@@ -35160,13 +35369,13 @@
         <v>5.0</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46">
@@ -35178,7 +35387,7 @@
         <v>14.0</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="D46" s="3">
         <v>0.0</v>
@@ -35187,13 +35396,13 @@
         <v>6.0</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47">
@@ -35910,10 +36119,10 @@
         <v>0.0</v>
       </c>
       <c r="I9" s="4">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J9" s="4">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="K9" s="4">
         <v>0.0</v>
@@ -35932,13 +36141,27 @@
       <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="E10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4">
@@ -36158,7 +36381,7 @@
         <v>10.0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>240</v>
+        <v>36</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>37</v>
@@ -36300,7 +36523,7 @@
         <v>2.0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="C2" s="4">
         <v>0.0</v>
@@ -36315,16 +36538,16 @@
         <v>83</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="N2" s="18"/>
     </row>
@@ -36333,7 +36556,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="C3" s="4">
         <v>1.0</v>
@@ -36348,16 +36571,16 @@
         <v>83</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
@@ -36368,7 +36591,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C4" s="4">
         <v>0.0</v>
@@ -36383,16 +36606,16 @@
         <v>83</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
@@ -36404,7 +36627,7 @@
         <v>5.0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="C5" s="4">
         <v>0.0</v>
@@ -36419,16 +36642,16 @@
         <v>83</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="N5" s="18"/>
     </row>
@@ -36437,7 +36660,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="C6" s="4">
         <v>1.0</v>
@@ -36452,16 +36675,16 @@
         <v>83</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
@@ -36472,7 +36695,7 @@
         <v>7.0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C7" s="4">
         <v>0.0</v>
@@ -36487,16 +36710,16 @@
         <v>83</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
@@ -36508,7 +36731,7 @@
         <v>9.0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="C8" s="4">
         <v>0.0</v>
@@ -36523,10 +36746,10 @@
         <v>83</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9">
@@ -36534,7 +36757,7 @@
         <v>1.0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C9" s="4">
         <v>0.0</v>
@@ -36549,13 +36772,13 @@
         <v>83</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
@@ -36567,7 +36790,7 @@
         <v>1.0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C10" s="4">
         <v>0.0</v>
@@ -36582,7 +36805,7 @@
         <v>83</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
@@ -36742,7 +36965,7 @@
         <v>1.0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>18</v>
@@ -36777,7 +37000,7 @@
         <v>2.0</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>20</v>
@@ -36847,7 +37070,7 @@
         <v>4.0</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>20</v>
@@ -36917,7 +37140,7 @@
         <v>6.0</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>23</v>
@@ -36952,7 +37175,7 @@
         <v>7.0</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>20</v>
@@ -36987,10 +37210,10 @@
         <v>8.0</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E11" s="4">
         <v>0.0</v>
@@ -37025,7 +37248,7 @@
         <v>30</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>216</v>
       </c>
       <c r="E12" s="3">
         <v>0.0</v>
@@ -37127,7 +37350,7 @@
         <v>10.0</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>37</v>

--- a/db/DB.xlsx
+++ b/db/DB.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">areas!$A$1:$K$18</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">actividades!$A$1:$O$60</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">actividades!$A$1:$O$31</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="286">
   <si>
     <t>Orden de aparición</t>
   </si>
@@ -289,13 +289,13 @@
     <t>white</t>
   </si>
   <si>
-    <t>La otra semanita empezamos si quieres porque estás cocinando y todo esta semana. Ta perfecto.</t>
+    <t>Hoy podrías intentar ir si tienes tiempito. Besitossss.</t>
   </si>
   <si>
     <t>Enseñanza</t>
   </si>
   <si>
-    <t>Vida, hoy nos vemos en la iglesia. No se dónde voy a almorzar jaja pero voy a tratar de ir a la i.</t>
+    <t>Hoy voy a la i en la tarde, vamos juntos guapa.</t>
   </si>
   <si>
     <t>Alabanza</t>
@@ -307,13 +307,19 @@
     <t>Oración y lectura</t>
   </si>
   <si>
-    <t>Amor haz el esfuerzo por ver un short de estudio bíblico y horar 10 minutos bella. vamos, tú puedes.</t>
+    <t>Amor, toma un momento para ver un clip de estudio bíblico y orar hoy. 10 minutos. Tú puedes. Te dejo la página donde están las meditaciones cortitas. Piensa que Dios nos puso juntos en la vida. Te amooo.</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="https://www.idmji.org/meditaciones/"&gt;&lt;img src="./img/meditaciones.jpg" alt="Captura de pantalla IDMJI meditaciones" style="width:100%" /&gt;&lt;/a&gt;</t>
   </si>
   <si>
     <t>Libro: provisional</t>
   </si>
   <si>
-    <t>Vida, provisionalmente hoy podrías usar tu tiempo de creación de obra en el libro infantil porque se que quieres terminar eso rápido. Pero la otra semana retomamos con toda.</t>
+    <t>Amor, yo se que le estás dedicando mucho al libro por estos días, pero no deberías descuidar tu creación de obra. Hoy te propondría que tomes un break del libro y dediques estas horas a crear obra.</t>
+  </si>
+  <si>
+    <t>¡Piensa en qué proyecto podrías comenzar y dale de una! No paremos la produccion de obra preciosa. Así sea poquito tiempo.</t>
   </si>
   <si>
     <t>Esta área</t>
@@ -325,7 +331,7 @@
     <t>Do Stuff Sostenibilidad</t>
   </si>
   <si>
-    <t>Amor, reunámonos para perfilar un poco el Do Stuff de sostenibilidad, si te parece: 50 minutos.</t>
+    <t>Amor si quieres hoy nos reunimos una hora y hablamos del proyecto de una estrategia de sostenibilidad para AxonIA. Esto va a ser clave para tu perfil en ESG. Bendito sea Dios. ¿Coordinamos? en la tardecita después de la ADRES puedo pasar por tu barrio.</t>
   </si>
   <si>
     <t>Inventario de obras</t>
@@ -343,6 +349,18 @@
     <t>Una carrera en sostenibilidad tiene 1) Un perfil altamente estratégico 2) Un perfil altamente analítico y de contexto global y local 3) Un perfil de implementación robusto (seguimiento programático y presupuestal). Amor, reunámonos hoy para brainstorm qué podemos hacer en estos perfiles. También hoy nos inscribimos al evento de sotenibilidad que te mandé.</t>
   </si>
   <si>
+    <t>Objetivos Sostenibilidad AxonIA</t>
+  </si>
+  <si>
+    <t>#008081</t>
+  </si>
+  <si>
+    <t>Corazón, una empresa de inteligencia artificial tiene dos características. Primero es altamente escalable. Y segundo, consume muchos recursos incluyendo entre esos electricidad. Nosotros vamos a estar operando completamente en la nube, (en Google Cloud) quienes tienen sus propias políticas de sostenibilidad. Ya próximamente vamos a estar yendo a eventos en sostenibilidad. Además, tú vas a seguir estudiando el curso de ESG. Te propongo que comencemos a desarrollar ya la estrategia de sostenibilidad para AxonIA. Para poder empezar, te dejo unas fuentes para informarte sobre consideraciones clave en el contexto sostenibilidad - computación. Lo primero es identificar nuestros objetivos estratégicos. &lt;u&gt;¿A qué deberíamos querer apuntarle?&lt;/u&gt;. Para esto vas a necesitar entender a profundidad todas nuestras actividades en AxonIA, incluyendo lo técnico. Yo tengo pendiente cuadrar una reunión con tu familia, ahí vamos a ver este tema. Revisa por una parte qué consideraciones hay en &lt;u&gt;Cloud&lt;/u&gt; y en empresas &lt;u&gt;que usan cloud&lt;/u&gt;. Como Netflix o Rappi. Fíjate en sus objetivos estratégicos. Familiarízate con otras empresas insignia que usan o crean tecnología, tal vez Bancolombia, o Bodytech. La pregunta clave es &lt;u&gt;¿Qué tipo de objetivos estratégicos es relevante considerar para AxonIA en ESG?&lt;/u&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="https://youtu.be/N0SYCyS2xZA"&gt;Cloud Computing Explained en 2 minutos&lt;/a&gt;&lt;/br&gt;&lt;a target="_blank" href="https://youtu.be/d6lvY6H8Xrg"&gt;Green Cloud&lt;/a&gt;&lt;/br&gt;&lt;a target="_blank" href="https://youtu.be/q78KYBps-zY"&gt;IA y Sustainability&lt;/a&gt;&lt;/br&gt;&lt;a target="_blank" href="https://youtu.be/QmyL-2Ji0a4"&gt;Contexto Computing Sustainability&lt;/a&gt;&lt;/br&gt;&lt;a target="_blank" href="https://about.netflix.com/es/sustainability"&gt;Netflix Sustainability&lt;/a&gt;&lt;/br&gt;&lt;a target="_blank" href="https://about.rappi.com/our-impact"&gt;Rappi Sustainability&lt;/a&gt;&lt;/br&gt;&lt;a target="_blank" href="https://www.apple.com/environment/"&gt;&lt;img src="./img/apple.png" alt="Captura de pantalla apple website" style="width:100%" /&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>Marco</t>
   </si>
   <si>
@@ -358,10 +376,10 @@
     <t>Corazón buenos días! Hoy tenemos cosas emocionantes que hacer. Habrá tiempo para que trabajes en el libro y tiempo para que perfilemos un poco tus actividades en sostenibilidad. Si me lo permites hoy te voy a regar en ese tema. No vayas al gym esta semanita, comienza con toda la otra porque estás cocinando cositas y todo. Comencemos a retomar el hábito de dormirnos temprano, tipo 10 para que te puedas levantar a las 6 amor. Te amooo con todas mis fuerzas.</t>
   </si>
   <si>
-    <t>Sigamos remando</t>
+    <t>Ya vamos iniciando líneas</t>
   </si>
   <si>
-    <t>Vida mía, buenos días, estamos retomando actividades con calmita. Ora mucho para que nuestro Dios te de ciencia en tus labores y respalde tus esfuerzos preciosa. Vamos con calma, disfruta el camino y dedícale tiempo a cada cosa. Amada, si tú quieres dedica el tiempo que ibas a dedicar a ir al centro, a pintar las ilustraciones. Trata de avanzar mucho, ya la otra semana comenzamos a darle a los procesos artísticos además del libro infantil, entonces trata de seguir cerrando ilustraciones. Te amo con todas las fuerzas de mi corazón.</t>
+    <t>Amada, buenos días!!! Hoy iniciamos ya todas nuestras líneas estratégicas. Recuerda ir leyendo a lo largo del día cada área. Bella, eres mi alegría constante. Agradezco a Dios cada momento que me da contgo. Mira de una vez lo de Do Stuff en sostenibilidad y si quieres esta tarde nos vemos, tengo una horita para regarte amor. Te amo! Quiero verte siempre. Hoy dormí poquito, pero voy con toda la energía. Tu novio.</t>
   </si>
   <si>
     <t>Mapear de nuevo</t>
@@ -1549,7 +1567,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="1">
       <c r="A8" s="4">
         <v>4.0</v>
       </c>
@@ -1584,7 +1602,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="9" hidden="1">
+    <row r="9">
       <c r="A9" s="4">
         <v>5.0</v>
       </c>
@@ -1619,7 +1637,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="1">
       <c r="A10" s="4">
         <v>5.0</v>
       </c>
@@ -1654,7 +1672,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="11" hidden="1">
+    <row r="11">
       <c r="A11" s="4">
         <v>5.0</v>
       </c>
@@ -1724,7 +1742,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="13" hidden="1">
+    <row r="13">
       <c r="A13" s="4">
         <v>7.0</v>
       </c>
@@ -1759,7 +1777,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="1">
       <c r="A14" s="3">
         <v>10.0</v>
       </c>
@@ -3776,7 +3794,7 @@
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$K$18">
-    <filterColumn colId="8">
+    <filterColumn colId="6">
       <filters>
         <filter val="1"/>
         <filter val="100"/>
@@ -3880,7 +3898,7 @@
     </row>
     <row r="2">
       <c r="A2" s="10">
-        <f t="shared" ref="A2:A27" si="1">ABS(B2)</f>
+        <f t="shared" ref="A2:A29" si="1">ABS(B2)</f>
         <v>16</v>
       </c>
       <c r="B2" s="3">
@@ -4436,7 +4454,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="10">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>85</v>
@@ -4482,7 +4500,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="10">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>87</v>
@@ -4548,7 +4566,9 @@
       <c r="H16" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="I16" s="10"/>
+      <c r="I16" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="11"/>
@@ -4568,7 +4588,7 @@
       <c r="Z16" s="11"/>
       <c r="AA16" s="11"/>
     </row>
-    <row r="17" hidden="1">
+    <row r="17">
       <c r="A17" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -4577,7 +4597,7 @@
         <v>4.0</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D17" s="10">
         <v>0.0</v>
@@ -4592,7 +4612,7 @@
         <v>83</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -4614,16 +4634,16 @@
       <c r="Z17" s="11"/>
       <c r="AA17" s="11"/>
     </row>
-    <row r="18" hidden="1">
+    <row r="18">
       <c r="A18" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B18" s="10">
-        <v>20.0</v>
+        <v>4.0</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="D18" s="10">
         <v>0.0</v>
@@ -4632,7 +4652,7 @@
         <v>1.0</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>83</v>
@@ -4660,7 +4680,7 @@
       <c r="Z18" s="11"/>
       <c r="AA18" s="11"/>
     </row>
-    <row r="19" hidden="1">
+    <row r="19">
       <c r="A19" s="10">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -4706,13 +4726,13 @@
       <c r="Z19" s="11"/>
       <c r="AA19" s="11"/>
     </row>
-    <row r="20" hidden="1">
+    <row r="20">
       <c r="A20" s="10">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B20" s="10">
-        <v>-20.0</v>
+        <v>20.0</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>97</v>
@@ -4732,9 +4752,7 @@
       <c r="H20" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="I20" s="10" t="s">
-        <v>99</v>
-      </c>
+      <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
@@ -4754,16 +4772,16 @@
       <c r="Z20" s="11"/>
       <c r="AA20" s="11"/>
     </row>
-    <row r="21" hidden="1">
+    <row r="21">
       <c r="A21" s="10">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B21" s="10">
-        <v>6.0</v>
+        <v>-20.0</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D21" s="10">
         <v>0.0</v>
@@ -4772,19 +4790,21 @@
         <v>1.0</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>83</v>
       </c>
       <c r="H21" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
@@ -4803,22 +4823,22 @@
     <row r="22">
       <c r="A22" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B22" s="10">
-        <v>10.0</v>
+        <v>-6.0</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>102</v>
       </c>
       <c r="D22" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="E22" s="10">
         <v>1.0</v>
       </c>
-      <c r="E22" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>37</v>
+      <c r="F22" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>83</v>
@@ -4826,11 +4846,9 @@
       <c r="H22" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="I22" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
@@ -4851,13 +4869,13 @@
     <row r="23">
       <c r="A23" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B23" s="10">
-        <v>-15.0</v>
+        <v>6.0</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D23" s="10">
         <v>0.0</v>
@@ -4865,8 +4883,8 @@
       <c r="E23" s="10">
         <v>1.0</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>12</v>
+      <c r="F23" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>83</v>
@@ -4874,9 +4892,11 @@
       <c r="H23" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
+      <c r="I23" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
@@ -4897,30 +4917,32 @@
     <row r="24">
       <c r="A24" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B24" s="10">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D24" s="10">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E24" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>12</v>
+        <v>4.0</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>83</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="I24" s="10"/>
+        <v>109</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -4943,13 +4965,13 @@
     <row r="25">
       <c r="A25" s="10">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B25" s="10">
-        <v>3.0</v>
+        <v>-15.0</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D25" s="10">
         <v>0.0</v>
@@ -4957,14 +4979,14 @@
       <c r="E25" s="10">
         <v>1.0</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>23</v>
+      <c r="F25" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="11"/>
@@ -4989,32 +5011,30 @@
     <row r="26">
       <c r="A26" s="10">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B26" s="10">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D26" s="10">
         <v>0.0</v>
       </c>
       <c r="E26" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>20</v>
+        <v>1.0</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="I26" s="10" t="s">
         <v>114</v>
       </c>
+      <c r="I26" s="10"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -5034,13 +5054,13 @@
       <c r="Z26" s="11"/>
       <c r="AA26" s="11"/>
     </row>
-    <row r="27">
+    <row r="27" hidden="1">
       <c r="A27" s="10">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B27" s="10">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>115</v>
@@ -5049,22 +5069,22 @@
         <v>0.0</v>
       </c>
       <c r="E27" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>31</v>
+        <v>1.0</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
@@ -5081,17 +5101,36 @@
       <c r="AA27" s="11"/>
     </row>
     <row r="28" hidden="1">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="14"/>
+      <c r="A28" s="10">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B28" s="10">
+        <v>19.0</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
@@ -5110,19 +5149,36 @@
       <c r="AA28" s="11"/>
     </row>
     <row r="29" hidden="1">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
+      <c r="A29" s="10">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B29" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
       <c r="K29" s="14"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
@@ -5138,7 +5194,7 @@
       <c r="Z29" s="11"/>
       <c r="AA29" s="11"/>
     </row>
-    <row r="30" hidden="1">
+    <row r="30">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -5150,8 +5206,8 @@
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="14"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
@@ -5167,20 +5223,20 @@
       <c r="Z30" s="11"/>
       <c r="AA30" s="11"/>
     </row>
-    <row r="31" hidden="1">
+    <row r="31">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
-      <c r="F31" s="6"/>
+      <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="14"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
@@ -5196,17 +5252,18 @@
       <c r="Z31" s="11"/>
       <c r="AA31" s="11"/>
     </row>
-    <row r="32" hidden="1">
+    <row r="32">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="14"/>
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
@@ -5224,17 +5281,18 @@
       <c r="Z32" s="11"/>
       <c r="AA32" s="11"/>
     </row>
-    <row r="33" hidden="1">
+    <row r="33">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="14"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
@@ -5252,17 +5310,18 @@
       <c r="Z33" s="11"/>
       <c r="AA33" s="11"/>
     </row>
-    <row r="34" hidden="1">
+    <row r="34">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
       <c r="G34" s="10"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="14"/>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
@@ -5280,17 +5339,18 @@
       <c r="Z34" s="11"/>
       <c r="AA34" s="11"/>
     </row>
-    <row r="35" hidden="1">
+    <row r="35">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
+      <c r="F35" s="6"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="14"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
@@ -5308,7 +5368,7 @@
       <c r="Z35" s="11"/>
       <c r="AA35" s="11"/>
     </row>
-    <row r="36" hidden="1">
+    <row r="36">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -5316,7 +5376,7 @@
       <c r="E36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
-      <c r="I36" s="11"/>
+      <c r="I36" s="10"/>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
@@ -5336,7 +5396,7 @@
       <c r="Z36" s="11"/>
       <c r="AA36" s="11"/>
     </row>
-    <row r="37" hidden="1">
+    <row r="37">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -5364,14 +5424,14 @@
       <c r="Z37" s="11"/>
       <c r="AA37" s="11"/>
     </row>
-    <row r="38" hidden="1">
+    <row r="38">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
+      <c r="H38" s="11"/>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
@@ -5392,7 +5452,7 @@
       <c r="Z38" s="11"/>
       <c r="AA38" s="11"/>
     </row>
-    <row r="39" hidden="1">
+    <row r="39">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -5400,7 +5460,7 @@
       <c r="E39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
-      <c r="I39" s="11"/>
+      <c r="I39" s="14"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
@@ -5420,7 +5480,7 @@
       <c r="Z39" s="11"/>
       <c r="AA39" s="11"/>
     </row>
-    <row r="40" hidden="1">
+    <row r="40">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -5448,7 +5508,7 @@
       <c r="Z40" s="11"/>
       <c r="AA40" s="11"/>
     </row>
-    <row r="41" hidden="1">
+    <row r="41">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -5476,7 +5536,7 @@
       <c r="Z41" s="11"/>
       <c r="AA41" s="11"/>
     </row>
-    <row r="42" hidden="1">
+    <row r="42">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -5504,7 +5564,7 @@
       <c r="Z42" s="11"/>
       <c r="AA42" s="11"/>
     </row>
-    <row r="43" hidden="1">
+    <row r="43">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -5512,7 +5572,7 @@
       <c r="E43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
+      <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
@@ -5532,16 +5592,15 @@
       <c r="Z43" s="11"/>
       <c r="AA43" s="11"/>
     </row>
-    <row r="44" hidden="1">
+    <row r="44">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
+      <c r="I44" s="11"/>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
       <c r="L44" s="11"/>
@@ -5561,16 +5620,15 @@
       <c r="Z44" s="11"/>
       <c r="AA44" s="11"/>
     </row>
-    <row r="45" hidden="1">
+    <row r="45">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
+      <c r="I45" s="11"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
@@ -5590,16 +5648,15 @@
       <c r="Z45" s="11"/>
       <c r="AA45" s="11"/>
     </row>
-    <row r="46" hidden="1">
+    <row r="46">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
-      <c r="I46" s="14"/>
+      <c r="I46" s="11"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
@@ -5619,11 +5676,21 @@
       <c r="Z46" s="11"/>
       <c r="AA46" s="11"/>
     </row>
-    <row r="47" hidden="1">
+    <row r="47">
       <c r="A47" s="10"/>
-      <c r="F47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
       <c r="G47" s="10"/>
-      <c r="I47" s="14"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
       <c r="R47" s="11"/>
@@ -5637,10 +5704,22 @@
       <c r="Z47" s="11"/>
       <c r="AA47" s="11"/>
     </row>
-    <row r="48" hidden="1">
+    <row r="48">
       <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
       <c r="P48" s="11"/>
       <c r="Q48" s="11"/>
       <c r="R48" s="11"/>
@@ -5654,10 +5733,22 @@
       <c r="Z48" s="11"/>
       <c r="AA48" s="11"/>
     </row>
-    <row r="49" hidden="1">
+    <row r="49">
       <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
       <c r="R49" s="11"/>
@@ -5671,10 +5762,22 @@
       <c r="Z49" s="11"/>
       <c r="AA49" s="11"/>
     </row>
-    <row r="50" hidden="1">
+    <row r="50">
       <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
@@ -5688,18 +5791,11 @@
       <c r="Z50" s="11"/>
       <c r="AA50" s="11"/>
     </row>
-    <row r="51" hidden="1">
+    <row r="51">
       <c r="A51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
+      <c r="I51" s="14"/>
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
@@ -5713,18 +5809,10 @@
       <c r="Z51" s="11"/>
       <c r="AA51" s="11"/>
     </row>
-    <row r="52" hidden="1">
+    <row r="52">
       <c r="A52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
       <c r="R52" s="11"/>
@@ -5738,18 +5826,10 @@
       <c r="Z52" s="11"/>
       <c r="AA52" s="11"/>
     </row>
-    <row r="53" hidden="1">
+    <row r="53">
       <c r="A53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
       <c r="R53" s="11"/>
@@ -5763,19 +5843,10 @@
       <c r="Z53" s="11"/>
       <c r="AA53" s="11"/>
     </row>
-    <row r="54" hidden="1">
+    <row r="54">
       <c r="A54" s="10"/>
-      <c r="C54" s="10"/>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
       <c r="R54" s="11"/>
@@ -5789,9 +5860,8 @@
       <c r="Z54" s="11"/>
       <c r="AA54" s="11"/>
     </row>
-    <row r="55" hidden="1">
+    <row r="55">
       <c r="A55" s="10"/>
-      <c r="C55" s="10"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
@@ -5815,9 +5885,8 @@
       <c r="Z55" s="11"/>
       <c r="AA55" s="11"/>
     </row>
-    <row r="56" hidden="1">
+    <row r="56">
       <c r="A56" s="10"/>
-      <c r="C56" s="10"/>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
@@ -5841,9 +5910,8 @@
       <c r="Z56" s="11"/>
       <c r="AA56" s="11"/>
     </row>
-    <row r="57" hidden="1">
+    <row r="57">
       <c r="A57" s="10"/>
-      <c r="C57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
@@ -5867,7 +5935,7 @@
       <c r="Z57" s="11"/>
       <c r="AA57" s="11"/>
     </row>
-    <row r="58" hidden="1">
+    <row r="58">
       <c r="A58" s="10"/>
       <c r="C58" s="10"/>
       <c r="F58" s="10"/>
@@ -5893,7 +5961,7 @@
       <c r="Z58" s="11"/>
       <c r="AA58" s="11"/>
     </row>
-    <row r="59" hidden="1">
+    <row r="59">
       <c r="A59" s="10"/>
       <c r="C59" s="10"/>
       <c r="F59" s="10"/>
@@ -5919,7 +5987,7 @@
       <c r="Z59" s="11"/>
       <c r="AA59" s="11"/>
     </row>
-    <row r="60" hidden="1">
+    <row r="60">
       <c r="A60" s="10"/>
       <c r="C60" s="10"/>
       <c r="F60" s="10"/>
@@ -5947,10 +6015,10 @@
     </row>
     <row r="61">
       <c r="A61" s="10"/>
-      <c r="C61" s="11"/>
+      <c r="C61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
-      <c r="H61" s="11"/>
+      <c r="H61" s="10"/>
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
@@ -5972,14 +6040,11 @@
       <c r="AA61" s="11"/>
     </row>
     <row r="62">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
+      <c r="A62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
@@ -6001,14 +6066,11 @@
       <c r="AA62" s="11"/>
     </row>
     <row r="63">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
+      <c r="A63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
@@ -6030,14 +6092,11 @@
       <c r="AA63" s="11"/>
     </row>
     <row r="64">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
+      <c r="A64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
@@ -6059,13 +6118,10 @@
       <c r="AA64" s="11"/>
     </row>
     <row r="65">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
+      <c r="A65" s="10"/>
       <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
       <c r="J65" s="11"/>
@@ -33724,24 +33780,138 @@
       <c r="Z1018" s="11"/>
       <c r="AA1018" s="11"/>
     </row>
+    <row r="1019">
+      <c r="A1019" s="11"/>
+      <c r="B1019" s="11"/>
+      <c r="C1019" s="11"/>
+      <c r="D1019" s="11"/>
+      <c r="E1019" s="11"/>
+      <c r="F1019" s="11"/>
+      <c r="G1019" s="11"/>
+      <c r="H1019" s="11"/>
+      <c r="I1019" s="11"/>
+      <c r="J1019" s="11"/>
+      <c r="K1019" s="11"/>
+      <c r="L1019" s="11"/>
+      <c r="M1019" s="11"/>
+      <c r="N1019" s="11"/>
+      <c r="O1019" s="11"/>
+      <c r="P1019" s="11"/>
+      <c r="Q1019" s="11"/>
+      <c r="R1019" s="11"/>
+      <c r="S1019" s="11"/>
+      <c r="T1019" s="11"/>
+      <c r="U1019" s="11"/>
+      <c r="V1019" s="11"/>
+      <c r="W1019" s="11"/>
+      <c r="X1019" s="11"/>
+      <c r="Y1019" s="11"/>
+      <c r="Z1019" s="11"/>
+      <c r="AA1019" s="11"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="11"/>
+      <c r="B1020" s="11"/>
+      <c r="C1020" s="11"/>
+      <c r="D1020" s="11"/>
+      <c r="E1020" s="11"/>
+      <c r="F1020" s="11"/>
+      <c r="G1020" s="11"/>
+      <c r="H1020" s="11"/>
+      <c r="I1020" s="11"/>
+      <c r="J1020" s="11"/>
+      <c r="K1020" s="11"/>
+      <c r="L1020" s="11"/>
+      <c r="M1020" s="11"/>
+      <c r="N1020" s="11"/>
+      <c r="O1020" s="11"/>
+      <c r="P1020" s="11"/>
+      <c r="Q1020" s="11"/>
+      <c r="R1020" s="11"/>
+      <c r="S1020" s="11"/>
+      <c r="T1020" s="11"/>
+      <c r="U1020" s="11"/>
+      <c r="V1020" s="11"/>
+      <c r="W1020" s="11"/>
+      <c r="X1020" s="11"/>
+      <c r="Y1020" s="11"/>
+      <c r="Z1020" s="11"/>
+      <c r="AA1020" s="11"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="11"/>
+      <c r="B1021" s="11"/>
+      <c r="C1021" s="11"/>
+      <c r="D1021" s="11"/>
+      <c r="E1021" s="11"/>
+      <c r="F1021" s="11"/>
+      <c r="G1021" s="11"/>
+      <c r="H1021" s="11"/>
+      <c r="I1021" s="11"/>
+      <c r="J1021" s="11"/>
+      <c r="K1021" s="11"/>
+      <c r="L1021" s="11"/>
+      <c r="M1021" s="11"/>
+      <c r="N1021" s="11"/>
+      <c r="O1021" s="11"/>
+      <c r="P1021" s="11"/>
+      <c r="Q1021" s="11"/>
+      <c r="R1021" s="11"/>
+      <c r="S1021" s="11"/>
+      <c r="T1021" s="11"/>
+      <c r="U1021" s="11"/>
+      <c r="V1021" s="11"/>
+      <c r="W1021" s="11"/>
+      <c r="X1021" s="11"/>
+      <c r="Y1021" s="11"/>
+      <c r="Z1021" s="11"/>
+      <c r="AA1021" s="11"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="11"/>
+      <c r="B1022" s="11"/>
+      <c r="C1022" s="11"/>
+      <c r="D1022" s="11"/>
+      <c r="E1022" s="11"/>
+      <c r="F1022" s="11"/>
+      <c r="G1022" s="11"/>
+      <c r="H1022" s="11"/>
+      <c r="I1022" s="11"/>
+      <c r="J1022" s="11"/>
+      <c r="K1022" s="11"/>
+      <c r="L1022" s="11"/>
+      <c r="M1022" s="11"/>
+      <c r="N1022" s="11"/>
+      <c r="O1022" s="11"/>
+      <c r="P1022" s="11"/>
+      <c r="Q1022" s="11"/>
+      <c r="R1022" s="11"/>
+      <c r="S1022" s="11"/>
+      <c r="T1022" s="11"/>
+      <c r="U1022" s="11"/>
+      <c r="V1022" s="11"/>
+      <c r="W1022" s="11"/>
+      <c r="X1022" s="11"/>
+      <c r="Y1022" s="11"/>
+      <c r="Z1022" s="11"/>
+      <c r="AA1022" s="11"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$O$60">
-    <filterColumn colId="1">
-      <filters>
+  <autoFilter ref="$A$1:$O$31">
+    <filterColumn colId="0">
+      <filters blank="1">
         <filter val="11"/>
-        <filter val="12"/>
-        <filter val="-1"/>
+        <filter val="1"/>
+        <filter val="4"/>
         <filter val="15"/>
         <filter val="16"/>
-        <filter val="19"/>
-        <filter val="1"/>
-        <filter val="-15"/>
-        <filter val="3"/>
+        <filter val="6"/>
+        <filter val="20"/>
         <filter val="10"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="F13 F17 F21 F23:F26 F31">
+  <conditionalFormatting sqref="F13 F17:F18 F22:F23 F25:F28 F35">
     <cfRule type="containsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(F13))=0</formula>
     </cfRule>
@@ -33759,6 +33929,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="28.63"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
@@ -33816,7 +33989,7 @@
         <v>-1.0</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D2" s="10">
         <v>0.0</v>
@@ -33831,7 +34004,7 @@
         <v>83</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="11"/>
@@ -33850,7 +34023,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D3" s="10">
         <v>0.0</v>
@@ -33865,14 +34038,14 @@
         <v>83</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="12" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
@@ -33903,14 +34076,14 @@
         <v>83</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="12" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
@@ -33926,7 +34099,7 @@
         <v>-1.0</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D5" s="10">
         <v>1.0</v>
@@ -33958,7 +34131,7 @@
         <v>-1.0</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D6" s="10">
         <v>0.0</v>
@@ -33973,7 +34146,7 @@
         <v>83</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
@@ -33992,7 +34165,7 @@
         <v>-2.0</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D7" s="10">
         <v>0.0</v>
@@ -34007,16 +34180,16 @@
         <v>83</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
@@ -34032,7 +34205,7 @@
         <v>2.0</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D8" s="10">
         <v>0.0</v>
@@ -34047,10 +34220,10 @@
         <v>83</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -34068,7 +34241,7 @@
         <v>3.0</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D9" s="10">
         <v>0.0</v>
@@ -34080,19 +34253,19 @@
         <v>83</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -34107,7 +34280,7 @@
         <v>3.0</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D10" s="10">
         <v>0.0</v>
@@ -34122,14 +34295,14 @@
         <v>55</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="10" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
@@ -34144,7 +34317,7 @@
         <v>3.0</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D11" s="10">
         <v>0.0</v>
@@ -34159,14 +34332,14 @@
         <v>83</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="10" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
@@ -34182,7 +34355,7 @@
         <v>4.0</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D12" s="10">
         <v>0.0</v>
@@ -34197,10 +34370,10 @@
         <v>83</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
@@ -34217,7 +34390,7 @@
         <v>4.0</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D13" s="10">
         <v>0.0</v>
@@ -34232,10 +34405,10 @@
         <v>83</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -34253,7 +34426,7 @@
         <v>4.0</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D14" s="10">
         <v>0.0</v>
@@ -34268,16 +34441,16 @@
         <v>83</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
@@ -34292,7 +34465,7 @@
         <v>4.0</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D15" s="10">
         <v>0.0</v>
@@ -34324,7 +34497,7 @@
         <v>5.0</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D16" s="10">
         <v>0.0</v>
@@ -34339,22 +34512,22 @@
         <v>83</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="M16" s="15" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
@@ -34368,7 +34541,7 @@
         <v>5.0</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D17" s="10">
         <v>0.0</v>
@@ -34383,10 +34556,10 @@
         <v>83</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -34404,7 +34577,7 @@
         <v>5.0</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D18" s="10">
         <v>0.0</v>
@@ -34419,10 +34592,10 @@
         <v>83</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -34440,7 +34613,7 @@
         <v>6.0</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D19" s="10">
         <v>0.0</v>
@@ -34449,22 +34622,22 @@
         <v>2.0</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>83</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
@@ -34480,7 +34653,7 @@
         <v>7.0</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D20" s="10">
         <v>0.0</v>
@@ -34495,10 +34668,10 @@
         <v>83</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
@@ -34516,7 +34689,7 @@
         <v>-7.0</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D21" s="10">
         <v>0.0</v>
@@ -34531,7 +34704,7 @@
         <v>83</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="11"/>
@@ -34550,7 +34723,7 @@
         <v>8.0</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D22" s="10">
         <v>0.0</v>
@@ -34559,16 +34732,16 @@
         <v>1.0</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>83</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
@@ -34586,7 +34759,7 @@
         <v>9.0</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D23" s="10">
         <v>0.0</v>
@@ -34601,10 +34774,10 @@
         <v>83</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
@@ -34622,7 +34795,7 @@
         <v>10.0</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D24" s="10">
         <v>1.0</v>
@@ -34637,22 +34810,22 @@
         <v>83</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
@@ -34666,7 +34839,7 @@
         <v>10.0</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D25" s="10">
         <v>1.0</v>
@@ -34681,16 +34854,16 @@
         <v>83</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="I25" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="J25" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="J25" s="10" t="s">
-        <v>196</v>
-      </c>
       <c r="K25" s="16" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
@@ -34706,7 +34879,7 @@
         <v>10.0</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D26" s="10">
         <v>1.0</v>
@@ -34721,16 +34894,16 @@
         <v>83</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
@@ -34746,7 +34919,7 @@
         <v>10.0</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D27" s="10">
         <v>1.0</v>
@@ -34761,10 +34934,10 @@
         <v>83</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="14"/>
@@ -34781,7 +34954,7 @@
         <v>15.0</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D28" s="10">
         <v>1.0</v>
@@ -34796,7 +34969,7 @@
         <v>83</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
@@ -34815,7 +34988,7 @@
         <v>11.0</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D29" s="10">
         <v>0.0</v>
@@ -34830,10 +35003,10 @@
         <v>83</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
@@ -34851,7 +35024,7 @@
         <v>-11.0</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D30" s="10">
         <v>0.0</v>
@@ -34866,7 +35039,7 @@
         <v>83</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
@@ -34885,7 +35058,7 @@
         <v>12.0</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D31" s="10">
         <v>0.0</v>
@@ -34894,7 +35067,7 @@
         <v>1.0</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>83</v>
@@ -34917,7 +35090,7 @@
         <v>13.0</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D32" s="10">
         <v>0.0</v>
@@ -34932,10 +35105,10 @@
         <v>83</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
@@ -34953,7 +35126,7 @@
         <v>13.0</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D33" s="10">
         <v>0.0</v>
@@ -34968,7 +35141,7 @@
         <v>83</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
@@ -34987,7 +35160,7 @@
         <v>13.0</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D34" s="10">
         <v>0.0</v>
@@ -35002,7 +35175,7 @@
         <v>83</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
@@ -35021,7 +35194,7 @@
         <v>13.0</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D35" s="10">
         <v>0.0</v>
@@ -35036,7 +35209,7 @@
         <v>83</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
@@ -35055,7 +35228,7 @@
         <v>13.0</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D36" s="10">
         <v>0.0</v>
@@ -35070,7 +35243,7 @@
         <v>83</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
@@ -35089,7 +35262,7 @@
         <v>13.0</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D37" s="10">
         <v>1.0</v>
@@ -35104,7 +35277,7 @@
         <v>83</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
@@ -35123,7 +35296,7 @@
         <v>13.0</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D38" s="10">
         <v>0.0</v>
@@ -35138,7 +35311,7 @@
         <v>83</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
@@ -35157,7 +35330,7 @@
         <v>13.0</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D39" s="10">
         <v>0.0</v>
@@ -35172,7 +35345,7 @@
         <v>83</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
@@ -35190,7 +35363,7 @@
         <v>14.0</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D40" s="10">
         <v>1.0</v>
@@ -35205,10 +35378,10 @@
         <v>83</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
@@ -35226,7 +35399,7 @@
         <v>14.0</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D41" s="10">
         <v>0.0</v>
@@ -35235,13 +35408,13 @@
         <v>1.0</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="I41" s="10"/>
       <c r="J41" s="11"/>
@@ -35260,7 +35433,7 @@
         <v>14.0</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D42" s="10">
         <v>0.0</v>
@@ -35269,16 +35442,16 @@
         <v>2.0</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
@@ -35296,7 +35469,7 @@
         <v>14.0</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D43" s="10">
         <v>0.0</v>
@@ -35305,16 +35478,16 @@
         <v>3.0</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
@@ -35332,7 +35505,7 @@
         <v>14.0</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D44" s="3">
         <v>0.0</v>
@@ -35341,13 +35514,13 @@
         <v>4.0</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="I44" s="14"/>
     </row>
@@ -35360,7 +35533,7 @@
         <v>14.0</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D45" s="3">
         <v>0.0</v>
@@ -35369,13 +35542,13 @@
         <v>5.0</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46">
@@ -35387,7 +35560,7 @@
         <v>14.0</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D46" s="3">
         <v>0.0</v>
@@ -35396,13 +35569,13 @@
         <v>6.0</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47">
@@ -36523,7 +36696,7 @@
         <v>2.0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C2" s="4">
         <v>0.0</v>
@@ -36538,16 +36711,16 @@
         <v>83</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="N2" s="18"/>
     </row>
@@ -36556,7 +36729,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C3" s="4">
         <v>1.0</v>
@@ -36571,16 +36744,16 @@
         <v>83</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
@@ -36591,7 +36764,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C4" s="4">
         <v>0.0</v>
@@ -36606,16 +36779,16 @@
         <v>83</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
@@ -36627,7 +36800,7 @@
         <v>5.0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C5" s="4">
         <v>0.0</v>
@@ -36642,16 +36815,16 @@
         <v>83</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="N5" s="18"/>
     </row>
@@ -36660,7 +36833,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C6" s="4">
         <v>1.0</v>
@@ -36675,16 +36848,16 @@
         <v>83</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
@@ -36695,7 +36868,7 @@
         <v>7.0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C7" s="4">
         <v>0.0</v>
@@ -36710,16 +36883,16 @@
         <v>83</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
@@ -36731,7 +36904,7 @@
         <v>9.0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C8" s="4">
         <v>0.0</v>
@@ -36746,10 +36919,10 @@
         <v>83</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9">
@@ -36757,7 +36930,7 @@
         <v>1.0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C9" s="4">
         <v>0.0</v>
@@ -36772,13 +36945,13 @@
         <v>83</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
@@ -36790,7 +36963,7 @@
         <v>1.0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C10" s="4">
         <v>0.0</v>
@@ -36805,7 +36978,7 @@
         <v>83</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
@@ -36965,7 +37138,7 @@
         <v>1.0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>18</v>
@@ -37000,7 +37173,7 @@
         <v>2.0</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>20</v>
@@ -37070,7 +37243,7 @@
         <v>4.0</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>20</v>
@@ -37140,7 +37313,7 @@
         <v>6.0</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>23</v>
@@ -37175,7 +37348,7 @@
         <v>7.0</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>20</v>
@@ -37210,10 +37383,10 @@
         <v>8.0</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E11" s="4">
         <v>0.0</v>
@@ -37248,7 +37421,7 @@
         <v>30</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E12" s="3">
         <v>0.0</v>
@@ -37350,7 +37523,7 @@
         <v>10.0</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>37</v>

--- a/db/DB.xlsx
+++ b/db/DB.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">areas!$A$1:$K$18</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">actividades!$A$1:$O$31</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">actividades!$A$1:$O$32</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="289">
   <si>
     <t>Orden de aparición</t>
   </si>
@@ -283,13 +283,16 @@
     <t>Apoyé a mi chico en la crisis.</t>
   </si>
   <si>
-    <t>Ir al gym</t>
+    <t>Crear el hábito</t>
   </si>
   <si>
     <t>white</t>
   </si>
   <si>
-    <t>Hoy podrías intentar ir si tienes tiempito. Besitossss.</t>
+    <t>Amor! pensemos en una forma de crear el hábito. Para eso te dejo este video de &lt;b&gt;atomic habits&lt;/b&gt;. Piensa en cada uno de los momentos que te dicen ahí :) Este libro es buenísimo. Haz clic en la foto y te lleva al &lt;u&gt;video de youtube&lt;/u&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="https://youtu.be/IHrdOTSPm1I"&gt;&lt;img src="./img/atomichabits.png" alt="Libro atomic habits" style="width:100%" /&gt;&lt;/a&gt;</t>
   </si>
   <si>
     <t>Enseñanza</t>
@@ -298,19 +301,19 @@
     <t>Hoy voy a la i en la tarde, vamos juntos guapa.</t>
   </si>
   <si>
-    <t>Alabanza</t>
+    <t>Estudio Bíblico</t>
   </si>
   <si>
-    <t>Tu novio va a ir a alabanza hoy a las 7 de la noche bella. Aunque estoy atrasado con Vitruvio :( voy a hacer lo más posible. Pero ve tú a la hora que prefieras amor.</t>
+    <t>Vamos en la tardecita amor :3 juntos.</t>
   </si>
   <si>
     <t>Oración y lectura</t>
   </si>
   <si>
-    <t>Amor, toma un momento para ver un clip de estudio bíblico y orar hoy. 10 minutos. Tú puedes. Te dejo la página donde están las meditaciones cortitas. Piensa que Dios nos puso juntos en la vida. Te amooo.</t>
+    <t>De nuevo te dejo los clips de meditaciones amor mío. Saca un momentito, lo ves y oras.</t>
   </si>
   <si>
-    <t>&lt;a target="_blank" href="https://www.idmji.org/meditaciones/"&gt;&lt;img src="./img/meditaciones.jpg" alt="Captura de pantalla IDMJI meditaciones" style="width:100%" /&gt;&lt;/a&gt;</t>
+    <t>&lt;a target="_blank" href="https://www.idmji.org/meditaciones/"&gt;&lt;img src="./img/meditaciones.png" alt="Captura de pantalla IDMJI meditaciones" style="width:100%" /&gt;&lt;/a&gt;</t>
   </si>
   <si>
     <t>Libro: provisional</t>
@@ -319,7 +322,7 @@
     <t>Amor, yo se que le estás dedicando mucho al libro por estos días, pero no deberías descuidar tu creación de obra. Hoy te propondría que tomes un break del libro y dediques estas horas a crear obra.</t>
   </si>
   <si>
-    <t>¡Piensa en qué proyecto podrías comenzar y dale de una! No paremos la produccion de obra preciosa. Así sea poquito tiempo.</t>
+    <t>Depronto hoy puedes ir por los materiales que querías comprar amor mío. Y seguir trabajando en tus degradé. Usa las hojas que ya usaste por detrás para seguirlo practicando antes de pasar al definitivo.</t>
   </si>
   <si>
     <t>Esta área</t>
@@ -358,7 +361,7 @@
     <t>Corazón, una empresa de inteligencia artificial tiene dos características. Primero es altamente escalable. Y segundo, consume muchos recursos incluyendo entre esos electricidad. Nosotros vamos a estar operando completamente en la nube, (en Google Cloud) quienes tienen sus propias políticas de sostenibilidad. Ya próximamente vamos a estar yendo a eventos en sostenibilidad. Además, tú vas a seguir estudiando el curso de ESG. Te propongo que comencemos a desarrollar ya la estrategia de sostenibilidad para AxonIA. Para poder empezar, te dejo unas fuentes para informarte sobre consideraciones clave en el contexto sostenibilidad - computación. Lo primero es identificar nuestros objetivos estratégicos. &lt;u&gt;¿A qué deberíamos querer apuntarle?&lt;/u&gt;. Para esto vas a necesitar entender a profundidad todas nuestras actividades en AxonIA, incluyendo lo técnico. Yo tengo pendiente cuadrar una reunión con tu familia, ahí vamos a ver este tema. Revisa por una parte qué consideraciones hay en &lt;u&gt;Cloud&lt;/u&gt; y en empresas &lt;u&gt;que usan cloud&lt;/u&gt;. Como Netflix o Rappi. Fíjate en sus objetivos estratégicos. Familiarízate con otras empresas insignia que usan o crean tecnología, tal vez Bancolombia, o Bodytech. La pregunta clave es &lt;u&gt;¿Qué tipo de objetivos estratégicos es relevante considerar para AxonIA en ESG?&lt;/u&gt;.</t>
   </si>
   <si>
-    <t>&lt;a target="_blank" href="https://youtu.be/N0SYCyS2xZA"&gt;Cloud Computing Explained en 2 minutos&lt;/a&gt;&lt;/br&gt;&lt;a target="_blank" href="https://youtu.be/d6lvY6H8Xrg"&gt;Green Cloud&lt;/a&gt;&lt;/br&gt;&lt;a target="_blank" href="https://youtu.be/q78KYBps-zY"&gt;IA y Sustainability&lt;/a&gt;&lt;/br&gt;&lt;a target="_blank" href="https://youtu.be/QmyL-2Ji0a4"&gt;Contexto Computing Sustainability&lt;/a&gt;&lt;/br&gt;&lt;a target="_blank" href="https://about.netflix.com/es/sustainability"&gt;Netflix Sustainability&lt;/a&gt;&lt;/br&gt;&lt;a target="_blank" href="https://about.rappi.com/our-impact"&gt;Rappi Sustainability&lt;/a&gt;&lt;/br&gt;&lt;a target="_blank" href="https://www.apple.com/environment/"&gt;&lt;img src="./img/apple.png" alt="Captura de pantalla apple website" style="width:100%" /&gt;&lt;/a&gt;</t>
+    <t>&lt;h3 style="color:white;"&gt;Algunas fuentes a revisar:&lt;/h3&gt;&lt;a style="color:white;"target="_blank" href="https://youtu.be/N0SYCyS2xZA"&gt;Cloud Computing Explained en 2 minutos&lt;/a&gt;&lt;/br&gt;&lt;a style="color:white;"target="_blank" href="https://youtu.be/d6lvY6H8Xrg"&gt;Green Cloud&lt;/a&gt;&lt;/br&gt;&lt;a style="color:white;"target="_blank" href="https://youtu.be/q78KYBps-zY"&gt;IA y Sustainability&lt;/a&gt;&lt;/br&gt;&lt;a style="color:white;"target="_blank" href="https://youtu.be/QmyL-2Ji0a4"&gt;Contexto Computing Sustainability&lt;/a&gt;&lt;/br&gt;&lt;a style="color:white;"target="_blank" href="https://about.netflix.com/es/sustainability"&gt;Netflix Sustainability&lt;/a&gt;&lt;/br&gt;&lt;a style="color:white;" target="_blank" href="https://about.rappi.com/our-impact"&gt;Rappi Sustainability&lt;/a&gt;&lt;/br&gt;&lt;a style="color:white;"target="_blank" href="https://www.apple.com/environment/"&gt;&lt;img src="./img/apple.png" alt="Captura de pantalla apple website" style="width:100%" /&gt;&lt;/a&gt;</t>
   </si>
   <si>
     <t>Marco</t>
@@ -382,13 +385,19 @@
     <t>Amada, buenos días!!! Hoy iniciamos ya todas nuestras líneas estratégicas. Recuerda ir leyendo a lo largo del día cada área. Bella, eres mi alegría constante. Agradezco a Dios cada momento que me da contgo. Mira de una vez lo de Do Stuff en sostenibilidad y si quieres esta tarde nos vemos, tengo una horita para regarte amor. Te amo! Quiero verte siempre. Hoy dormí poquito, pero voy con toda la energía. Tu novio.</t>
   </si>
   <si>
-    <t>Mapear de nuevo</t>
+    <t>Avancemos en las líneas</t>
+  </si>
+  <si>
+    <t>Mi corazón la pasé delicioso el fin de semana! Gracias por tu amor y tu cariño. Me encanta cuando vienes por mi barrio. Vamos adelante, con constancia. Siento que deberíamos retomar pequeñas conversaciones estratégicas para no perder de vista los objetivos sí es muy importante. Depronto tomamos un cafecito en Moreno esta semana y hablamos de nuestros objetivos.Shi? Me puedes agendar de una porfis? Te amo!!!</t>
+  </si>
+  <si>
+    <t>Aplicar</t>
   </si>
   <si>
     <t>White</t>
   </si>
   <si>
-    <t>Vida, tú me mandaste un par de convocatorias, volvamos a mapear organizadamente para comenzar a aplicar la siguiente semana. Dedícale un ratito, con calmita. Vamos adelante hermosa. Remando con calma.</t>
+    <t>Amor, deberíamos escribirle a Carlos hoy para tratar de tomar un cafecito los tres. ¿Será que le escribo yo? Si quieres manda una que otra aplicación, hoy hay tiempo para eso vida. Te amo mucho.</t>
   </si>
   <si>
     <t>Artistas inspiradores</t>
@@ -1567,7 +1576,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="8" hidden="1">
+    <row r="8">
       <c r="A8" s="4">
         <v>4.0</v>
       </c>
@@ -1672,7 +1681,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="1">
       <c r="A11" s="4">
         <v>5.0</v>
       </c>
@@ -1742,7 +1751,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="1">
       <c r="A13" s="4">
         <v>7.0</v>
       </c>
@@ -3794,12 +3803,13 @@
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$K$18">
-    <filterColumn colId="6">
+    <filterColumn colId="4">
       <filters>
         <filter val="1"/>
         <filter val="100"/>
         <filter val="2"/>
         <filter val="3"/>
+        <filter val="4"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3896,9 +3906,9 @@
       <c r="Z1" s="9"/>
       <c r="AA1" s="9"/>
     </row>
-    <row r="2">
+    <row r="2" hidden="1">
       <c r="A2" s="10">
-        <f t="shared" ref="A2:A29" si="1">ABS(B2)</f>
+        <f t="shared" ref="A2:A30" si="1">ABS(B2)</f>
         <v>16</v>
       </c>
       <c r="B2" s="3">
@@ -3942,7 +3952,7 @@
       <c r="Z2" s="11"/>
       <c r="AA2" s="11"/>
     </row>
-    <row r="3">
+    <row r="3" hidden="1">
       <c r="A3" s="10">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -3988,7 +3998,7 @@
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
     </row>
-    <row r="4">
+    <row r="4" hidden="1">
       <c r="A4" s="10">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -4034,7 +4044,7 @@
       <c r="Z4" s="11"/>
       <c r="AA4" s="11"/>
     </row>
-    <row r="5">
+    <row r="5" hidden="1">
       <c r="A5" s="10">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -4080,7 +4090,7 @@
       <c r="Z5" s="11"/>
       <c r="AA5" s="11"/>
     </row>
-    <row r="6">
+    <row r="6" hidden="1">
       <c r="A6" s="10">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -4126,7 +4136,7 @@
       <c r="Z6" s="11"/>
       <c r="AA6" s="11"/>
     </row>
-    <row r="7">
+    <row r="7" hidden="1">
       <c r="A7" s="10">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -4172,7 +4182,7 @@
       <c r="Z7" s="11"/>
       <c r="AA7" s="11"/>
     </row>
-    <row r="8">
+    <row r="8" hidden="1">
       <c r="A8" s="10">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -4218,7 +4228,7 @@
       <c r="Z8" s="11"/>
       <c r="AA8" s="11"/>
     </row>
-    <row r="9">
+    <row r="9" hidden="1">
       <c r="A9" s="10">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -4264,7 +4274,7 @@
       <c r="Z9" s="11"/>
       <c r="AA9" s="11"/>
     </row>
-    <row r="10">
+    <row r="10" hidden="1">
       <c r="A10" s="10">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -4310,7 +4320,7 @@
       <c r="Z10" s="11"/>
       <c r="AA10" s="11"/>
     </row>
-    <row r="11">
+    <row r="11" hidden="1">
       <c r="A11" s="10">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -4356,7 +4366,7 @@
       <c r="Z11" s="11"/>
       <c r="AA11" s="11"/>
     </row>
-    <row r="12">
+    <row r="12" hidden="1">
       <c r="A12" s="10">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -4428,7 +4438,9 @@
       <c r="H13" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="10"/>
+      <c r="I13" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
@@ -4454,10 +4466,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="10">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D14" s="10">
         <v>0.0</v>
@@ -4472,7 +4484,7 @@
         <v>83</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -4500,10 +4512,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="10">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D15" s="10">
         <v>0.0</v>
@@ -4518,7 +4530,7 @@
         <v>83</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -4549,7 +4561,7 @@
         <v>1.0</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D16" s="10">
         <v>0.0</v>
@@ -4564,10 +4576,10 @@
         <v>83</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -4594,10 +4606,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="10">
-        <v>4.0</v>
+        <v>-4.0</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D17" s="10">
         <v>0.0</v>
@@ -4612,7 +4624,7 @@
         <v>83</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -4658,7 +4670,7 @@
         <v>83</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
@@ -4680,7 +4692,7 @@
       <c r="Z18" s="11"/>
       <c r="AA18" s="11"/>
     </row>
-    <row r="19">
+    <row r="19" hidden="1">
       <c r="A19" s="10">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -4689,7 +4701,7 @@
         <v>20.0</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D19" s="10">
         <v>0.0</v>
@@ -4704,7 +4716,7 @@
         <v>83</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
@@ -4726,7 +4738,7 @@
       <c r="Z19" s="11"/>
       <c r="AA19" s="11"/>
     </row>
-    <row r="20">
+    <row r="20" hidden="1">
       <c r="A20" s="10">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -4735,7 +4747,7 @@
         <v>20.0</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D20" s="10">
         <v>0.0</v>
@@ -4750,7 +4762,7 @@
         <v>83</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
@@ -4772,7 +4784,7 @@
       <c r="Z20" s="11"/>
       <c r="AA20" s="11"/>
     </row>
-    <row r="21">
+    <row r="21" hidden="1">
       <c r="A21" s="10">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -4781,7 +4793,7 @@
         <v>-20.0</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D21" s="10">
         <v>0.0</v>
@@ -4796,10 +4808,10 @@
         <v>83</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
@@ -4820,7 +4832,7 @@
       <c r="Z21" s="11"/>
       <c r="AA21" s="11"/>
     </row>
-    <row r="22">
+    <row r="22" hidden="1">
       <c r="A22" s="10">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -4829,7 +4841,7 @@
         <v>-6.0</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D22" s="10">
         <v>0.0</v>
@@ -4844,7 +4856,7 @@
         <v>83</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
@@ -4866,7 +4878,7 @@
       <c r="Z22" s="11"/>
       <c r="AA22" s="11"/>
     </row>
-    <row r="23">
+    <row r="23" hidden="1">
       <c r="A23" s="10">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -4875,7 +4887,7 @@
         <v>6.0</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D23" s="10">
         <v>0.0</v>
@@ -4884,16 +4896,16 @@
         <v>1.0</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>83</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
@@ -4923,7 +4935,7 @@
         <v>10.0</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D24" s="10">
         <v>1.0</v>
@@ -4938,10 +4950,10 @@
         <v>83</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
@@ -4971,7 +4983,7 @@
         <v>-15.0</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D25" s="10">
         <v>0.0</v>
@@ -4986,7 +4998,7 @@
         <v>83</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="11"/>
@@ -5014,10 +5026,10 @@
         <v>15</v>
       </c>
       <c r="B26" s="10">
-        <v>15.0</v>
+        <v>-15.0</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D26" s="10">
         <v>0.0</v>
@@ -5032,7 +5044,7 @@
         <v>83</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="11"/>
@@ -5054,16 +5066,16 @@
       <c r="Z26" s="11"/>
       <c r="AA26" s="11"/>
     </row>
-    <row r="27" hidden="1">
+    <row r="27">
       <c r="A27" s="10">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B27" s="10">
-        <v>3.0</v>
+        <v>15.0</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D27" s="10">
         <v>0.0</v>
@@ -5071,11 +5083,11 @@
       <c r="E27" s="10">
         <v>1.0</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>23</v>
+      <c r="F27" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="H27" s="10" t="s">
         <v>117</v>
@@ -5100,13 +5112,13 @@
       <c r="Z27" s="11"/>
       <c r="AA27" s="11"/>
     </row>
-    <row r="28" hidden="1">
+    <row r="28">
       <c r="A28" s="10">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B28" s="10">
-        <v>19.0</v>
+        <v>3.0</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>118</v>
@@ -5115,20 +5127,18 @@
         <v>0.0</v>
       </c>
       <c r="E28" s="10">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="I28" s="10" t="s">
         <v>120</v>
       </c>
+      <c r="I28" s="10"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
@@ -5151,10 +5161,10 @@
     <row r="29" hidden="1">
       <c r="A29" s="10">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B29" s="10">
-        <v>12.0</v>
+        <v>19.0</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>121</v>
@@ -5165,20 +5175,22 @@
       <c r="E29" s="10">
         <v>0.0</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>31</v>
+      <c r="F29" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
+      <c r="I29" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
@@ -5194,15 +5206,32 @@
       <c r="Z29" s="11"/>
       <c r="AA29" s="11"/>
     </row>
-    <row r="30">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
+    <row r="30" hidden="1">
+      <c r="A30" s="10">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B30" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="14"/>
@@ -5223,7 +5252,7 @@
       <c r="Z30" s="11"/>
       <c r="AA30" s="11"/>
     </row>
-    <row r="31">
+    <row r="31" hidden="1">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -5252,7 +5281,7 @@
       <c r="Z31" s="11"/>
       <c r="AA31" s="11"/>
     </row>
-    <row r="32">
+    <row r="32" hidden="1">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -5264,8 +5293,8 @@
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
       <c r="K32" s="14"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
@@ -5345,7 +5374,7 @@
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
-      <c r="F35" s="6"/>
+      <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
@@ -5374,11 +5403,12 @@
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
+      <c r="F36" s="6"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="14"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
@@ -5404,7 +5434,7 @@
       <c r="E37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
-      <c r="I37" s="11"/>
+      <c r="I37" s="10"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
@@ -5431,7 +5461,7 @@
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="G38" s="10"/>
-      <c r="H38" s="11"/>
+      <c r="H38" s="10"/>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
@@ -5459,8 +5489,8 @@
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="14"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
@@ -5488,7 +5518,7 @@
       <c r="E40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
-      <c r="I40" s="11"/>
+      <c r="I40" s="14"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
@@ -5684,7 +5714,7 @@
       <c r="E47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
+      <c r="I47" s="11"/>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
@@ -5710,7 +5740,6 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
@@ -5771,7 +5800,7 @@
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
-      <c r="I50" s="14"/>
+      <c r="I50" s="10"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
@@ -5793,9 +5822,20 @@
     </row>
     <row r="51">
       <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
       <c r="I51" s="14"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
@@ -5813,6 +5853,7 @@
       <c r="A52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
+      <c r="I52" s="14"/>
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
       <c r="R52" s="11"/>
@@ -5864,14 +5905,6 @@
       <c r="A55" s="10"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
       <c r="R55" s="11"/>
@@ -5937,7 +5970,6 @@
     </row>
     <row r="58">
       <c r="A58" s="10"/>
-      <c r="C58" s="10"/>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
@@ -6119,10 +6151,10 @@
     </row>
     <row r="65">
       <c r="A65" s="10"/>
-      <c r="C65" s="11"/>
+      <c r="C65" s="10"/>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
-      <c r="H65" s="11"/>
+      <c r="H65" s="10"/>
       <c r="I65" s="11"/>
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
@@ -6144,13 +6176,10 @@
       <c r="AA65" s="11"/>
     </row>
     <row r="66">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
+      <c r="A66" s="10"/>
       <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
       <c r="J66" s="11"/>
@@ -33896,22 +33925,49 @@
       <c r="Z1022" s="11"/>
       <c r="AA1022" s="11"/>
     </row>
+    <row r="1023">
+      <c r="A1023" s="11"/>
+      <c r="B1023" s="11"/>
+      <c r="C1023" s="11"/>
+      <c r="D1023" s="11"/>
+      <c r="E1023" s="11"/>
+      <c r="F1023" s="11"/>
+      <c r="G1023" s="11"/>
+      <c r="H1023" s="11"/>
+      <c r="I1023" s="11"/>
+      <c r="J1023" s="11"/>
+      <c r="K1023" s="11"/>
+      <c r="L1023" s="11"/>
+      <c r="M1023" s="11"/>
+      <c r="N1023" s="11"/>
+      <c r="O1023" s="11"/>
+      <c r="P1023" s="11"/>
+      <c r="Q1023" s="11"/>
+      <c r="R1023" s="11"/>
+      <c r="S1023" s="11"/>
+      <c r="T1023" s="11"/>
+      <c r="U1023" s="11"/>
+      <c r="V1023" s="11"/>
+      <c r="W1023" s="11"/>
+      <c r="X1023" s="11"/>
+      <c r="Y1023" s="11"/>
+      <c r="Z1023" s="11"/>
+      <c r="AA1023" s="11"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$O$31">
+  <autoFilter ref="$A$1:$O$32">
     <filterColumn colId="0">
-      <filters blank="1">
+      <filters>
         <filter val="11"/>
         <filter val="1"/>
+        <filter val="3"/>
         <filter val="4"/>
         <filter val="15"/>
-        <filter val="16"/>
-        <filter val="6"/>
-        <filter val="20"/>
         <filter val="10"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="F13 F17:F18 F22:F23 F25:F28 F35">
+  <conditionalFormatting sqref="F13 F17:F18 F22:F23 F25:F29 F36">
     <cfRule type="containsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(F13))=0</formula>
     </cfRule>
@@ -33989,7 +34045,7 @@
         <v>-1.0</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D2" s="10">
         <v>0.0</v>
@@ -34004,7 +34060,7 @@
         <v>83</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="11"/>
@@ -34023,7 +34079,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D3" s="10">
         <v>0.0</v>
@@ -34038,14 +34094,14 @@
         <v>83</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
@@ -34061,7 +34117,7 @@
         <v>1.0</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D4" s="10">
         <v>0.0</v>
@@ -34076,14 +34132,14 @@
         <v>83</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="12" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
@@ -34099,7 +34155,7 @@
         <v>-1.0</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D5" s="10">
         <v>1.0</v>
@@ -34131,7 +34187,7 @@
         <v>-1.0</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D6" s="10">
         <v>0.0</v>
@@ -34146,7 +34202,7 @@
         <v>83</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
@@ -34165,7 +34221,7 @@
         <v>-2.0</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D7" s="10">
         <v>0.0</v>
@@ -34180,16 +34236,16 @@
         <v>83</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
@@ -34205,7 +34261,7 @@
         <v>2.0</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D8" s="10">
         <v>0.0</v>
@@ -34220,10 +34276,10 @@
         <v>83</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -34241,7 +34297,7 @@
         <v>3.0</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D9" s="10">
         <v>0.0</v>
@@ -34253,19 +34309,19 @@
         <v>83</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -34280,7 +34336,7 @@
         <v>3.0</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D10" s="10">
         <v>0.0</v>
@@ -34295,14 +34351,14 @@
         <v>55</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="10" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
@@ -34317,7 +34373,7 @@
         <v>3.0</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D11" s="10">
         <v>0.0</v>
@@ -34332,14 +34388,14 @@
         <v>83</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
@@ -34355,7 +34411,7 @@
         <v>4.0</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D12" s="10">
         <v>0.0</v>
@@ -34370,10 +34426,10 @@
         <v>83</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
@@ -34390,7 +34446,7 @@
         <v>4.0</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D13" s="10">
         <v>0.0</v>
@@ -34405,10 +34461,10 @@
         <v>83</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -34426,7 +34482,7 @@
         <v>4.0</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D14" s="10">
         <v>0.0</v>
@@ -34441,16 +34497,16 @@
         <v>83</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
@@ -34465,7 +34521,7 @@
         <v>4.0</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D15" s="10">
         <v>0.0</v>
@@ -34497,7 +34553,7 @@
         <v>5.0</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D16" s="10">
         <v>0.0</v>
@@ -34512,22 +34568,22 @@
         <v>83</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M16" s="15" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
@@ -34541,7 +34597,7 @@
         <v>5.0</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D17" s="10">
         <v>0.0</v>
@@ -34556,10 +34612,10 @@
         <v>83</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -34577,7 +34633,7 @@
         <v>5.0</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D18" s="10">
         <v>0.0</v>
@@ -34592,10 +34648,10 @@
         <v>83</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -34613,7 +34669,7 @@
         <v>6.0</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D19" s="10">
         <v>0.0</v>
@@ -34622,22 +34678,22 @@
         <v>2.0</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>83</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
@@ -34653,7 +34709,7 @@
         <v>7.0</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D20" s="10">
         <v>0.0</v>
@@ -34668,10 +34724,10 @@
         <v>83</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
@@ -34689,7 +34745,7 @@
         <v>-7.0</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D21" s="10">
         <v>0.0</v>
@@ -34704,7 +34760,7 @@
         <v>83</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="11"/>
@@ -34723,7 +34779,7 @@
         <v>8.0</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D22" s="10">
         <v>0.0</v>
@@ -34732,16 +34788,16 @@
         <v>1.0</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>83</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
@@ -34759,7 +34815,7 @@
         <v>9.0</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D23" s="10">
         <v>0.0</v>
@@ -34774,10 +34830,10 @@
         <v>83</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
@@ -34795,7 +34851,7 @@
         <v>10.0</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D24" s="10">
         <v>1.0</v>
@@ -34810,22 +34866,22 @@
         <v>83</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
@@ -34839,7 +34895,7 @@
         <v>10.0</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D25" s="10">
         <v>1.0</v>
@@ -34854,16 +34910,16 @@
         <v>83</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
@@ -34879,7 +34935,7 @@
         <v>10.0</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D26" s="10">
         <v>1.0</v>
@@ -34894,16 +34950,16 @@
         <v>83</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
@@ -34919,7 +34975,7 @@
         <v>10.0</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D27" s="10">
         <v>1.0</v>
@@ -34934,10 +34990,10 @@
         <v>83</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="14"/>
@@ -34954,7 +35010,7 @@
         <v>15.0</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D28" s="10">
         <v>1.0</v>
@@ -34969,7 +35025,7 @@
         <v>83</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
@@ -34988,7 +35044,7 @@
         <v>11.0</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D29" s="10">
         <v>0.0</v>
@@ -35003,10 +35059,10 @@
         <v>83</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
@@ -35024,7 +35080,7 @@
         <v>-11.0</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D30" s="10">
         <v>0.0</v>
@@ -35039,7 +35095,7 @@
         <v>83</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
@@ -35058,7 +35114,7 @@
         <v>12.0</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D31" s="10">
         <v>0.0</v>
@@ -35067,7 +35123,7 @@
         <v>1.0</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>83</v>
@@ -35090,7 +35146,7 @@
         <v>13.0</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D32" s="10">
         <v>0.0</v>
@@ -35105,10 +35161,10 @@
         <v>83</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
@@ -35126,7 +35182,7 @@
         <v>13.0</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D33" s="10">
         <v>0.0</v>
@@ -35141,7 +35197,7 @@
         <v>83</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
@@ -35160,7 +35216,7 @@
         <v>13.0</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D34" s="10">
         <v>0.0</v>
@@ -35175,7 +35231,7 @@
         <v>83</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
@@ -35194,7 +35250,7 @@
         <v>13.0</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D35" s="10">
         <v>0.0</v>
@@ -35209,7 +35265,7 @@
         <v>83</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
@@ -35228,7 +35284,7 @@
         <v>13.0</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D36" s="10">
         <v>0.0</v>
@@ -35243,7 +35299,7 @@
         <v>83</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
@@ -35262,7 +35318,7 @@
         <v>13.0</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D37" s="10">
         <v>1.0</v>
@@ -35277,7 +35333,7 @@
         <v>83</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
@@ -35296,7 +35352,7 @@
         <v>13.0</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D38" s="10">
         <v>0.0</v>
@@ -35311,7 +35367,7 @@
         <v>83</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
@@ -35330,7 +35386,7 @@
         <v>13.0</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D39" s="10">
         <v>0.0</v>
@@ -35345,7 +35401,7 @@
         <v>83</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
@@ -35363,7 +35419,7 @@
         <v>14.0</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D40" s="10">
         <v>1.0</v>
@@ -35378,10 +35434,10 @@
         <v>83</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
@@ -35399,7 +35455,7 @@
         <v>14.0</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D41" s="10">
         <v>0.0</v>
@@ -35408,13 +35464,13 @@
         <v>1.0</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I41" s="10"/>
       <c r="J41" s="11"/>
@@ -35433,7 +35489,7 @@
         <v>14.0</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D42" s="10">
         <v>0.0</v>
@@ -35442,16 +35498,16 @@
         <v>2.0</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
@@ -35469,7 +35525,7 @@
         <v>14.0</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D43" s="10">
         <v>0.0</v>
@@ -35478,16 +35534,16 @@
         <v>3.0</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
@@ -35505,7 +35561,7 @@
         <v>14.0</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D44" s="3">
         <v>0.0</v>
@@ -35514,13 +35570,13 @@
         <v>4.0</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="I44" s="14"/>
     </row>
@@ -35533,7 +35589,7 @@
         <v>14.0</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D45" s="3">
         <v>0.0</v>
@@ -35542,13 +35598,13 @@
         <v>5.0</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46">
@@ -35560,7 +35616,7 @@
         <v>14.0</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D46" s="3">
         <v>0.0</v>
@@ -35569,13 +35625,13 @@
         <v>6.0</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47">
@@ -36696,7 +36752,7 @@
         <v>2.0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C2" s="4">
         <v>0.0</v>
@@ -36711,16 +36767,16 @@
         <v>83</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="N2" s="18"/>
     </row>
@@ -36729,7 +36785,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C3" s="4">
         <v>1.0</v>
@@ -36744,16 +36800,16 @@
         <v>83</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
@@ -36764,7 +36820,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C4" s="4">
         <v>0.0</v>
@@ -36779,16 +36835,16 @@
         <v>83</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
@@ -36800,7 +36856,7 @@
         <v>5.0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C5" s="4">
         <v>0.0</v>
@@ -36815,16 +36871,16 @@
         <v>83</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="N5" s="18"/>
     </row>
@@ -36833,7 +36889,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C6" s="4">
         <v>1.0</v>
@@ -36848,16 +36904,16 @@
         <v>83</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
@@ -36868,7 +36924,7 @@
         <v>7.0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C7" s="4">
         <v>0.0</v>
@@ -36883,16 +36939,16 @@
         <v>83</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
@@ -36904,7 +36960,7 @@
         <v>9.0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C8" s="4">
         <v>0.0</v>
@@ -36919,10 +36975,10 @@
         <v>83</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9">
@@ -36930,7 +36986,7 @@
         <v>1.0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C9" s="4">
         <v>0.0</v>
@@ -36945,13 +37001,13 @@
         <v>83</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
@@ -36963,7 +37019,7 @@
         <v>1.0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C10" s="4">
         <v>0.0</v>
@@ -36978,7 +37034,7 @@
         <v>83</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
@@ -37138,7 +37194,7 @@
         <v>1.0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>18</v>
@@ -37173,7 +37229,7 @@
         <v>2.0</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>20</v>
@@ -37243,7 +37299,7 @@
         <v>4.0</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>20</v>
@@ -37313,7 +37369,7 @@
         <v>6.0</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>23</v>
@@ -37348,7 +37404,7 @@
         <v>7.0</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>20</v>
@@ -37383,10 +37439,10 @@
         <v>8.0</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E11" s="4">
         <v>0.0</v>
@@ -37421,7 +37477,7 @@
         <v>30</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E12" s="3">
         <v>0.0</v>
@@ -37523,7 +37579,7 @@
         <v>10.0</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>37</v>
